--- a/test/ws_ex_5.0.xlsx
+++ b/test/ws_ex_5.0.xlsx
@@ -9,12 +9,13 @@
   <sheets>
     <sheet name="Serie Id-67GH89BG" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Serie Id-34AE56JH" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Serie Id-D4DB0D6D" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Serie Id-0E2D7D42" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Serie Id-56TY87JG" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="FILTER Id-221A61C2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Serie Id-0CF20BB2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="INTERPOLATION Id-02133887" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Serie Id-B78A1F63" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Serie Id-159B0C5A" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Serie Id-D4DB0D6D" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Serie Id-56TY87JG" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="FILTER Id-221A61C2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Serie Id-0CF20BB2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="INTERPOLATION Id-02133887" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6816,17 +6817,17 @@
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>#44bae5</t>
+          <t>#9edae5</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>serie &lt;i&gt;&lt;b&gt;Id-34AE56JH&lt;/i&gt;&lt;/b&gt; filtered with FILTER &lt;i&gt;&lt;b&gt;Id-221A61C2&lt;/i&gt;&lt;/b&gt; with a moving average of size 5&lt;BR&gt;---&gt; serie &lt;i&gt;&lt;b&gt;Id-D4DB0D6D&lt;/b&gt;&lt;/i&gt;</t>
+          <t>serie &lt;i&gt;&lt;b&gt;Id-34AE56JH&lt;/i&gt;&lt;/b&gt; filtered with FILTER &lt;i&gt;&lt;b&gt;Id-38B7B69A&lt;/i&gt;&lt;/b&gt; with a moving average of size 5&lt;BR&gt;---&gt; serie &lt;i&gt;&lt;b&gt;Id-B78A1F63&lt;/b&gt;&lt;/i&gt;</t>
         </is>
       </c>
     </row>
@@ -9873,7 +9874,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L381"/>
+  <dimension ref="A1:H381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9881,24 +9882,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="1" max="1"/>
     <col width="27" customWidth="1" min="2" max="2"/>
-    <col width="23" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
     <col width="9" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="305" customWidth="1" min="8" max="8"/>
-    <col width="22" customWidth="1" min="9" max="9"/>
-    <col width="23" customWidth="1" min="10" max="10"/>
-    <col width="23" customWidth="1" min="11" max="11"/>
-    <col width="21" customWidth="1" min="12" max="12"/>
+    <col width="155" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>years</t>
+          <t>depthODP849 [cm]</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -9936,4243 +9933,3065 @@
           <t>History</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>InterpolationMode</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Reference
-X1Coords</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>X2Coords</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>depthODP849 [cm]</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>89.1832229580574</v>
+        <v>28</v>
       </c>
       <c r="B2" t="n">
         <v>0.01199999999999999</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Serie interpolated</t>
+          <t>Serie filtered</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>#d62728</t>
+          <t>#c49c94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>serie &lt;i&gt;&lt;b&gt;Id-34AE56JH&lt;/i&gt;&lt;/b&gt; filtered with FILTER &lt;i&gt;&lt;b&gt;Id-221A61C2&lt;/i&gt;&lt;/b&gt; with a moving average of size 5&lt;BR&gt;---&gt; serie &lt;i&gt;&lt;b&gt;Id-D4DB0D6D&lt;/b&gt;&lt;/i&gt;&lt;br&gt;serie &lt;i&gt;&lt;b&gt;Id-D4DB0D6D&lt;/i&gt;&lt;/b&gt; interpolated with INTERPOLATION &lt;i&gt;&lt;b&gt;Id-02133887&lt;/i&gt;&lt;/b&gt; with mode Linear&lt;BR&gt;---&gt; serie &lt;i&gt;&lt;b&gt;Id-0E2D7D42&lt;/b&gt;&lt;/i&gt;</t>
+          <t>serie &lt;i&gt;&lt;b&gt;Id-34AE56JH&lt;/i&gt;&lt;/b&gt; filtered with FILTER &lt;i&gt;&lt;b&gt;Id-3B1D5A1C&lt;/i&gt;&lt;/b&gt; with a moving average of size 5&lt;BR&gt;---&gt; serie &lt;i&gt;&lt;b&gt;Id-159B0C5A&lt;/b&gt;&lt;/i&gt;</t>
         </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Linear</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>149.1169977924945</v>
-      </c>
-      <c r="K2" t="n">
-        <v>782.8145695364238</v>
-      </c>
-      <c r="L2" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>90.5330566964432</v>
+        <v>45</v>
       </c>
       <c r="B3" t="n">
         <v>-0.082</v>
       </c>
-      <c r="J3" t="n">
-        <v>368.8741721854305</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3550.467991169978</v>
-      </c>
-      <c r="L3" t="n">
-        <v>45</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>91.3270765425525</v>
+        <v>55</v>
       </c>
       <c r="B4" t="n">
         <v>-0.122</v>
       </c>
-      <c r="L4" t="n">
-        <v>55</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>92.43870432710554</v>
+        <v>69</v>
       </c>
       <c r="B5" t="n">
         <v>-0.156</v>
       </c>
-      <c r="L5" t="n">
-        <v>69</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>94.02674401932414</v>
+        <v>89</v>
       </c>
       <c r="B6" t="n">
         <v>-0.116</v>
       </c>
-      <c r="L6" t="n">
-        <v>89</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>95.61478371154274</v>
+        <v>109</v>
       </c>
       <c r="B7" t="n">
         <v>-0.058</v>
       </c>
-      <c r="L7" t="n">
-        <v>109</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>96.32940157304111</v>
+        <v>118</v>
       </c>
       <c r="B8" t="n">
         <v>0.014</v>
       </c>
-      <c r="L8" t="n">
-        <v>118</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>97.12342141915042</v>
+        <v>128</v>
       </c>
       <c r="B9" t="n">
         <v>0.048</v>
       </c>
-      <c r="L9" t="n">
-        <v>128</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>97.99684324987065</v>
+        <v>139</v>
       </c>
       <c r="B10" t="n">
         <v>0.04000000000000001</v>
       </c>
-      <c r="L10" t="n">
-        <v>139</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>98.87026508059088</v>
+        <v>150</v>
       </c>
       <c r="B11" t="n">
         <v>0.044</v>
       </c>
-      <c r="L11" t="n">
-        <v>150</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>99.74368691131113</v>
+        <v>161</v>
       </c>
       <c r="B12" t="n">
         <v>0.03200000000000001</v>
       </c>
-      <c r="L12" t="n">
-        <v>161</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>101.6493345419734</v>
+        <v>185</v>
       </c>
       <c r="B13" t="n">
         <v>-0.03</v>
       </c>
-      <c r="L13" t="n">
-        <v>185</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>102.3639524034718</v>
+        <v>194</v>
       </c>
       <c r="B14" t="n">
         <v>-0.062</v>
       </c>
-      <c r="L14" t="n">
-        <v>194</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>104.1901980495232</v>
+        <v>217</v>
       </c>
       <c r="B15" t="n">
         <v>0.002000000000000002</v>
       </c>
-      <c r="L15" t="n">
-        <v>217</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>105.3018258340762</v>
+        <v>231</v>
       </c>
       <c r="B16" t="n">
         <v>0.014</v>
       </c>
-      <c r="L16" t="n">
-        <v>231</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>106.2546496494074</v>
+        <v>243</v>
       </c>
       <c r="B17" t="n">
         <v>0.07199999999999999</v>
       </c>
-      <c r="L17" t="n">
-        <v>243</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>106.731061557073</v>
+        <v>249</v>
       </c>
       <c r="B18" t="n">
         <v>0.108</v>
       </c>
-      <c r="L18" t="n">
-        <v>249</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>107.2868754493495</v>
+        <v>256</v>
       </c>
       <c r="B19" t="n">
         <v>0.154</v>
       </c>
-      <c r="L19" t="n">
-        <v>256</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>108.4779052185135</v>
+        <v>271</v>
       </c>
       <c r="B20" t="n">
         <v>0.138</v>
       </c>
-      <c r="L20" t="n">
-        <v>271</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>108.7955131569572</v>
+        <v>275</v>
       </c>
       <c r="B21" t="n">
         <v>0.154</v>
       </c>
-      <c r="L21" t="n">
-        <v>275</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>109.1925230800118</v>
+        <v>280</v>
       </c>
       <c r="B22" t="n">
         <v>0.146</v>
       </c>
-      <c r="L22" t="n">
-        <v>280</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>109.9071409415102</v>
+        <v>289</v>
       </c>
       <c r="B23" t="n">
         <v>0.192</v>
       </c>
-      <c r="L23" t="n">
-        <v>289</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>110.145346895343</v>
+        <v>292</v>
       </c>
       <c r="B24" t="n">
         <v>0.177</v>
       </c>
-      <c r="L24" t="n">
-        <v>292</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>110.4629548337867</v>
+        <v>296</v>
       </c>
       <c r="B25" t="n">
         <v>0.167</v>
       </c>
-      <c r="L25" t="n">
-        <v>296</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111.256974679896</v>
+        <v>306</v>
       </c>
       <c r="B26" t="n">
         <v>0.143</v>
       </c>
-      <c r="L26" t="n">
-        <v>306</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111.9715925413944</v>
+        <v>315</v>
       </c>
       <c r="B27" t="n">
         <v>0.08399999999999999</v>
       </c>
-      <c r="L27" t="n">
-        <v>315</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112.6862104028928</v>
+        <v>324</v>
       </c>
       <c r="B28" t="n">
         <v>0.06000000000000001</v>
       </c>
-      <c r="L28" t="n">
-        <v>324</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>113.4008282643911</v>
+        <v>333</v>
       </c>
       <c r="B29" t="n">
         <v>0.061</v>
       </c>
-      <c r="L29" t="n">
-        <v>333</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>114.2742500951114</v>
+        <v>344</v>
       </c>
       <c r="B30" t="n">
         <v>0.073</v>
       </c>
-      <c r="L30" t="n">
-        <v>344</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>115.1476719258316</v>
+        <v>355</v>
       </c>
       <c r="B31" t="n">
         <v>0.079</v>
       </c>
-      <c r="L31" t="n">
-        <v>355</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>116.0210937565518</v>
+        <v>366</v>
       </c>
       <c r="B32" t="n">
         <v>0.092</v>
       </c>
-      <c r="L32" t="n">
-        <v>366</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>116.8945155872721</v>
+        <v>377</v>
       </c>
       <c r="B33" t="n">
         <v>0.07199999999999999</v>
       </c>
-      <c r="L33" t="n">
-        <v>377</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>117.7679374179923</v>
+        <v>388</v>
       </c>
       <c r="B34" t="n">
         <v>0.01599999999999999</v>
       </c>
-      <c r="L34" t="n">
-        <v>388</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>118.5619572641016</v>
+        <v>398</v>
       </c>
       <c r="B35" t="n">
         <v>-0.09</v>
       </c>
-      <c r="L35" t="n">
-        <v>398</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>119.3559771102109</v>
+        <v>408</v>
       </c>
       <c r="B36" t="n">
         <v>-0.174</v>
       </c>
-      <c r="L36" t="n">
-        <v>408</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>120.1499969563202</v>
+        <v>418</v>
       </c>
       <c r="B37" t="n">
         <v>-0.234</v>
       </c>
-      <c r="L37" t="n">
-        <v>418</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>120.9440168024295</v>
+        <v>428</v>
       </c>
       <c r="B38" t="n">
         <v>-0.306</v>
       </c>
-      <c r="L38" t="n">
-        <v>428</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>121.6586346639279</v>
+        <v>437</v>
       </c>
       <c r="B39" t="n">
         <v>-0.35</v>
       </c>
-      <c r="L39" t="n">
-        <v>437</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>122.4526545100372</v>
+        <v>447</v>
       </c>
       <c r="B40" t="n">
         <v>-0.356</v>
       </c>
-      <c r="L40" t="n">
-        <v>447</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>123.1672723715355</v>
+        <v>456</v>
       </c>
       <c r="B41" t="n">
         <v>-0.346</v>
       </c>
-      <c r="L41" t="n">
-        <v>456</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>124.0406942022558</v>
+        <v>467</v>
       </c>
       <c r="B42" t="n">
         <v>-0.32</v>
       </c>
-      <c r="L42" t="n">
-        <v>467</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>124.8347140483651</v>
+        <v>477</v>
       </c>
       <c r="B43" t="n">
         <v>-0.336</v>
       </c>
-      <c r="L43" t="n">
-        <v>477</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>125.7081358790853</v>
+        <v>488</v>
       </c>
       <c r="B44" t="n">
         <v>-0.324</v>
       </c>
-      <c r="L44" t="n">
-        <v>488</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>126.5021557251946</v>
+        <v>498</v>
       </c>
       <c r="B45" t="n">
         <v>-0.3</v>
       </c>
-      <c r="L45" t="n">
-        <v>498</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>127.2961755713039</v>
+        <v>508</v>
       </c>
       <c r="B46" t="n">
         <v>-0.34</v>
       </c>
-      <c r="L46" t="n">
-        <v>508</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>128.0901954174132</v>
+        <v>518</v>
       </c>
       <c r="B47" t="n">
         <v>-0.381</v>
       </c>
-      <c r="L47" t="n">
-        <v>518</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>128.8842152635225</v>
+        <v>528</v>
       </c>
       <c r="B48" t="n">
         <v>-0.3150000000000001</v>
       </c>
-      <c r="L48" t="n">
-        <v>528</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>129.6782351096318</v>
+        <v>538</v>
       </c>
       <c r="B49" t="n">
         <v>-0.298</v>
       </c>
-      <c r="L49" t="n">
-        <v>538</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>130.4722549557411</v>
+        <v>548</v>
       </c>
       <c r="B50" t="n">
         <v>-0.3</v>
       </c>
-      <c r="L50" t="n">
-        <v>548</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131.2662748018504</v>
+        <v>558</v>
       </c>
       <c r="B51" t="n">
         <v>-0.28</v>
       </c>
-      <c r="L51" t="n">
-        <v>558</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>132.0602946479598</v>
+        <v>568</v>
       </c>
       <c r="B52" t="n">
         <v>-0.266</v>
       </c>
-      <c r="L52" t="n">
-        <v>568</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>132.8543144940691</v>
+        <v>578</v>
       </c>
       <c r="B53" t="n">
         <v>-0.322</v>
       </c>
-      <c r="L53" t="n">
-        <v>578</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>133.7277363247893</v>
+        <v>589</v>
       </c>
       <c r="B54" t="n">
         <v>-0.345</v>
       </c>
-      <c r="L54" t="n">
-        <v>589</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>134.5217561708986</v>
+        <v>599</v>
       </c>
       <c r="B55" t="n">
         <v>-0.369</v>
       </c>
-      <c r="L55" t="n">
-        <v>599</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>135.236374032397</v>
+        <v>608</v>
       </c>
       <c r="B56" t="n">
         <v>-0.367</v>
       </c>
-      <c r="L56" t="n">
-        <v>608</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>136.0303938785063</v>
+        <v>618</v>
       </c>
       <c r="B57" t="n">
         <v>-0.329</v>
       </c>
-      <c r="L57" t="n">
-        <v>618</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>136.8244137246156</v>
+        <v>628</v>
       </c>
       <c r="B58" t="n">
         <v>-0.248</v>
       </c>
-      <c r="L58" t="n">
-        <v>628</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>137.6184335707249</v>
+        <v>638</v>
       </c>
       <c r="B59" t="n">
         <v>-0.166</v>
       </c>
-      <c r="L59" t="n">
-        <v>638</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>138.3330514322232</v>
+        <v>647</v>
       </c>
       <c r="B60" t="n">
         <v>-0.104</v>
       </c>
-      <c r="L60" t="n">
-        <v>647</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>139.1270712783326</v>
+        <v>657</v>
       </c>
       <c r="B61" t="n">
         <v>-0.05300000000000001</v>
       </c>
-      <c r="L61" t="n">
-        <v>657</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>139.9210911244419</v>
+        <v>667</v>
       </c>
       <c r="B62" t="n">
         <v>-0.03466</v>
       </c>
-      <c r="L62" t="n">
-        <v>667</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>140.7151109705511</v>
+        <v>677</v>
       </c>
       <c r="B63" t="n">
         <v>-0.01166</v>
       </c>
-      <c r="L63" t="n">
-        <v>677</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>141.5885328012714</v>
+        <v>688</v>
       </c>
       <c r="B64" t="n">
         <v>-0.01766</v>
       </c>
-      <c r="L64" t="n">
-        <v>688</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>142.3825526473807</v>
+        <v>698</v>
       </c>
       <c r="B65" t="n">
         <v>-0.01766</v>
       </c>
-      <c r="L65" t="n">
-        <v>698</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>143.17657249349</v>
+        <v>708</v>
       </c>
       <c r="B66" t="n">
         <v>-0.04666</v>
       </c>
-      <c r="L66" t="n">
-        <v>708</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>143.9705923395993</v>
+        <v>718</v>
       </c>
       <c r="B67" t="n">
         <v>-0.082</v>
       </c>
-      <c r="L67" t="n">
-        <v>718</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>144.7646121857086</v>
+        <v>728</v>
       </c>
       <c r="B68" t="n">
         <v>-0.185</v>
       </c>
-      <c r="L68" t="n">
-        <v>728</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>145.479230047207</v>
+        <v>737</v>
       </c>
       <c r="B69" t="n">
         <v>-0.278</v>
       </c>
-      <c r="L69" t="n">
-        <v>737</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>146.2732498933163</v>
+        <v>747</v>
       </c>
       <c r="B70" t="n">
         <v>-0.344</v>
       </c>
-      <c r="L70" t="n">
-        <v>747</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>146.9878677548146</v>
+        <v>756</v>
       </c>
       <c r="B71" t="n">
         <v>-0.336</v>
       </c>
-      <c r="L71" t="n">
-        <v>756</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>147.0672697394256</v>
+        <v>757</v>
       </c>
       <c r="B72" t="n">
         <v>-0.314</v>
       </c>
-      <c r="L72" t="n">
-        <v>757</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>147.7818876009239</v>
+        <v>766</v>
       </c>
       <c r="B73" t="n">
         <v>-0.203</v>
       </c>
-      <c r="L73" t="n">
-        <v>766</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>148.7347114162551</v>
+        <v>778</v>
       </c>
       <c r="B74" t="n">
         <v>-0.134</v>
       </c>
-      <c r="L74" t="n">
-        <v>778</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>149.7669372161972</v>
+        <v>791</v>
       </c>
       <c r="B75" t="n">
         <v>-0.114</v>
       </c>
-      <c r="L75" t="n">
-        <v>791</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>150.7197610315284</v>
+        <v>803</v>
       </c>
       <c r="B76" t="n">
         <v>-0.176</v>
       </c>
-      <c r="L76" t="n">
-        <v>803</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>151.5137808776377</v>
+        <v>813</v>
       </c>
       <c r="B77" t="n">
         <v>-0.21</v>
       </c>
-      <c r="L77" t="n">
-        <v>813</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>152.3872027083579</v>
+        <v>824</v>
       </c>
       <c r="B78" t="n">
         <v>-0.296</v>
       </c>
-      <c r="L78" t="n">
-        <v>824</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>153.2606245390781</v>
+        <v>835</v>
       </c>
       <c r="B79" t="n">
         <v>-0.35</v>
       </c>
-      <c r="L79" t="n">
-        <v>835</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>154.3722523236312</v>
+        <v>849</v>
       </c>
       <c r="B80" t="n">
         <v>-0.405</v>
       </c>
-      <c r="L80" t="n">
-        <v>849</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>155.3250761389623</v>
+        <v>861</v>
       </c>
       <c r="B81" t="n">
         <v>-0.369</v>
       </c>
-      <c r="L81" t="n">
-        <v>861</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>156.1190959850716</v>
+        <v>871</v>
       </c>
       <c r="B82" t="n">
         <v>-0.387</v>
       </c>
-      <c r="L82" t="n">
-        <v>871</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>156.7543118619591</v>
+        <v>879</v>
       </c>
       <c r="B83" t="n">
         <v>-0.4470000000000001</v>
       </c>
-      <c r="L83" t="n">
-        <v>879</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>157.5483317080684</v>
+        <v>889</v>
       </c>
       <c r="B84" t="n">
         <v>-0.441</v>
       </c>
-      <c r="L84" t="n">
-        <v>889</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>158.0247436157339</v>
+        <v>895</v>
       </c>
       <c r="B85" t="n">
         <v>-0.374</v>
       </c>
-      <c r="L85" t="n">
-        <v>895</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>158.8187634618432</v>
+        <v>905</v>
       </c>
       <c r="B86" t="n">
         <v>-0.329</v>
       </c>
-      <c r="L86" t="n">
-        <v>905</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>159.6921852925635</v>
+        <v>916</v>
       </c>
       <c r="B87" t="n">
         <v>-0.319</v>
       </c>
-      <c r="L87" t="n">
-        <v>916</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>160.5656071232837</v>
+        <v>927</v>
       </c>
       <c r="B88" t="n">
         <v>-0.261</v>
       </c>
-      <c r="L88" t="n">
-        <v>927</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>161.359626969393</v>
+        <v>937</v>
       </c>
       <c r="B89" t="n">
         <v>-0.219</v>
       </c>
-      <c r="L89" t="n">
-        <v>937</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>162.2330488001133</v>
+        <v>948</v>
       </c>
       <c r="B90" t="n">
         <v>-0.237</v>
       </c>
-      <c r="L90" t="n">
-        <v>948</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>163.1858726154444</v>
+        <v>960</v>
       </c>
       <c r="B91" t="n">
         <v>-0.264</v>
       </c>
-      <c r="L91" t="n">
-        <v>960</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>164.1386964307756</v>
+        <v>972</v>
       </c>
       <c r="B92" t="n">
         <v>-0.19</v>
       </c>
-      <c r="L92" t="n">
-        <v>972</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>164.9327162768849</v>
+        <v>982</v>
       </c>
       <c r="B93" t="n">
         <v>-0.15466</v>
       </c>
-      <c r="L93" t="n">
-        <v>982</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>165.5679321537723</v>
+        <v>990</v>
       </c>
       <c r="B94" t="n">
         <v>-0.10266</v>
       </c>
-      <c r="L94" t="n">
-        <v>990</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>166.0443440614379</v>
+        <v>996</v>
       </c>
       <c r="B95" t="n">
         <v>-0.03266</v>
       </c>
-      <c r="L95" t="n">
-        <v>996</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>166.6001579537144</v>
+        <v>1003</v>
       </c>
       <c r="B96" t="n">
         <v>0.03534</v>
       </c>
-      <c r="L96" t="n">
-        <v>1003</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>167.3147758152128</v>
+        <v>1012</v>
       </c>
       <c r="B97" t="n">
         <v>0.07334</v>
       </c>
-      <c r="L97" t="n">
-        <v>1012</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>168.4264035997658</v>
+        <v>1026</v>
       </c>
       <c r="B98" t="n">
         <v>0.08299999999999999</v>
       </c>
-      <c r="L98" t="n">
-        <v>1026</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>169.6174333689298</v>
+        <v>1041</v>
       </c>
       <c r="B99" t="n">
         <v>0.06199999999999999</v>
       </c>
-      <c r="L99" t="n">
-        <v>1041</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>170.49085519965</v>
+        <v>1052</v>
       </c>
       <c r="B100" t="n">
         <v>0.026</v>
       </c>
-      <c r="L100" t="n">
-        <v>1052</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>171.0466690919265</v>
+        <v>1059</v>
       </c>
       <c r="B101" t="n">
         <v>-0.052</v>
       </c>
-      <c r="L101" t="n">
-        <v>1059</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>172.3171008457014</v>
+        <v>1075</v>
       </c>
       <c r="B102" t="n">
         <v>-0.126</v>
       </c>
-      <c r="L102" t="n">
-        <v>1075</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>173.5081306148654</v>
+        <v>1090</v>
       </c>
       <c r="B103" t="n">
         <v>-0.175</v>
       </c>
-      <c r="L103" t="n">
-        <v>1090</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>174.6991603840293</v>
+        <v>1105</v>
       </c>
       <c r="B104" t="n">
         <v>-0.235</v>
       </c>
-      <c r="L104" t="n">
-        <v>1105</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>175.6519841993605</v>
+        <v>1117</v>
       </c>
       <c r="B105" t="n">
         <v>-0.243</v>
       </c>
-      <c r="L105" t="n">
-        <v>1117</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>175.8107881685823</v>
+        <v>1119</v>
       </c>
       <c r="B106" t="n">
         <v>-0.253</v>
       </c>
-      <c r="L106" t="n">
-        <v>1119</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>176.2872000762479</v>
+        <v>1125</v>
       </c>
       <c r="B107" t="n">
         <v>-0.305</v>
       </c>
-      <c r="L107" t="n">
-        <v>1125</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>177.2400238915791</v>
+        <v>1137</v>
       </c>
       <c r="B108" t="n">
         <v>-0.281</v>
       </c>
-      <c r="L108" t="n">
-        <v>1137</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>177.4782298454119</v>
+        <v>1140</v>
       </c>
       <c r="B109" t="n">
         <v>-0.296</v>
       </c>
-      <c r="L109" t="n">
-        <v>1140</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>177.9546417530775</v>
+        <v>1146</v>
       </c>
       <c r="B110" t="n">
         <v>-0.3139999999999999</v>
       </c>
-      <c r="L110" t="n">
-        <v>1146</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>178.0340437376884</v>
+        <v>1147</v>
       </c>
       <c r="B111" t="n">
         <v>-0.304</v>
       </c>
-      <c r="L111" t="n">
-        <v>1147</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>178.9074655684086</v>
+        <v>1158</v>
       </c>
       <c r="B112" t="n">
         <v>-0.238</v>
       </c>
-      <c r="L112" t="n">
-        <v>1158</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>180.0190933529616</v>
+        <v>1172</v>
       </c>
       <c r="B113" t="n">
         <v>-0.217</v>
       </c>
-      <c r="L113" t="n">
-        <v>1172</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>180.813113199071</v>
+        <v>1182</v>
       </c>
       <c r="B114" t="n">
         <v>-0.203</v>
       </c>
-      <c r="L114" t="n">
-        <v>1182</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>181.6071330451803</v>
+        <v>1192</v>
       </c>
       <c r="B115" t="n">
         <v>-0.134</v>
       </c>
-      <c r="L115" t="n">
-        <v>1192</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>182.4805548759005</v>
+        <v>1203</v>
       </c>
       <c r="B116" t="n">
         <v>-0.094</v>
       </c>
-      <c r="L116" t="n">
-        <v>1203</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>183.1951727373988</v>
+        <v>1212</v>
       </c>
       <c r="B117" t="n">
         <v>-0.08700000000000002</v>
       </c>
-      <c r="L117" t="n">
-        <v>1212</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>183.9891925835082</v>
+        <v>1222</v>
       </c>
       <c r="B118" t="n">
         <v>-0.08400000000000001</v>
       </c>
-      <c r="L118" t="n">
-        <v>1222</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>184.7832124296175</v>
+        <v>1232</v>
       </c>
       <c r="B119" t="n">
         <v>0.058</v>
       </c>
-      <c r="L119" t="n">
-        <v>1232</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>186.3712521218361</v>
+        <v>1252</v>
       </c>
       <c r="B120" t="n">
         <v>0.08499999999999999</v>
       </c>
-      <c r="L120" t="n">
-        <v>1252</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>187.1652719679454</v>
+        <v>1262</v>
       </c>
       <c r="B121" t="n">
         <v>0.161</v>
       </c>
-      <c r="L121" t="n">
-        <v>1262</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>187.9592918140547</v>
+        <v>1272</v>
       </c>
       <c r="B122" t="n">
         <v>0.08800000000000001</v>
       </c>
-      <c r="L122" t="n">
-        <v>1272</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>190.6589592908263</v>
+        <v>1306</v>
       </c>
       <c r="B123" t="n">
         <v>0.03399999999999997</v>
       </c>
-      <c r="L123" t="n">
-        <v>1306</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>192.4058029522668</v>
+        <v>1328</v>
       </c>
       <c r="B124" t="n">
         <v>-0.124</v>
       </c>
-      <c r="L124" t="n">
-        <v>1328</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>194.7878624905947</v>
+        <v>1358</v>
       </c>
       <c r="B125" t="n">
         <v>-0.233</v>
       </c>
-      <c r="L125" t="n">
-        <v>1358</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>195.2642743982603</v>
+        <v>1364</v>
       </c>
       <c r="B126" t="n">
         <v>-0.3749999999999999</v>
       </c>
-      <c r="L126" t="n">
-        <v>1364</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>195.6612843213149</v>
+        <v>1369</v>
       </c>
       <c r="B127" t="n">
         <v>-0.341</v>
       </c>
-      <c r="L127" t="n">
-        <v>1369</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>196.6141081366461</v>
+        <v>1381</v>
       </c>
       <c r="B128" t="n">
         <v>-0.335</v>
       </c>
-      <c r="L128" t="n">
-        <v>1381</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>197.1699220289226</v>
+        <v>1388</v>
       </c>
       <c r="B129" t="n">
         <v>-0.263</v>
       </c>
-      <c r="L129" t="n">
-        <v>1388</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>197.7257359211991</v>
+        <v>1395</v>
       </c>
       <c r="B130" t="n">
         <v>-0.278</v>
       </c>
-      <c r="L130" t="n">
-        <v>1395</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>198.3609517980865</v>
+        <v>1403</v>
       </c>
       <c r="B131" t="n">
         <v>-0.238</v>
       </c>
-      <c r="L131" t="n">
-        <v>1403</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>199.2343736288068</v>
+        <v>1414</v>
       </c>
       <c r="B132" t="n">
         <v>-0.224</v>
       </c>
-      <c r="L132" t="n">
-        <v>1414</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>200.9812172902472</v>
+        <v>1436</v>
       </c>
       <c r="B133" t="n">
         <v>-0.22</v>
       </c>
-      <c r="L133" t="n">
-        <v>1436</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>201.6164331671347</v>
+        <v>1444</v>
       </c>
       <c r="B134" t="n">
         <v>-0.25</v>
       </c>
-      <c r="L134" t="n">
-        <v>1444</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>202.3310510286331</v>
+        <v>1453</v>
       </c>
       <c r="B135" t="n">
         <v>-0.204</v>
       </c>
-      <c r="L135" t="n">
-        <v>1453</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>203.2044728593533</v>
+        <v>1464</v>
       </c>
       <c r="B136" t="n">
         <v>-0.09399999999999999</v>
       </c>
-      <c r="L136" t="n">
-        <v>1464</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>204.0778946900735</v>
+        <v>1475</v>
       </c>
       <c r="B137" t="n">
         <v>-0.0006800000000000029</v>
       </c>
-      <c r="L137" t="n">
-        <v>1475</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>205.0307185054047</v>
+        <v>1487</v>
       </c>
       <c r="B138" t="n">
         <v>0.19532</v>
       </c>
-      <c r="L138" t="n">
-        <v>1487</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>205.9041403361249</v>
+        <v>1498</v>
       </c>
       <c r="B139" t="n">
         <v>0.3133199999999999</v>
       </c>
-      <c r="L139" t="n">
-        <v>1498</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>207.4921800283435</v>
+        <v>1518</v>
       </c>
       <c r="B140" t="n">
         <v>0.41132</v>
       </c>
-      <c r="L140" t="n">
-        <v>1518</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>208.2067978898419</v>
+        <v>1527</v>
       </c>
       <c r="B141" t="n">
         <v>0.4003200000000001</v>
       </c>
-      <c r="L141" t="n">
-        <v>1527</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>209.0008177359512</v>
+        <v>1537</v>
       </c>
       <c r="B142" t="n">
         <v>0.3689999999999999</v>
       </c>
-      <c r="L142" t="n">
-        <v>1537</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>209.7948375820605</v>
+        <v>1547</v>
       </c>
       <c r="B143" t="n">
         <v>0.293</v>
       </c>
-      <c r="L143" t="n">
-        <v>1547</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>210.5888574281698</v>
+        <v>1557</v>
       </c>
       <c r="B144" t="n">
         <v>0.275</v>
       </c>
-      <c r="L144" t="n">
-        <v>1557</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>211.3828772742791</v>
+        <v>1567</v>
       </c>
       <c r="B145" t="n">
         <v>0.265</v>
       </c>
-      <c r="L145" t="n">
-        <v>1567</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>212.1768971203884</v>
+        <v>1577</v>
       </c>
       <c r="B146" t="n">
         <v>0.244</v>
       </c>
-      <c r="L146" t="n">
-        <v>1577</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>212.9709169664977</v>
+        <v>1587</v>
       </c>
       <c r="B147" t="n">
         <v>0.208</v>
       </c>
-      <c r="L147" t="n">
-        <v>1587</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>213.764936812607</v>
+        <v>1597</v>
       </c>
       <c r="B148" t="n">
         <v>0.126</v>
       </c>
-      <c r="L148" t="n">
-        <v>1597</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>214.5589566587163</v>
+        <v>1607</v>
       </c>
       <c r="B149" t="n">
         <v>0.005999999999999994</v>
       </c>
-      <c r="L149" t="n">
-        <v>1607</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>215.3529765048256</v>
+        <v>1617</v>
       </c>
       <c r="B150" t="n">
         <v>-0.074</v>
       </c>
-      <c r="L150" t="n">
-        <v>1617</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>216.9410161970442</v>
+        <v>1637</v>
       </c>
       <c r="B151" t="n">
         <v>-0.15</v>
       </c>
-      <c r="L151" t="n">
-        <v>1637</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>217.7350360431535</v>
+        <v>1647</v>
       </c>
       <c r="B152" t="n">
         <v>-0.19</v>
       </c>
-      <c r="L152" t="n">
-        <v>1647</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>218.5290558892628</v>
+        <v>1657</v>
       </c>
       <c r="B153" t="n">
         <v>-0.174</v>
       </c>
-      <c r="L153" t="n">
-        <v>1657</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>219.3230757353721</v>
+        <v>1667</v>
       </c>
       <c r="B154" t="n">
         <v>-0.117</v>
       </c>
-      <c r="L154" t="n">
-        <v>1667</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>220.1170955814814</v>
+        <v>1677</v>
       </c>
       <c r="B155" t="n">
         <v>-0.129</v>
       </c>
-      <c r="L155" t="n">
-        <v>1677</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>220.9111154275907</v>
+        <v>1687</v>
       </c>
       <c r="B156" t="n">
         <v>-0.089</v>
       </c>
-      <c r="L156" t="n">
-        <v>1687</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>221.7051352737</v>
+        <v>1697</v>
       </c>
       <c r="B157" t="n">
         <v>-0.06699999999999999</v>
       </c>
-      <c r="L157" t="n">
-        <v>1697</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>222.4991551198094</v>
+        <v>1707</v>
       </c>
       <c r="B158" t="n">
         <v>-0.045</v>
       </c>
-      <c r="L158" t="n">
-        <v>1707</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>223.2931749659186</v>
+        <v>1717</v>
       </c>
       <c r="B159" t="n">
         <v>-0.02867999999999999</v>
       </c>
-      <c r="L159" t="n">
-        <v>1717</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>224.8812146581373</v>
+        <v>1737</v>
       </c>
       <c r="B160" t="n">
         <v>0.02132</v>
       </c>
-      <c r="L160" t="n">
-        <v>1737</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>225.6752345042466</v>
+        <v>1747</v>
       </c>
       <c r="B161" t="n">
         <v>-0.03668</v>
       </c>
-      <c r="L161" t="n">
-        <v>1747</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>226.4692543503559</v>
+        <v>1757</v>
       </c>
       <c r="B162" t="n">
         <v>-0.02467999999999999</v>
       </c>
-      <c r="L162" t="n">
-        <v>1757</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>227.2632741964651</v>
+        <v>1767</v>
       </c>
       <c r="B163" t="n">
         <v>-0.06667999999999999</v>
       </c>
-      <c r="L163" t="n">
-        <v>1767</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>228.0572940425745</v>
+        <v>1777</v>
       </c>
       <c r="B164" t="n">
         <v>-0.148</v>
       </c>
-      <c r="L164" t="n">
-        <v>1777</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>228.8513138886838</v>
+        <v>1787</v>
       </c>
       <c r="B165" t="n">
         <v>-0.206</v>
       </c>
-      <c r="L165" t="n">
-        <v>1787</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>229.6453337347931</v>
+        <v>1797</v>
       </c>
       <c r="B166" t="n">
         <v>-0.146</v>
       </c>
-      <c r="L166" t="n">
-        <v>1797</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>230.4393535809024</v>
+        <v>1807</v>
       </c>
       <c r="B167" t="n">
         <v>-0.124</v>
       </c>
-      <c r="L167" t="n">
-        <v>1807</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>231.2333734270117</v>
+        <v>1817</v>
       </c>
       <c r="B168" t="n">
         <v>-0.09</v>
       </c>
-      <c r="L168" t="n">
-        <v>1817</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>232.027393273121</v>
+        <v>1827</v>
       </c>
       <c r="B169" t="n">
         <v>-0.009999999999999998</v>
       </c>
-      <c r="L169" t="n">
-        <v>1827</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>232.8214131192303</v>
+        <v>1837</v>
       </c>
       <c r="B170" t="n">
         <v>-5.551115123125783e-18</v>
       </c>
-      <c r="L170" t="n">
-        <v>1837</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>233.6154329653396</v>
+        <v>1847</v>
       </c>
       <c r="B171" t="n">
         <v>-0.074</v>
       </c>
-      <c r="L171" t="n">
-        <v>1847</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>234.4094528114489</v>
+        <v>1857</v>
       </c>
       <c r="B172" t="n">
         <v>-0.138</v>
       </c>
-      <c r="L172" t="n">
-        <v>1857</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>235.2034726575582</v>
+        <v>1867</v>
       </c>
       <c r="B173" t="n">
         <v>-0.2</v>
       </c>
-      <c r="L173" t="n">
-        <v>1867</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>236.7915123497768</v>
+        <v>1887</v>
       </c>
       <c r="B174" t="n">
         <v>-0.258</v>
       </c>
-      <c r="L174" t="n">
-        <v>1887</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>237.5855321958861</v>
+        <v>1897</v>
       </c>
       <c r="B175" t="n">
         <v>-0.234</v>
       </c>
-      <c r="L175" t="n">
-        <v>1897</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>238.0619441035517</v>
+        <v>1903</v>
       </c>
       <c r="B176" t="n">
         <v>-0.246</v>
       </c>
-      <c r="L176" t="n">
-        <v>1903</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>238.3795520419954</v>
+        <v>1907</v>
       </c>
       <c r="B177" t="n">
         <v>-0.272</v>
       </c>
-      <c r="L177" t="n">
-        <v>1907</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>239.0147679188829</v>
+        <v>1915</v>
       </c>
       <c r="B178" t="n">
         <v>-0.294</v>
       </c>
-      <c r="L178" t="n">
-        <v>1915</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>239.967591734214</v>
+        <v>1927</v>
       </c>
       <c r="B179" t="n">
         <v>-0.346</v>
       </c>
-      <c r="L179" t="n">
-        <v>1927</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>240.8410135649343</v>
+        <v>1938</v>
       </c>
       <c r="B180" t="n">
         <v>-0.462</v>
       </c>
-      <c r="L180" t="n">
-        <v>1938</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>241.6350334110435</v>
+        <v>1948</v>
       </c>
       <c r="B181" t="n">
         <v>-0.51</v>
       </c>
-      <c r="L181" t="n">
-        <v>1948</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>242.3496512725419</v>
+        <v>1957</v>
       </c>
       <c r="B182" t="n">
         <v>-0.5660000000000001</v>
       </c>
-      <c r="L182" t="n">
-        <v>1957</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>243.0642691340403</v>
+        <v>1966</v>
       </c>
       <c r="B183" t="n">
         <v>-0.604</v>
       </c>
-      <c r="L183" t="n">
-        <v>1966</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>243.7788869955387</v>
+        <v>1975</v>
       </c>
       <c r="B184" t="n">
         <v>-0.6</v>
       </c>
-      <c r="L184" t="n">
-        <v>1975</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>244.572906841648</v>
+        <v>1985</v>
       </c>
       <c r="B185" t="n">
         <v>-0.552</v>
       </c>
-      <c r="L185" t="n">
-        <v>1985</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>245.3669266877573</v>
+        <v>1995</v>
       </c>
       <c r="B186" t="n">
         <v>-0.468</v>
       </c>
-      <c r="L186" t="n">
-        <v>1995</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>246.2403485184775</v>
+        <v>2006</v>
       </c>
       <c r="B187" t="n">
         <v>-0.4</v>
       </c>
-      <c r="L187" t="n">
-        <v>2006</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>247.1137703491978</v>
+        <v>2017</v>
       </c>
       <c r="B188" t="n">
         <v>-0.32</v>
       </c>
-      <c r="L188" t="n">
-        <v>2017</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>247.987192179918</v>
+        <v>2028</v>
       </c>
       <c r="B189" t="n">
         <v>-0.244</v>
       </c>
-      <c r="L189" t="n">
-        <v>2028</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>248.7812120260273</v>
+        <v>2038</v>
       </c>
       <c r="B190" t="n">
         <v>-0.156</v>
       </c>
-      <c r="L190" t="n">
-        <v>2038</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>249.4958298875256</v>
+        <v>2047</v>
       </c>
       <c r="B191" t="n">
         <v>-0.05999999999999998</v>
       </c>
-      <c r="L191" t="n">
-        <v>2047</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>250.1310457644131</v>
+        <v>2055</v>
       </c>
       <c r="B192" t="n">
         <v>-0.01600000000000001</v>
       </c>
-      <c r="L192" t="n">
-        <v>2055</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>250.7662616413005</v>
+        <v>2063</v>
       </c>
       <c r="B193" t="n">
         <v>0.004000000000000001</v>
       </c>
-      <c r="L193" t="n">
-        <v>2063</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>251.322075533577</v>
+        <v>2070</v>
       </c>
       <c r="B194" t="n">
         <v>0.03</v>
       </c>
-      <c r="L194" t="n">
-        <v>2070</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>251.401477518188</v>
+        <v>2071</v>
       </c>
       <c r="B195" t="n">
         <v>-0.011</v>
       </c>
-      <c r="L195" t="n">
-        <v>2071</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>251.9572914104645</v>
+        <v>2078</v>
       </c>
       <c r="B196" t="n">
         <v>-0.093</v>
       </c>
-      <c r="L196" t="n">
-        <v>2078</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>252.513105302741</v>
+        <v>2085</v>
       </c>
       <c r="B197" t="n">
         <v>-0.113</v>
       </c>
-      <c r="L197" t="n">
-        <v>2085</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>253.0689191950175</v>
+        <v>2092</v>
       </c>
       <c r="B198" t="n">
         <v>-0.123</v>
       </c>
-      <c r="L198" t="n">
-        <v>2092</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>253.7041350719049</v>
+        <v>2100</v>
       </c>
       <c r="B199" t="n">
         <v>-0.195</v>
       </c>
-      <c r="L199" t="n">
-        <v>2100</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>254.9745668256799</v>
+        <v>2116</v>
       </c>
       <c r="B200" t="n">
         <v>-0.22</v>
       </c>
-      <c r="L200" t="n">
-        <v>2116</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>255.5303807179563</v>
+        <v>2123</v>
       </c>
       <c r="B201" t="n">
         <v>-0.248</v>
       </c>
-      <c r="L201" t="n">
-        <v>2123</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>255.6097827025673</v>
+        <v>2124</v>
       </c>
       <c r="B202" t="n">
         <v>-0.212</v>
       </c>
-      <c r="L202" t="n">
-        <v>2124</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>256.3244005640656</v>
+        <v>2133</v>
       </c>
       <c r="B203" t="n">
         <v>-0.204</v>
       </c>
-      <c r="L203" t="n">
-        <v>2133</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>256.9596164409531</v>
+        <v>2141</v>
       </c>
       <c r="B204" t="n">
         <v>-0.184</v>
       </c>
-      <c r="L204" t="n">
-        <v>2141</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>257.039018425564</v>
+        <v>2142</v>
       </c>
       <c r="B205" t="n">
         <v>-0.182</v>
       </c>
-      <c r="L205" t="n">
-        <v>2142</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>257.6742343024515</v>
+        <v>2150</v>
       </c>
       <c r="B206" t="n">
         <v>-0.202</v>
       </c>
-      <c r="L206" t="n">
-        <v>2150</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>258.3888521639499</v>
+        <v>2159</v>
       </c>
       <c r="B207" t="n">
         <v>-0.285</v>
       </c>
-      <c r="L207" t="n">
-        <v>2159</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>259.0240680408373</v>
+        <v>2167</v>
       </c>
       <c r="B208" t="n">
         <v>-0.353</v>
       </c>
-      <c r="L208" t="n">
-        <v>2167</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>259.6592839177247</v>
+        <v>2175</v>
       </c>
       <c r="B209" t="n">
         <v>-0.402</v>
       </c>
-      <c r="L209" t="n">
-        <v>2175</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>260.3739017792231</v>
+        <v>2184</v>
       </c>
       <c r="B210" t="n">
         <v>-0.4359999999999999</v>
       </c>
-      <c r="L210" t="n">
-        <v>2184</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>261.0885196407215</v>
+        <v>2193</v>
       </c>
       <c r="B211" t="n">
         <v>-0.412</v>
       </c>
-      <c r="L211" t="n">
-        <v>2193</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>261.8825394868308</v>
+        <v>2203</v>
       </c>
       <c r="B212" t="n">
         <v>-0.364</v>
       </c>
-      <c r="L212" t="n">
-        <v>2203</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>262.6765593329401</v>
+        <v>2213</v>
       </c>
       <c r="B213" t="n">
         <v>-0.274</v>
       </c>
-      <c r="L213" t="n">
-        <v>2213</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>263.5499811636603</v>
+        <v>2224</v>
       </c>
       <c r="B214" t="n">
         <v>-0.161</v>
       </c>
-      <c r="L214" t="n">
-        <v>2224</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>264.4234029943805</v>
+        <v>2235</v>
       </c>
       <c r="B215" t="n">
         <v>-0.113</v>
       </c>
-      <c r="L215" t="n">
-        <v>2235</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>265.2968248251008</v>
+        <v>2246</v>
       </c>
       <c r="B216" t="n">
         <v>-0.101</v>
       </c>
-      <c r="L216" t="n">
-        <v>2246</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>266.170246655821</v>
+        <v>2257</v>
       </c>
       <c r="B217" t="n">
         <v>-0.13</v>
       </c>
-      <c r="L217" t="n">
-        <v>2257</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>266.9642665019303</v>
+        <v>2267</v>
       </c>
       <c r="B218" t="n">
         <v>-0.254</v>
       </c>
-      <c r="L218" t="n">
-        <v>2267</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>267.6788843634287</v>
+        <v>2276</v>
       </c>
       <c r="B219" t="n">
         <v>-0.378</v>
       </c>
-      <c r="L219" t="n">
-        <v>2276</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>268.393502224927</v>
+        <v>2285</v>
       </c>
       <c r="B220" t="n">
         <v>-0.456</v>
       </c>
-      <c r="L220" t="n">
-        <v>2285</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>269.1081200864254</v>
+        <v>2294</v>
       </c>
       <c r="B221" t="n">
         <v>-0.4699999999999999</v>
       </c>
-      <c r="L221" t="n">
-        <v>2294</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>269.8227379479238</v>
+        <v>2303</v>
       </c>
       <c r="B222" t="n">
         <v>-0.449</v>
       </c>
-      <c r="L222" t="n">
-        <v>2303</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>270.5373558094222</v>
+        <v>2312</v>
       </c>
       <c r="B223" t="n">
         <v>-0.387</v>
       </c>
-      <c r="L223" t="n">
-        <v>2312</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>271.3313756555315</v>
+        <v>2322</v>
       </c>
       <c r="B224" t="n">
         <v>-0.3169999999999999</v>
       </c>
-      <c r="L224" t="n">
-        <v>2322</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>272.2841994708626</v>
+        <v>2334</v>
       </c>
       <c r="B225" t="n">
         <v>-0.2479999999999999</v>
       </c>
-      <c r="L225" t="n">
-        <v>2334</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>273.3164252708048</v>
+        <v>2347</v>
       </c>
       <c r="B226" t="n">
         <v>-0.269</v>
       </c>
-      <c r="L226" t="n">
-        <v>2347</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>274.4280530553577</v>
+        <v>2361</v>
       </c>
       <c r="B227" t="n">
         <v>-0.285</v>
       </c>
-      <c r="L227" t="n">
-        <v>2361</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>275.5396808399108</v>
+        <v>2375</v>
       </c>
       <c r="B228" t="n">
         <v>-0.275</v>
       </c>
-      <c r="L228" t="n">
-        <v>2375</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>276.5719066398529</v>
+        <v>2388</v>
       </c>
       <c r="B229" t="n">
         <v>-0.3190000000000001</v>
       </c>
-      <c r="L229" t="n">
-        <v>2388</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>277.4453284705731</v>
+        <v>2399</v>
       </c>
       <c r="B230" t="n">
         <v>-0.322</v>
       </c>
-      <c r="L230" t="n">
-        <v>2399</v>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>278.3187503012933</v>
+        <v>2410</v>
       </c>
       <c r="B231" t="n">
         <v>-0.28432</v>
       </c>
-      <c r="L231" t="n">
-        <v>2410</v>
-      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>279.1127701474027</v>
+        <v>2420</v>
       </c>
       <c r="B232" t="n">
         <v>-0.24432</v>
       </c>
-      <c r="L232" t="n">
-        <v>2420</v>
-      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>279.9067899935119</v>
+        <v>2430</v>
       </c>
       <c r="B233" t="n">
         <v>-0.29632</v>
       </c>
-      <c r="L233" t="n">
-        <v>2430</v>
-      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>280.7008098396212</v>
+        <v>2440</v>
       </c>
       <c r="B234" t="n">
         <v>-0.31032</v>
       </c>
-      <c r="L234" t="n">
-        <v>2440</v>
-      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>281.4948296857306</v>
+        <v>2450</v>
       </c>
       <c r="B235" t="n">
         <v>-0.31232</v>
       </c>
-      <c r="L235" t="n">
-        <v>2450</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>282.3682515164508</v>
+        <v>2461</v>
       </c>
       <c r="B236" t="n">
         <v>-0.399</v>
       </c>
-      <c r="L236" t="n">
-        <v>2461</v>
-      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>283.2416733471711</v>
+        <v>2472</v>
       </c>
       <c r="B237" t="n">
         <v>-0.514</v>
       </c>
-      <c r="L237" t="n">
-        <v>2472</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>284.1944971625022</v>
+        <v>2484</v>
       </c>
       <c r="B238" t="n">
         <v>-0.534</v>
       </c>
-      <c r="L238" t="n">
-        <v>2484</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>285.0679189932224</v>
+        <v>2495</v>
       </c>
       <c r="B239" t="n">
         <v>-0.5980000000000001</v>
       </c>
-      <c r="L239" t="n">
-        <v>2495</v>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>285.9413408239427</v>
+        <v>2506</v>
       </c>
       <c r="B240" t="n">
         <v>-0.6180000000000001</v>
       </c>
-      <c r="L240" t="n">
-        <v>2506</v>
-      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>286.5765567008301</v>
+        <v>2514</v>
       </c>
       <c r="B241" t="n">
         <v>-0.538</v>
       </c>
-      <c r="L241" t="n">
-        <v>2514</v>
-      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>286.8147626546629</v>
+        <v>2517</v>
       </c>
       <c r="B242" t="n">
         <v>-0.517</v>
       </c>
-      <c r="L242" t="n">
-        <v>2517</v>
-      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>287.6087825007722</v>
+        <v>2527</v>
       </c>
       <c r="B243" t="n">
         <v>-0.529</v>
       </c>
-      <c r="L243" t="n">
-        <v>2527</v>
-      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>288.4028023468815</v>
+        <v>2537</v>
       </c>
       <c r="B244" t="n">
         <v>-0.459</v>
       </c>
-      <c r="L244" t="n">
-        <v>2537</v>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>288.7998122699362</v>
+        <v>2542</v>
       </c>
       <c r="B245" t="n">
         <v>-0.4869999999999999</v>
       </c>
-      <c r="L245" t="n">
-        <v>2542</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>289.1174202083798</v>
+        <v>2546</v>
       </c>
       <c r="B246" t="n">
         <v>-0.5049999999999999</v>
       </c>
-      <c r="L246" t="n">
-        <v>2546</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>289.5938321160454</v>
+        <v>2552</v>
       </c>
       <c r="B247" t="n">
         <v>-0.484</v>
       </c>
-      <c r="L247" t="n">
-        <v>2552</v>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>290.3878519621547</v>
+        <v>2562</v>
       </c>
       <c r="B248" t="n">
         <v>-0.47</v>
       </c>
-      <c r="L248" t="n">
-        <v>2562</v>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>291.1024698236531</v>
+        <v>2571</v>
       </c>
       <c r="B249" t="n">
         <v>-0.51</v>
       </c>
-      <c r="L249" t="n">
-        <v>2571</v>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>292.0552936389843</v>
+        <v>2583</v>
       </c>
       <c r="B250" t="n">
         <v>-0.5780000000000001</v>
       </c>
-      <c r="L250" t="n">
-        <v>2583</v>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>292.7699115004826</v>
+        <v>2592</v>
       </c>
       <c r="B251" t="n">
         <v>-0.6900000000000001</v>
       </c>
-      <c r="L251" t="n">
-        <v>2592</v>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>293.563931346592</v>
+        <v>2602</v>
       </c>
       <c r="B252" t="n">
         <v>-0.736</v>
       </c>
-      <c r="L252" t="n">
-        <v>2602</v>
-      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>294.3579511927013</v>
+        <v>2612</v>
       </c>
       <c r="B253" t="n">
         <v>-0.78</v>
       </c>
-      <c r="L253" t="n">
-        <v>2612</v>
-      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>295.1519710388105</v>
+        <v>2622</v>
       </c>
       <c r="B254" t="n">
         <v>-0.758</v>
       </c>
-      <c r="L254" t="n">
-        <v>2622</v>
-      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>295.9459908849199</v>
+        <v>2632</v>
       </c>
       <c r="B255" t="n">
         <v>-0.6880000000000001</v>
       </c>
-      <c r="L255" t="n">
-        <v>2632</v>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>297.5340305771385</v>
+        <v>2652</v>
       </c>
       <c r="B256" t="n">
         <v>-0.612</v>
       </c>
-      <c r="L256" t="n">
-        <v>2652</v>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>298.3280504232478</v>
+        <v>2662</v>
       </c>
       <c r="B257" t="n">
         <v>-0.5580000000000001</v>
       </c>
-      <c r="L257" t="n">
-        <v>2662</v>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>299.2808742385789</v>
+        <v>2674</v>
       </c>
       <c r="B258" t="n">
         <v>-0.4320000000000001</v>
       </c>
-      <c r="L258" t="n">
-        <v>2674</v>
-      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>299.4396782078008</v>
+        <v>2676</v>
       </c>
       <c r="B259" t="n">
         <v>-0.3159999999999999</v>
       </c>
-      <c r="L259" t="n">
-        <v>2676</v>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>299.8366881308555</v>
+        <v>2681</v>
       </c>
       <c r="B260" t="n">
         <v>-0.198</v>
       </c>
-      <c r="L260" t="n">
-        <v>2681</v>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>300.2336980539101</v>
+        <v>2686</v>
       </c>
       <c r="B261" t="n">
         <v>-0.168</v>
       </c>
-      <c r="L261" t="n">
-        <v>2686</v>
-      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>301.0277179000194</v>
+        <v>2696</v>
       </c>
       <c r="B262" t="n">
         <v>-0.192</v>
       </c>
-      <c r="L262" t="n">
-        <v>2696</v>
-      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>301.8217377461287</v>
+        <v>2706</v>
       </c>
       <c r="B263" t="n">
         <v>-0.26</v>
       </c>
-      <c r="L263" t="n">
-        <v>2706</v>
-      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>303.4097774383473</v>
+        <v>2726</v>
       </c>
       <c r="B264" t="n">
         <v>-0.314</v>
       </c>
-      <c r="L264" t="n">
-        <v>2726</v>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>304.2037972844566</v>
+        <v>2736</v>
       </c>
       <c r="B265" t="n">
         <v>-0.356</v>
       </c>
-      <c r="L265" t="n">
-        <v>2736</v>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>304.9978171305659</v>
+        <v>2746</v>
       </c>
       <c r="B266" t="n">
         <v>-0.3079999999999999</v>
       </c>
-      <c r="L266" t="n">
-        <v>2746</v>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>305.7918369766752</v>
+        <v>2756</v>
       </c>
       <c r="B267" t="n">
         <v>-0.226</v>
       </c>
-      <c r="L267" t="n">
-        <v>2756</v>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>306.5858568227845</v>
+        <v>2766</v>
       </c>
       <c r="B268" t="n">
         <v>-0.178</v>
       </c>
-      <c r="L268" t="n">
-        <v>2766</v>
-      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>307.3798766688939</v>
+        <v>2776</v>
       </c>
       <c r="B269" t="n">
         <v>-0.198</v>
       </c>
-      <c r="L269" t="n">
-        <v>2776</v>
-      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>308.1738965150031</v>
+        <v>2786</v>
       </c>
       <c r="B270" t="n">
         <v>-0.238</v>
       </c>
-      <c r="L270" t="n">
-        <v>2786</v>
-      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>308.9679163611124</v>
+        <v>2796</v>
       </c>
       <c r="B271" t="n">
         <v>-0.206</v>
       </c>
-      <c r="L271" t="n">
-        <v>2796</v>
-      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>309.7619362072218</v>
+        <v>2806</v>
       </c>
       <c r="B272" t="n">
         <v>-0.19</v>
       </c>
-      <c r="L272" t="n">
-        <v>2806</v>
-      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>310.4765540687201</v>
+        <v>2815</v>
       </c>
       <c r="B273" t="n">
         <v>-0.17</v>
       </c>
-      <c r="L273" t="n">
-        <v>2815</v>
-      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>311.3499758994403</v>
+        <v>2826</v>
       </c>
       <c r="B274" t="n">
         <v>-0.152</v>
       </c>
-      <c r="L274" t="n">
-        <v>2826</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>312.2233977301606</v>
+        <v>2837</v>
       </c>
       <c r="B275" t="n">
         <v>-0.11</v>
       </c>
-      <c r="L275" t="n">
-        <v>2837</v>
-      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>313.0174175762698</v>
+        <v>2847</v>
       </c>
       <c r="B276" t="n">
         <v>-0.132</v>
       </c>
-      <c r="L276" t="n">
-        <v>2847</v>
-      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>313.7320354377682</v>
+        <v>2856</v>
       </c>
       <c r="B277" t="n">
         <v>-0.112</v>
       </c>
-      <c r="L277" t="n">
-        <v>2856</v>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>314.5260552838776</v>
+        <v>2866</v>
       </c>
       <c r="B278" t="n">
         <v>-0.066</v>
       </c>
-      <c r="L278" t="n">
-        <v>2866</v>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>315.2406731453759</v>
+        <v>2875</v>
       </c>
       <c r="B279" t="n">
         <v>-0.01</v>
       </c>
-      <c r="L279" t="n">
-        <v>2875</v>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>316.0346929914853</v>
+        <v>2885</v>
       </c>
       <c r="B280" t="n">
         <v>-0.012</v>
       </c>
-      <c r="L280" t="n">
-        <v>2885</v>
-      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>316.9081148222054</v>
+        <v>2896</v>
       </c>
       <c r="B281" t="n">
         <v>-0.024</v>
       </c>
-      <c r="L281" t="n">
-        <v>2896</v>
-      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>317.7021346683148</v>
+        <v>2906</v>
       </c>
       <c r="B282" t="n">
         <v>-0.08</v>
       </c>
-      <c r="L282" t="n">
-        <v>2906</v>
-      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>318.4961545144241</v>
+        <v>2916</v>
       </c>
       <c r="B283" t="n">
         <v>-0.152</v>
       </c>
-      <c r="L283" t="n">
-        <v>2916</v>
-      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>319.2107723759224</v>
+        <v>2925</v>
       </c>
       <c r="B284" t="n">
         <v>-0.278</v>
       </c>
-      <c r="L284" t="n">
-        <v>2925</v>
-      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>320.0841942066427</v>
+        <v>2936</v>
       </c>
       <c r="B285" t="n">
         <v>-0.36</v>
       </c>
-      <c r="L285" t="n">
-        <v>2936</v>
-      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>321.4340279450285</v>
+        <v>2953</v>
       </c>
       <c r="B286" t="n">
         <v>-0.422</v>
       </c>
-      <c r="L286" t="n">
-        <v>2953</v>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>321.6722338988613</v>
+        <v>2956</v>
       </c>
       <c r="B287" t="n">
         <v>-0.418</v>
       </c>
-      <c r="L287" t="n">
-        <v>2956</v>
-      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>322.6250577141925</v>
+        <v>2968</v>
       </c>
       <c r="B288" t="n">
         <v>-0.38</v>
       </c>
-      <c r="L288" t="n">
-        <v>2968</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>323.4984795449127</v>
+        <v>2979</v>
       </c>
       <c r="B289" t="n">
         <v>-0.268</v>
       </c>
-      <c r="L289" t="n">
-        <v>2979</v>
-      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>324.292499391022</v>
+        <v>2989</v>
       </c>
       <c r="B290" t="n">
         <v>-0.157</v>
       </c>
-      <c r="L290" t="n">
-        <v>2989</v>
-      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>325.0865192371313</v>
+        <v>2999</v>
       </c>
       <c r="B291" t="n">
         <v>-0.05299999999999999</v>
       </c>
-      <c r="L291" t="n">
-        <v>2999</v>
-      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>325.9599410678516</v>
+        <v>3010</v>
       </c>
       <c r="B292" t="n">
         <v>0.035</v>
       </c>
-      <c r="L292" t="n">
-        <v>3010</v>
-      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>326.8333628985717</v>
+        <v>3021</v>
       </c>
       <c r="B293" t="n">
         <v>0.052</v>
       </c>
-      <c r="L293" t="n">
-        <v>3021</v>
-      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>327.6273827446811</v>
+        <v>3031</v>
       </c>
       <c r="B294" t="n">
         <v>0.044</v>
       </c>
-      <c r="L294" t="n">
-        <v>3031</v>
-      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>328.3420006061795</v>
+        <v>3040</v>
       </c>
       <c r="B295" t="n">
         <v>0.036</v>
       </c>
-      <c r="L295" t="n">
-        <v>3040</v>
-      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>328.8978144984559</v>
+        <v>3047</v>
       </c>
       <c r="B296" t="n">
         <v>-0.03300000000000001</v>
       </c>
-      <c r="L296" t="n">
-        <v>3047</v>
-      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>329.5330303753434</v>
+        <v>3055</v>
       </c>
       <c r="B297" t="n">
         <v>-0.144</v>
       </c>
-      <c r="L297" t="n">
-        <v>3055</v>
-      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>330.3270502214527</v>
+        <v>3065</v>
       </c>
       <c r="B298" t="n">
         <v>-0.172</v>
       </c>
-      <c r="L298" t="n">
-        <v>3065</v>
-      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>331.2798740367838</v>
+        <v>3077</v>
       </c>
       <c r="B299" t="n">
         <v>-0.158</v>
       </c>
-      <c r="L299" t="n">
-        <v>3077</v>
-      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>332.3120998367259</v>
+        <v>3090</v>
       </c>
       <c r="B300" t="n">
         <v>-0.195</v>
       </c>
-      <c r="L300" t="n">
-        <v>3090</v>
-      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>333.344325636668</v>
+        <v>3103</v>
       </c>
       <c r="B301" t="n">
         <v>-0.212</v>
       </c>
-      <c r="L301" t="n">
-        <v>3103</v>
-      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>335.0117673134976</v>
+        <v>3124</v>
       </c>
       <c r="B302" t="n">
         <v>-0.229</v>
       </c>
-      <c r="L302" t="n">
-        <v>3124</v>
-      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>335.8057871596069</v>
+        <v>3134</v>
       </c>
       <c r="B303" t="n">
         <v>-0.268</v>
       </c>
-      <c r="L303" t="n">
-        <v>3134</v>
-      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>336.6792089903271</v>
+        <v>3145</v>
       </c>
       <c r="B304" t="n">
         <v>-0.333</v>
       </c>
-      <c r="L304" t="n">
-        <v>3145</v>
-      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>337.5526308210473</v>
+        <v>3156</v>
       </c>
       <c r="B305" t="n">
         <v>-0.351</v>
       </c>
-      <c r="L305" t="n">
-        <v>3156</v>
-      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>338.4260526517676</v>
+        <v>3167</v>
       </c>
       <c r="B306" t="n">
         <v>-0.357</v>
       </c>
-      <c r="L306" t="n">
-        <v>3167</v>
-      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>339.2200724978769</v>
+        <v>3177</v>
       </c>
       <c r="B307" t="n">
         <v>-0.3370000000000001</v>
       </c>
-      <c r="L307" t="n">
-        <v>3177</v>
-      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>340.0934943285971</v>
+        <v>3188</v>
       </c>
       <c r="B308" t="n">
         <v>-0.277</v>
       </c>
-      <c r="L308" t="n">
-        <v>3188</v>
-      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>340.9669161593173</v>
+        <v>3199</v>
       </c>
       <c r="B309" t="n">
         <v>-0.241</v>
       </c>
-      <c r="L309" t="n">
-        <v>3199</v>
-      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>341.9991419592594</v>
+        <v>3212</v>
       </c>
       <c r="B310" t="n">
         <v>-0.184</v>
       </c>
-      <c r="L310" t="n">
-        <v>3212</v>
-      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>342.9519657745906</v>
+        <v>3224</v>
       </c>
       <c r="B311" t="n">
         <v>-0.08800000000000001</v>
       </c>
-      <c r="L311" t="n">
-        <v>3224</v>
-      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>343.7459856206999</v>
+        <v>3234</v>
       </c>
       <c r="B312" t="n">
         <v>-0.004000000000000001</v>
       </c>
-      <c r="L312" t="n">
-        <v>3234</v>
-      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>344.3017995129764</v>
+        <v>3241</v>
       </c>
       <c r="B313" t="n">
         <v>0.03199999999999999</v>
       </c>
-      <c r="L313" t="n">
-        <v>3241</v>
-      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>344.778211420642</v>
+        <v>3247</v>
       </c>
       <c r="B314" t="n">
         <v>0.08699999999999999</v>
       </c>
-      <c r="L314" t="n">
-        <v>3247</v>
-      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>345.1752213436966</v>
+        <v>3252</v>
       </c>
       <c r="B315" t="n">
         <v>0.099</v>
       </c>
-      <c r="L315" t="n">
-        <v>3252</v>
-      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>345.6516332513622</v>
+        <v>3258</v>
       </c>
       <c r="B316" t="n">
         <v>0.103</v>
       </c>
-      <c r="L316" t="n">
-        <v>3258</v>
-      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>345.969241189806</v>
+        <v>3262</v>
       </c>
       <c r="B317" t="n">
         <v>0.12</v>
       </c>
-      <c r="L317" t="n">
-        <v>3262</v>
-      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>346.5250550820825</v>
+        <v>3269</v>
       </c>
       <c r="B318" t="n">
         <v>0.045</v>
       </c>
-      <c r="L318" t="n">
-        <v>3269</v>
-      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>347.2396729435808</v>
+        <v>3278</v>
       </c>
       <c r="B319" t="n">
         <v>-0.04099999999999999</v>
       </c>
-      <c r="L319" t="n">
-        <v>3278</v>
-      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>348.192496758912</v>
+        <v>3290</v>
       </c>
       <c r="B320" t="n">
         <v>-0.111</v>
       </c>
-      <c r="L320" t="n">
-        <v>3290</v>
-      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>349.5423304972978</v>
+        <v>3307</v>
       </c>
       <c r="B321" t="n">
         <v>-0.221</v>
       </c>
-      <c r="L321" t="n">
-        <v>3307</v>
-      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>351.2097721741274</v>
+        <v>3328</v>
       </c>
       <c r="B322" t="n">
         <v>-0.3059999999999999</v>
       </c>
-      <c r="L322" t="n">
-        <v>3328</v>
-      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>352.4802039279023</v>
+        <v>3344</v>
       </c>
       <c r="B323" t="n">
         <v>-0.333</v>
       </c>
-      <c r="L323" t="n">
-        <v>3344</v>
-      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>353.1948217894006</v>
+        <v>3353</v>
       </c>
       <c r="B324" t="n">
         <v>-0.327</v>
       </c>
-      <c r="L324" t="n">
-        <v>3353</v>
-      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>353.830037666288</v>
+        <v>3361</v>
       </c>
       <c r="B325" t="n">
         <v>-0.345</v>
       </c>
-      <c r="L325" t="n">
-        <v>3361</v>
-      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>354.3064495739536</v>
+        <v>3367</v>
       </c>
       <c r="B326" t="n">
         <v>-0.3</v>
       </c>
-      <c r="L326" t="n">
-        <v>3367</v>
-      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>354.7828614816192</v>
+        <v>3373</v>
       </c>
       <c r="B327" t="n">
         <v>-0.289</v>
       </c>
-      <c r="L327" t="n">
-        <v>3373</v>
-      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>355.3386753738957</v>
+        <v>3380</v>
       </c>
       <c r="B328" t="n">
         <v>-0.161</v>
       </c>
-      <c r="L328" t="n">
-        <v>3380</v>
-      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>355.9738912507831</v>
+        <v>3388</v>
       </c>
       <c r="B329" t="n">
         <v>-0.06499999999999999</v>
       </c>
-      <c r="L329" t="n">
-        <v>3388</v>
-      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>356.8473130815034</v>
+        <v>3399</v>
       </c>
       <c r="B330" t="n">
         <v>0.03200000000000001</v>
       </c>
-      <c r="L330" t="n">
-        <v>3399</v>
-      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>358.1177448352782</v>
+        <v>3415</v>
       </c>
       <c r="B331" t="n">
         <v>0.105</v>
       </c>
-      <c r="L331" t="n">
-        <v>3415</v>
-      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>359.8645884967187</v>
+        <v>3437</v>
       </c>
       <c r="B332" t="n">
         <v>0.116</v>
       </c>
-      <c r="L332" t="n">
-        <v>3437</v>
-      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>361.9290400966029</v>
+        <v>3463</v>
       </c>
       <c r="B333" t="n">
         <v>-0.02000000000000001</v>
       </c>
-      <c r="L333" t="n">
-        <v>3463</v>
-      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>363.1200698657669</v>
+        <v>3478</v>
       </c>
       <c r="B334" t="n">
         <v>-0.159</v>
       </c>
-      <c r="L334" t="n">
-        <v>3478</v>
-      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>363.6758837580434</v>
+        <v>3485</v>
       </c>
       <c r="B335" t="n">
         <v>-0.288</v>
       </c>
-      <c r="L335" t="n">
-        <v>3485</v>
-      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>363.9934916964871</v>
+        <v>3489</v>
       </c>
       <c r="B336" t="n">
         <v>-0.448</v>
       </c>
-      <c r="L336" t="n">
-        <v>3489</v>
-      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>364.3110996349309</v>
+        <v>3493</v>
       </c>
       <c r="B337" t="n">
         <v>-0.5359999999999999</v>
       </c>
-      <c r="L337" t="n">
-        <v>3493</v>
-      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>364.6287075733745</v>
+        <v>3497</v>
       </c>
       <c r="B338" t="n">
         <v>-0.5</v>
       </c>
-      <c r="L338" t="n">
-        <v>3497</v>
-      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>364.9463155118183</v>
+        <v>3501</v>
       </c>
       <c r="B339" t="n">
         <v>-0.4980000000000001</v>
       </c>
-      <c r="L339" t="n">
-        <v>3501</v>
-      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>365.343325434873</v>
+        <v>3506</v>
       </c>
       <c r="B340" t="n">
         <v>-0.401</v>
       </c>
-      <c r="L340" t="n">
-        <v>3506</v>
-      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>365.8991393271494</v>
+        <v>3513</v>
       </c>
       <c r="B341" t="n">
         <v>-0.305</v>
       </c>
-      <c r="L341" t="n">
-        <v>3513</v>
-      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>367.0107671117025</v>
+        <v>3527</v>
       </c>
       <c r="B342" t="n">
         <v>-0.232</v>
       </c>
-      <c r="L342" t="n">
-        <v>3527</v>
-      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>368.4400028346992</v>
+        <v>3545</v>
       </c>
       <c r="B343" t="n">
         <v>-0.196</v>
       </c>
-      <c r="L343" t="n">
-        <v>3545</v>
-      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>369.6310326038632</v>
+        <v>3560</v>
       </c>
       <c r="B344" t="n">
         <v>-0.129</v>
       </c>
-      <c r="L344" t="n">
-        <v>3560</v>
-      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>370.5044544345834</v>
+        <v>3571</v>
       </c>
       <c r="B345" t="n">
         <v>-0.111</v>
       </c>
-      <c r="L345" t="n">
-        <v>3571</v>
-      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>371.06026832686</v>
+        <v>3578</v>
       </c>
       <c r="B346" t="n">
         <v>-0.109</v>
       </c>
-      <c r="L346" t="n">
-        <v>3578</v>
-      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>371.6954842037474</v>
+        <v>3586</v>
       </c>
       <c r="B347" t="n">
         <v>-0.083</v>
       </c>
-      <c r="L347" t="n">
-        <v>3586</v>
-      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>372.2512980960239</v>
+        <v>3593</v>
       </c>
       <c r="B348" t="n">
         <v>-0.08499999999999999</v>
       </c>
-      <c r="L348" t="n">
-        <v>3593</v>
-      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>372.8865139729113</v>
+        <v>3601</v>
       </c>
       <c r="B349" t="n">
         <v>-0.106</v>
       </c>
-      <c r="L349" t="n">
-        <v>3601</v>
-      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>373.6805338190206</v>
+        <v>3611</v>
       </c>
       <c r="B350" t="n">
         <v>-0.164</v>
       </c>
-      <c r="L350" t="n">
-        <v>3611</v>
-      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>374.5539556497408</v>
+        <v>3622</v>
       </c>
       <c r="B351" t="n">
         <v>-0.222</v>
       </c>
-      <c r="L351" t="n">
-        <v>3622</v>
-      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>375.586181449683</v>
+        <v>3635</v>
       </c>
       <c r="B352" t="n">
         <v>-0.288</v>
       </c>
-      <c r="L352" t="n">
-        <v>3635</v>
-      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>376.8566132034579</v>
+        <v>3651</v>
       </c>
       <c r="B353" t="n">
         <v>-0.354</v>
       </c>
-      <c r="L353" t="n">
-        <v>3651</v>
-      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>376.9360151880687</v>
+        <v>3652</v>
       </c>
       <c r="B354" t="n">
         <v>-0.3230000000000001</v>
       </c>
-      <c r="L354" t="n">
-        <v>3652</v>
-      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>378.6828588495092</v>
+        <v>3674</v>
       </c>
       <c r="B355" t="n">
         <v>-0.253</v>
       </c>
-      <c r="L355" t="n">
-        <v>3674</v>
-      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>379.5562806802295</v>
+        <v>3685</v>
       </c>
       <c r="B356" t="n">
         <v>-0.165</v>
       </c>
-      <c r="L356" t="n">
-        <v>3685</v>
-      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>380.4297025109497</v>
+        <v>3696</v>
       </c>
       <c r="B357" t="n">
         <v>-0.068</v>
       </c>
-      <c r="L357" t="n">
-        <v>3696</v>
-      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>381.3825263262809</v>
+        <v>3708</v>
       </c>
       <c r="B358" t="n">
         <v>0.028</v>
       </c>
-      <c r="L358" t="n">
-        <v>3708</v>
-      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>382.335350141612</v>
+        <v>3720</v>
       </c>
       <c r="B359" t="n">
         <v>-0.005999999999999994</v>
       </c>
-      <c r="L359" t="n">
-        <v>3720</v>
-      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>383.0499680031104</v>
+        <v>3729</v>
       </c>
       <c r="B360" t="n">
         <v>-0.032</v>
       </c>
-      <c r="L360" t="n">
-        <v>3729</v>
-      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>383.7645858646088</v>
+        <v>3738</v>
       </c>
       <c r="B361" t="n">
         <v>-0.044</v>
       </c>
-      <c r="L361" t="n">
-        <v>3738</v>
-      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>384.4792037261071</v>
+        <v>3747</v>
       </c>
       <c r="B362" t="n">
         <v>-0.08800000000000001</v>
       </c>
-      <c r="L362" t="n">
-        <v>3747</v>
-      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>385.0350176183837</v>
+        <v>3754</v>
       </c>
       <c r="B363" t="n">
         <v>-0.144</v>
       </c>
-      <c r="L363" t="n">
-        <v>3754</v>
-      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>385.5908315106602</v>
+        <v>3761</v>
       </c>
       <c r="B364" t="n">
         <v>-0.186</v>
       </c>
-      <c r="L364" t="n">
-        <v>3761</v>
-      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>386.0672434183257</v>
+        <v>3767</v>
       </c>
       <c r="B365" t="n">
         <v>-0.276</v>
       </c>
-      <c r="L365" t="n">
-        <v>3767</v>
-      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>386.5436553259913</v>
+        <v>3773</v>
       </c>
       <c r="B366" t="n">
         <v>-0.36</v>
       </c>
-      <c r="L366" t="n">
-        <v>3773</v>
-      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>387.0994692182678</v>
+        <v>3780</v>
       </c>
       <c r="B367" t="n">
         <v>-0.424</v>
       </c>
-      <c r="L367" t="n">
-        <v>3780</v>
-      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>387.8140870797662</v>
+        <v>3789</v>
       </c>
       <c r="B368" t="n">
         <v>-0.464</v>
       </c>
-      <c r="L368" t="n">
-        <v>3789</v>
-      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>389.0051168489301</v>
+        <v>3804</v>
       </c>
       <c r="B369" t="n">
         <v>-0.416</v>
       </c>
-      <c r="L369" t="n">
-        <v>3804</v>
-      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>390.4343525719269</v>
+        <v>3822</v>
       </c>
       <c r="B370" t="n">
         <v>-0.286</v>
       </c>
-      <c r="L370" t="n">
-        <v>3822</v>
-      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>391.54598035648</v>
+        <v>3836</v>
       </c>
       <c r="B371" t="n">
         <v>-0.158</v>
       </c>
-      <c r="L371" t="n">
-        <v>3836</v>
-      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>392.3400002025892</v>
+        <v>3846</v>
       </c>
       <c r="B372" t="n">
         <v>-0.01199999999999999</v>
       </c>
-      <c r="L372" t="n">
-        <v>3846</v>
-      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>393.1340200486985</v>
+        <v>3856</v>
       </c>
       <c r="B373" t="n">
         <v>0.07599999999999998</v>
       </c>
-      <c r="L373" t="n">
-        <v>3856</v>
-      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>393.8486379101969</v>
+        <v>3865</v>
       </c>
       <c r="B374" t="n">
         <v>0.126</v>
       </c>
-      <c r="L374" t="n">
-        <v>3865</v>
-      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>394.5632557716953</v>
+        <v>3874</v>
       </c>
       <c r="B375" t="n">
         <v>0.07799999999999999</v>
       </c>
-      <c r="L375" t="n">
-        <v>3874</v>
-      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>395.1984716485828</v>
+        <v>3882</v>
       </c>
       <c r="B376" t="n">
         <v>0.01399999999999998</v>
       </c>
-      <c r="L376" t="n">
-        <v>3882</v>
-      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>395.8336875254702</v>
+        <v>3890</v>
       </c>
       <c r="B377" t="n">
         <v>-0.092</v>
       </c>
-      <c r="L377" t="n">
-        <v>3890</v>
-      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>396.4689034023576</v>
+        <v>3898</v>
       </c>
       <c r="B378" t="n">
         <v>-0.176</v>
       </c>
-      <c r="L378" t="n">
-        <v>3898</v>
-      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>397.2629232484669</v>
+        <v>3908</v>
       </c>
       <c r="B379" t="n">
         <v>-0.25</v>
       </c>
-      <c r="L379" t="n">
-        <v>3908</v>
-      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>397.8187371407435</v>
+        <v>3915</v>
       </c>
       <c r="B380" t="n">
         <v>-0.292</v>
       </c>
-      <c r="L380" t="n">
-        <v>3915</v>
-      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>398.0569430945762</v>
+        <v>3918</v>
       </c>
       <c r="B381" t="n">
         <v>-0.3</v>
-      </c>
-      <c r="L381" t="n">
-        <v>3918</v>
       </c>
     </row>
   </sheetData>
@@ -14181,6 +13000,3137 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H381"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="27" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="155" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>depthODP849 [cm]</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>d13Cforams-b</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Y axis inverted</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>History</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.01199999999999999</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Serie filtered</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>#44bae5</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>serie &lt;i&gt;&lt;b&gt;Id-34AE56JH&lt;/i&gt;&lt;/b&gt; filtered with FILTER &lt;i&gt;&lt;b&gt;Id-221A61C2&lt;/i&gt;&lt;/b&gt; with a moving average of size 5&lt;BR&gt;---&gt; serie &lt;i&gt;&lt;b&gt;Id-D4DB0D6D&lt;/b&gt;&lt;/i&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>45</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.082</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>55</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.122</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>69</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.156</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>89</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.116</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>109</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.058</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>118</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>128</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.048</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>139</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.04000000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>150</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>161</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.03200000000000001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>185</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>194</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.062</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>217</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.002000000000000002</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>231</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>243</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>249</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>256</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>271</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.138</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>275</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>280</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.146</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>289</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>292</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.177</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>296</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.167</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>306</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.143</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>315</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.08399999999999999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>324</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.06000000000000001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>333</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.061</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>344</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.073</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>355</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.079</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>366</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.092</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>377</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>388</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.01599999999999999</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>398</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>408</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.174</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>418</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.234</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>428</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.306</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>437</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>447</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.356</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>456</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.346</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>467</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>477</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.336</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>488</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.324</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>498</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>508</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>518</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.381</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>528</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.3150000000000001</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>538</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.298</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>548</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>558</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>568</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-0.266</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>578</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-0.322</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>589</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.345</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>599</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-0.369</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>608</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.367</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>618</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-0.329</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>628</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.248</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>638</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-0.166</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>647</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-0.104</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>657</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-0.05300000000000001</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>667</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-0.03466</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>677</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-0.01166</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>688</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-0.01766</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>698</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-0.01766</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>708</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-0.04666</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>718</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-0.082</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>728</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-0.185</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>737</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-0.278</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>747</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-0.344</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>756</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-0.336</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>757</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-0.314</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>766</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-0.203</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>778</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-0.134</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>791</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-0.114</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>803</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-0.176</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>813</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>824</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-0.296</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>835</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>849</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-0.405</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>861</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-0.369</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>871</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-0.387</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>879</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-0.4470000000000001</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>889</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-0.441</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>895</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-0.374</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>905</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-0.329</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>916</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-0.319</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>927</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-0.261</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>937</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-0.219</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>948</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-0.237</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>960</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-0.264</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>972</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>982</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-0.15466</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>990</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-0.10266</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>996</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-0.03266</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.03534</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.07334</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.08299999999999999</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.06199999999999999</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1052</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1059</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-0.052</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1075</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-0.126</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-0.175</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1105</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-0.235</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-0.243</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-0.253</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-0.305</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1137</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-0.281</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-0.296</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1146</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-0.3139999999999999</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1147</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-0.304</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1158</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-0.238</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1172</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-0.217</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1182</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-0.203</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1192</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-0.134</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-0.094</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-0.08700000000000002</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1222</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.08400000000000001</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1232</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.058</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1252</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.08499999999999999</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1262</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1272</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.08800000000000001</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1306</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.03399999999999997</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1328</v>
+      </c>
+      <c r="B124" t="n">
+        <v>-0.124</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1358</v>
+      </c>
+      <c r="B125" t="n">
+        <v>-0.233</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1364</v>
+      </c>
+      <c r="B126" t="n">
+        <v>-0.3749999999999999</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-0.341</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1381</v>
+      </c>
+      <c r="B128" t="n">
+        <v>-0.335</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1388</v>
+      </c>
+      <c r="B129" t="n">
+        <v>-0.263</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1395</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-0.278</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1403</v>
+      </c>
+      <c r="B131" t="n">
+        <v>-0.238</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1414</v>
+      </c>
+      <c r="B132" t="n">
+        <v>-0.224</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1436</v>
+      </c>
+      <c r="B133" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1444</v>
+      </c>
+      <c r="B134" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1453</v>
+      </c>
+      <c r="B135" t="n">
+        <v>-0.204</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1464</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-0.09399999999999999</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1475</v>
+      </c>
+      <c r="B137" t="n">
+        <v>-0.0006800000000000029</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1487</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.19532</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1498</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.3133199999999999</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1518</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.41132</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1527</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.4003200000000001</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1537</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.3689999999999999</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1547</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.293</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1557</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.275</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1567</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.265</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1577</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.244</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1587</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.208</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1597</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1607</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.005999999999999994</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1617</v>
+      </c>
+      <c r="B150" t="n">
+        <v>-0.074</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1637</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1647</v>
+      </c>
+      <c r="B152" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1657</v>
+      </c>
+      <c r="B153" t="n">
+        <v>-0.174</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1667</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-0.117</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1677</v>
+      </c>
+      <c r="B155" t="n">
+        <v>-0.129</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1687</v>
+      </c>
+      <c r="B156" t="n">
+        <v>-0.089</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1697</v>
+      </c>
+      <c r="B157" t="n">
+        <v>-0.06699999999999999</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1707</v>
+      </c>
+      <c r="B158" t="n">
+        <v>-0.045</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1717</v>
+      </c>
+      <c r="B159" t="n">
+        <v>-0.02867999999999999</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1737</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.02132</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>1747</v>
+      </c>
+      <c r="B161" t="n">
+        <v>-0.03668</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1757</v>
+      </c>
+      <c r="B162" t="n">
+        <v>-0.02467999999999999</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1767</v>
+      </c>
+      <c r="B163" t="n">
+        <v>-0.06667999999999999</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1777</v>
+      </c>
+      <c r="B164" t="n">
+        <v>-0.148</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1787</v>
+      </c>
+      <c r="B165" t="n">
+        <v>-0.206</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1797</v>
+      </c>
+      <c r="B166" t="n">
+        <v>-0.146</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1807</v>
+      </c>
+      <c r="B167" t="n">
+        <v>-0.124</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1817</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1827</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-0.009999999999999998</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1837</v>
+      </c>
+      <c r="B170" t="n">
+        <v>-5.551115123125783e-18</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1847</v>
+      </c>
+      <c r="B171" t="n">
+        <v>-0.074</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1857</v>
+      </c>
+      <c r="B172" t="n">
+        <v>-0.138</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1867</v>
+      </c>
+      <c r="B173" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1887</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-0.258</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1897</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-0.234</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1903</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-0.246</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1907</v>
+      </c>
+      <c r="B177" t="n">
+        <v>-0.272</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1915</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-0.294</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1927</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-0.346</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-0.462</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1948</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1957</v>
+      </c>
+      <c r="B182" t="n">
+        <v>-0.5660000000000001</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1966</v>
+      </c>
+      <c r="B183" t="n">
+        <v>-0.604</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1975</v>
+      </c>
+      <c r="B184" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1985</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-0.552</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-0.468</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-0.244</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-0.156</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>2047</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-0.05999999999999998</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>2055</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-0.01600000000000001</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>2063</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.004000000000000001</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>2070</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>2071</v>
+      </c>
+      <c r="B195" t="n">
+        <v>-0.011</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>2078</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-0.093</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>2085</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-0.113</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>2092</v>
+      </c>
+      <c r="B198" t="n">
+        <v>-0.123</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B199" t="n">
+        <v>-0.195</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>2116</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>2123</v>
+      </c>
+      <c r="B201" t="n">
+        <v>-0.248</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>2124</v>
+      </c>
+      <c r="B202" t="n">
+        <v>-0.212</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>2133</v>
+      </c>
+      <c r="B203" t="n">
+        <v>-0.204</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>2141</v>
+      </c>
+      <c r="B204" t="n">
+        <v>-0.184</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>2142</v>
+      </c>
+      <c r="B205" t="n">
+        <v>-0.182</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>2150</v>
+      </c>
+      <c r="B206" t="n">
+        <v>-0.202</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>2159</v>
+      </c>
+      <c r="B207" t="n">
+        <v>-0.285</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>2167</v>
+      </c>
+      <c r="B208" t="n">
+        <v>-0.353</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>2175</v>
+      </c>
+      <c r="B209" t="n">
+        <v>-0.402</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>2184</v>
+      </c>
+      <c r="B210" t="n">
+        <v>-0.4359999999999999</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>2193</v>
+      </c>
+      <c r="B211" t="n">
+        <v>-0.412</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>2203</v>
+      </c>
+      <c r="B212" t="n">
+        <v>-0.364</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>2213</v>
+      </c>
+      <c r="B213" t="n">
+        <v>-0.274</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>2224</v>
+      </c>
+      <c r="B214" t="n">
+        <v>-0.161</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>2235</v>
+      </c>
+      <c r="B215" t="n">
+        <v>-0.113</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>2246</v>
+      </c>
+      <c r="B216" t="n">
+        <v>-0.101</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>2257</v>
+      </c>
+      <c r="B217" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>2267</v>
+      </c>
+      <c r="B218" t="n">
+        <v>-0.254</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>2276</v>
+      </c>
+      <c r="B219" t="n">
+        <v>-0.378</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>2285</v>
+      </c>
+      <c r="B220" t="n">
+        <v>-0.456</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>2294</v>
+      </c>
+      <c r="B221" t="n">
+        <v>-0.4699999999999999</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>2303</v>
+      </c>
+      <c r="B222" t="n">
+        <v>-0.449</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>2312</v>
+      </c>
+      <c r="B223" t="n">
+        <v>-0.387</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>2322</v>
+      </c>
+      <c r="B224" t="n">
+        <v>-0.3169999999999999</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>2334</v>
+      </c>
+      <c r="B225" t="n">
+        <v>-0.2479999999999999</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>2347</v>
+      </c>
+      <c r="B226" t="n">
+        <v>-0.269</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>2361</v>
+      </c>
+      <c r="B227" t="n">
+        <v>-0.285</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>2375</v>
+      </c>
+      <c r="B228" t="n">
+        <v>-0.275</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>2388</v>
+      </c>
+      <c r="B229" t="n">
+        <v>-0.3190000000000001</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>2399</v>
+      </c>
+      <c r="B230" t="n">
+        <v>-0.322</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>2410</v>
+      </c>
+      <c r="B231" t="n">
+        <v>-0.28432</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>2420</v>
+      </c>
+      <c r="B232" t="n">
+        <v>-0.24432</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>2430</v>
+      </c>
+      <c r="B233" t="n">
+        <v>-0.29632</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>2440</v>
+      </c>
+      <c r="B234" t="n">
+        <v>-0.31032</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>2450</v>
+      </c>
+      <c r="B235" t="n">
+        <v>-0.31232</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>2461</v>
+      </c>
+      <c r="B236" t="n">
+        <v>-0.399</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>2472</v>
+      </c>
+      <c r="B237" t="n">
+        <v>-0.514</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>2484</v>
+      </c>
+      <c r="B238" t="n">
+        <v>-0.534</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>2495</v>
+      </c>
+      <c r="B239" t="n">
+        <v>-0.5980000000000001</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>2506</v>
+      </c>
+      <c r="B240" t="n">
+        <v>-0.6180000000000001</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>2514</v>
+      </c>
+      <c r="B241" t="n">
+        <v>-0.538</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>2517</v>
+      </c>
+      <c r="B242" t="n">
+        <v>-0.517</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>2527</v>
+      </c>
+      <c r="B243" t="n">
+        <v>-0.529</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>2537</v>
+      </c>
+      <c r="B244" t="n">
+        <v>-0.459</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>2542</v>
+      </c>
+      <c r="B245" t="n">
+        <v>-0.4869999999999999</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>2546</v>
+      </c>
+      <c r="B246" t="n">
+        <v>-0.5049999999999999</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>2552</v>
+      </c>
+      <c r="B247" t="n">
+        <v>-0.484</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>2562</v>
+      </c>
+      <c r="B248" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>2571</v>
+      </c>
+      <c r="B249" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>2583</v>
+      </c>
+      <c r="B250" t="n">
+        <v>-0.5780000000000001</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>2592</v>
+      </c>
+      <c r="B251" t="n">
+        <v>-0.6900000000000001</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>2602</v>
+      </c>
+      <c r="B252" t="n">
+        <v>-0.736</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>2612</v>
+      </c>
+      <c r="B253" t="n">
+        <v>-0.78</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>2622</v>
+      </c>
+      <c r="B254" t="n">
+        <v>-0.758</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>2632</v>
+      </c>
+      <c r="B255" t="n">
+        <v>-0.6880000000000001</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>2652</v>
+      </c>
+      <c r="B256" t="n">
+        <v>-0.612</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>2662</v>
+      </c>
+      <c r="B257" t="n">
+        <v>-0.5580000000000001</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>2674</v>
+      </c>
+      <c r="B258" t="n">
+        <v>-0.4320000000000001</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>2676</v>
+      </c>
+      <c r="B259" t="n">
+        <v>-0.3159999999999999</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>2681</v>
+      </c>
+      <c r="B260" t="n">
+        <v>-0.198</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>2686</v>
+      </c>
+      <c r="B261" t="n">
+        <v>-0.168</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>2696</v>
+      </c>
+      <c r="B262" t="n">
+        <v>-0.192</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>2706</v>
+      </c>
+      <c r="B263" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>2726</v>
+      </c>
+      <c r="B264" t="n">
+        <v>-0.314</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>2736</v>
+      </c>
+      <c r="B265" t="n">
+        <v>-0.356</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>2746</v>
+      </c>
+      <c r="B266" t="n">
+        <v>-0.3079999999999999</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>2756</v>
+      </c>
+      <c r="B267" t="n">
+        <v>-0.226</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>2766</v>
+      </c>
+      <c r="B268" t="n">
+        <v>-0.178</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>2776</v>
+      </c>
+      <c r="B269" t="n">
+        <v>-0.198</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>2786</v>
+      </c>
+      <c r="B270" t="n">
+        <v>-0.238</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>2796</v>
+      </c>
+      <c r="B271" t="n">
+        <v>-0.206</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>2806</v>
+      </c>
+      <c r="B272" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>2815</v>
+      </c>
+      <c r="B273" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>2826</v>
+      </c>
+      <c r="B274" t="n">
+        <v>-0.152</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>2837</v>
+      </c>
+      <c r="B275" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>2847</v>
+      </c>
+      <c r="B276" t="n">
+        <v>-0.132</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>2856</v>
+      </c>
+      <c r="B277" t="n">
+        <v>-0.112</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>2866</v>
+      </c>
+      <c r="B278" t="n">
+        <v>-0.066</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>2875</v>
+      </c>
+      <c r="B279" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>2885</v>
+      </c>
+      <c r="B280" t="n">
+        <v>-0.012</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>2896</v>
+      </c>
+      <c r="B281" t="n">
+        <v>-0.024</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>2906</v>
+      </c>
+      <c r="B282" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>2916</v>
+      </c>
+      <c r="B283" t="n">
+        <v>-0.152</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>2925</v>
+      </c>
+      <c r="B284" t="n">
+        <v>-0.278</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>2936</v>
+      </c>
+      <c r="B285" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>2953</v>
+      </c>
+      <c r="B286" t="n">
+        <v>-0.422</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>2956</v>
+      </c>
+      <c r="B287" t="n">
+        <v>-0.418</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>2968</v>
+      </c>
+      <c r="B288" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>2979</v>
+      </c>
+      <c r="B289" t="n">
+        <v>-0.268</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>2989</v>
+      </c>
+      <c r="B290" t="n">
+        <v>-0.157</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>2999</v>
+      </c>
+      <c r="B291" t="n">
+        <v>-0.05299999999999999</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>3010</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>3021</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0.052</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>3031</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>3040</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>3047</v>
+      </c>
+      <c r="B296" t="n">
+        <v>-0.03300000000000001</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>3055</v>
+      </c>
+      <c r="B297" t="n">
+        <v>-0.144</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>3065</v>
+      </c>
+      <c r="B298" t="n">
+        <v>-0.172</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>3077</v>
+      </c>
+      <c r="B299" t="n">
+        <v>-0.158</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>3090</v>
+      </c>
+      <c r="B300" t="n">
+        <v>-0.195</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>3103</v>
+      </c>
+      <c r="B301" t="n">
+        <v>-0.212</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>3124</v>
+      </c>
+      <c r="B302" t="n">
+        <v>-0.229</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>3134</v>
+      </c>
+      <c r="B303" t="n">
+        <v>-0.268</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>3145</v>
+      </c>
+      <c r="B304" t="n">
+        <v>-0.333</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>3156</v>
+      </c>
+      <c r="B305" t="n">
+        <v>-0.351</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>3167</v>
+      </c>
+      <c r="B306" t="n">
+        <v>-0.357</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>3177</v>
+      </c>
+      <c r="B307" t="n">
+        <v>-0.3370000000000001</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>3188</v>
+      </c>
+      <c r="B308" t="n">
+        <v>-0.277</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>3199</v>
+      </c>
+      <c r="B309" t="n">
+        <v>-0.241</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>3212</v>
+      </c>
+      <c r="B310" t="n">
+        <v>-0.184</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>3224</v>
+      </c>
+      <c r="B311" t="n">
+        <v>-0.08800000000000001</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>3234</v>
+      </c>
+      <c r="B312" t="n">
+        <v>-0.004000000000000001</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>3241</v>
+      </c>
+      <c r="B313" t="n">
+        <v>0.03199999999999999</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>3247</v>
+      </c>
+      <c r="B314" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>3252</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0.099</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>3258</v>
+      </c>
+      <c r="B316" t="n">
+        <v>0.103</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>3262</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>3269</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>3278</v>
+      </c>
+      <c r="B319" t="n">
+        <v>-0.04099999999999999</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>3290</v>
+      </c>
+      <c r="B320" t="n">
+        <v>-0.111</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>3307</v>
+      </c>
+      <c r="B321" t="n">
+        <v>-0.221</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>3328</v>
+      </c>
+      <c r="B322" t="n">
+        <v>-0.3059999999999999</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>3344</v>
+      </c>
+      <c r="B323" t="n">
+        <v>-0.333</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>3353</v>
+      </c>
+      <c r="B324" t="n">
+        <v>-0.327</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>3361</v>
+      </c>
+      <c r="B325" t="n">
+        <v>-0.345</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>3367</v>
+      </c>
+      <c r="B326" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>3373</v>
+      </c>
+      <c r="B327" t="n">
+        <v>-0.289</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>3380</v>
+      </c>
+      <c r="B328" t="n">
+        <v>-0.161</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>3388</v>
+      </c>
+      <c r="B329" t="n">
+        <v>-0.06499999999999999</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>3399</v>
+      </c>
+      <c r="B330" t="n">
+        <v>0.03200000000000001</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>3415</v>
+      </c>
+      <c r="B331" t="n">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>3437</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0.116</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>3463</v>
+      </c>
+      <c r="B333" t="n">
+        <v>-0.02000000000000001</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>3478</v>
+      </c>
+      <c r="B334" t="n">
+        <v>-0.159</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>3485</v>
+      </c>
+      <c r="B335" t="n">
+        <v>-0.288</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>3489</v>
+      </c>
+      <c r="B336" t="n">
+        <v>-0.448</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>3493</v>
+      </c>
+      <c r="B337" t="n">
+        <v>-0.5359999999999999</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>3497</v>
+      </c>
+      <c r="B338" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>3501</v>
+      </c>
+      <c r="B339" t="n">
+        <v>-0.4980000000000001</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>3506</v>
+      </c>
+      <c r="B340" t="n">
+        <v>-0.401</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>3513</v>
+      </c>
+      <c r="B341" t="n">
+        <v>-0.305</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>3527</v>
+      </c>
+      <c r="B342" t="n">
+        <v>-0.232</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>3545</v>
+      </c>
+      <c r="B343" t="n">
+        <v>-0.196</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>3560</v>
+      </c>
+      <c r="B344" t="n">
+        <v>-0.129</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>3571</v>
+      </c>
+      <c r="B345" t="n">
+        <v>-0.111</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>3578</v>
+      </c>
+      <c r="B346" t="n">
+        <v>-0.109</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>3586</v>
+      </c>
+      <c r="B347" t="n">
+        <v>-0.083</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>3593</v>
+      </c>
+      <c r="B348" t="n">
+        <v>-0.08499999999999999</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>3601</v>
+      </c>
+      <c r="B349" t="n">
+        <v>-0.106</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>3611</v>
+      </c>
+      <c r="B350" t="n">
+        <v>-0.164</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>3622</v>
+      </c>
+      <c r="B351" t="n">
+        <v>-0.222</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>3635</v>
+      </c>
+      <c r="B352" t="n">
+        <v>-0.288</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>3651</v>
+      </c>
+      <c r="B353" t="n">
+        <v>-0.354</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>3652</v>
+      </c>
+      <c r="B354" t="n">
+        <v>-0.3230000000000001</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>3674</v>
+      </c>
+      <c r="B355" t="n">
+        <v>-0.253</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>3685</v>
+      </c>
+      <c r="B356" t="n">
+        <v>-0.165</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>3696</v>
+      </c>
+      <c r="B357" t="n">
+        <v>-0.068</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>3708</v>
+      </c>
+      <c r="B358" t="n">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>3720</v>
+      </c>
+      <c r="B359" t="n">
+        <v>-0.005999999999999994</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>3729</v>
+      </c>
+      <c r="B360" t="n">
+        <v>-0.032</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>3738</v>
+      </c>
+      <c r="B361" t="n">
+        <v>-0.044</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>3747</v>
+      </c>
+      <c r="B362" t="n">
+        <v>-0.08800000000000001</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>3754</v>
+      </c>
+      <c r="B363" t="n">
+        <v>-0.144</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>3761</v>
+      </c>
+      <c r="B364" t="n">
+        <v>-0.186</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>3767</v>
+      </c>
+      <c r="B365" t="n">
+        <v>-0.276</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>3773</v>
+      </c>
+      <c r="B366" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>3780</v>
+      </c>
+      <c r="B367" t="n">
+        <v>-0.424</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>3789</v>
+      </c>
+      <c r="B368" t="n">
+        <v>-0.464</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>3804</v>
+      </c>
+      <c r="B369" t="n">
+        <v>-0.416</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>3822</v>
+      </c>
+      <c r="B370" t="n">
+        <v>-0.286</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>3836</v>
+      </c>
+      <c r="B371" t="n">
+        <v>-0.158</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>3846</v>
+      </c>
+      <c r="B372" t="n">
+        <v>-0.01199999999999999</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>3856</v>
+      </c>
+      <c r="B373" t="n">
+        <v>0.07599999999999998</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>3865</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>3874</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0.07799999999999999</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>3882</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0.01399999999999998</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>3890</v>
+      </c>
+      <c r="B377" t="n">
+        <v>-0.092</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>3898</v>
+      </c>
+      <c r="B378" t="n">
+        <v>-0.176</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>3908</v>
+      </c>
+      <c r="B379" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>3915</v>
+      </c>
+      <c r="B380" t="n">
+        <v>-0.292</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>3918</v>
+      </c>
+      <c r="B381" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17343,7 +19293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17415,7 +19365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25514,7 +27464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25529,7 +27479,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>

--- a/test/ws_ex_5.0.xlsx
+++ b/test/ws_ex_5.0.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Serie Id-56TY87JG" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="FILTER Id-221A61C2" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Serie Id-0CF20BB2" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="INTERPOLATION Id-02133887" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="INTERPOLATION Id-C2F3FDA9" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27470,7 +27470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27478,13 +27478,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="27" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -27526,14 +27526,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>149.1169977924945</v>
+        <v>4.34</v>
       </c>
       <c r="B2" t="n">
-        <v>782.8145695364238</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>years</t>
+          <t>Age (ka)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -27543,14 +27543,138 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Imported INTERPOLATION</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>368.8741721854305</v>
+        <v>10.6</v>
       </c>
       <c r="B3" t="n">
-        <v>3550.467991169978</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="B5" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>50.98575828</v>
+      </c>
+      <c r="B6" t="n">
+        <v>180.1195056</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60.87</v>
+      </c>
+      <c r="B7" t="n">
+        <v>222.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>75.0940274</v>
+      </c>
+      <c r="B8" t="n">
+        <v>270.8251074</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>85.83231696</v>
+      </c>
+      <c r="B9" t="n">
+        <v>325.678361</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>93.69387322</v>
+      </c>
+      <c r="B10" t="n">
+        <v>360.4105867</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>102.7831161</v>
+      </c>
+      <c r="B11" t="n">
+        <v>395.1476982</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>110.1334365</v>
+      </c>
+      <c r="B12" t="n">
+        <v>418.6029405</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>116.4434411</v>
+      </c>
+      <c r="B13" t="n">
+        <v>431.7460743</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>129.17</v>
+      </c>
+      <c r="B14" t="n">
+        <v>458.39</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>165.62</v>
+      </c>
+      <c r="B15" t="n">
+        <v>519.13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>191.08</v>
+      </c>
+      <c r="B16" t="n">
+        <v>571.37</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>220.04</v>
+      </c>
+      <c r="B17" t="n">
+        <v>605.17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>241.91</v>
+      </c>
+      <c r="B18" t="n">
+        <v>641.1</v>
       </c>
     </row>
   </sheetData>

--- a/test/ws_ex_5.0.xlsx
+++ b/test/ws_ex_5.0.xlsx
@@ -9,13 +9,9 @@
   <sheets>
     <sheet name="Serie Id-67GH89BG" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Serie Id-34AE56JH" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Serie Id-B78A1F63" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Serie Id-159B0C5A" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Serie Id-D4DB0D6D" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Serie Id-56TY87JG" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="FILTER Id-221A61C2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Serie Id-0CF20BB2" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="INTERPOLATION Id-C2F3FDA9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Serie Id-56TY87JG" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Serie Id-0CF20BB2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="INTERPOLATION Id-C2F3FDA9" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6743,9399 +6739,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H381"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="27" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="155" customWidth="1" min="8" max="8"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>depthODP849 [cm]</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>d13Cforams-b</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Y axis inverted</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>History</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.01199999999999999</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Serie filtered</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>#9edae5</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>serie &lt;i&gt;&lt;b&gt;Id-34AE56JH&lt;/i&gt;&lt;/b&gt; filtered with FILTER &lt;i&gt;&lt;b&gt;Id-38B7B69A&lt;/i&gt;&lt;/b&gt; with a moving average of size 5&lt;BR&gt;---&gt; serie &lt;i&gt;&lt;b&gt;Id-B78A1F63&lt;/b&gt;&lt;/i&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>45</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-0.082</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>55</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.122</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>69</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.156</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>89</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.116</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>109</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-0.058</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>118</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>128</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.048</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>139</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.04000000000000001</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>150</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.044</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>161</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.03200000000000001</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>185</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>194</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-0.062</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>217</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.002000000000000002</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>231</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>243</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.07199999999999999</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>249</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.108</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>256</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.154</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>271</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.138</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>275</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.154</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>280</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.146</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>289</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.192</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>292</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.177</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>296</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.167</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>306</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.143</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>315</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.08399999999999999</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>324</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.06000000000000001</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>333</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.061</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>344</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.073</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>355</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.079</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>366</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.092</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>377</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.07199999999999999</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>388</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.01599999999999999</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>398</v>
-      </c>
-      <c r="B35" t="n">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>408</v>
-      </c>
-      <c r="B36" t="n">
-        <v>-0.174</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>418</v>
-      </c>
-      <c r="B37" t="n">
-        <v>-0.234</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>428</v>
-      </c>
-      <c r="B38" t="n">
-        <v>-0.306</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>437</v>
-      </c>
-      <c r="B39" t="n">
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>447</v>
-      </c>
-      <c r="B40" t="n">
-        <v>-0.356</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>456</v>
-      </c>
-      <c r="B41" t="n">
-        <v>-0.346</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>467</v>
-      </c>
-      <c r="B42" t="n">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>477</v>
-      </c>
-      <c r="B43" t="n">
-        <v>-0.336</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>488</v>
-      </c>
-      <c r="B44" t="n">
-        <v>-0.324</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>498</v>
-      </c>
-      <c r="B45" t="n">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>508</v>
-      </c>
-      <c r="B46" t="n">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>518</v>
-      </c>
-      <c r="B47" t="n">
-        <v>-0.381</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>528</v>
-      </c>
-      <c r="B48" t="n">
-        <v>-0.3150000000000001</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>538</v>
-      </c>
-      <c r="B49" t="n">
-        <v>-0.298</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>548</v>
-      </c>
-      <c r="B50" t="n">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>558</v>
-      </c>
-      <c r="B51" t="n">
-        <v>-0.28</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>568</v>
-      </c>
-      <c r="B52" t="n">
-        <v>-0.266</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>578</v>
-      </c>
-      <c r="B53" t="n">
-        <v>-0.322</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>589</v>
-      </c>
-      <c r="B54" t="n">
-        <v>-0.345</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>599</v>
-      </c>
-      <c r="B55" t="n">
-        <v>-0.369</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>608</v>
-      </c>
-      <c r="B56" t="n">
-        <v>-0.367</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>618</v>
-      </c>
-      <c r="B57" t="n">
-        <v>-0.329</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>628</v>
-      </c>
-      <c r="B58" t="n">
-        <v>-0.248</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>638</v>
-      </c>
-      <c r="B59" t="n">
-        <v>-0.166</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>647</v>
-      </c>
-      <c r="B60" t="n">
-        <v>-0.104</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>657</v>
-      </c>
-      <c r="B61" t="n">
-        <v>-0.05300000000000001</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>667</v>
-      </c>
-      <c r="B62" t="n">
-        <v>-0.03466</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>677</v>
-      </c>
-      <c r="B63" t="n">
-        <v>-0.01166</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>688</v>
-      </c>
-      <c r="B64" t="n">
-        <v>-0.01766</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>698</v>
-      </c>
-      <c r="B65" t="n">
-        <v>-0.01766</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>708</v>
-      </c>
-      <c r="B66" t="n">
-        <v>-0.04666</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>718</v>
-      </c>
-      <c r="B67" t="n">
-        <v>-0.082</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>728</v>
-      </c>
-      <c r="B68" t="n">
-        <v>-0.185</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>737</v>
-      </c>
-      <c r="B69" t="n">
-        <v>-0.278</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>747</v>
-      </c>
-      <c r="B70" t="n">
-        <v>-0.344</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>756</v>
-      </c>
-      <c r="B71" t="n">
-        <v>-0.336</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>757</v>
-      </c>
-      <c r="B72" t="n">
-        <v>-0.314</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>766</v>
-      </c>
-      <c r="B73" t="n">
-        <v>-0.203</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>778</v>
-      </c>
-      <c r="B74" t="n">
-        <v>-0.134</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>791</v>
-      </c>
-      <c r="B75" t="n">
-        <v>-0.114</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>803</v>
-      </c>
-      <c r="B76" t="n">
-        <v>-0.176</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>813</v>
-      </c>
-      <c r="B77" t="n">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>824</v>
-      </c>
-      <c r="B78" t="n">
-        <v>-0.296</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>835</v>
-      </c>
-      <c r="B79" t="n">
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>849</v>
-      </c>
-      <c r="B80" t="n">
-        <v>-0.405</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>861</v>
-      </c>
-      <c r="B81" t="n">
-        <v>-0.369</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>871</v>
-      </c>
-      <c r="B82" t="n">
-        <v>-0.387</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>879</v>
-      </c>
-      <c r="B83" t="n">
-        <v>-0.4470000000000001</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>889</v>
-      </c>
-      <c r="B84" t="n">
-        <v>-0.441</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>895</v>
-      </c>
-      <c r="B85" t="n">
-        <v>-0.374</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>905</v>
-      </c>
-      <c r="B86" t="n">
-        <v>-0.329</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>916</v>
-      </c>
-      <c r="B87" t="n">
-        <v>-0.319</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>927</v>
-      </c>
-      <c r="B88" t="n">
-        <v>-0.261</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>937</v>
-      </c>
-      <c r="B89" t="n">
-        <v>-0.219</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>948</v>
-      </c>
-      <c r="B90" t="n">
-        <v>-0.237</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>960</v>
-      </c>
-      <c r="B91" t="n">
-        <v>-0.264</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>972</v>
-      </c>
-      <c r="B92" t="n">
-        <v>-0.19</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>982</v>
-      </c>
-      <c r="B93" t="n">
-        <v>-0.15466</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>990</v>
-      </c>
-      <c r="B94" t="n">
-        <v>-0.10266</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>996</v>
-      </c>
-      <c r="B95" t="n">
-        <v>-0.03266</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>1003</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.03534</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>1012</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.07334</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>1026</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.08299999999999999</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>1041</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.06199999999999999</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>1052</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.026</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>1059</v>
-      </c>
-      <c r="B101" t="n">
-        <v>-0.052</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>1075</v>
-      </c>
-      <c r="B102" t="n">
-        <v>-0.126</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>1090</v>
-      </c>
-      <c r="B103" t="n">
-        <v>-0.175</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>1105</v>
-      </c>
-      <c r="B104" t="n">
-        <v>-0.235</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>1117</v>
-      </c>
-      <c r="B105" t="n">
-        <v>-0.243</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>1119</v>
-      </c>
-      <c r="B106" t="n">
-        <v>-0.253</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>1125</v>
-      </c>
-      <c r="B107" t="n">
-        <v>-0.305</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>1137</v>
-      </c>
-      <c r="B108" t="n">
-        <v>-0.281</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>1140</v>
-      </c>
-      <c r="B109" t="n">
-        <v>-0.296</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>1146</v>
-      </c>
-      <c r="B110" t="n">
-        <v>-0.3139999999999999</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>1147</v>
-      </c>
-      <c r="B111" t="n">
-        <v>-0.304</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>1158</v>
-      </c>
-      <c r="B112" t="n">
-        <v>-0.238</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>1172</v>
-      </c>
-      <c r="B113" t="n">
-        <v>-0.217</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>1182</v>
-      </c>
-      <c r="B114" t="n">
-        <v>-0.203</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>1192</v>
-      </c>
-      <c r="B115" t="n">
-        <v>-0.134</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>1203</v>
-      </c>
-      <c r="B116" t="n">
-        <v>-0.094</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>1212</v>
-      </c>
-      <c r="B117" t="n">
-        <v>-0.08700000000000002</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>1222</v>
-      </c>
-      <c r="B118" t="n">
-        <v>-0.08400000000000001</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>1232</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.058</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>1252</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0.08499999999999999</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>1262</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>1272</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0.08800000000000001</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>1306</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.03399999999999997</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>1328</v>
-      </c>
-      <c r="B124" t="n">
-        <v>-0.124</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>1358</v>
-      </c>
-      <c r="B125" t="n">
-        <v>-0.233</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>1364</v>
-      </c>
-      <c r="B126" t="n">
-        <v>-0.3749999999999999</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>1369</v>
-      </c>
-      <c r="B127" t="n">
-        <v>-0.341</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>1381</v>
-      </c>
-      <c r="B128" t="n">
-        <v>-0.335</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>1388</v>
-      </c>
-      <c r="B129" t="n">
-        <v>-0.263</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>1395</v>
-      </c>
-      <c r="B130" t="n">
-        <v>-0.278</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>1403</v>
-      </c>
-      <c r="B131" t="n">
-        <v>-0.238</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>1414</v>
-      </c>
-      <c r="B132" t="n">
-        <v>-0.224</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>1436</v>
-      </c>
-      <c r="B133" t="n">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>1444</v>
-      </c>
-      <c r="B134" t="n">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>1453</v>
-      </c>
-      <c r="B135" t="n">
-        <v>-0.204</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>1464</v>
-      </c>
-      <c r="B136" t="n">
-        <v>-0.09399999999999999</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>1475</v>
-      </c>
-      <c r="B137" t="n">
-        <v>-0.0006800000000000029</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>1487</v>
-      </c>
-      <c r="B138" t="n">
-        <v>0.19532</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>1498</v>
-      </c>
-      <c r="B139" t="n">
-        <v>0.3133199999999999</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>1518</v>
-      </c>
-      <c r="B140" t="n">
-        <v>0.41132</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>1527</v>
-      </c>
-      <c r="B141" t="n">
-        <v>0.4003200000000001</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>1537</v>
-      </c>
-      <c r="B142" t="n">
-        <v>0.3689999999999999</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>1547</v>
-      </c>
-      <c r="B143" t="n">
-        <v>0.293</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>1557</v>
-      </c>
-      <c r="B144" t="n">
-        <v>0.275</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>1567</v>
-      </c>
-      <c r="B145" t="n">
-        <v>0.265</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>1577</v>
-      </c>
-      <c r="B146" t="n">
-        <v>0.244</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>1587</v>
-      </c>
-      <c r="B147" t="n">
-        <v>0.208</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>1597</v>
-      </c>
-      <c r="B148" t="n">
-        <v>0.126</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>1607</v>
-      </c>
-      <c r="B149" t="n">
-        <v>0.005999999999999994</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>1617</v>
-      </c>
-      <c r="B150" t="n">
-        <v>-0.074</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>1637</v>
-      </c>
-      <c r="B151" t="n">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>1647</v>
-      </c>
-      <c r="B152" t="n">
-        <v>-0.19</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>1657</v>
-      </c>
-      <c r="B153" t="n">
-        <v>-0.174</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>1667</v>
-      </c>
-      <c r="B154" t="n">
-        <v>-0.117</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>1677</v>
-      </c>
-      <c r="B155" t="n">
-        <v>-0.129</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>1687</v>
-      </c>
-      <c r="B156" t="n">
-        <v>-0.089</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>1697</v>
-      </c>
-      <c r="B157" t="n">
-        <v>-0.06699999999999999</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>1707</v>
-      </c>
-      <c r="B158" t="n">
-        <v>-0.045</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>1717</v>
-      </c>
-      <c r="B159" t="n">
-        <v>-0.02867999999999999</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>1737</v>
-      </c>
-      <c r="B160" t="n">
-        <v>0.02132</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>1747</v>
-      </c>
-      <c r="B161" t="n">
-        <v>-0.03668</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>1757</v>
-      </c>
-      <c r="B162" t="n">
-        <v>-0.02467999999999999</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>1767</v>
-      </c>
-      <c r="B163" t="n">
-        <v>-0.06667999999999999</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>1777</v>
-      </c>
-      <c r="B164" t="n">
-        <v>-0.148</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>1787</v>
-      </c>
-      <c r="B165" t="n">
-        <v>-0.206</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>1797</v>
-      </c>
-      <c r="B166" t="n">
-        <v>-0.146</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>1807</v>
-      </c>
-      <c r="B167" t="n">
-        <v>-0.124</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>1817</v>
-      </c>
-      <c r="B168" t="n">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>1827</v>
-      </c>
-      <c r="B169" t="n">
-        <v>-0.009999999999999998</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>1837</v>
-      </c>
-      <c r="B170" t="n">
-        <v>-5.551115123125783e-18</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>1847</v>
-      </c>
-      <c r="B171" t="n">
-        <v>-0.074</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>1857</v>
-      </c>
-      <c r="B172" t="n">
-        <v>-0.138</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>1867</v>
-      </c>
-      <c r="B173" t="n">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>1887</v>
-      </c>
-      <c r="B174" t="n">
-        <v>-0.258</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>1897</v>
-      </c>
-      <c r="B175" t="n">
-        <v>-0.234</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>1903</v>
-      </c>
-      <c r="B176" t="n">
-        <v>-0.246</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>1907</v>
-      </c>
-      <c r="B177" t="n">
-        <v>-0.272</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>1915</v>
-      </c>
-      <c r="B178" t="n">
-        <v>-0.294</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>1927</v>
-      </c>
-      <c r="B179" t="n">
-        <v>-0.346</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>1938</v>
-      </c>
-      <c r="B180" t="n">
-        <v>-0.462</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>1948</v>
-      </c>
-      <c r="B181" t="n">
-        <v>-0.51</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>1957</v>
-      </c>
-      <c r="B182" t="n">
-        <v>-0.5660000000000001</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>1966</v>
-      </c>
-      <c r="B183" t="n">
-        <v>-0.604</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>1975</v>
-      </c>
-      <c r="B184" t="n">
-        <v>-0.6</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>1985</v>
-      </c>
-      <c r="B185" t="n">
-        <v>-0.552</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>1995</v>
-      </c>
-      <c r="B186" t="n">
-        <v>-0.468</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>2006</v>
-      </c>
-      <c r="B187" t="n">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B188" t="n">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>2028</v>
-      </c>
-      <c r="B189" t="n">
-        <v>-0.244</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>2038</v>
-      </c>
-      <c r="B190" t="n">
-        <v>-0.156</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>2047</v>
-      </c>
-      <c r="B191" t="n">
-        <v>-0.05999999999999998</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>2055</v>
-      </c>
-      <c r="B192" t="n">
-        <v>-0.01600000000000001</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>2063</v>
-      </c>
-      <c r="B193" t="n">
-        <v>0.004000000000000001</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>2070</v>
-      </c>
-      <c r="B194" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>2071</v>
-      </c>
-      <c r="B195" t="n">
-        <v>-0.011</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>2078</v>
-      </c>
-      <c r="B196" t="n">
-        <v>-0.093</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>2085</v>
-      </c>
-      <c r="B197" t="n">
-        <v>-0.113</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>2092</v>
-      </c>
-      <c r="B198" t="n">
-        <v>-0.123</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>2100</v>
-      </c>
-      <c r="B199" t="n">
-        <v>-0.195</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>2116</v>
-      </c>
-      <c r="B200" t="n">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>2123</v>
-      </c>
-      <c r="B201" t="n">
-        <v>-0.248</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>2124</v>
-      </c>
-      <c r="B202" t="n">
-        <v>-0.212</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>2133</v>
-      </c>
-      <c r="B203" t="n">
-        <v>-0.204</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>2141</v>
-      </c>
-      <c r="B204" t="n">
-        <v>-0.184</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>2142</v>
-      </c>
-      <c r="B205" t="n">
-        <v>-0.182</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>2150</v>
-      </c>
-      <c r="B206" t="n">
-        <v>-0.202</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>2159</v>
-      </c>
-      <c r="B207" t="n">
-        <v>-0.285</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>2167</v>
-      </c>
-      <c r="B208" t="n">
-        <v>-0.353</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>2175</v>
-      </c>
-      <c r="B209" t="n">
-        <v>-0.402</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>2184</v>
-      </c>
-      <c r="B210" t="n">
-        <v>-0.4359999999999999</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>2193</v>
-      </c>
-      <c r="B211" t="n">
-        <v>-0.412</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>2203</v>
-      </c>
-      <c r="B212" t="n">
-        <v>-0.364</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>2213</v>
-      </c>
-      <c r="B213" t="n">
-        <v>-0.274</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>2224</v>
-      </c>
-      <c r="B214" t="n">
-        <v>-0.161</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>2235</v>
-      </c>
-      <c r="B215" t="n">
-        <v>-0.113</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>2246</v>
-      </c>
-      <c r="B216" t="n">
-        <v>-0.101</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>2257</v>
-      </c>
-      <c r="B217" t="n">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>2267</v>
-      </c>
-      <c r="B218" t="n">
-        <v>-0.254</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>2276</v>
-      </c>
-      <c r="B219" t="n">
-        <v>-0.378</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>2285</v>
-      </c>
-      <c r="B220" t="n">
-        <v>-0.456</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>2294</v>
-      </c>
-      <c r="B221" t="n">
-        <v>-0.4699999999999999</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>2303</v>
-      </c>
-      <c r="B222" t="n">
-        <v>-0.449</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>2312</v>
-      </c>
-      <c r="B223" t="n">
-        <v>-0.387</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>2322</v>
-      </c>
-      <c r="B224" t="n">
-        <v>-0.3169999999999999</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>2334</v>
-      </c>
-      <c r="B225" t="n">
-        <v>-0.2479999999999999</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
-        <v>2347</v>
-      </c>
-      <c r="B226" t="n">
-        <v>-0.269</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="n">
-        <v>2361</v>
-      </c>
-      <c r="B227" t="n">
-        <v>-0.285</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
-        <v>2375</v>
-      </c>
-      <c r="B228" t="n">
-        <v>-0.275</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
-        <v>2388</v>
-      </c>
-      <c r="B229" t="n">
-        <v>-0.3190000000000001</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v>2399</v>
-      </c>
-      <c r="B230" t="n">
-        <v>-0.322</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>2410</v>
-      </c>
-      <c r="B231" t="n">
-        <v>-0.28432</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>2420</v>
-      </c>
-      <c r="B232" t="n">
-        <v>-0.24432</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="n">
-        <v>2430</v>
-      </c>
-      <c r="B233" t="n">
-        <v>-0.29632</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
-        <v>2440</v>
-      </c>
-      <c r="B234" t="n">
-        <v>-0.31032</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>2450</v>
-      </c>
-      <c r="B235" t="n">
-        <v>-0.31232</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>2461</v>
-      </c>
-      <c r="B236" t="n">
-        <v>-0.399</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>2472</v>
-      </c>
-      <c r="B237" t="n">
-        <v>-0.514</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>2484</v>
-      </c>
-      <c r="B238" t="n">
-        <v>-0.534</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>2495</v>
-      </c>
-      <c r="B239" t="n">
-        <v>-0.5980000000000001</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>2506</v>
-      </c>
-      <c r="B240" t="n">
-        <v>-0.6180000000000001</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>2514</v>
-      </c>
-      <c r="B241" t="n">
-        <v>-0.538</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="n">
-        <v>2517</v>
-      </c>
-      <c r="B242" t="n">
-        <v>-0.517</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="n">
-        <v>2527</v>
-      </c>
-      <c r="B243" t="n">
-        <v>-0.529</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="n">
-        <v>2537</v>
-      </c>
-      <c r="B244" t="n">
-        <v>-0.459</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="n">
-        <v>2542</v>
-      </c>
-      <c r="B245" t="n">
-        <v>-0.4869999999999999</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="n">
-        <v>2546</v>
-      </c>
-      <c r="B246" t="n">
-        <v>-0.5049999999999999</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="n">
-        <v>2552</v>
-      </c>
-      <c r="B247" t="n">
-        <v>-0.484</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="n">
-        <v>2562</v>
-      </c>
-      <c r="B248" t="n">
-        <v>-0.47</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
-        <v>2571</v>
-      </c>
-      <c r="B249" t="n">
-        <v>-0.51</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
-        <v>2583</v>
-      </c>
-      <c r="B250" t="n">
-        <v>-0.5780000000000001</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="n">
-        <v>2592</v>
-      </c>
-      <c r="B251" t="n">
-        <v>-0.6900000000000001</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="n">
-        <v>2602</v>
-      </c>
-      <c r="B252" t="n">
-        <v>-0.736</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="n">
-        <v>2612</v>
-      </c>
-      <c r="B253" t="n">
-        <v>-0.78</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="n">
-        <v>2622</v>
-      </c>
-      <c r="B254" t="n">
-        <v>-0.758</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="n">
-        <v>2632</v>
-      </c>
-      <c r="B255" t="n">
-        <v>-0.6880000000000001</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="n">
-        <v>2652</v>
-      </c>
-      <c r="B256" t="n">
-        <v>-0.612</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="n">
-        <v>2662</v>
-      </c>
-      <c r="B257" t="n">
-        <v>-0.5580000000000001</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="n">
-        <v>2674</v>
-      </c>
-      <c r="B258" t="n">
-        <v>-0.4320000000000001</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="n">
-        <v>2676</v>
-      </c>
-      <c r="B259" t="n">
-        <v>-0.3159999999999999</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="n">
-        <v>2681</v>
-      </c>
-      <c r="B260" t="n">
-        <v>-0.198</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="n">
-        <v>2686</v>
-      </c>
-      <c r="B261" t="n">
-        <v>-0.168</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="n">
-        <v>2696</v>
-      </c>
-      <c r="B262" t="n">
-        <v>-0.192</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="n">
-        <v>2706</v>
-      </c>
-      <c r="B263" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="n">
-        <v>2726</v>
-      </c>
-      <c r="B264" t="n">
-        <v>-0.314</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="n">
-        <v>2736</v>
-      </c>
-      <c r="B265" t="n">
-        <v>-0.356</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="n">
-        <v>2746</v>
-      </c>
-      <c r="B266" t="n">
-        <v>-0.3079999999999999</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="n">
-        <v>2756</v>
-      </c>
-      <c r="B267" t="n">
-        <v>-0.226</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
-        <v>2766</v>
-      </c>
-      <c r="B268" t="n">
-        <v>-0.178</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="n">
-        <v>2776</v>
-      </c>
-      <c r="B269" t="n">
-        <v>-0.198</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="n">
-        <v>2786</v>
-      </c>
-      <c r="B270" t="n">
-        <v>-0.238</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="n">
-        <v>2796</v>
-      </c>
-      <c r="B271" t="n">
-        <v>-0.206</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="n">
-        <v>2806</v>
-      </c>
-      <c r="B272" t="n">
-        <v>-0.19</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="n">
-        <v>2815</v>
-      </c>
-      <c r="B273" t="n">
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="n">
-        <v>2826</v>
-      </c>
-      <c r="B274" t="n">
-        <v>-0.152</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="n">
-        <v>2837</v>
-      </c>
-      <c r="B275" t="n">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="n">
-        <v>2847</v>
-      </c>
-      <c r="B276" t="n">
-        <v>-0.132</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="n">
-        <v>2856</v>
-      </c>
-      <c r="B277" t="n">
-        <v>-0.112</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="n">
-        <v>2866</v>
-      </c>
-      <c r="B278" t="n">
-        <v>-0.066</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="n">
-        <v>2875</v>
-      </c>
-      <c r="B279" t="n">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="n">
-        <v>2885</v>
-      </c>
-      <c r="B280" t="n">
-        <v>-0.012</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="n">
-        <v>2896</v>
-      </c>
-      <c r="B281" t="n">
-        <v>-0.024</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="n">
-        <v>2906</v>
-      </c>
-      <c r="B282" t="n">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="n">
-        <v>2916</v>
-      </c>
-      <c r="B283" t="n">
-        <v>-0.152</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="n">
-        <v>2925</v>
-      </c>
-      <c r="B284" t="n">
-        <v>-0.278</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="n">
-        <v>2936</v>
-      </c>
-      <c r="B285" t="n">
-        <v>-0.36</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="n">
-        <v>2953</v>
-      </c>
-      <c r="B286" t="n">
-        <v>-0.422</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="n">
-        <v>2956</v>
-      </c>
-      <c r="B287" t="n">
-        <v>-0.418</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
-        <v>2968</v>
-      </c>
-      <c r="B288" t="n">
-        <v>-0.38</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="n">
-        <v>2979</v>
-      </c>
-      <c r="B289" t="n">
-        <v>-0.268</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="n">
-        <v>2989</v>
-      </c>
-      <c r="B290" t="n">
-        <v>-0.157</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="n">
-        <v>2999</v>
-      </c>
-      <c r="B291" t="n">
-        <v>-0.05299999999999999</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="n">
-        <v>3010</v>
-      </c>
-      <c r="B292" t="n">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="n">
-        <v>3021</v>
-      </c>
-      <c r="B293" t="n">
-        <v>0.052</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="n">
-        <v>3031</v>
-      </c>
-      <c r="B294" t="n">
-        <v>0.044</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="n">
-        <v>3040</v>
-      </c>
-      <c r="B295" t="n">
-        <v>0.036</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="n">
-        <v>3047</v>
-      </c>
-      <c r="B296" t="n">
-        <v>-0.03300000000000001</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="n">
-        <v>3055</v>
-      </c>
-      <c r="B297" t="n">
-        <v>-0.144</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="n">
-        <v>3065</v>
-      </c>
-      <c r="B298" t="n">
-        <v>-0.172</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="n">
-        <v>3077</v>
-      </c>
-      <c r="B299" t="n">
-        <v>-0.158</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="n">
-        <v>3090</v>
-      </c>
-      <c r="B300" t="n">
-        <v>-0.195</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="n">
-        <v>3103</v>
-      </c>
-      <c r="B301" t="n">
-        <v>-0.212</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="n">
-        <v>3124</v>
-      </c>
-      <c r="B302" t="n">
-        <v>-0.229</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="n">
-        <v>3134</v>
-      </c>
-      <c r="B303" t="n">
-        <v>-0.268</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="n">
-        <v>3145</v>
-      </c>
-      <c r="B304" t="n">
-        <v>-0.333</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="n">
-        <v>3156</v>
-      </c>
-      <c r="B305" t="n">
-        <v>-0.351</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="n">
-        <v>3167</v>
-      </c>
-      <c r="B306" t="n">
-        <v>-0.357</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="n">
-        <v>3177</v>
-      </c>
-      <c r="B307" t="n">
-        <v>-0.3370000000000001</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="n">
-        <v>3188</v>
-      </c>
-      <c r="B308" t="n">
-        <v>-0.277</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="n">
-        <v>3199</v>
-      </c>
-      <c r="B309" t="n">
-        <v>-0.241</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="n">
-        <v>3212</v>
-      </c>
-      <c r="B310" t="n">
-        <v>-0.184</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="n">
-        <v>3224</v>
-      </c>
-      <c r="B311" t="n">
-        <v>-0.08800000000000001</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="n">
-        <v>3234</v>
-      </c>
-      <c r="B312" t="n">
-        <v>-0.004000000000000001</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="n">
-        <v>3241</v>
-      </c>
-      <c r="B313" t="n">
-        <v>0.03199999999999999</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="n">
-        <v>3247</v>
-      </c>
-      <c r="B314" t="n">
-        <v>0.08699999999999999</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="n">
-        <v>3252</v>
-      </c>
-      <c r="B315" t="n">
-        <v>0.099</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="n">
-        <v>3258</v>
-      </c>
-      <c r="B316" t="n">
-        <v>0.103</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="n">
-        <v>3262</v>
-      </c>
-      <c r="B317" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="n">
-        <v>3269</v>
-      </c>
-      <c r="B318" t="n">
-        <v>0.045</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="n">
-        <v>3278</v>
-      </c>
-      <c r="B319" t="n">
-        <v>-0.04099999999999999</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="n">
-        <v>3290</v>
-      </c>
-      <c r="B320" t="n">
-        <v>-0.111</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="n">
-        <v>3307</v>
-      </c>
-      <c r="B321" t="n">
-        <v>-0.221</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="n">
-        <v>3328</v>
-      </c>
-      <c r="B322" t="n">
-        <v>-0.3059999999999999</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="n">
-        <v>3344</v>
-      </c>
-      <c r="B323" t="n">
-        <v>-0.333</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="n">
-        <v>3353</v>
-      </c>
-      <c r="B324" t="n">
-        <v>-0.327</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="n">
-        <v>3361</v>
-      </c>
-      <c r="B325" t="n">
-        <v>-0.345</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="n">
-        <v>3367</v>
-      </c>
-      <c r="B326" t="n">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="n">
-        <v>3373</v>
-      </c>
-      <c r="B327" t="n">
-        <v>-0.289</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="n">
-        <v>3380</v>
-      </c>
-      <c r="B328" t="n">
-        <v>-0.161</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="n">
-        <v>3388</v>
-      </c>
-      <c r="B329" t="n">
-        <v>-0.06499999999999999</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="n">
-        <v>3399</v>
-      </c>
-      <c r="B330" t="n">
-        <v>0.03200000000000001</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="n">
-        <v>3415</v>
-      </c>
-      <c r="B331" t="n">
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="n">
-        <v>3437</v>
-      </c>
-      <c r="B332" t="n">
-        <v>0.116</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="n">
-        <v>3463</v>
-      </c>
-      <c r="B333" t="n">
-        <v>-0.02000000000000001</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="n">
-        <v>3478</v>
-      </c>
-      <c r="B334" t="n">
-        <v>-0.159</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="n">
-        <v>3485</v>
-      </c>
-      <c r="B335" t="n">
-        <v>-0.288</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="n">
-        <v>3489</v>
-      </c>
-      <c r="B336" t="n">
-        <v>-0.448</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="n">
-        <v>3493</v>
-      </c>
-      <c r="B337" t="n">
-        <v>-0.5359999999999999</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="n">
-        <v>3497</v>
-      </c>
-      <c r="B338" t="n">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="n">
-        <v>3501</v>
-      </c>
-      <c r="B339" t="n">
-        <v>-0.4980000000000001</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="n">
-        <v>3506</v>
-      </c>
-      <c r="B340" t="n">
-        <v>-0.401</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="n">
-        <v>3513</v>
-      </c>
-      <c r="B341" t="n">
-        <v>-0.305</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="n">
-        <v>3527</v>
-      </c>
-      <c r="B342" t="n">
-        <v>-0.232</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="n">
-        <v>3545</v>
-      </c>
-      <c r="B343" t="n">
-        <v>-0.196</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="n">
-        <v>3560</v>
-      </c>
-      <c r="B344" t="n">
-        <v>-0.129</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="n">
-        <v>3571</v>
-      </c>
-      <c r="B345" t="n">
-        <v>-0.111</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="n">
-        <v>3578</v>
-      </c>
-      <c r="B346" t="n">
-        <v>-0.109</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="n">
-        <v>3586</v>
-      </c>
-      <c r="B347" t="n">
-        <v>-0.083</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="n">
-        <v>3593</v>
-      </c>
-      <c r="B348" t="n">
-        <v>-0.08499999999999999</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="n">
-        <v>3601</v>
-      </c>
-      <c r="B349" t="n">
-        <v>-0.106</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="n">
-        <v>3611</v>
-      </c>
-      <c r="B350" t="n">
-        <v>-0.164</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="n">
-        <v>3622</v>
-      </c>
-      <c r="B351" t="n">
-        <v>-0.222</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="n">
-        <v>3635</v>
-      </c>
-      <c r="B352" t="n">
-        <v>-0.288</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="n">
-        <v>3651</v>
-      </c>
-      <c r="B353" t="n">
-        <v>-0.354</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="n">
-        <v>3652</v>
-      </c>
-      <c r="B354" t="n">
-        <v>-0.3230000000000001</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="n">
-        <v>3674</v>
-      </c>
-      <c r="B355" t="n">
-        <v>-0.253</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="n">
-        <v>3685</v>
-      </c>
-      <c r="B356" t="n">
-        <v>-0.165</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="n">
-        <v>3696</v>
-      </c>
-      <c r="B357" t="n">
-        <v>-0.068</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="n">
-        <v>3708</v>
-      </c>
-      <c r="B358" t="n">
-        <v>0.028</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="n">
-        <v>3720</v>
-      </c>
-      <c r="B359" t="n">
-        <v>-0.005999999999999994</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="n">
-        <v>3729</v>
-      </c>
-      <c r="B360" t="n">
-        <v>-0.032</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="n">
-        <v>3738</v>
-      </c>
-      <c r="B361" t="n">
-        <v>-0.044</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="n">
-        <v>3747</v>
-      </c>
-      <c r="B362" t="n">
-        <v>-0.08800000000000001</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="n">
-        <v>3754</v>
-      </c>
-      <c r="B363" t="n">
-        <v>-0.144</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="n">
-        <v>3761</v>
-      </c>
-      <c r="B364" t="n">
-        <v>-0.186</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="n">
-        <v>3767</v>
-      </c>
-      <c r="B365" t="n">
-        <v>-0.276</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="n">
-        <v>3773</v>
-      </c>
-      <c r="B366" t="n">
-        <v>-0.36</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="n">
-        <v>3780</v>
-      </c>
-      <c r="B367" t="n">
-        <v>-0.424</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="n">
-        <v>3789</v>
-      </c>
-      <c r="B368" t="n">
-        <v>-0.464</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="n">
-        <v>3804</v>
-      </c>
-      <c r="B369" t="n">
-        <v>-0.416</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="n">
-        <v>3822</v>
-      </c>
-      <c r="B370" t="n">
-        <v>-0.286</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="n">
-        <v>3836</v>
-      </c>
-      <c r="B371" t="n">
-        <v>-0.158</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="n">
-        <v>3846</v>
-      </c>
-      <c r="B372" t="n">
-        <v>-0.01199999999999999</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="n">
-        <v>3856</v>
-      </c>
-      <c r="B373" t="n">
-        <v>0.07599999999999998</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="n">
-        <v>3865</v>
-      </c>
-      <c r="B374" t="n">
-        <v>0.126</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="n">
-        <v>3874</v>
-      </c>
-      <c r="B375" t="n">
-        <v>0.07799999999999999</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="n">
-        <v>3882</v>
-      </c>
-      <c r="B376" t="n">
-        <v>0.01399999999999998</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="n">
-        <v>3890</v>
-      </c>
-      <c r="B377" t="n">
-        <v>-0.092</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="n">
-        <v>3898</v>
-      </c>
-      <c r="B378" t="n">
-        <v>-0.176</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="n">
-        <v>3908</v>
-      </c>
-      <c r="B379" t="n">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="n">
-        <v>3915</v>
-      </c>
-      <c r="B380" t="n">
-        <v>-0.292</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="n">
-        <v>3918</v>
-      </c>
-      <c r="B381" t="n">
-        <v>-0.3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H381"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="27" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="155" customWidth="1" min="8" max="8"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>depthODP849 [cm]</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>d13Cforams-b</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Y axis inverted</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>History</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.01199999999999999</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Serie filtered</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>#c49c94</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>serie &lt;i&gt;&lt;b&gt;Id-34AE56JH&lt;/i&gt;&lt;/b&gt; filtered with FILTER &lt;i&gt;&lt;b&gt;Id-3B1D5A1C&lt;/i&gt;&lt;/b&gt; with a moving average of size 5&lt;BR&gt;---&gt; serie &lt;i&gt;&lt;b&gt;Id-159B0C5A&lt;/b&gt;&lt;/i&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>45</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-0.082</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>55</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.122</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>69</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.156</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>89</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.116</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>109</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-0.058</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>118</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>128</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.048</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>139</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.04000000000000001</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>150</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.044</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>161</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.03200000000000001</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>185</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>194</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-0.062</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>217</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.002000000000000002</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>231</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>243</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.07199999999999999</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>249</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.108</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>256</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.154</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>271</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.138</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>275</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.154</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>280</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.146</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>289</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.192</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>292</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.177</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>296</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.167</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>306</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.143</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>315</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.08399999999999999</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>324</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.06000000000000001</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>333</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.061</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>344</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.073</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>355</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.079</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>366</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.092</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>377</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.07199999999999999</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>388</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.01599999999999999</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>398</v>
-      </c>
-      <c r="B35" t="n">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>408</v>
-      </c>
-      <c r="B36" t="n">
-        <v>-0.174</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>418</v>
-      </c>
-      <c r="B37" t="n">
-        <v>-0.234</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>428</v>
-      </c>
-      <c r="B38" t="n">
-        <v>-0.306</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>437</v>
-      </c>
-      <c r="B39" t="n">
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>447</v>
-      </c>
-      <c r="B40" t="n">
-        <v>-0.356</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>456</v>
-      </c>
-      <c r="B41" t="n">
-        <v>-0.346</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>467</v>
-      </c>
-      <c r="B42" t="n">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>477</v>
-      </c>
-      <c r="B43" t="n">
-        <v>-0.336</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>488</v>
-      </c>
-      <c r="B44" t="n">
-        <v>-0.324</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>498</v>
-      </c>
-      <c r="B45" t="n">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>508</v>
-      </c>
-      <c r="B46" t="n">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>518</v>
-      </c>
-      <c r="B47" t="n">
-        <v>-0.381</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>528</v>
-      </c>
-      <c r="B48" t="n">
-        <v>-0.3150000000000001</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>538</v>
-      </c>
-      <c r="B49" t="n">
-        <v>-0.298</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>548</v>
-      </c>
-      <c r="B50" t="n">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>558</v>
-      </c>
-      <c r="B51" t="n">
-        <v>-0.28</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>568</v>
-      </c>
-      <c r="B52" t="n">
-        <v>-0.266</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>578</v>
-      </c>
-      <c r="B53" t="n">
-        <v>-0.322</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>589</v>
-      </c>
-      <c r="B54" t="n">
-        <v>-0.345</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>599</v>
-      </c>
-      <c r="B55" t="n">
-        <v>-0.369</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>608</v>
-      </c>
-      <c r="B56" t="n">
-        <v>-0.367</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>618</v>
-      </c>
-      <c r="B57" t="n">
-        <v>-0.329</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>628</v>
-      </c>
-      <c r="B58" t="n">
-        <v>-0.248</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>638</v>
-      </c>
-      <c r="B59" t="n">
-        <v>-0.166</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>647</v>
-      </c>
-      <c r="B60" t="n">
-        <v>-0.104</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>657</v>
-      </c>
-      <c r="B61" t="n">
-        <v>-0.05300000000000001</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>667</v>
-      </c>
-      <c r="B62" t="n">
-        <v>-0.03466</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>677</v>
-      </c>
-      <c r="B63" t="n">
-        <v>-0.01166</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>688</v>
-      </c>
-      <c r="B64" t="n">
-        <v>-0.01766</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>698</v>
-      </c>
-      <c r="B65" t="n">
-        <v>-0.01766</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>708</v>
-      </c>
-      <c r="B66" t="n">
-        <v>-0.04666</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>718</v>
-      </c>
-      <c r="B67" t="n">
-        <v>-0.082</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>728</v>
-      </c>
-      <c r="B68" t="n">
-        <v>-0.185</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>737</v>
-      </c>
-      <c r="B69" t="n">
-        <v>-0.278</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>747</v>
-      </c>
-      <c r="B70" t="n">
-        <v>-0.344</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>756</v>
-      </c>
-      <c r="B71" t="n">
-        <v>-0.336</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>757</v>
-      </c>
-      <c r="B72" t="n">
-        <v>-0.314</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>766</v>
-      </c>
-      <c r="B73" t="n">
-        <v>-0.203</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>778</v>
-      </c>
-      <c r="B74" t="n">
-        <v>-0.134</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>791</v>
-      </c>
-      <c r="B75" t="n">
-        <v>-0.114</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>803</v>
-      </c>
-      <c r="B76" t="n">
-        <v>-0.176</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>813</v>
-      </c>
-      <c r="B77" t="n">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>824</v>
-      </c>
-      <c r="B78" t="n">
-        <v>-0.296</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>835</v>
-      </c>
-      <c r="B79" t="n">
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>849</v>
-      </c>
-      <c r="B80" t="n">
-        <v>-0.405</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>861</v>
-      </c>
-      <c r="B81" t="n">
-        <v>-0.369</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>871</v>
-      </c>
-      <c r="B82" t="n">
-        <v>-0.387</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>879</v>
-      </c>
-      <c r="B83" t="n">
-        <v>-0.4470000000000001</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>889</v>
-      </c>
-      <c r="B84" t="n">
-        <v>-0.441</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>895</v>
-      </c>
-      <c r="B85" t="n">
-        <v>-0.374</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>905</v>
-      </c>
-      <c r="B86" t="n">
-        <v>-0.329</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>916</v>
-      </c>
-      <c r="B87" t="n">
-        <v>-0.319</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>927</v>
-      </c>
-      <c r="B88" t="n">
-        <v>-0.261</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>937</v>
-      </c>
-      <c r="B89" t="n">
-        <v>-0.219</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>948</v>
-      </c>
-      <c r="B90" t="n">
-        <v>-0.237</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>960</v>
-      </c>
-      <c r="B91" t="n">
-        <v>-0.264</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>972</v>
-      </c>
-      <c r="B92" t="n">
-        <v>-0.19</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>982</v>
-      </c>
-      <c r="B93" t="n">
-        <v>-0.15466</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>990</v>
-      </c>
-      <c r="B94" t="n">
-        <v>-0.10266</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>996</v>
-      </c>
-      <c r="B95" t="n">
-        <v>-0.03266</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>1003</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.03534</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>1012</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.07334</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>1026</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.08299999999999999</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>1041</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.06199999999999999</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>1052</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.026</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>1059</v>
-      </c>
-      <c r="B101" t="n">
-        <v>-0.052</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>1075</v>
-      </c>
-      <c r="B102" t="n">
-        <v>-0.126</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>1090</v>
-      </c>
-      <c r="B103" t="n">
-        <v>-0.175</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>1105</v>
-      </c>
-      <c r="B104" t="n">
-        <v>-0.235</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>1117</v>
-      </c>
-      <c r="B105" t="n">
-        <v>-0.243</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>1119</v>
-      </c>
-      <c r="B106" t="n">
-        <v>-0.253</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>1125</v>
-      </c>
-      <c r="B107" t="n">
-        <v>-0.305</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>1137</v>
-      </c>
-      <c r="B108" t="n">
-        <v>-0.281</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>1140</v>
-      </c>
-      <c r="B109" t="n">
-        <v>-0.296</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>1146</v>
-      </c>
-      <c r="B110" t="n">
-        <v>-0.3139999999999999</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>1147</v>
-      </c>
-      <c r="B111" t="n">
-        <v>-0.304</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>1158</v>
-      </c>
-      <c r="B112" t="n">
-        <v>-0.238</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>1172</v>
-      </c>
-      <c r="B113" t="n">
-        <v>-0.217</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>1182</v>
-      </c>
-      <c r="B114" t="n">
-        <v>-0.203</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>1192</v>
-      </c>
-      <c r="B115" t="n">
-        <v>-0.134</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>1203</v>
-      </c>
-      <c r="B116" t="n">
-        <v>-0.094</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>1212</v>
-      </c>
-      <c r="B117" t="n">
-        <v>-0.08700000000000002</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>1222</v>
-      </c>
-      <c r="B118" t="n">
-        <v>-0.08400000000000001</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>1232</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.058</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>1252</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0.08499999999999999</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>1262</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>1272</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0.08800000000000001</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>1306</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.03399999999999997</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>1328</v>
-      </c>
-      <c r="B124" t="n">
-        <v>-0.124</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>1358</v>
-      </c>
-      <c r="B125" t="n">
-        <v>-0.233</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>1364</v>
-      </c>
-      <c r="B126" t="n">
-        <v>-0.3749999999999999</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>1369</v>
-      </c>
-      <c r="B127" t="n">
-        <v>-0.341</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>1381</v>
-      </c>
-      <c r="B128" t="n">
-        <v>-0.335</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>1388</v>
-      </c>
-      <c r="B129" t="n">
-        <v>-0.263</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>1395</v>
-      </c>
-      <c r="B130" t="n">
-        <v>-0.278</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>1403</v>
-      </c>
-      <c r="B131" t="n">
-        <v>-0.238</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>1414</v>
-      </c>
-      <c r="B132" t="n">
-        <v>-0.224</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>1436</v>
-      </c>
-      <c r="B133" t="n">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>1444</v>
-      </c>
-      <c r="B134" t="n">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>1453</v>
-      </c>
-      <c r="B135" t="n">
-        <v>-0.204</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>1464</v>
-      </c>
-      <c r="B136" t="n">
-        <v>-0.09399999999999999</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>1475</v>
-      </c>
-      <c r="B137" t="n">
-        <v>-0.0006800000000000029</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>1487</v>
-      </c>
-      <c r="B138" t="n">
-        <v>0.19532</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>1498</v>
-      </c>
-      <c r="B139" t="n">
-        <v>0.3133199999999999</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>1518</v>
-      </c>
-      <c r="B140" t="n">
-        <v>0.41132</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>1527</v>
-      </c>
-      <c r="B141" t="n">
-        <v>0.4003200000000001</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>1537</v>
-      </c>
-      <c r="B142" t="n">
-        <v>0.3689999999999999</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>1547</v>
-      </c>
-      <c r="B143" t="n">
-        <v>0.293</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>1557</v>
-      </c>
-      <c r="B144" t="n">
-        <v>0.275</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>1567</v>
-      </c>
-      <c r="B145" t="n">
-        <v>0.265</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>1577</v>
-      </c>
-      <c r="B146" t="n">
-        <v>0.244</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>1587</v>
-      </c>
-      <c r="B147" t="n">
-        <v>0.208</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>1597</v>
-      </c>
-      <c r="B148" t="n">
-        <v>0.126</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>1607</v>
-      </c>
-      <c r="B149" t="n">
-        <v>0.005999999999999994</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>1617</v>
-      </c>
-      <c r="B150" t="n">
-        <v>-0.074</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>1637</v>
-      </c>
-      <c r="B151" t="n">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>1647</v>
-      </c>
-      <c r="B152" t="n">
-        <v>-0.19</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>1657</v>
-      </c>
-      <c r="B153" t="n">
-        <v>-0.174</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>1667</v>
-      </c>
-      <c r="B154" t="n">
-        <v>-0.117</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>1677</v>
-      </c>
-      <c r="B155" t="n">
-        <v>-0.129</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>1687</v>
-      </c>
-      <c r="B156" t="n">
-        <v>-0.089</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>1697</v>
-      </c>
-      <c r="B157" t="n">
-        <v>-0.06699999999999999</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>1707</v>
-      </c>
-      <c r="B158" t="n">
-        <v>-0.045</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>1717</v>
-      </c>
-      <c r="B159" t="n">
-        <v>-0.02867999999999999</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>1737</v>
-      </c>
-      <c r="B160" t="n">
-        <v>0.02132</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>1747</v>
-      </c>
-      <c r="B161" t="n">
-        <v>-0.03668</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>1757</v>
-      </c>
-      <c r="B162" t="n">
-        <v>-0.02467999999999999</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>1767</v>
-      </c>
-      <c r="B163" t="n">
-        <v>-0.06667999999999999</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>1777</v>
-      </c>
-      <c r="B164" t="n">
-        <v>-0.148</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>1787</v>
-      </c>
-      <c r="B165" t="n">
-        <v>-0.206</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>1797</v>
-      </c>
-      <c r="B166" t="n">
-        <v>-0.146</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>1807</v>
-      </c>
-      <c r="B167" t="n">
-        <v>-0.124</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>1817</v>
-      </c>
-      <c r="B168" t="n">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>1827</v>
-      </c>
-      <c r="B169" t="n">
-        <v>-0.009999999999999998</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>1837</v>
-      </c>
-      <c r="B170" t="n">
-        <v>-5.551115123125783e-18</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>1847</v>
-      </c>
-      <c r="B171" t="n">
-        <v>-0.074</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>1857</v>
-      </c>
-      <c r="B172" t="n">
-        <v>-0.138</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>1867</v>
-      </c>
-      <c r="B173" t="n">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>1887</v>
-      </c>
-      <c r="B174" t="n">
-        <v>-0.258</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>1897</v>
-      </c>
-      <c r="B175" t="n">
-        <v>-0.234</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>1903</v>
-      </c>
-      <c r="B176" t="n">
-        <v>-0.246</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>1907</v>
-      </c>
-      <c r="B177" t="n">
-        <v>-0.272</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>1915</v>
-      </c>
-      <c r="B178" t="n">
-        <v>-0.294</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>1927</v>
-      </c>
-      <c r="B179" t="n">
-        <v>-0.346</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>1938</v>
-      </c>
-      <c r="B180" t="n">
-        <v>-0.462</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>1948</v>
-      </c>
-      <c r="B181" t="n">
-        <v>-0.51</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>1957</v>
-      </c>
-      <c r="B182" t="n">
-        <v>-0.5660000000000001</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>1966</v>
-      </c>
-      <c r="B183" t="n">
-        <v>-0.604</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>1975</v>
-      </c>
-      <c r="B184" t="n">
-        <v>-0.6</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>1985</v>
-      </c>
-      <c r="B185" t="n">
-        <v>-0.552</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>1995</v>
-      </c>
-      <c r="B186" t="n">
-        <v>-0.468</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>2006</v>
-      </c>
-      <c r="B187" t="n">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B188" t="n">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>2028</v>
-      </c>
-      <c r="B189" t="n">
-        <v>-0.244</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>2038</v>
-      </c>
-      <c r="B190" t="n">
-        <v>-0.156</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>2047</v>
-      </c>
-      <c r="B191" t="n">
-        <v>-0.05999999999999998</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>2055</v>
-      </c>
-      <c r="B192" t="n">
-        <v>-0.01600000000000001</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>2063</v>
-      </c>
-      <c r="B193" t="n">
-        <v>0.004000000000000001</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>2070</v>
-      </c>
-      <c r="B194" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>2071</v>
-      </c>
-      <c r="B195" t="n">
-        <v>-0.011</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>2078</v>
-      </c>
-      <c r="B196" t="n">
-        <v>-0.093</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>2085</v>
-      </c>
-      <c r="B197" t="n">
-        <v>-0.113</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>2092</v>
-      </c>
-      <c r="B198" t="n">
-        <v>-0.123</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>2100</v>
-      </c>
-      <c r="B199" t="n">
-        <v>-0.195</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>2116</v>
-      </c>
-      <c r="B200" t="n">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>2123</v>
-      </c>
-      <c r="B201" t="n">
-        <v>-0.248</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>2124</v>
-      </c>
-      <c r="B202" t="n">
-        <v>-0.212</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>2133</v>
-      </c>
-      <c r="B203" t="n">
-        <v>-0.204</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>2141</v>
-      </c>
-      <c r="B204" t="n">
-        <v>-0.184</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>2142</v>
-      </c>
-      <c r="B205" t="n">
-        <v>-0.182</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>2150</v>
-      </c>
-      <c r="B206" t="n">
-        <v>-0.202</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>2159</v>
-      </c>
-      <c r="B207" t="n">
-        <v>-0.285</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>2167</v>
-      </c>
-      <c r="B208" t="n">
-        <v>-0.353</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>2175</v>
-      </c>
-      <c r="B209" t="n">
-        <v>-0.402</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>2184</v>
-      </c>
-      <c r="B210" t="n">
-        <v>-0.4359999999999999</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>2193</v>
-      </c>
-      <c r="B211" t="n">
-        <v>-0.412</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>2203</v>
-      </c>
-      <c r="B212" t="n">
-        <v>-0.364</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>2213</v>
-      </c>
-      <c r="B213" t="n">
-        <v>-0.274</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>2224</v>
-      </c>
-      <c r="B214" t="n">
-        <v>-0.161</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>2235</v>
-      </c>
-      <c r="B215" t="n">
-        <v>-0.113</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>2246</v>
-      </c>
-      <c r="B216" t="n">
-        <v>-0.101</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>2257</v>
-      </c>
-      <c r="B217" t="n">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>2267</v>
-      </c>
-      <c r="B218" t="n">
-        <v>-0.254</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>2276</v>
-      </c>
-      <c r="B219" t="n">
-        <v>-0.378</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>2285</v>
-      </c>
-      <c r="B220" t="n">
-        <v>-0.456</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>2294</v>
-      </c>
-      <c r="B221" t="n">
-        <v>-0.4699999999999999</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>2303</v>
-      </c>
-      <c r="B222" t="n">
-        <v>-0.449</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>2312</v>
-      </c>
-      <c r="B223" t="n">
-        <v>-0.387</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>2322</v>
-      </c>
-      <c r="B224" t="n">
-        <v>-0.3169999999999999</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>2334</v>
-      </c>
-      <c r="B225" t="n">
-        <v>-0.2479999999999999</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
-        <v>2347</v>
-      </c>
-      <c r="B226" t="n">
-        <v>-0.269</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="n">
-        <v>2361</v>
-      </c>
-      <c r="B227" t="n">
-        <v>-0.285</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
-        <v>2375</v>
-      </c>
-      <c r="B228" t="n">
-        <v>-0.275</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
-        <v>2388</v>
-      </c>
-      <c r="B229" t="n">
-        <v>-0.3190000000000001</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v>2399</v>
-      </c>
-      <c r="B230" t="n">
-        <v>-0.322</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>2410</v>
-      </c>
-      <c r="B231" t="n">
-        <v>-0.28432</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>2420</v>
-      </c>
-      <c r="B232" t="n">
-        <v>-0.24432</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="n">
-        <v>2430</v>
-      </c>
-      <c r="B233" t="n">
-        <v>-0.29632</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
-        <v>2440</v>
-      </c>
-      <c r="B234" t="n">
-        <v>-0.31032</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>2450</v>
-      </c>
-      <c r="B235" t="n">
-        <v>-0.31232</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>2461</v>
-      </c>
-      <c r="B236" t="n">
-        <v>-0.399</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>2472</v>
-      </c>
-      <c r="B237" t="n">
-        <v>-0.514</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>2484</v>
-      </c>
-      <c r="B238" t="n">
-        <v>-0.534</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>2495</v>
-      </c>
-      <c r="B239" t="n">
-        <v>-0.5980000000000001</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>2506</v>
-      </c>
-      <c r="B240" t="n">
-        <v>-0.6180000000000001</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>2514</v>
-      </c>
-      <c r="B241" t="n">
-        <v>-0.538</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="n">
-        <v>2517</v>
-      </c>
-      <c r="B242" t="n">
-        <v>-0.517</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="n">
-        <v>2527</v>
-      </c>
-      <c r="B243" t="n">
-        <v>-0.529</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="n">
-        <v>2537</v>
-      </c>
-      <c r="B244" t="n">
-        <v>-0.459</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="n">
-        <v>2542</v>
-      </c>
-      <c r="B245" t="n">
-        <v>-0.4869999999999999</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="n">
-        <v>2546</v>
-      </c>
-      <c r="B246" t="n">
-        <v>-0.5049999999999999</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="n">
-        <v>2552</v>
-      </c>
-      <c r="B247" t="n">
-        <v>-0.484</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="n">
-        <v>2562</v>
-      </c>
-      <c r="B248" t="n">
-        <v>-0.47</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
-        <v>2571</v>
-      </c>
-      <c r="B249" t="n">
-        <v>-0.51</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
-        <v>2583</v>
-      </c>
-      <c r="B250" t="n">
-        <v>-0.5780000000000001</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="n">
-        <v>2592</v>
-      </c>
-      <c r="B251" t="n">
-        <v>-0.6900000000000001</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="n">
-        <v>2602</v>
-      </c>
-      <c r="B252" t="n">
-        <v>-0.736</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="n">
-        <v>2612</v>
-      </c>
-      <c r="B253" t="n">
-        <v>-0.78</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="n">
-        <v>2622</v>
-      </c>
-      <c r="B254" t="n">
-        <v>-0.758</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="n">
-        <v>2632</v>
-      </c>
-      <c r="B255" t="n">
-        <v>-0.6880000000000001</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="n">
-        <v>2652</v>
-      </c>
-      <c r="B256" t="n">
-        <v>-0.612</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="n">
-        <v>2662</v>
-      </c>
-      <c r="B257" t="n">
-        <v>-0.5580000000000001</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="n">
-        <v>2674</v>
-      </c>
-      <c r="B258" t="n">
-        <v>-0.4320000000000001</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="n">
-        <v>2676</v>
-      </c>
-      <c r="B259" t="n">
-        <v>-0.3159999999999999</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="n">
-        <v>2681</v>
-      </c>
-      <c r="B260" t="n">
-        <v>-0.198</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="n">
-        <v>2686</v>
-      </c>
-      <c r="B261" t="n">
-        <v>-0.168</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="n">
-        <v>2696</v>
-      </c>
-      <c r="B262" t="n">
-        <v>-0.192</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="n">
-        <v>2706</v>
-      </c>
-      <c r="B263" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="n">
-        <v>2726</v>
-      </c>
-      <c r="B264" t="n">
-        <v>-0.314</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="n">
-        <v>2736</v>
-      </c>
-      <c r="B265" t="n">
-        <v>-0.356</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="n">
-        <v>2746</v>
-      </c>
-      <c r="B266" t="n">
-        <v>-0.3079999999999999</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="n">
-        <v>2756</v>
-      </c>
-      <c r="B267" t="n">
-        <v>-0.226</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
-        <v>2766</v>
-      </c>
-      <c r="B268" t="n">
-        <v>-0.178</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="n">
-        <v>2776</v>
-      </c>
-      <c r="B269" t="n">
-        <v>-0.198</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="n">
-        <v>2786</v>
-      </c>
-      <c r="B270" t="n">
-        <v>-0.238</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="n">
-        <v>2796</v>
-      </c>
-      <c r="B271" t="n">
-        <v>-0.206</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="n">
-        <v>2806</v>
-      </c>
-      <c r="B272" t="n">
-        <v>-0.19</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="n">
-        <v>2815</v>
-      </c>
-      <c r="B273" t="n">
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="n">
-        <v>2826</v>
-      </c>
-      <c r="B274" t="n">
-        <v>-0.152</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="n">
-        <v>2837</v>
-      </c>
-      <c r="B275" t="n">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="n">
-        <v>2847</v>
-      </c>
-      <c r="B276" t="n">
-        <v>-0.132</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="n">
-        <v>2856</v>
-      </c>
-      <c r="B277" t="n">
-        <v>-0.112</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="n">
-        <v>2866</v>
-      </c>
-      <c r="B278" t="n">
-        <v>-0.066</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="n">
-        <v>2875</v>
-      </c>
-      <c r="B279" t="n">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="n">
-        <v>2885</v>
-      </c>
-      <c r="B280" t="n">
-        <v>-0.012</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="n">
-        <v>2896</v>
-      </c>
-      <c r="B281" t="n">
-        <v>-0.024</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="n">
-        <v>2906</v>
-      </c>
-      <c r="B282" t="n">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="n">
-        <v>2916</v>
-      </c>
-      <c r="B283" t="n">
-        <v>-0.152</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="n">
-        <v>2925</v>
-      </c>
-      <c r="B284" t="n">
-        <v>-0.278</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="n">
-        <v>2936</v>
-      </c>
-      <c r="B285" t="n">
-        <v>-0.36</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="n">
-        <v>2953</v>
-      </c>
-      <c r="B286" t="n">
-        <v>-0.422</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="n">
-        <v>2956</v>
-      </c>
-      <c r="B287" t="n">
-        <v>-0.418</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
-        <v>2968</v>
-      </c>
-      <c r="B288" t="n">
-        <v>-0.38</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="n">
-        <v>2979</v>
-      </c>
-      <c r="B289" t="n">
-        <v>-0.268</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="n">
-        <v>2989</v>
-      </c>
-      <c r="B290" t="n">
-        <v>-0.157</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="n">
-        <v>2999</v>
-      </c>
-      <c r="B291" t="n">
-        <v>-0.05299999999999999</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="n">
-        <v>3010</v>
-      </c>
-      <c r="B292" t="n">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="n">
-        <v>3021</v>
-      </c>
-      <c r="B293" t="n">
-        <v>0.052</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="n">
-        <v>3031</v>
-      </c>
-      <c r="B294" t="n">
-        <v>0.044</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="n">
-        <v>3040</v>
-      </c>
-      <c r="B295" t="n">
-        <v>0.036</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="n">
-        <v>3047</v>
-      </c>
-      <c r="B296" t="n">
-        <v>-0.03300000000000001</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="n">
-        <v>3055</v>
-      </c>
-      <c r="B297" t="n">
-        <v>-0.144</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="n">
-        <v>3065</v>
-      </c>
-      <c r="B298" t="n">
-        <v>-0.172</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="n">
-        <v>3077</v>
-      </c>
-      <c r="B299" t="n">
-        <v>-0.158</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="n">
-        <v>3090</v>
-      </c>
-      <c r="B300" t="n">
-        <v>-0.195</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="n">
-        <v>3103</v>
-      </c>
-      <c r="B301" t="n">
-        <v>-0.212</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="n">
-        <v>3124</v>
-      </c>
-      <c r="B302" t="n">
-        <v>-0.229</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="n">
-        <v>3134</v>
-      </c>
-      <c r="B303" t="n">
-        <v>-0.268</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="n">
-        <v>3145</v>
-      </c>
-      <c r="B304" t="n">
-        <v>-0.333</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="n">
-        <v>3156</v>
-      </c>
-      <c r="B305" t="n">
-        <v>-0.351</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="n">
-        <v>3167</v>
-      </c>
-      <c r="B306" t="n">
-        <v>-0.357</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="n">
-        <v>3177</v>
-      </c>
-      <c r="B307" t="n">
-        <v>-0.3370000000000001</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="n">
-        <v>3188</v>
-      </c>
-      <c r="B308" t="n">
-        <v>-0.277</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="n">
-        <v>3199</v>
-      </c>
-      <c r="B309" t="n">
-        <v>-0.241</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="n">
-        <v>3212</v>
-      </c>
-      <c r="B310" t="n">
-        <v>-0.184</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="n">
-        <v>3224</v>
-      </c>
-      <c r="B311" t="n">
-        <v>-0.08800000000000001</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="n">
-        <v>3234</v>
-      </c>
-      <c r="B312" t="n">
-        <v>-0.004000000000000001</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="n">
-        <v>3241</v>
-      </c>
-      <c r="B313" t="n">
-        <v>0.03199999999999999</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="n">
-        <v>3247</v>
-      </c>
-      <c r="B314" t="n">
-        <v>0.08699999999999999</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="n">
-        <v>3252</v>
-      </c>
-      <c r="B315" t="n">
-        <v>0.099</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="n">
-        <v>3258</v>
-      </c>
-      <c r="B316" t="n">
-        <v>0.103</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="n">
-        <v>3262</v>
-      </c>
-      <c r="B317" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="n">
-        <v>3269</v>
-      </c>
-      <c r="B318" t="n">
-        <v>0.045</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="n">
-        <v>3278</v>
-      </c>
-      <c r="B319" t="n">
-        <v>-0.04099999999999999</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="n">
-        <v>3290</v>
-      </c>
-      <c r="B320" t="n">
-        <v>-0.111</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="n">
-        <v>3307</v>
-      </c>
-      <c r="B321" t="n">
-        <v>-0.221</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="n">
-        <v>3328</v>
-      </c>
-      <c r="B322" t="n">
-        <v>-0.3059999999999999</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="n">
-        <v>3344</v>
-      </c>
-      <c r="B323" t="n">
-        <v>-0.333</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="n">
-        <v>3353</v>
-      </c>
-      <c r="B324" t="n">
-        <v>-0.327</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="n">
-        <v>3361</v>
-      </c>
-      <c r="B325" t="n">
-        <v>-0.345</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="n">
-        <v>3367</v>
-      </c>
-      <c r="B326" t="n">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="n">
-        <v>3373</v>
-      </c>
-      <c r="B327" t="n">
-        <v>-0.289</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="n">
-        <v>3380</v>
-      </c>
-      <c r="B328" t="n">
-        <v>-0.161</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="n">
-        <v>3388</v>
-      </c>
-      <c r="B329" t="n">
-        <v>-0.06499999999999999</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="n">
-        <v>3399</v>
-      </c>
-      <c r="B330" t="n">
-        <v>0.03200000000000001</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="n">
-        <v>3415</v>
-      </c>
-      <c r="B331" t="n">
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="n">
-        <v>3437</v>
-      </c>
-      <c r="B332" t="n">
-        <v>0.116</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="n">
-        <v>3463</v>
-      </c>
-      <c r="B333" t="n">
-        <v>-0.02000000000000001</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="n">
-        <v>3478</v>
-      </c>
-      <c r="B334" t="n">
-        <v>-0.159</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="n">
-        <v>3485</v>
-      </c>
-      <c r="B335" t="n">
-        <v>-0.288</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="n">
-        <v>3489</v>
-      </c>
-      <c r="B336" t="n">
-        <v>-0.448</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="n">
-        <v>3493</v>
-      </c>
-      <c r="B337" t="n">
-        <v>-0.5359999999999999</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="n">
-        <v>3497</v>
-      </c>
-      <c r="B338" t="n">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="n">
-        <v>3501</v>
-      </c>
-      <c r="B339" t="n">
-        <v>-0.4980000000000001</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="n">
-        <v>3506</v>
-      </c>
-      <c r="B340" t="n">
-        <v>-0.401</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="n">
-        <v>3513</v>
-      </c>
-      <c r="B341" t="n">
-        <v>-0.305</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="n">
-        <v>3527</v>
-      </c>
-      <c r="B342" t="n">
-        <v>-0.232</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="n">
-        <v>3545</v>
-      </c>
-      <c r="B343" t="n">
-        <v>-0.196</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="n">
-        <v>3560</v>
-      </c>
-      <c r="B344" t="n">
-        <v>-0.129</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="n">
-        <v>3571</v>
-      </c>
-      <c r="B345" t="n">
-        <v>-0.111</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="n">
-        <v>3578</v>
-      </c>
-      <c r="B346" t="n">
-        <v>-0.109</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="n">
-        <v>3586</v>
-      </c>
-      <c r="B347" t="n">
-        <v>-0.083</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="n">
-        <v>3593</v>
-      </c>
-      <c r="B348" t="n">
-        <v>-0.08499999999999999</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="n">
-        <v>3601</v>
-      </c>
-      <c r="B349" t="n">
-        <v>-0.106</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="n">
-        <v>3611</v>
-      </c>
-      <c r="B350" t="n">
-        <v>-0.164</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="n">
-        <v>3622</v>
-      </c>
-      <c r="B351" t="n">
-        <v>-0.222</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="n">
-        <v>3635</v>
-      </c>
-      <c r="B352" t="n">
-        <v>-0.288</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="n">
-        <v>3651</v>
-      </c>
-      <c r="B353" t="n">
-        <v>-0.354</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="n">
-        <v>3652</v>
-      </c>
-      <c r="B354" t="n">
-        <v>-0.3230000000000001</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="n">
-        <v>3674</v>
-      </c>
-      <c r="B355" t="n">
-        <v>-0.253</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="n">
-        <v>3685</v>
-      </c>
-      <c r="B356" t="n">
-        <v>-0.165</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="n">
-        <v>3696</v>
-      </c>
-      <c r="B357" t="n">
-        <v>-0.068</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="n">
-        <v>3708</v>
-      </c>
-      <c r="B358" t="n">
-        <v>0.028</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="n">
-        <v>3720</v>
-      </c>
-      <c r="B359" t="n">
-        <v>-0.005999999999999994</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="n">
-        <v>3729</v>
-      </c>
-      <c r="B360" t="n">
-        <v>-0.032</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="n">
-        <v>3738</v>
-      </c>
-      <c r="B361" t="n">
-        <v>-0.044</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="n">
-        <v>3747</v>
-      </c>
-      <c r="B362" t="n">
-        <v>-0.08800000000000001</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="n">
-        <v>3754</v>
-      </c>
-      <c r="B363" t="n">
-        <v>-0.144</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="n">
-        <v>3761</v>
-      </c>
-      <c r="B364" t="n">
-        <v>-0.186</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="n">
-        <v>3767</v>
-      </c>
-      <c r="B365" t="n">
-        <v>-0.276</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="n">
-        <v>3773</v>
-      </c>
-      <c r="B366" t="n">
-        <v>-0.36</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="n">
-        <v>3780</v>
-      </c>
-      <c r="B367" t="n">
-        <v>-0.424</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="n">
-        <v>3789</v>
-      </c>
-      <c r="B368" t="n">
-        <v>-0.464</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="n">
-        <v>3804</v>
-      </c>
-      <c r="B369" t="n">
-        <v>-0.416</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="n">
-        <v>3822</v>
-      </c>
-      <c r="B370" t="n">
-        <v>-0.286</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="n">
-        <v>3836</v>
-      </c>
-      <c r="B371" t="n">
-        <v>-0.158</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="n">
-        <v>3846</v>
-      </c>
-      <c r="B372" t="n">
-        <v>-0.01199999999999999</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="n">
-        <v>3856</v>
-      </c>
-      <c r="B373" t="n">
-        <v>0.07599999999999998</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="n">
-        <v>3865</v>
-      </c>
-      <c r="B374" t="n">
-        <v>0.126</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="n">
-        <v>3874</v>
-      </c>
-      <c r="B375" t="n">
-        <v>0.07799999999999999</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="n">
-        <v>3882</v>
-      </c>
-      <c r="B376" t="n">
-        <v>0.01399999999999998</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="n">
-        <v>3890</v>
-      </c>
-      <c r="B377" t="n">
-        <v>-0.092</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="n">
-        <v>3898</v>
-      </c>
-      <c r="B378" t="n">
-        <v>-0.176</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="n">
-        <v>3908</v>
-      </c>
-      <c r="B379" t="n">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="n">
-        <v>3915</v>
-      </c>
-      <c r="B380" t="n">
-        <v>-0.292</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="n">
-        <v>3918</v>
-      </c>
-      <c r="B381" t="n">
-        <v>-0.3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H381"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="27" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="155" customWidth="1" min="8" max="8"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>depthODP849 [cm]</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>d13Cforams-b</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Y axis inverted</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>History</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.01199999999999999</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Serie filtered</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>#44bae5</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>serie &lt;i&gt;&lt;b&gt;Id-34AE56JH&lt;/i&gt;&lt;/b&gt; filtered with FILTER &lt;i&gt;&lt;b&gt;Id-221A61C2&lt;/i&gt;&lt;/b&gt; with a moving average of size 5&lt;BR&gt;---&gt; serie &lt;i&gt;&lt;b&gt;Id-D4DB0D6D&lt;/b&gt;&lt;/i&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>45</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-0.082</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>55</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.122</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>69</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.156</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>89</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.116</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>109</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-0.058</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>118</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>128</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.048</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>139</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.04000000000000001</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>150</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.044</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>161</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.03200000000000001</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>185</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>194</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-0.062</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>217</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.002000000000000002</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>231</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>243</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.07199999999999999</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>249</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.108</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>256</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.154</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>271</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.138</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>275</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.154</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>280</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.146</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>289</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.192</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>292</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.177</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>296</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.167</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>306</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.143</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>315</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.08399999999999999</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>324</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.06000000000000001</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>333</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.061</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>344</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.073</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>355</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.079</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>366</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.092</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>377</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.07199999999999999</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>388</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.01599999999999999</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>398</v>
-      </c>
-      <c r="B35" t="n">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>408</v>
-      </c>
-      <c r="B36" t="n">
-        <v>-0.174</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>418</v>
-      </c>
-      <c r="B37" t="n">
-        <v>-0.234</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>428</v>
-      </c>
-      <c r="B38" t="n">
-        <v>-0.306</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>437</v>
-      </c>
-      <c r="B39" t="n">
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>447</v>
-      </c>
-      <c r="B40" t="n">
-        <v>-0.356</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>456</v>
-      </c>
-      <c r="B41" t="n">
-        <v>-0.346</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>467</v>
-      </c>
-      <c r="B42" t="n">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>477</v>
-      </c>
-      <c r="B43" t="n">
-        <v>-0.336</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>488</v>
-      </c>
-      <c r="B44" t="n">
-        <v>-0.324</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>498</v>
-      </c>
-      <c r="B45" t="n">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>508</v>
-      </c>
-      <c r="B46" t="n">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>518</v>
-      </c>
-      <c r="B47" t="n">
-        <v>-0.381</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>528</v>
-      </c>
-      <c r="B48" t="n">
-        <v>-0.3150000000000001</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>538</v>
-      </c>
-      <c r="B49" t="n">
-        <v>-0.298</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>548</v>
-      </c>
-      <c r="B50" t="n">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>558</v>
-      </c>
-      <c r="B51" t="n">
-        <v>-0.28</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>568</v>
-      </c>
-      <c r="B52" t="n">
-        <v>-0.266</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>578</v>
-      </c>
-      <c r="B53" t="n">
-        <v>-0.322</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>589</v>
-      </c>
-      <c r="B54" t="n">
-        <v>-0.345</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>599</v>
-      </c>
-      <c r="B55" t="n">
-        <v>-0.369</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>608</v>
-      </c>
-      <c r="B56" t="n">
-        <v>-0.367</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>618</v>
-      </c>
-      <c r="B57" t="n">
-        <v>-0.329</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>628</v>
-      </c>
-      <c r="B58" t="n">
-        <v>-0.248</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>638</v>
-      </c>
-      <c r="B59" t="n">
-        <v>-0.166</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>647</v>
-      </c>
-      <c r="B60" t="n">
-        <v>-0.104</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>657</v>
-      </c>
-      <c r="B61" t="n">
-        <v>-0.05300000000000001</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>667</v>
-      </c>
-      <c r="B62" t="n">
-        <v>-0.03466</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>677</v>
-      </c>
-      <c r="B63" t="n">
-        <v>-0.01166</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>688</v>
-      </c>
-      <c r="B64" t="n">
-        <v>-0.01766</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>698</v>
-      </c>
-      <c r="B65" t="n">
-        <v>-0.01766</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>708</v>
-      </c>
-      <c r="B66" t="n">
-        <v>-0.04666</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>718</v>
-      </c>
-      <c r="B67" t="n">
-        <v>-0.082</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>728</v>
-      </c>
-      <c r="B68" t="n">
-        <v>-0.185</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>737</v>
-      </c>
-      <c r="B69" t="n">
-        <v>-0.278</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>747</v>
-      </c>
-      <c r="B70" t="n">
-        <v>-0.344</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>756</v>
-      </c>
-      <c r="B71" t="n">
-        <v>-0.336</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>757</v>
-      </c>
-      <c r="B72" t="n">
-        <v>-0.314</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>766</v>
-      </c>
-      <c r="B73" t="n">
-        <v>-0.203</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>778</v>
-      </c>
-      <c r="B74" t="n">
-        <v>-0.134</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>791</v>
-      </c>
-      <c r="B75" t="n">
-        <v>-0.114</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>803</v>
-      </c>
-      <c r="B76" t="n">
-        <v>-0.176</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>813</v>
-      </c>
-      <c r="B77" t="n">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>824</v>
-      </c>
-      <c r="B78" t="n">
-        <v>-0.296</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>835</v>
-      </c>
-      <c r="B79" t="n">
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>849</v>
-      </c>
-      <c r="B80" t="n">
-        <v>-0.405</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>861</v>
-      </c>
-      <c r="B81" t="n">
-        <v>-0.369</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>871</v>
-      </c>
-      <c r="B82" t="n">
-        <v>-0.387</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>879</v>
-      </c>
-      <c r="B83" t="n">
-        <v>-0.4470000000000001</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>889</v>
-      </c>
-      <c r="B84" t="n">
-        <v>-0.441</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>895</v>
-      </c>
-      <c r="B85" t="n">
-        <v>-0.374</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>905</v>
-      </c>
-      <c r="B86" t="n">
-        <v>-0.329</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>916</v>
-      </c>
-      <c r="B87" t="n">
-        <v>-0.319</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>927</v>
-      </c>
-      <c r="B88" t="n">
-        <v>-0.261</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>937</v>
-      </c>
-      <c r="B89" t="n">
-        <v>-0.219</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>948</v>
-      </c>
-      <c r="B90" t="n">
-        <v>-0.237</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>960</v>
-      </c>
-      <c r="B91" t="n">
-        <v>-0.264</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>972</v>
-      </c>
-      <c r="B92" t="n">
-        <v>-0.19</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>982</v>
-      </c>
-      <c r="B93" t="n">
-        <v>-0.15466</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>990</v>
-      </c>
-      <c r="B94" t="n">
-        <v>-0.10266</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>996</v>
-      </c>
-      <c r="B95" t="n">
-        <v>-0.03266</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>1003</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.03534</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>1012</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.07334</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>1026</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.08299999999999999</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>1041</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.06199999999999999</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>1052</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.026</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>1059</v>
-      </c>
-      <c r="B101" t="n">
-        <v>-0.052</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>1075</v>
-      </c>
-      <c r="B102" t="n">
-        <v>-0.126</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>1090</v>
-      </c>
-      <c r="B103" t="n">
-        <v>-0.175</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>1105</v>
-      </c>
-      <c r="B104" t="n">
-        <v>-0.235</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>1117</v>
-      </c>
-      <c r="B105" t="n">
-        <v>-0.243</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>1119</v>
-      </c>
-      <c r="B106" t="n">
-        <v>-0.253</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>1125</v>
-      </c>
-      <c r="B107" t="n">
-        <v>-0.305</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>1137</v>
-      </c>
-      <c r="B108" t="n">
-        <v>-0.281</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>1140</v>
-      </c>
-      <c r="B109" t="n">
-        <v>-0.296</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>1146</v>
-      </c>
-      <c r="B110" t="n">
-        <v>-0.3139999999999999</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>1147</v>
-      </c>
-      <c r="B111" t="n">
-        <v>-0.304</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>1158</v>
-      </c>
-      <c r="B112" t="n">
-        <v>-0.238</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>1172</v>
-      </c>
-      <c r="B113" t="n">
-        <v>-0.217</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>1182</v>
-      </c>
-      <c r="B114" t="n">
-        <v>-0.203</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>1192</v>
-      </c>
-      <c r="B115" t="n">
-        <v>-0.134</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>1203</v>
-      </c>
-      <c r="B116" t="n">
-        <v>-0.094</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>1212</v>
-      </c>
-      <c r="B117" t="n">
-        <v>-0.08700000000000002</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>1222</v>
-      </c>
-      <c r="B118" t="n">
-        <v>-0.08400000000000001</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>1232</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.058</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>1252</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0.08499999999999999</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>1262</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>1272</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0.08800000000000001</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>1306</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.03399999999999997</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>1328</v>
-      </c>
-      <c r="B124" t="n">
-        <v>-0.124</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>1358</v>
-      </c>
-      <c r="B125" t="n">
-        <v>-0.233</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>1364</v>
-      </c>
-      <c r="B126" t="n">
-        <v>-0.3749999999999999</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>1369</v>
-      </c>
-      <c r="B127" t="n">
-        <v>-0.341</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>1381</v>
-      </c>
-      <c r="B128" t="n">
-        <v>-0.335</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>1388</v>
-      </c>
-      <c r="B129" t="n">
-        <v>-0.263</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>1395</v>
-      </c>
-      <c r="B130" t="n">
-        <v>-0.278</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>1403</v>
-      </c>
-      <c r="B131" t="n">
-        <v>-0.238</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>1414</v>
-      </c>
-      <c r="B132" t="n">
-        <v>-0.224</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>1436</v>
-      </c>
-      <c r="B133" t="n">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>1444</v>
-      </c>
-      <c r="B134" t="n">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>1453</v>
-      </c>
-      <c r="B135" t="n">
-        <v>-0.204</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>1464</v>
-      </c>
-      <c r="B136" t="n">
-        <v>-0.09399999999999999</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>1475</v>
-      </c>
-      <c r="B137" t="n">
-        <v>-0.0006800000000000029</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>1487</v>
-      </c>
-      <c r="B138" t="n">
-        <v>0.19532</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>1498</v>
-      </c>
-      <c r="B139" t="n">
-        <v>0.3133199999999999</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>1518</v>
-      </c>
-      <c r="B140" t="n">
-        <v>0.41132</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>1527</v>
-      </c>
-      <c r="B141" t="n">
-        <v>0.4003200000000001</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>1537</v>
-      </c>
-      <c r="B142" t="n">
-        <v>0.3689999999999999</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>1547</v>
-      </c>
-      <c r="B143" t="n">
-        <v>0.293</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>1557</v>
-      </c>
-      <c r="B144" t="n">
-        <v>0.275</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>1567</v>
-      </c>
-      <c r="B145" t="n">
-        <v>0.265</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>1577</v>
-      </c>
-      <c r="B146" t="n">
-        <v>0.244</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>1587</v>
-      </c>
-      <c r="B147" t="n">
-        <v>0.208</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>1597</v>
-      </c>
-      <c r="B148" t="n">
-        <v>0.126</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>1607</v>
-      </c>
-      <c r="B149" t="n">
-        <v>0.005999999999999994</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>1617</v>
-      </c>
-      <c r="B150" t="n">
-        <v>-0.074</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>1637</v>
-      </c>
-      <c r="B151" t="n">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>1647</v>
-      </c>
-      <c r="B152" t="n">
-        <v>-0.19</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>1657</v>
-      </c>
-      <c r="B153" t="n">
-        <v>-0.174</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>1667</v>
-      </c>
-      <c r="B154" t="n">
-        <v>-0.117</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>1677</v>
-      </c>
-      <c r="B155" t="n">
-        <v>-0.129</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>1687</v>
-      </c>
-      <c r="B156" t="n">
-        <v>-0.089</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>1697</v>
-      </c>
-      <c r="B157" t="n">
-        <v>-0.06699999999999999</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>1707</v>
-      </c>
-      <c r="B158" t="n">
-        <v>-0.045</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>1717</v>
-      </c>
-      <c r="B159" t="n">
-        <v>-0.02867999999999999</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>1737</v>
-      </c>
-      <c r="B160" t="n">
-        <v>0.02132</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>1747</v>
-      </c>
-      <c r="B161" t="n">
-        <v>-0.03668</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>1757</v>
-      </c>
-      <c r="B162" t="n">
-        <v>-0.02467999999999999</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>1767</v>
-      </c>
-      <c r="B163" t="n">
-        <v>-0.06667999999999999</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>1777</v>
-      </c>
-      <c r="B164" t="n">
-        <v>-0.148</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>1787</v>
-      </c>
-      <c r="B165" t="n">
-        <v>-0.206</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>1797</v>
-      </c>
-      <c r="B166" t="n">
-        <v>-0.146</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>1807</v>
-      </c>
-      <c r="B167" t="n">
-        <v>-0.124</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>1817</v>
-      </c>
-      <c r="B168" t="n">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>1827</v>
-      </c>
-      <c r="B169" t="n">
-        <v>-0.009999999999999998</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>1837</v>
-      </c>
-      <c r="B170" t="n">
-        <v>-5.551115123125783e-18</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>1847</v>
-      </c>
-      <c r="B171" t="n">
-        <v>-0.074</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>1857</v>
-      </c>
-      <c r="B172" t="n">
-        <v>-0.138</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>1867</v>
-      </c>
-      <c r="B173" t="n">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>1887</v>
-      </c>
-      <c r="B174" t="n">
-        <v>-0.258</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>1897</v>
-      </c>
-      <c r="B175" t="n">
-        <v>-0.234</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>1903</v>
-      </c>
-      <c r="B176" t="n">
-        <v>-0.246</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>1907</v>
-      </c>
-      <c r="B177" t="n">
-        <v>-0.272</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>1915</v>
-      </c>
-      <c r="B178" t="n">
-        <v>-0.294</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>1927</v>
-      </c>
-      <c r="B179" t="n">
-        <v>-0.346</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>1938</v>
-      </c>
-      <c r="B180" t="n">
-        <v>-0.462</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>1948</v>
-      </c>
-      <c r="B181" t="n">
-        <v>-0.51</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>1957</v>
-      </c>
-      <c r="B182" t="n">
-        <v>-0.5660000000000001</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>1966</v>
-      </c>
-      <c r="B183" t="n">
-        <v>-0.604</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>1975</v>
-      </c>
-      <c r="B184" t="n">
-        <v>-0.6</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>1985</v>
-      </c>
-      <c r="B185" t="n">
-        <v>-0.552</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>1995</v>
-      </c>
-      <c r="B186" t="n">
-        <v>-0.468</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>2006</v>
-      </c>
-      <c r="B187" t="n">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B188" t="n">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>2028</v>
-      </c>
-      <c r="B189" t="n">
-        <v>-0.244</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>2038</v>
-      </c>
-      <c r="B190" t="n">
-        <v>-0.156</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>2047</v>
-      </c>
-      <c r="B191" t="n">
-        <v>-0.05999999999999998</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>2055</v>
-      </c>
-      <c r="B192" t="n">
-        <v>-0.01600000000000001</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>2063</v>
-      </c>
-      <c r="B193" t="n">
-        <v>0.004000000000000001</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>2070</v>
-      </c>
-      <c r="B194" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>2071</v>
-      </c>
-      <c r="B195" t="n">
-        <v>-0.011</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>2078</v>
-      </c>
-      <c r="B196" t="n">
-        <v>-0.093</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>2085</v>
-      </c>
-      <c r="B197" t="n">
-        <v>-0.113</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>2092</v>
-      </c>
-      <c r="B198" t="n">
-        <v>-0.123</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>2100</v>
-      </c>
-      <c r="B199" t="n">
-        <v>-0.195</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>2116</v>
-      </c>
-      <c r="B200" t="n">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>2123</v>
-      </c>
-      <c r="B201" t="n">
-        <v>-0.248</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>2124</v>
-      </c>
-      <c r="B202" t="n">
-        <v>-0.212</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>2133</v>
-      </c>
-      <c r="B203" t="n">
-        <v>-0.204</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>2141</v>
-      </c>
-      <c r="B204" t="n">
-        <v>-0.184</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>2142</v>
-      </c>
-      <c r="B205" t="n">
-        <v>-0.182</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>2150</v>
-      </c>
-      <c r="B206" t="n">
-        <v>-0.202</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>2159</v>
-      </c>
-      <c r="B207" t="n">
-        <v>-0.285</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>2167</v>
-      </c>
-      <c r="B208" t="n">
-        <v>-0.353</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>2175</v>
-      </c>
-      <c r="B209" t="n">
-        <v>-0.402</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>2184</v>
-      </c>
-      <c r="B210" t="n">
-        <v>-0.4359999999999999</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>2193</v>
-      </c>
-      <c r="B211" t="n">
-        <v>-0.412</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>2203</v>
-      </c>
-      <c r="B212" t="n">
-        <v>-0.364</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>2213</v>
-      </c>
-      <c r="B213" t="n">
-        <v>-0.274</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>2224</v>
-      </c>
-      <c r="B214" t="n">
-        <v>-0.161</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>2235</v>
-      </c>
-      <c r="B215" t="n">
-        <v>-0.113</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>2246</v>
-      </c>
-      <c r="B216" t="n">
-        <v>-0.101</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>2257</v>
-      </c>
-      <c r="B217" t="n">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>2267</v>
-      </c>
-      <c r="B218" t="n">
-        <v>-0.254</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>2276</v>
-      </c>
-      <c r="B219" t="n">
-        <v>-0.378</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>2285</v>
-      </c>
-      <c r="B220" t="n">
-        <v>-0.456</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>2294</v>
-      </c>
-      <c r="B221" t="n">
-        <v>-0.4699999999999999</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>2303</v>
-      </c>
-      <c r="B222" t="n">
-        <v>-0.449</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>2312</v>
-      </c>
-      <c r="B223" t="n">
-        <v>-0.387</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>2322</v>
-      </c>
-      <c r="B224" t="n">
-        <v>-0.3169999999999999</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>2334</v>
-      </c>
-      <c r="B225" t="n">
-        <v>-0.2479999999999999</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
-        <v>2347</v>
-      </c>
-      <c r="B226" t="n">
-        <v>-0.269</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="n">
-        <v>2361</v>
-      </c>
-      <c r="B227" t="n">
-        <v>-0.285</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
-        <v>2375</v>
-      </c>
-      <c r="B228" t="n">
-        <v>-0.275</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
-        <v>2388</v>
-      </c>
-      <c r="B229" t="n">
-        <v>-0.3190000000000001</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v>2399</v>
-      </c>
-      <c r="B230" t="n">
-        <v>-0.322</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>2410</v>
-      </c>
-      <c r="B231" t="n">
-        <v>-0.28432</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>2420</v>
-      </c>
-      <c r="B232" t="n">
-        <v>-0.24432</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="n">
-        <v>2430</v>
-      </c>
-      <c r="B233" t="n">
-        <v>-0.29632</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
-        <v>2440</v>
-      </c>
-      <c r="B234" t="n">
-        <v>-0.31032</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>2450</v>
-      </c>
-      <c r="B235" t="n">
-        <v>-0.31232</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>2461</v>
-      </c>
-      <c r="B236" t="n">
-        <v>-0.399</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>2472</v>
-      </c>
-      <c r="B237" t="n">
-        <v>-0.514</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>2484</v>
-      </c>
-      <c r="B238" t="n">
-        <v>-0.534</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>2495</v>
-      </c>
-      <c r="B239" t="n">
-        <v>-0.5980000000000001</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>2506</v>
-      </c>
-      <c r="B240" t="n">
-        <v>-0.6180000000000001</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>2514</v>
-      </c>
-      <c r="B241" t="n">
-        <v>-0.538</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="n">
-        <v>2517</v>
-      </c>
-      <c r="B242" t="n">
-        <v>-0.517</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="n">
-        <v>2527</v>
-      </c>
-      <c r="B243" t="n">
-        <v>-0.529</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="n">
-        <v>2537</v>
-      </c>
-      <c r="B244" t="n">
-        <v>-0.459</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="n">
-        <v>2542</v>
-      </c>
-      <c r="B245" t="n">
-        <v>-0.4869999999999999</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="n">
-        <v>2546</v>
-      </c>
-      <c r="B246" t="n">
-        <v>-0.5049999999999999</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="n">
-        <v>2552</v>
-      </c>
-      <c r="B247" t="n">
-        <v>-0.484</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="n">
-        <v>2562</v>
-      </c>
-      <c r="B248" t="n">
-        <v>-0.47</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
-        <v>2571</v>
-      </c>
-      <c r="B249" t="n">
-        <v>-0.51</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
-        <v>2583</v>
-      </c>
-      <c r="B250" t="n">
-        <v>-0.5780000000000001</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="n">
-        <v>2592</v>
-      </c>
-      <c r="B251" t="n">
-        <v>-0.6900000000000001</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="n">
-        <v>2602</v>
-      </c>
-      <c r="B252" t="n">
-        <v>-0.736</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="n">
-        <v>2612</v>
-      </c>
-      <c r="B253" t="n">
-        <v>-0.78</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="n">
-        <v>2622</v>
-      </c>
-      <c r="B254" t="n">
-        <v>-0.758</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="n">
-        <v>2632</v>
-      </c>
-      <c r="B255" t="n">
-        <v>-0.6880000000000001</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="n">
-        <v>2652</v>
-      </c>
-      <c r="B256" t="n">
-        <v>-0.612</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="n">
-        <v>2662</v>
-      </c>
-      <c r="B257" t="n">
-        <v>-0.5580000000000001</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="n">
-        <v>2674</v>
-      </c>
-      <c r="B258" t="n">
-        <v>-0.4320000000000001</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="n">
-        <v>2676</v>
-      </c>
-      <c r="B259" t="n">
-        <v>-0.3159999999999999</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="n">
-        <v>2681</v>
-      </c>
-      <c r="B260" t="n">
-        <v>-0.198</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="n">
-        <v>2686</v>
-      </c>
-      <c r="B261" t="n">
-        <v>-0.168</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="n">
-        <v>2696</v>
-      </c>
-      <c r="B262" t="n">
-        <v>-0.192</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="n">
-        <v>2706</v>
-      </c>
-      <c r="B263" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="n">
-        <v>2726</v>
-      </c>
-      <c r="B264" t="n">
-        <v>-0.314</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="n">
-        <v>2736</v>
-      </c>
-      <c r="B265" t="n">
-        <v>-0.356</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="n">
-        <v>2746</v>
-      </c>
-      <c r="B266" t="n">
-        <v>-0.3079999999999999</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="n">
-        <v>2756</v>
-      </c>
-      <c r="B267" t="n">
-        <v>-0.226</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
-        <v>2766</v>
-      </c>
-      <c r="B268" t="n">
-        <v>-0.178</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="n">
-        <v>2776</v>
-      </c>
-      <c r="B269" t="n">
-        <v>-0.198</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="n">
-        <v>2786</v>
-      </c>
-      <c r="B270" t="n">
-        <v>-0.238</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="n">
-        <v>2796</v>
-      </c>
-      <c r="B271" t="n">
-        <v>-0.206</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="n">
-        <v>2806</v>
-      </c>
-      <c r="B272" t="n">
-        <v>-0.19</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="n">
-        <v>2815</v>
-      </c>
-      <c r="B273" t="n">
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="n">
-        <v>2826</v>
-      </c>
-      <c r="B274" t="n">
-        <v>-0.152</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="n">
-        <v>2837</v>
-      </c>
-      <c r="B275" t="n">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="n">
-        <v>2847</v>
-      </c>
-      <c r="B276" t="n">
-        <v>-0.132</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="n">
-        <v>2856</v>
-      </c>
-      <c r="B277" t="n">
-        <v>-0.112</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="n">
-        <v>2866</v>
-      </c>
-      <c r="B278" t="n">
-        <v>-0.066</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="n">
-        <v>2875</v>
-      </c>
-      <c r="B279" t="n">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="n">
-        <v>2885</v>
-      </c>
-      <c r="B280" t="n">
-        <v>-0.012</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="n">
-        <v>2896</v>
-      </c>
-      <c r="B281" t="n">
-        <v>-0.024</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="n">
-        <v>2906</v>
-      </c>
-      <c r="B282" t="n">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="n">
-        <v>2916</v>
-      </c>
-      <c r="B283" t="n">
-        <v>-0.152</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="n">
-        <v>2925</v>
-      </c>
-      <c r="B284" t="n">
-        <v>-0.278</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="n">
-        <v>2936</v>
-      </c>
-      <c r="B285" t="n">
-        <v>-0.36</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="n">
-        <v>2953</v>
-      </c>
-      <c r="B286" t="n">
-        <v>-0.422</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="n">
-        <v>2956</v>
-      </c>
-      <c r="B287" t="n">
-        <v>-0.418</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
-        <v>2968</v>
-      </c>
-      <c r="B288" t="n">
-        <v>-0.38</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="n">
-        <v>2979</v>
-      </c>
-      <c r="B289" t="n">
-        <v>-0.268</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="n">
-        <v>2989</v>
-      </c>
-      <c r="B290" t="n">
-        <v>-0.157</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="n">
-        <v>2999</v>
-      </c>
-      <c r="B291" t="n">
-        <v>-0.05299999999999999</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="n">
-        <v>3010</v>
-      </c>
-      <c r="B292" t="n">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="n">
-        <v>3021</v>
-      </c>
-      <c r="B293" t="n">
-        <v>0.052</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="n">
-        <v>3031</v>
-      </c>
-      <c r="B294" t="n">
-        <v>0.044</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="n">
-        <v>3040</v>
-      </c>
-      <c r="B295" t="n">
-        <v>0.036</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="n">
-        <v>3047</v>
-      </c>
-      <c r="B296" t="n">
-        <v>-0.03300000000000001</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="n">
-        <v>3055</v>
-      </c>
-      <c r="B297" t="n">
-        <v>-0.144</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="n">
-        <v>3065</v>
-      </c>
-      <c r="B298" t="n">
-        <v>-0.172</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="n">
-        <v>3077</v>
-      </c>
-      <c r="B299" t="n">
-        <v>-0.158</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="n">
-        <v>3090</v>
-      </c>
-      <c r="B300" t="n">
-        <v>-0.195</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="n">
-        <v>3103</v>
-      </c>
-      <c r="B301" t="n">
-        <v>-0.212</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="n">
-        <v>3124</v>
-      </c>
-      <c r="B302" t="n">
-        <v>-0.229</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="n">
-        <v>3134</v>
-      </c>
-      <c r="B303" t="n">
-        <v>-0.268</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="n">
-        <v>3145</v>
-      </c>
-      <c r="B304" t="n">
-        <v>-0.333</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="n">
-        <v>3156</v>
-      </c>
-      <c r="B305" t="n">
-        <v>-0.351</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="n">
-        <v>3167</v>
-      </c>
-      <c r="B306" t="n">
-        <v>-0.357</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="n">
-        <v>3177</v>
-      </c>
-      <c r="B307" t="n">
-        <v>-0.3370000000000001</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="n">
-        <v>3188</v>
-      </c>
-      <c r="B308" t="n">
-        <v>-0.277</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="n">
-        <v>3199</v>
-      </c>
-      <c r="B309" t="n">
-        <v>-0.241</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="n">
-        <v>3212</v>
-      </c>
-      <c r="B310" t="n">
-        <v>-0.184</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="n">
-        <v>3224</v>
-      </c>
-      <c r="B311" t="n">
-        <v>-0.08800000000000001</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="n">
-        <v>3234</v>
-      </c>
-      <c r="B312" t="n">
-        <v>-0.004000000000000001</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="n">
-        <v>3241</v>
-      </c>
-      <c r="B313" t="n">
-        <v>0.03199999999999999</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="n">
-        <v>3247</v>
-      </c>
-      <c r="B314" t="n">
-        <v>0.08699999999999999</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="n">
-        <v>3252</v>
-      </c>
-      <c r="B315" t="n">
-        <v>0.099</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="n">
-        <v>3258</v>
-      </c>
-      <c r="B316" t="n">
-        <v>0.103</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="n">
-        <v>3262</v>
-      </c>
-      <c r="B317" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="n">
-        <v>3269</v>
-      </c>
-      <c r="B318" t="n">
-        <v>0.045</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="n">
-        <v>3278</v>
-      </c>
-      <c r="B319" t="n">
-        <v>-0.04099999999999999</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="n">
-        <v>3290</v>
-      </c>
-      <c r="B320" t="n">
-        <v>-0.111</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="n">
-        <v>3307</v>
-      </c>
-      <c r="B321" t="n">
-        <v>-0.221</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="n">
-        <v>3328</v>
-      </c>
-      <c r="B322" t="n">
-        <v>-0.3059999999999999</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="n">
-        <v>3344</v>
-      </c>
-      <c r="B323" t="n">
-        <v>-0.333</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="n">
-        <v>3353</v>
-      </c>
-      <c r="B324" t="n">
-        <v>-0.327</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="n">
-        <v>3361</v>
-      </c>
-      <c r="B325" t="n">
-        <v>-0.345</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="n">
-        <v>3367</v>
-      </c>
-      <c r="B326" t="n">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="n">
-        <v>3373</v>
-      </c>
-      <c r="B327" t="n">
-        <v>-0.289</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="n">
-        <v>3380</v>
-      </c>
-      <c r="B328" t="n">
-        <v>-0.161</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="n">
-        <v>3388</v>
-      </c>
-      <c r="B329" t="n">
-        <v>-0.06499999999999999</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="n">
-        <v>3399</v>
-      </c>
-      <c r="B330" t="n">
-        <v>0.03200000000000001</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="n">
-        <v>3415</v>
-      </c>
-      <c r="B331" t="n">
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="n">
-        <v>3437</v>
-      </c>
-      <c r="B332" t="n">
-        <v>0.116</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="n">
-        <v>3463</v>
-      </c>
-      <c r="B333" t="n">
-        <v>-0.02000000000000001</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="n">
-        <v>3478</v>
-      </c>
-      <c r="B334" t="n">
-        <v>-0.159</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="n">
-        <v>3485</v>
-      </c>
-      <c r="B335" t="n">
-        <v>-0.288</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="n">
-        <v>3489</v>
-      </c>
-      <c r="B336" t="n">
-        <v>-0.448</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="n">
-        <v>3493</v>
-      </c>
-      <c r="B337" t="n">
-        <v>-0.5359999999999999</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="n">
-        <v>3497</v>
-      </c>
-      <c r="B338" t="n">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="n">
-        <v>3501</v>
-      </c>
-      <c r="B339" t="n">
-        <v>-0.4980000000000001</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="n">
-        <v>3506</v>
-      </c>
-      <c r="B340" t="n">
-        <v>-0.401</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="n">
-        <v>3513</v>
-      </c>
-      <c r="B341" t="n">
-        <v>-0.305</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="n">
-        <v>3527</v>
-      </c>
-      <c r="B342" t="n">
-        <v>-0.232</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="n">
-        <v>3545</v>
-      </c>
-      <c r="B343" t="n">
-        <v>-0.196</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="n">
-        <v>3560</v>
-      </c>
-      <c r="B344" t="n">
-        <v>-0.129</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="n">
-        <v>3571</v>
-      </c>
-      <c r="B345" t="n">
-        <v>-0.111</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="n">
-        <v>3578</v>
-      </c>
-      <c r="B346" t="n">
-        <v>-0.109</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="n">
-        <v>3586</v>
-      </c>
-      <c r="B347" t="n">
-        <v>-0.083</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="n">
-        <v>3593</v>
-      </c>
-      <c r="B348" t="n">
-        <v>-0.08499999999999999</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="n">
-        <v>3601</v>
-      </c>
-      <c r="B349" t="n">
-        <v>-0.106</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="n">
-        <v>3611</v>
-      </c>
-      <c r="B350" t="n">
-        <v>-0.164</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="n">
-        <v>3622</v>
-      </c>
-      <c r="B351" t="n">
-        <v>-0.222</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="n">
-        <v>3635</v>
-      </c>
-      <c r="B352" t="n">
-        <v>-0.288</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="n">
-        <v>3651</v>
-      </c>
-      <c r="B353" t="n">
-        <v>-0.354</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="n">
-        <v>3652</v>
-      </c>
-      <c r="B354" t="n">
-        <v>-0.3230000000000001</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="n">
-        <v>3674</v>
-      </c>
-      <c r="B355" t="n">
-        <v>-0.253</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="n">
-        <v>3685</v>
-      </c>
-      <c r="B356" t="n">
-        <v>-0.165</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="n">
-        <v>3696</v>
-      </c>
-      <c r="B357" t="n">
-        <v>-0.068</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="n">
-        <v>3708</v>
-      </c>
-      <c r="B358" t="n">
-        <v>0.028</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="n">
-        <v>3720</v>
-      </c>
-      <c r="B359" t="n">
-        <v>-0.005999999999999994</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="n">
-        <v>3729</v>
-      </c>
-      <c r="B360" t="n">
-        <v>-0.032</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="n">
-        <v>3738</v>
-      </c>
-      <c r="B361" t="n">
-        <v>-0.044</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="n">
-        <v>3747</v>
-      </c>
-      <c r="B362" t="n">
-        <v>-0.08800000000000001</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="n">
-        <v>3754</v>
-      </c>
-      <c r="B363" t="n">
-        <v>-0.144</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="n">
-        <v>3761</v>
-      </c>
-      <c r="B364" t="n">
-        <v>-0.186</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="n">
-        <v>3767</v>
-      </c>
-      <c r="B365" t="n">
-        <v>-0.276</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="n">
-        <v>3773</v>
-      </c>
-      <c r="B366" t="n">
-        <v>-0.36</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="n">
-        <v>3780</v>
-      </c>
-      <c r="B367" t="n">
-        <v>-0.424</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="n">
-        <v>3789</v>
-      </c>
-      <c r="B368" t="n">
-        <v>-0.464</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="n">
-        <v>3804</v>
-      </c>
-      <c r="B369" t="n">
-        <v>-0.416</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="n">
-        <v>3822</v>
-      </c>
-      <c r="B370" t="n">
-        <v>-0.286</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="n">
-        <v>3836</v>
-      </c>
-      <c r="B371" t="n">
-        <v>-0.158</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="n">
-        <v>3846</v>
-      </c>
-      <c r="B372" t="n">
-        <v>-0.01199999999999999</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="n">
-        <v>3856</v>
-      </c>
-      <c r="B373" t="n">
-        <v>0.07599999999999998</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="n">
-        <v>3865</v>
-      </c>
-      <c r="B374" t="n">
-        <v>0.126</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="n">
-        <v>3874</v>
-      </c>
-      <c r="B375" t="n">
-        <v>0.07799999999999999</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="n">
-        <v>3882</v>
-      </c>
-      <c r="B376" t="n">
-        <v>0.01399999999999998</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="n">
-        <v>3890</v>
-      </c>
-      <c r="B377" t="n">
-        <v>-0.092</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="n">
-        <v>3898</v>
-      </c>
-      <c r="B378" t="n">
-        <v>-0.176</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="n">
-        <v>3908</v>
-      </c>
-      <c r="B379" t="n">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="n">
-        <v>3915</v>
-      </c>
-      <c r="B380" t="n">
-        <v>-0.292</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="n">
-        <v>3918</v>
-      </c>
-      <c r="B381" t="n">
-        <v>-0.3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:H385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19293,79 +9896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Parameters</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>History</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>FILTER</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>a filter</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -27464,7 +17995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/test/ws_ex_5.0.xlsx
+++ b/test/ws_ex_5.0.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Serie Id-0CF20BB2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="INTERPOLATION Id-C2F3FDA9" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Serie Id-67GH89BG" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Serie Id-56TY87JG" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Serie Id-67GH89BG" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Serie Id-34AE56JH" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Serie Id-34AE56JH" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="INTERPOLATION Id-C2F3FDA9" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8516,7 +8516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8524,47 +8524,53 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="27" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>X1Coords</t>
+          <t>depthODP849 [cm]</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>X2Coords</t>
+          <t>d18Oforams-b</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
-        <is>
-          <t>X1Name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Y axis inverted</t>
+        </is>
+      </c>
       <c r="F1" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>Comment</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>History</t>
         </is>
@@ -8572,155 +8578,3094 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.34</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>3.66</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Age (ka)</t>
+          <t>Serie</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>INTERPOLATION</t>
+          <t>a serie</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
-          <t>Imported INTERPOLATION</t>
+          <t>#e377c2</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10.6</v>
+        <v>17</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>25.4</v>
+        <v>28</v>
       </c>
       <c r="B4" t="n">
-        <v>66</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>30.7</v>
+        <v>45</v>
       </c>
       <c r="B5" t="n">
-        <v>95</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>50.98575828</v>
+        <v>55</v>
       </c>
       <c r="B6" t="n">
-        <v>180.1195056</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>60.87</v>
+        <v>69</v>
       </c>
       <c r="B7" t="n">
-        <v>222.25</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>75.0940274</v>
+        <v>89</v>
       </c>
       <c r="B8" t="n">
-        <v>270.8251074</v>
+        <v>4.675</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>85.83231696</v>
+        <v>109</v>
       </c>
       <c r="B9" t="n">
-        <v>325.678361</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>93.69387322</v>
+        <v>118</v>
       </c>
       <c r="B10" t="n">
-        <v>360.4105867</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>102.7831161</v>
+        <v>128</v>
       </c>
       <c r="B11" t="n">
-        <v>395.1476982</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>110.1334365</v>
+        <v>139</v>
       </c>
       <c r="B12" t="n">
-        <v>418.6029405</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>116.4434411</v>
+        <v>150</v>
       </c>
       <c r="B13" t="n">
-        <v>431.7460743</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>129.17</v>
+        <v>161</v>
       </c>
       <c r="B14" t="n">
-        <v>458.39</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>165.62</v>
+        <v>185</v>
       </c>
       <c r="B15" t="n">
-        <v>519.13</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>191.08</v>
+        <v>194</v>
       </c>
       <c r="B16" t="n">
-        <v>571.37</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>220.04</v>
+        <v>217</v>
       </c>
       <c r="B17" t="n">
-        <v>605.17</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>241.91</v>
+        <v>231</v>
       </c>
       <c r="B18" t="n">
-        <v>641.1</v>
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>243</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>249</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>256</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>271</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>275</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>280</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>289</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>292</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>296</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>306</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.845</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>315</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>324</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>333</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>344</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3.745</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>355</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>366</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>377</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>388</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>398</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>408</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>418</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>428</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>437</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4.795</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>447</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>456</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>467</v>
+      </c>
+      <c r="B44" t="n">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>477</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>488</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>498</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>508</v>
+      </c>
+      <c r="B48" t="n">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>518</v>
+      </c>
+      <c r="B49" t="n">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>528</v>
+      </c>
+      <c r="B50" t="n">
+        <v>4.81</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>538</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>548</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>558</v>
+      </c>
+      <c r="B53" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>568</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>578</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>589</v>
+      </c>
+      <c r="B56" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>599</v>
+      </c>
+      <c r="B57" t="n">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>608</v>
+      </c>
+      <c r="B58" t="n">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>618</v>
+      </c>
+      <c r="B59" t="n">
+        <v>4.35</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>628</v>
+      </c>
+      <c r="B60" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>638</v>
+      </c>
+      <c r="B61" t="n">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>647</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3.885</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>657</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>667</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3.705</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>677</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3.635</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>688</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>698</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>708</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>718</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>728</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>737</v>
+      </c>
+      <c r="B71" t="n">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>747</v>
+      </c>
+      <c r="B72" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>756</v>
+      </c>
+      <c r="B73" t="n">
+        <v>4.265</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>757</v>
+      </c>
+      <c r="B74" t="n">
+        <v>4.39</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>766</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>778</v>
+      </c>
+      <c r="B76" t="n">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>791</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>803</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>813</v>
+      </c>
+      <c r="B79" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>824</v>
+      </c>
+      <c r="B80" t="n">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>835</v>
+      </c>
+      <c r="B81" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>849</v>
+      </c>
+      <c r="B82" t="n">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>861</v>
+      </c>
+      <c r="B83" t="n">
+        <v>4.335</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>871</v>
+      </c>
+      <c r="B84" t="n">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>879</v>
+      </c>
+      <c r="B85" t="n">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>889</v>
+      </c>
+      <c r="B86" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>895</v>
+      </c>
+      <c r="B87" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>905</v>
+      </c>
+      <c r="B88" t="n">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>916</v>
+      </c>
+      <c r="B89" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>927</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3.895</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>937</v>
+      </c>
+      <c r="B91" t="n">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>948</v>
+      </c>
+      <c r="B92" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>960</v>
+      </c>
+      <c r="B93" t="n">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>972</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>982</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>990</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3.695</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>996</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3.8333</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B99" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B100" t="n">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1052</v>
+      </c>
+      <c r="B102" t="n">
+        <v>3.285</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1059</v>
+      </c>
+      <c r="B103" t="n">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1075</v>
+      </c>
+      <c r="B104" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B105" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B107" t="n">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B108" t="n">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B109" t="n">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1137</v>
+      </c>
+      <c r="B110" t="n">
+        <v>4.405</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B111" t="n">
+        <v>4.195</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1146</v>
+      </c>
+      <c r="B112" t="n">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1147</v>
+      </c>
+      <c r="B113" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1158</v>
+      </c>
+      <c r="B114" t="n">
+        <v>4.395</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1172</v>
+      </c>
+      <c r="B115" t="n">
+        <v>4.325</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1182</v>
+      </c>
+      <c r="B116" t="n">
+        <v>4.055</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1192</v>
+      </c>
+      <c r="B117" t="n">
+        <v>4.165</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B118" t="n">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B119" t="n">
+        <v>4.095</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1222</v>
+      </c>
+      <c r="B120" t="n">
+        <v>4.02</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1232</v>
+      </c>
+      <c r="B121" t="n">
+        <v>4.02</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1252</v>
+      </c>
+      <c r="B122" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1262</v>
+      </c>
+      <c r="B123" t="n">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1272</v>
+      </c>
+      <c r="B124" t="n">
+        <v>3.145</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1306</v>
+      </c>
+      <c r="B125" t="n">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1328</v>
+      </c>
+      <c r="B126" t="n">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1358</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4.86</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1364</v>
+      </c>
+      <c r="B128" t="n">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4.815</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1381</v>
+      </c>
+      <c r="B130" t="n">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1388</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1395</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1403</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1414</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4.615</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1436</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1444</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1453</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1464</v>
+      </c>
+      <c r="B138" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1475</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1487</v>
+      </c>
+      <c r="B140" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1498</v>
+      </c>
+      <c r="B141" t="n">
+        <v>3.7333</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1518</v>
+      </c>
+      <c r="B142" t="n">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1527</v>
+      </c>
+      <c r="B143" t="n">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1537</v>
+      </c>
+      <c r="B144" t="n">
+        <v>3.805</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1547</v>
+      </c>
+      <c r="B145" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1557</v>
+      </c>
+      <c r="B146" t="n">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1567</v>
+      </c>
+      <c r="B147" t="n">
+        <v>3.875</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1577</v>
+      </c>
+      <c r="B148" t="n">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1587</v>
+      </c>
+      <c r="B149" t="n">
+        <v>4.11</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1597</v>
+      </c>
+      <c r="B150" t="n">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1607</v>
+      </c>
+      <c r="B151" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1617</v>
+      </c>
+      <c r="B152" t="n">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1637</v>
+      </c>
+      <c r="B153" t="n">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1647</v>
+      </c>
+      <c r="B154" t="n">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1657</v>
+      </c>
+      <c r="B155" t="n">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1667</v>
+      </c>
+      <c r="B156" t="n">
+        <v>4.515</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1677</v>
+      </c>
+      <c r="B157" t="n">
+        <v>4.23</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1687</v>
+      </c>
+      <c r="B158" t="n">
+        <v>4.315</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1697</v>
+      </c>
+      <c r="B159" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1707</v>
+      </c>
+      <c r="B160" t="n">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>1717</v>
+      </c>
+      <c r="B161" t="n">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1737</v>
+      </c>
+      <c r="B162" t="n">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1747</v>
+      </c>
+      <c r="B163" t="n">
+        <v>3.6233</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1757</v>
+      </c>
+      <c r="B164" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1767</v>
+      </c>
+      <c r="B165" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1777</v>
+      </c>
+      <c r="B166" t="n">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1787</v>
+      </c>
+      <c r="B167" t="n">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1797</v>
+      </c>
+      <c r="B168" t="n">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1807</v>
+      </c>
+      <c r="B169" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1817</v>
+      </c>
+      <c r="B170" t="n">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1827</v>
+      </c>
+      <c r="B171" t="n">
+        <v>4.11</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1837</v>
+      </c>
+      <c r="B172" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1847</v>
+      </c>
+      <c r="B173" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1857</v>
+      </c>
+      <c r="B174" t="n">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1867</v>
+      </c>
+      <c r="B175" t="n">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1887</v>
+      </c>
+      <c r="B176" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1897</v>
+      </c>
+      <c r="B177" t="n">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1903</v>
+      </c>
+      <c r="B178" t="n">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1907</v>
+      </c>
+      <c r="B179" t="n">
+        <v>4.65</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1915</v>
+      </c>
+      <c r="B180" t="n">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1927</v>
+      </c>
+      <c r="B181" t="n">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B182" t="n">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1948</v>
+      </c>
+      <c r="B183" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1957</v>
+      </c>
+      <c r="B184" t="n">
+        <v>4.52</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1966</v>
+      </c>
+      <c r="B185" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1975</v>
+      </c>
+      <c r="B186" t="n">
+        <v>4.445</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1985</v>
+      </c>
+      <c r="B187" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B188" t="n">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B189" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B190" t="n">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B191" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B192" t="n">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>2047</v>
+      </c>
+      <c r="B193" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>2055</v>
+      </c>
+      <c r="B194" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>2063</v>
+      </c>
+      <c r="B195" t="n">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>2070</v>
+      </c>
+      <c r="B196" t="n">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>2071</v>
+      </c>
+      <c r="B197" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>2078</v>
+      </c>
+      <c r="B198" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>2085</v>
+      </c>
+      <c r="B199" t="n">
+        <v>3.955</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>2092</v>
+      </c>
+      <c r="B200" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B201" t="n">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>2116</v>
+      </c>
+      <c r="B202" t="n">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>2123</v>
+      </c>
+      <c r="B203" t="n">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>2124</v>
+      </c>
+      <c r="B204" t="n">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>2133</v>
+      </c>
+      <c r="B205" t="n">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>2141</v>
+      </c>
+      <c r="B206" t="n">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>2142</v>
+      </c>
+      <c r="B207" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>2150</v>
+      </c>
+      <c r="B208" t="n">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>2159</v>
+      </c>
+      <c r="B209" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>2167</v>
+      </c>
+      <c r="B210" t="n">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>2175</v>
+      </c>
+      <c r="B211" t="n">
+        <v>4.105</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>2184</v>
+      </c>
+      <c r="B212" t="n">
+        <v>4.215</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>2193</v>
+      </c>
+      <c r="B213" t="n">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>2203</v>
+      </c>
+      <c r="B214" t="n">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>2213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>2224</v>
+      </c>
+      <c r="B216" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>2235</v>
+      </c>
+      <c r="B217" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>2246</v>
+      </c>
+      <c r="B218" t="n">
+        <v>3.555</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>2257</v>
+      </c>
+      <c r="B219" t="n">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>2267</v>
+      </c>
+      <c r="B220" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>2276</v>
+      </c>
+      <c r="B221" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>2285</v>
+      </c>
+      <c r="B222" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>2294</v>
+      </c>
+      <c r="B223" t="n">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>2303</v>
+      </c>
+      <c r="B224" t="n">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>2312</v>
+      </c>
+      <c r="B225" t="n">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>2322</v>
+      </c>
+      <c r="B226" t="n">
+        <v>4.065</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>2334</v>
+      </c>
+      <c r="B227" t="n">
+        <v>4.075</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>2347</v>
+      </c>
+      <c r="B228" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>2361</v>
+      </c>
+      <c r="B229" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>2375</v>
+      </c>
+      <c r="B230" t="n">
+        <v>3.785</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>2388</v>
+      </c>
+      <c r="B231" t="n">
+        <v>3.815</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>2399</v>
+      </c>
+      <c r="B232" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>2410</v>
+      </c>
+      <c r="B233" t="n">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>2420</v>
+      </c>
+      <c r="B234" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>2430</v>
+      </c>
+      <c r="B235" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>2440</v>
+      </c>
+      <c r="B236" t="n">
+        <v>3.535</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>2450</v>
+      </c>
+      <c r="B237" t="n">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>2461</v>
+      </c>
+      <c r="B238" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>2472</v>
+      </c>
+      <c r="B239" t="n">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>2484</v>
+      </c>
+      <c r="B240" t="n">
+        <v>4.575</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>2495</v>
+      </c>
+      <c r="B241" t="n">
+        <v>4.61</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>2506</v>
+      </c>
+      <c r="B242" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>2514</v>
+      </c>
+      <c r="B243" t="n">
+        <v>4.39</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>2517</v>
+      </c>
+      <c r="B244" t="n">
+        <v>4.39</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>2527</v>
+      </c>
+      <c r="B245" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>2537</v>
+      </c>
+      <c r="B246" t="n">
+        <v>4.56</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>2542</v>
+      </c>
+      <c r="B247" t="n">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>2546</v>
+      </c>
+      <c r="B248" t="n">
+        <v>4.48</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>2552</v>
+      </c>
+      <c r="B249" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>2562</v>
+      </c>
+      <c r="B250" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>2571</v>
+      </c>
+      <c r="B251" t="n">
+        <v>4.19</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>2583</v>
+      </c>
+      <c r="B252" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>2592</v>
+      </c>
+      <c r="B253" t="n">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>2602</v>
+      </c>
+      <c r="B254" t="n">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>2612</v>
+      </c>
+      <c r="B255" t="n">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>2622</v>
+      </c>
+      <c r="B256" t="n">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>2632</v>
+      </c>
+      <c r="B257" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>2652</v>
+      </c>
+      <c r="B258" t="n">
+        <v>4.02</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>2662</v>
+      </c>
+      <c r="B259" t="n">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>2674</v>
+      </c>
+      <c r="B260" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>2676</v>
+      </c>
+      <c r="B261" t="n">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>2681</v>
+      </c>
+      <c r="B262" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>2686</v>
+      </c>
+      <c r="B263" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>2696</v>
+      </c>
+      <c r="B264" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>2706</v>
+      </c>
+      <c r="B265" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>2726</v>
+      </c>
+      <c r="B266" t="n">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>2736</v>
+      </c>
+      <c r="B267" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>2746</v>
+      </c>
+      <c r="B268" t="n">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>2756</v>
+      </c>
+      <c r="B269" t="n">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>2766</v>
+      </c>
+      <c r="B270" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>2776</v>
+      </c>
+      <c r="B271" t="n">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>2786</v>
+      </c>
+      <c r="B272" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>2796</v>
+      </c>
+      <c r="B273" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>2806</v>
+      </c>
+      <c r="B274" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>2815</v>
+      </c>
+      <c r="B275" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>2826</v>
+      </c>
+      <c r="B276" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>2837</v>
+      </c>
+      <c r="B277" t="n">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>2847</v>
+      </c>
+      <c r="B278" t="n">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>2856</v>
+      </c>
+      <c r="B279" t="n">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>2866</v>
+      </c>
+      <c r="B280" t="n">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>2875</v>
+      </c>
+      <c r="B281" t="n">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>2885</v>
+      </c>
+      <c r="B282" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>2896</v>
+      </c>
+      <c r="B283" t="n">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>2906</v>
+      </c>
+      <c r="B284" t="n">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>2916</v>
+      </c>
+      <c r="B285" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>2925</v>
+      </c>
+      <c r="B286" t="n">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>2936</v>
+      </c>
+      <c r="B287" t="n">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>2953</v>
+      </c>
+      <c r="B288" t="n">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>2956</v>
+      </c>
+      <c r="B289" t="n">
+        <v>4.19</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>2968</v>
+      </c>
+      <c r="B290" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>2979</v>
+      </c>
+      <c r="B291" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>2989</v>
+      </c>
+      <c r="B292" t="n">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>2999</v>
+      </c>
+      <c r="B293" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>3010</v>
+      </c>
+      <c r="B294" t="n">
+        <v>3.165</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>3021</v>
+      </c>
+      <c r="B295" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>3031</v>
+      </c>
+      <c r="B296" t="n">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>3040</v>
+      </c>
+      <c r="B297" t="n">
+        <v>3.705</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>3047</v>
+      </c>
+      <c r="B298" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>3055</v>
+      </c>
+      <c r="B299" t="n">
+        <v>3.985</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>3065</v>
+      </c>
+      <c r="B300" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>3077</v>
+      </c>
+      <c r="B301" t="n">
+        <v>4.225</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>3090</v>
+      </c>
+      <c r="B302" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>3103</v>
+      </c>
+      <c r="B303" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>3124</v>
+      </c>
+      <c r="B304" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>3134</v>
+      </c>
+      <c r="B305" t="n">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>3145</v>
+      </c>
+      <c r="B306" t="n">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>3156</v>
+      </c>
+      <c r="B307" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>3167</v>
+      </c>
+      <c r="B308" t="n">
+        <v>4.185</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>3177</v>
+      </c>
+      <c r="B309" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>3188</v>
+      </c>
+      <c r="B310" t="n">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>3199</v>
+      </c>
+      <c r="B311" t="n">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>3212</v>
+      </c>
+      <c r="B312" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>3224</v>
+      </c>
+      <c r="B313" t="n">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>3234</v>
+      </c>
+      <c r="B314" t="n">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>3241</v>
+      </c>
+      <c r="B315" t="n">
+        <v>3.675</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>3247</v>
+      </c>
+      <c r="B316" t="n">
+        <v>3.545</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>3252</v>
+      </c>
+      <c r="B317" t="n">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>3258</v>
+      </c>
+      <c r="B318" t="n">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>3262</v>
+      </c>
+      <c r="B319" t="n">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>3269</v>
+      </c>
+      <c r="B320" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>3278</v>
+      </c>
+      <c r="B321" t="n">
+        <v>3.825</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>3290</v>
+      </c>
+      <c r="B322" t="n">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>3307</v>
+      </c>
+      <c r="B323" t="n">
+        <v>4.155</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>3328</v>
+      </c>
+      <c r="B324" t="n">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>3344</v>
+      </c>
+      <c r="B325" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>3353</v>
+      </c>
+      <c r="B326" t="n">
+        <v>4.385</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>3361</v>
+      </c>
+      <c r="B327" t="n">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>3367</v>
+      </c>
+      <c r="B328" t="n">
+        <v>4.19</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>3373</v>
+      </c>
+      <c r="B329" t="n">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>3380</v>
+      </c>
+      <c r="B330" t="n">
+        <v>4.055</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>3388</v>
+      </c>
+      <c r="B331" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>3399</v>
+      </c>
+      <c r="B332" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>3415</v>
+      </c>
+      <c r="B333" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>3437</v>
+      </c>
+      <c r="B334" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>3463</v>
+      </c>
+      <c r="B335" t="n">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>3478</v>
+      </c>
+      <c r="B336" t="n">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>3485</v>
+      </c>
+      <c r="B337" t="n">
+        <v>3.665</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>3489</v>
+      </c>
+      <c r="B338" t="n">
+        <v>4.005</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>3493</v>
+      </c>
+      <c r="B339" t="n">
+        <v>4.265</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>3497</v>
+      </c>
+      <c r="B340" t="n">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>3501</v>
+      </c>
+      <c r="B341" t="n">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>3506</v>
+      </c>
+      <c r="B342" t="n">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>3513</v>
+      </c>
+      <c r="B343" t="n">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>3527</v>
+      </c>
+      <c r="B344" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>3545</v>
+      </c>
+      <c r="B345" t="n">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>3560</v>
+      </c>
+      <c r="B346" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>3571</v>
+      </c>
+      <c r="B347" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>3578</v>
+      </c>
+      <c r="B348" t="n">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>3586</v>
+      </c>
+      <c r="B349" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>3593</v>
+      </c>
+      <c r="B350" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>3601</v>
+      </c>
+      <c r="B351" t="n">
+        <v>3.715</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>3611</v>
+      </c>
+      <c r="B352" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>3622</v>
+      </c>
+      <c r="B353" t="n">
+        <v>3.665</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>3635</v>
+      </c>
+      <c r="B354" t="n">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>3651</v>
+      </c>
+      <c r="B355" t="n">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>3652</v>
+      </c>
+      <c r="B356" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>3674</v>
+      </c>
+      <c r="B357" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>3685</v>
+      </c>
+      <c r="B358" t="n">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>3696</v>
+      </c>
+      <c r="B359" t="n">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>3708</v>
+      </c>
+      <c r="B360" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>3720</v>
+      </c>
+      <c r="B361" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>3729</v>
+      </c>
+      <c r="B362" t="n">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>3738</v>
+      </c>
+      <c r="B363" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>3747</v>
+      </c>
+      <c r="B364" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>3754</v>
+      </c>
+      <c r="B365" t="n">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>3761</v>
+      </c>
+      <c r="B366" t="n">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>3767</v>
+      </c>
+      <c r="B367" t="n">
+        <v>4.19</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>3773</v>
+      </c>
+      <c r="B368" t="n">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>3780</v>
+      </c>
+      <c r="B369" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>3789</v>
+      </c>
+      <c r="B370" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>3804</v>
+      </c>
+      <c r="B371" t="n">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>3822</v>
+      </c>
+      <c r="B372" t="n">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>3836</v>
+      </c>
+      <c r="B373" t="n">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>3846</v>
+      </c>
+      <c r="B374" t="n">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>3856</v>
+      </c>
+      <c r="B375" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>3865</v>
+      </c>
+      <c r="B376" t="n">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>3874</v>
+      </c>
+      <c r="B377" t="n">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>3882</v>
+      </c>
+      <c r="B378" t="n">
+        <v>3.445</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>3890</v>
+      </c>
+      <c r="B379" t="n">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>3898</v>
+      </c>
+      <c r="B380" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>3908</v>
+      </c>
+      <c r="B381" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>3915</v>
+      </c>
+      <c r="B382" t="n">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>3918</v>
+      </c>
+      <c r="B383" t="n">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>3922</v>
+      </c>
+      <c r="B384" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>3928</v>
+      </c>
+      <c r="B385" t="n">
+        <v>4.12</v>
       </c>
     </row>
   </sheetData>
@@ -8812,7 +11757,7 @@
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -11908,7 +14853,7 @@
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="17" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
@@ -11923,7 +14868,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>d18Oforams-b</t>
+          <t>d13Cforams-b</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -11962,24 +14907,20 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>3.66</v>
+        <v>0.21</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Serie</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>a serie</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>#e377c2</t>
+          <t>#2f3dff</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -11990,7 +14931,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="n">
-        <v>3.49</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -11998,7 +14939,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="n">
-        <v>3.31</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="5">
@@ -12006,7 +14947,7 @@
         <v>45</v>
       </c>
       <c r="B5" t="n">
-        <v>4.17</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="6">
@@ -12014,7 +14955,7 @@
         <v>55</v>
       </c>
       <c r="B6" t="n">
-        <v>4.69</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="7">
@@ -12022,7 +14963,7 @@
         <v>69</v>
       </c>
       <c r="B7" t="n">
-        <v>4.92</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="8">
@@ -12030,7 +14971,7 @@
         <v>89</v>
       </c>
       <c r="B8" t="n">
-        <v>4.675</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="9">
@@ -12038,7 +14979,7 @@
         <v>109</v>
       </c>
       <c r="B9" t="n">
-        <v>4.59</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="10">
@@ -12046,7 +14987,7 @@
         <v>118</v>
       </c>
       <c r="B10" t="n">
-        <v>4.55</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="11">
@@ -12054,7 +14995,7 @@
         <v>128</v>
       </c>
       <c r="B11" t="n">
-        <v>4.72</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12">
@@ -12062,7 +15003,7 @@
         <v>139</v>
       </c>
       <c r="B12" t="n">
-        <v>4.36</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13">
@@ -12070,7 +15011,7 @@
         <v>150</v>
       </c>
       <c r="B13" t="n">
-        <v>4.46</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14">
@@ -12078,7 +15019,7 @@
         <v>161</v>
       </c>
       <c r="B14" t="n">
-        <v>4.63</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="15">
@@ -12086,7 +15027,7 @@
         <v>185</v>
       </c>
       <c r="B15" t="n">
-        <v>4.47</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -12094,7 +15035,7 @@
         <v>194</v>
       </c>
       <c r="B16" t="n">
-        <v>4.45</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="17">
@@ -12102,7 +15043,7 @@
         <v>217</v>
       </c>
       <c r="B17" t="n">
-        <v>4.54</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="18">
@@ -12110,7 +15051,7 @@
         <v>231</v>
       </c>
       <c r="B18" t="n">
-        <v>4.57</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="19">
@@ -12118,7 +15059,7 @@
         <v>243</v>
       </c>
       <c r="B19" t="n">
-        <v>4.27</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="20">
@@ -12126,7 +15067,7 @@
         <v>249</v>
       </c>
       <c r="B20" t="n">
-        <v>4.14</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="21">
@@ -12134,7 +15075,7 @@
         <v>256</v>
       </c>
       <c r="B21" t="n">
-        <v>4.1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="22">
@@ -12142,7 +15083,7 @@
         <v>271</v>
       </c>
       <c r="B22" t="n">
-        <v>4.32</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="23">
@@ -12150,7 +15091,7 @@
         <v>275</v>
       </c>
       <c r="B23" t="n">
-        <v>3.95</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="24">
@@ -12158,7 +15099,7 @@
         <v>280</v>
       </c>
       <c r="B24" t="n">
-        <v>3.83</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="25">
@@ -12166,7 +15107,7 @@
         <v>289</v>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="26">
@@ -12174,7 +15115,7 @@
         <v>292</v>
       </c>
       <c r="B26" t="n">
-        <v>3.93</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="27">
@@ -12182,7 +15123,7 @@
         <v>296</v>
       </c>
       <c r="B27" t="n">
-        <v>3.71</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="28">
@@ -12190,7 +15131,7 @@
         <v>306</v>
       </c>
       <c r="B28" t="n">
-        <v>3.845</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="29">
@@ -12198,7 +15139,7 @@
         <v>315</v>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="30">
@@ -12206,7 +15147,7 @@
         <v>324</v>
       </c>
       <c r="B30" t="n">
-        <v>3.95</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="31">
@@ -12214,7 +15155,7 @@
         <v>333</v>
       </c>
       <c r="B31" t="n">
-        <v>3.82</v>
+        <v>-0.08500000000000001</v>
       </c>
     </row>
     <row r="32">
@@ -12222,7 +15163,7 @@
         <v>344</v>
       </c>
       <c r="B32" t="n">
-        <v>3.745</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="33">
@@ -12230,7 +15171,7 @@
         <v>355</v>
       </c>
       <c r="B33" t="n">
-        <v>3.78</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="34">
@@ -12238,7 +15179,7 @@
         <v>366</v>
       </c>
       <c r="B34" t="n">
-        <v>3.3</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="35">
@@ -12246,7 +15187,7 @@
         <v>377</v>
       </c>
       <c r="B35" t="n">
-        <v>3.23</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="36">
@@ -12254,7 +15195,7 @@
         <v>388</v>
       </c>
       <c r="B36" t="n">
-        <v>3.15</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="37">
@@ -12262,7 +15203,7 @@
         <v>398</v>
       </c>
       <c r="B37" t="n">
-        <v>3.27</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="38">
@@ -12270,7 +15211,7 @@
         <v>408</v>
       </c>
       <c r="B38" t="n">
-        <v>4.13</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="39">
@@ -12278,7 +15219,7 @@
         <v>418</v>
       </c>
       <c r="B39" t="n">
-        <v>4.42</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="40">
@@ -12286,7 +15227,7 @@
         <v>428</v>
       </c>
       <c r="B40" t="n">
-        <v>4.85</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="41">
@@ -12294,7 +15235,7 @@
         <v>437</v>
       </c>
       <c r="B41" t="n">
-        <v>4.795</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="42">
@@ -12302,7 +15243,7 @@
         <v>447</v>
       </c>
       <c r="B42" t="n">
-        <v>4.98</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="43">
@@ -12310,7 +15251,7 @@
         <v>456</v>
       </c>
       <c r="B43" t="n">
-        <v>4.7</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="44">
@@ -12318,7 +15259,7 @@
         <v>467</v>
       </c>
       <c r="B44" t="n">
-        <v>4.74</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="45">
@@ -12326,7 +15267,7 @@
         <v>477</v>
       </c>
       <c r="B45" t="n">
-        <v>4.76</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="46">
@@ -12334,7 +15275,7 @@
         <v>488</v>
       </c>
       <c r="B46" t="n">
-        <v>4.67</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="47">
@@ -12342,7 +15283,7 @@
         <v>498</v>
       </c>
       <c r="B47" t="n">
-        <v>4.38</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="48">
@@ -12350,7 +15291,7 @@
         <v>508</v>
       </c>
       <c r="B48" t="n">
-        <v>4.72</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="49">
@@ -12358,7 +15299,7 @@
         <v>518</v>
       </c>
       <c r="B49" t="n">
-        <v>4.57</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="50">
@@ -12366,7 +15307,7 @@
         <v>528</v>
       </c>
       <c r="B50" t="n">
-        <v>4.81</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="51">
@@ -12374,7 +15315,7 @@
         <v>538</v>
       </c>
       <c r="B51" t="n">
-        <v>4.49</v>
+        <v>-0.395</v>
       </c>
     </row>
     <row r="52">
@@ -12382,7 +15323,7 @@
         <v>548</v>
       </c>
       <c r="B52" t="n">
-        <v>4.21</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="53">
@@ -12390,7 +15331,7 @@
         <v>558</v>
       </c>
       <c r="B53" t="n">
-        <v>4.4</v>
+        <v>-0.305</v>
       </c>
     </row>
     <row r="54">
@@ -12398,7 +15339,7 @@
         <v>568</v>
       </c>
       <c r="B54" t="n">
-        <v>3.98</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="55">
@@ -12406,7 +15347,7 @@
         <v>578</v>
       </c>
       <c r="B55" t="n">
-        <v>4.38</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="56">
@@ -12414,7 +15355,7 @@
         <v>589</v>
       </c>
       <c r="B56" t="n">
-        <v>4.3</v>
+        <v>-0.325</v>
       </c>
     </row>
     <row r="57">
@@ -12422,7 +15363,7 @@
         <v>599</v>
       </c>
       <c r="B57" t="n">
-        <v>4.16</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="58">
@@ -12430,7 +15371,7 @@
         <v>608</v>
       </c>
       <c r="B58" t="n">
-        <v>4.46</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="59">
@@ -12438,7 +15379,7 @@
         <v>618</v>
       </c>
       <c r="B59" t="n">
-        <v>4.35</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="60">
@@ -12446,7 +15387,7 @@
         <v>628</v>
       </c>
       <c r="B60" t="n">
-        <v>4.45</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="61">
@@ -12454,7 +15395,7 @@
         <v>638</v>
       </c>
       <c r="B61" t="n">
-        <v>4.17</v>
+        <v>-0.135</v>
       </c>
     </row>
     <row r="62">
@@ -12462,7 +15403,7 @@
         <v>647</v>
       </c>
       <c r="B62" t="n">
-        <v>3.885</v>
+        <v>-0.005</v>
       </c>
     </row>
     <row r="63">
@@ -12470,7 +15411,7 @@
         <v>657</v>
       </c>
       <c r="B63" t="n">
-        <v>3.91</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="64">
@@ -12478,7 +15419,7 @@
         <v>667</v>
       </c>
       <c r="B64" t="n">
-        <v>3.705</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="65">
@@ -12486,7 +15427,7 @@
         <v>677</v>
       </c>
       <c r="B65" t="n">
-        <v>3.635</v>
+        <v>-0.08500000000000001</v>
       </c>
     </row>
     <row r="66">
@@ -12494,7 +15435,7 @@
         <v>688</v>
       </c>
       <c r="B66" t="n">
-        <v>3.72</v>
+        <v>-0.0433</v>
       </c>
     </row>
     <row r="67">
@@ -12502,7 +15443,7 @@
         <v>698</v>
       </c>
       <c r="B67" t="n">
-        <v>3.89</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="68">
@@ -12510,7 +15451,7 @@
         <v>708</v>
       </c>
       <c r="B68" t="n">
-        <v>3.61</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="69">
@@ -12518,7 +15459,7 @@
         <v>718</v>
       </c>
       <c r="B69" t="n">
-        <v>3.64</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="70">
@@ -12526,7 +15467,7 @@
         <v>728</v>
       </c>
       <c r="B70" t="n">
-        <v>3.97</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="71">
@@ -12534,7 +15475,7 @@
         <v>737</v>
       </c>
       <c r="B71" t="n">
-        <v>4.05</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="72">
@@ -12542,7 +15483,7 @@
         <v>747</v>
       </c>
       <c r="B72" t="n">
-        <v>4.07</v>
+        <v>-0.405</v>
       </c>
     </row>
     <row r="73">
@@ -12550,7 +15491,7 @@
         <v>756</v>
       </c>
       <c r="B73" t="n">
-        <v>4.265</v>
+        <v>-0.505</v>
       </c>
     </row>
     <row r="74">
@@ -12558,7 +15499,7 @@
         <v>757</v>
       </c>
       <c r="B74" t="n">
-        <v>4.39</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="75">
@@ -12566,7 +15507,7 @@
         <v>766</v>
       </c>
       <c r="B75" t="n">
-        <v>3.97</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="76">
@@ -12574,7 +15515,7 @@
         <v>778</v>
       </c>
       <c r="B76" t="n">
-        <v>4.03</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="77">
@@ -12582,7 +15523,7 @@
         <v>791</v>
       </c>
       <c r="B77" t="n">
-        <v>3.51</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="78">
@@ -12590,7 +15531,7 @@
         <v>803</v>
       </c>
       <c r="B78" t="n">
-        <v>3.76</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="79">
@@ -12598,7 +15539,7 @@
         <v>813</v>
       </c>
       <c r="B79" t="n">
-        <v>4.06</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="80">
@@ -12606,7 +15547,7 @@
         <v>824</v>
       </c>
       <c r="B80" t="n">
-        <v>4.51</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="81">
@@ -12614,7 +15555,7 @@
         <v>835</v>
       </c>
       <c r="B81" t="n">
-        <v>4.25</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="82">
@@ -12622,7 +15563,7 @@
         <v>849</v>
       </c>
       <c r="B82" t="n">
-        <v>4.32</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="83">
@@ -12630,7 +15571,7 @@
         <v>861</v>
       </c>
       <c r="B83" t="n">
-        <v>4.335</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="84">
@@ -12638,7 +15579,7 @@
         <v>871</v>
       </c>
       <c r="B84" t="n">
-        <v>4.43</v>
+        <v>-0.535</v>
       </c>
     </row>
     <row r="85">
@@ -12646,7 +15587,7 @@
         <v>879</v>
       </c>
       <c r="B85" t="n">
-        <v>4.32</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="86">
@@ -12654,7 +15595,7 @@
         <v>889</v>
       </c>
       <c r="B86" t="n">
-        <v>4.5</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="87">
@@ -12662,7 +15603,7 @@
         <v>895</v>
       </c>
       <c r="B87" t="n">
-        <v>4.49</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="88">
@@ -12670,7 +15611,7 @@
         <v>905</v>
       </c>
       <c r="B88" t="n">
-        <v>4.33</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="89">
@@ -12678,7 +15619,7 @@
         <v>916</v>
       </c>
       <c r="B89" t="n">
-        <v>3.99</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="90">
@@ -12686,7 +15627,7 @@
         <v>927</v>
       </c>
       <c r="B90" t="n">
-        <v>3.895</v>
+        <v>-0.095</v>
       </c>
     </row>
     <row r="91">
@@ -12694,7 +15635,7 @@
         <v>937</v>
       </c>
       <c r="B91" t="n">
-        <v>4.13</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="92">
@@ -12702,7 +15643,7 @@
         <v>948</v>
       </c>
       <c r="B92" t="n">
-        <v>4.06</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="93">
@@ -12710,7 +15651,7 @@
         <v>960</v>
       </c>
       <c r="B93" t="n">
-        <v>4.13</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="94">
@@ -12718,7 +15659,7 @@
         <v>972</v>
       </c>
       <c r="B94" t="n">
-        <v>3.72</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="95">
@@ -12726,7 +15667,7 @@
         <v>982</v>
       </c>
       <c r="B95" t="n">
-        <v>3.75</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="96">
@@ -12734,7 +15675,7 @@
         <v>990</v>
       </c>
       <c r="B96" t="n">
-        <v>3.695</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="97">
@@ -12742,7 +15683,7 @@
         <v>996</v>
       </c>
       <c r="B97" t="n">
-        <v>3.8333</v>
+        <v>-0.1133</v>
       </c>
     </row>
     <row r="98">
@@ -12750,7 +15691,7 @@
         <v>1003</v>
       </c>
       <c r="B98" t="n">
-        <v>3.65</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="99">
@@ -12758,7 +15699,7 @@
         <v>1012</v>
       </c>
       <c r="B99" t="n">
-        <v>3.54</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="100">
@@ -12766,7 +15707,7 @@
         <v>1026</v>
       </c>
       <c r="B100" t="n">
-        <v>3.43</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="101">
@@ -12774,7 +15715,7 @@
         <v>1041</v>
       </c>
       <c r="B101" t="n">
-        <v>3.21</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="102">
@@ -12782,7 +15723,7 @@
         <v>1052</v>
       </c>
       <c r="B102" t="n">
-        <v>3.285</v>
+        <v>-0.065</v>
       </c>
     </row>
     <row r="103">
@@ -12790,7 +15731,7 @@
         <v>1059</v>
       </c>
       <c r="B103" t="n">
-        <v>3.33</v>
+        <v>-0.035</v>
       </c>
     </row>
     <row r="104">
@@ -12798,7 +15739,7 @@
         <v>1075</v>
       </c>
       <c r="B104" t="n">
-        <v>3.7</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="105">
@@ -12806,7 +15747,7 @@
         <v>1090</v>
       </c>
       <c r="B105" t="n">
-        <v>4.15</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="106">
@@ -12814,7 +15755,7 @@
         <v>1105</v>
       </c>
       <c r="B106" t="n">
-        <v>4.58</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="107">
@@ -12822,7 +15763,7 @@
         <v>1117</v>
       </c>
       <c r="B107" t="n">
-        <v>4.62</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="108">
@@ -12830,7 +15771,7 @@
         <v>1119</v>
       </c>
       <c r="B108" t="n">
-        <v>4.67</v>
+        <v>-0.335</v>
       </c>
     </row>
     <row r="109">
@@ -12838,7 +15779,7 @@
         <v>1125</v>
       </c>
       <c r="B109" t="n">
-        <v>4.72</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="110">
@@ -12846,7 +15787,7 @@
         <v>1137</v>
       </c>
       <c r="B110" t="n">
-        <v>4.405</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="111">
@@ -12854,7 +15795,7 @@
         <v>1140</v>
       </c>
       <c r="B111" t="n">
-        <v>4.195</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="112">
@@ -12862,7 +15803,7 @@
         <v>1146</v>
       </c>
       <c r="B112" t="n">
-        <v>4.57</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="113">
@@ -12870,7 +15811,7 @@
         <v>1147</v>
       </c>
       <c r="B113" t="n">
-        <v>4.4</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="114">
@@ -12878,7 +15819,7 @@
         <v>1158</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="115">
@@ -12886,7 +15827,7 @@
         <v>1172</v>
       </c>
       <c r="B115" t="n">
-        <v>4.325</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="116">
@@ -12894,7 +15835,7 @@
         <v>1182</v>
       </c>
       <c r="B116" t="n">
-        <v>4.055</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="117">
@@ -12902,7 +15843,7 @@
         <v>1192</v>
       </c>
       <c r="B117" t="n">
-        <v>4.165</v>
+        <v>-0.08500000000000001</v>
       </c>
     </row>
     <row r="118">
@@ -12910,7 +15851,7 @@
         <v>1203</v>
       </c>
       <c r="B118" t="n">
-        <v>4.04</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="119">
@@ -12918,7 +15859,7 @@
         <v>1212</v>
       </c>
       <c r="B119" t="n">
-        <v>4.095</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="120">
@@ -12926,7 +15867,7 @@
         <v>1222</v>
       </c>
       <c r="B120" t="n">
-        <v>4.02</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="121">
@@ -12934,7 +15875,7 @@
         <v>1232</v>
       </c>
       <c r="B121" t="n">
-        <v>4.02</v>
+        <v>-0.025</v>
       </c>
     </row>
     <row r="122">
@@ -12942,7 +15883,7 @@
         <v>1252</v>
       </c>
       <c r="B122" t="n">
-        <v>3.97</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="123">
@@ -12950,7 +15891,7 @@
         <v>1262</v>
       </c>
       <c r="B123" t="n">
-        <v>3.23</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="124">
@@ -12958,7 +15899,7 @@
         <v>1272</v>
       </c>
       <c r="B124" t="n">
-        <v>3.145</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="125">
@@ -12966,7 +15907,7 @@
         <v>1306</v>
       </c>
       <c r="B125" t="n">
-        <v>3.52</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="126">
@@ -12974,7 +15915,7 @@
         <v>1328</v>
       </c>
       <c r="B126" t="n">
-        <v>4.83</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="127">
@@ -12982,7 +15923,7 @@
         <v>1358</v>
       </c>
       <c r="B127" t="n">
-        <v>4.86</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="128">
@@ -12990,7 +15931,7 @@
         <v>1364</v>
       </c>
       <c r="B128" t="n">
-        <v>5.05</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="129">
@@ -12998,7 +15939,7 @@
         <v>1369</v>
       </c>
       <c r="B129" t="n">
-        <v>4.815</v>
+        <v>-0.315</v>
       </c>
     </row>
     <row r="130">
@@ -13006,7 +15947,7 @@
         <v>1381</v>
       </c>
       <c r="B130" t="n">
-        <v>5.07</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="131">
@@ -13014,7 +15955,7 @@
         <v>1388</v>
       </c>
       <c r="B131" t="n">
-        <v>4.66</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="132">
@@ -13022,7 +15963,7 @@
         <v>1395</v>
       </c>
       <c r="B132" t="n">
-        <v>4.54</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="133">
@@ -13030,7 +15971,7 @@
         <v>1403</v>
       </c>
       <c r="B133" t="n">
-        <v>4.51</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="134">
@@ -13038,7 +15979,7 @@
         <v>1414</v>
       </c>
       <c r="B134" t="n">
-        <v>4.615</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="135">
@@ -13046,7 +15987,7 @@
         <v>1436</v>
       </c>
       <c r="B135" t="n">
-        <v>4.51</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="136">
@@ -13054,7 +15995,7 @@
         <v>1444</v>
       </c>
       <c r="B136" t="n">
-        <v>4.26</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="137">
@@ -13062,7 +16003,7 @@
         <v>1453</v>
       </c>
       <c r="B137" t="n">
-        <v>4.27</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="138">
@@ -13070,7 +16011,7 @@
         <v>1464</v>
       </c>
       <c r="B138" t="n">
-        <v>4.06</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="139">
@@ -13078,7 +16019,7 @@
         <v>1475</v>
       </c>
       <c r="B139" t="n">
-        <v>4.43</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="140">
@@ -13086,7 +16027,7 @@
         <v>1487</v>
       </c>
       <c r="B140" t="n">
-        <v>3.82</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="141">
@@ -13094,7 +16035,7 @@
         <v>1498</v>
       </c>
       <c r="B141" t="n">
-        <v>3.7333</v>
+        <v>0.3166</v>
       </c>
     </row>
     <row r="142">
@@ -13102,7 +16043,7 @@
         <v>1518</v>
       </c>
       <c r="B142" t="n">
-        <v>3.62</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="143">
@@ -13110,7 +16051,7 @@
         <v>1527</v>
       </c>
       <c r="B143" t="n">
-        <v>3.59</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="144">
@@ -13118,7 +16059,7 @@
         <v>1537</v>
       </c>
       <c r="B144" t="n">
-        <v>3.805</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="145">
@@ -13126,7 +16067,7 @@
         <v>1547</v>
       </c>
       <c r="B145" t="n">
-        <v>3.87</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="146">
@@ -13134,7 +16075,7 @@
         <v>1557</v>
       </c>
       <c r="B146" t="n">
-        <v>4.01</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="147">
@@ -13142,7 +16083,7 @@
         <v>1567</v>
       </c>
       <c r="B147" t="n">
-        <v>3.875</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="148">
@@ -13150,7 +16091,7 @@
         <v>1577</v>
       </c>
       <c r="B148" t="n">
-        <v>4.36</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="149">
@@ -13158,7 +16099,7 @@
         <v>1587</v>
       </c>
       <c r="B149" t="n">
-        <v>4.11</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="150">
@@ -13166,7 +16107,7 @@
         <v>1597</v>
       </c>
       <c r="B150" t="n">
-        <v>4.13</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="151">
@@ -13174,7 +16115,7 @@
         <v>1607</v>
       </c>
       <c r="B151" t="n">
-        <v>3.97</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="152">
@@ -13182,7 +16123,7 @@
         <v>1617</v>
       </c>
       <c r="B152" t="n">
-        <v>4.01</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="153">
@@ -13190,7 +16131,7 @@
         <v>1637</v>
       </c>
       <c r="B153" t="n">
-        <v>4.36</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="154">
@@ -13198,7 +16139,7 @@
         <v>1647</v>
       </c>
       <c r="B154" t="n">
-        <v>4.17</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="155">
@@ -13206,7 +16147,7 @@
         <v>1657</v>
       </c>
       <c r="B155" t="n">
-        <v>4.31</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="156">
@@ -13214,7 +16155,7 @@
         <v>1667</v>
       </c>
       <c r="B156" t="n">
-        <v>4.515</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="157">
@@ -13222,7 +16163,7 @@
         <v>1677</v>
       </c>
       <c r="B157" t="n">
-        <v>4.23</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="158">
@@ -13230,7 +16171,7 @@
         <v>1687</v>
       </c>
       <c r="B158" t="n">
-        <v>4.315</v>
+        <v>-0.025</v>
       </c>
     </row>
     <row r="159">
@@ -13238,7 +16179,7 @@
         <v>1697</v>
       </c>
       <c r="B159" t="n">
-        <v>4.07</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="160">
@@ -13246,7 +16187,7 @@
         <v>1707</v>
       </c>
       <c r="B160" t="n">
-        <v>4.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -13254,7 +16195,7 @@
         <v>1717</v>
       </c>
       <c r="B161" t="n">
-        <v>3.79</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="162">
@@ -13262,7 +16203,7 @@
         <v>1737</v>
       </c>
       <c r="B162" t="n">
-        <v>3.42</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="163">
@@ -13270,7 +16211,7 @@
         <v>1747</v>
       </c>
       <c r="B163" t="n">
-        <v>3.6233</v>
+        <v>0.0566</v>
       </c>
     </row>
     <row r="164">
@@ -13278,7 +16219,7 @@
         <v>1757</v>
       </c>
       <c r="B164" t="n">
-        <v>3.87</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="165">
@@ -13286,7 +16227,7 @@
         <v>1767</v>
       </c>
       <c r="B165" t="n">
-        <v>4.22</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="166">
@@ -13294,7 +16235,7 @@
         <v>1777</v>
       </c>
       <c r="B166" t="n">
-        <v>4.03</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="167">
@@ -13302,7 +16243,7 @@
         <v>1787</v>
       </c>
       <c r="B167" t="n">
-        <v>4.03</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="168">
@@ -13310,7 +16251,7 @@
         <v>1797</v>
       </c>
       <c r="B168" t="n">
-        <v>3.88</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="169">
@@ -13318,7 +16259,7 @@
         <v>1807</v>
       </c>
       <c r="B169" t="n">
-        <v>3.56</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="170">
@@ -13326,7 +16267,7 @@
         <v>1817</v>
       </c>
       <c r="B170" t="n">
-        <v>4.12</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="171">
@@ -13334,7 +16275,7 @@
         <v>1827</v>
       </c>
       <c r="B171" t="n">
-        <v>4.11</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="172">
@@ -13342,7 +16283,7 @@
         <v>1837</v>
       </c>
       <c r="B172" t="n">
-        <v>3.85</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="173">
@@ -13350,7 +16291,7 @@
         <v>1847</v>
       </c>
       <c r="B173" t="n">
-        <v>3.5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="174">
@@ -13358,7 +16299,7 @@
         <v>1857</v>
       </c>
       <c r="B174" t="n">
-        <v>3.08</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="175">
@@ -13366,7 +16307,7 @@
         <v>1867</v>
       </c>
       <c r="B175" t="n">
-        <v>4.57</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="176">
@@ -13374,7 +16315,7 @@
         <v>1887</v>
       </c>
       <c r="B176" t="n">
-        <v>5.1</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="177">
@@ -13382,7 +16323,7 @@
         <v>1897</v>
       </c>
       <c r="B177" t="n">
-        <v>4.88</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="178">
@@ -13390,7 +16331,7 @@
         <v>1903</v>
       </c>
       <c r="B178" t="n">
-        <v>4.83</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="179">
@@ -13398,7 +16339,7 @@
         <v>1907</v>
       </c>
       <c r="B179" t="n">
-        <v>4.65</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="180">
@@ -13406,7 +16347,7 @@
         <v>1915</v>
       </c>
       <c r="B180" t="n">
-        <v>4.83</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="181">
@@ -13414,7 +16355,7 @@
         <v>1927</v>
       </c>
       <c r="B181" t="n">
-        <v>4.78</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="182">
@@ -13422,7 +16363,7 @@
         <v>1938</v>
       </c>
       <c r="B182" t="n">
-        <v>4.66</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="183">
@@ -13430,7 +16371,7 @@
         <v>1948</v>
       </c>
       <c r="B183" t="n">
-        <v>4.45</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="184">
@@ -13438,7 +16379,7 @@
         <v>1957</v>
       </c>
       <c r="B184" t="n">
-        <v>4.52</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="185">
@@ -13446,7 +16387,7 @@
         <v>1966</v>
       </c>
       <c r="B185" t="n">
-        <v>4.6</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="186">
@@ -13454,7 +16395,7 @@
         <v>1975</v>
       </c>
       <c r="B186" t="n">
-        <v>4.445</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="187">
@@ -13462,7 +16403,7 @@
         <v>1985</v>
       </c>
       <c r="B187" t="n">
-        <v>4.4</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="188">
@@ -13470,7 +16411,7 @@
         <v>1995</v>
       </c>
       <c r="B188" t="n">
-        <v>4.33</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="189">
@@ -13478,7 +16419,7 @@
         <v>2006</v>
       </c>
       <c r="B189" t="n">
-        <v>4.22</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="190">
@@ -13486,7 +16427,7 @@
         <v>2017</v>
       </c>
       <c r="B190" t="n">
-        <v>4.31</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="191">
@@ -13494,7 +16435,7 @@
         <v>2028</v>
       </c>
       <c r="B191" t="n">
-        <v>3.99</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="192">
@@ -13502,7 +16443,7 @@
         <v>2038</v>
       </c>
       <c r="B192" t="n">
-        <v>3.88</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="193">
@@ -13510,7 +16451,7 @@
         <v>2047</v>
       </c>
       <c r="B193" t="n">
-        <v>3.72</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="194">
@@ -13518,7 +16459,7 @@
         <v>2055</v>
       </c>
       <c r="B194" t="n">
-        <v>3.66</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="195">
@@ -13526,7 +16467,7 @@
         <v>2063</v>
       </c>
       <c r="B195" t="n">
-        <v>3.51</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="196">
@@ -13534,7 +16475,7 @@
         <v>2070</v>
       </c>
       <c r="B196" t="n">
-        <v>3.84</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="197">
@@ -13542,7 +16483,7 @@
         <v>2071</v>
       </c>
       <c r="B197" t="n">
-        <v>3.85</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="198">
@@ -13550,7 +16491,7 @@
         <v>2078</v>
       </c>
       <c r="B198" t="n">
-        <v>3.68</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="199">
@@ -13558,7 +16499,7 @@
         <v>2085</v>
       </c>
       <c r="B199" t="n">
-        <v>3.955</v>
+        <v>-0.155</v>
       </c>
     </row>
     <row r="200">
@@ -13566,7 +16507,7 @@
         <v>2092</v>
       </c>
       <c r="B200" t="n">
-        <v>4.15</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="201">
@@ -13574,7 +16515,7 @@
         <v>2100</v>
       </c>
       <c r="B201" t="n">
-        <v>4.34</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="202">
@@ -13582,7 +16523,7 @@
         <v>2116</v>
       </c>
       <c r="B202" t="n">
-        <v>4.33</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="203">
@@ -13590,7 +16531,7 @@
         <v>2123</v>
       </c>
       <c r="B203" t="n">
-        <v>4.37</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="204">
@@ -13598,7 +16539,7 @@
         <v>2124</v>
       </c>
       <c r="B204" t="n">
-        <v>4.38</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="205">
@@ -13606,7 +16547,7 @@
         <v>2133</v>
       </c>
       <c r="B205" t="n">
-        <v>4.37</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="206">
@@ -13614,7 +16555,7 @@
         <v>2141</v>
       </c>
       <c r="B206" t="n">
-        <v>4.24</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="207">
@@ -13622,7 +16563,7 @@
         <v>2142</v>
       </c>
       <c r="B207" t="n">
-        <v>4.06</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="208">
@@ -13630,7 +16571,7 @@
         <v>2150</v>
       </c>
       <c r="B208" t="n">
-        <v>4.26</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="209">
@@ -13638,7 +16579,7 @@
         <v>2159</v>
       </c>
       <c r="B209" t="n">
-        <v>4.22</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="210">
@@ -13646,7 +16587,7 @@
         <v>2167</v>
       </c>
       <c r="B210" t="n">
-        <v>4.17</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="211">
@@ -13654,7 +16595,7 @@
         <v>2175</v>
       </c>
       <c r="B211" t="n">
-        <v>4.105</v>
+        <v>-0.445</v>
       </c>
     </row>
     <row r="212">
@@ -13662,7 +16603,7 @@
         <v>2184</v>
       </c>
       <c r="B212" t="n">
-        <v>4.215</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="213">
@@ -13670,7 +16611,7 @@
         <v>2193</v>
       </c>
       <c r="B213" t="n">
-        <v>4.34</v>
+        <v>-0.475</v>
       </c>
     </row>
     <row r="214">
@@ -13678,7 +16619,7 @@
         <v>2203</v>
       </c>
       <c r="B214" t="n">
-        <v>4.18</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="215">
@@ -13686,7 +16627,7 @@
         <v>2213</v>
       </c>
       <c r="B215" t="n">
-        <v>4.03</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="216">
@@ -13694,7 +16635,7 @@
         <v>2224</v>
       </c>
       <c r="B216" t="n">
-        <v>3.82</v>
+        <v>-0.205</v>
       </c>
     </row>
     <row r="217">
@@ -13702,7 +16643,7 @@
         <v>2235</v>
       </c>
       <c r="B217" t="n">
-        <v>3.64</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="218">
@@ -13710,7 +16651,7 @@
         <v>2246</v>
       </c>
       <c r="B218" t="n">
-        <v>3.555</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="219">
@@ -13718,7 +16659,7 @@
         <v>2257</v>
       </c>
       <c r="B219" t="n">
-        <v>3.51</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="220">
@@ -13726,7 +16667,7 @@
         <v>2267</v>
       </c>
       <c r="B220" t="n">
-        <v>3.56</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="221">
@@ -13734,7 +16675,7 @@
         <v>2276</v>
       </c>
       <c r="B221" t="n">
-        <v>3.97</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="222">
@@ -13742,7 +16683,7 @@
         <v>2285</v>
       </c>
       <c r="B222" t="n">
-        <v>3.99</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="223">
@@ -13750,7 +16691,7 @@
         <v>2294</v>
       </c>
       <c r="B223" t="n">
-        <v>4.62</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="224">
@@ -13758,7 +16699,7 @@
         <v>2303</v>
       </c>
       <c r="B224" t="n">
-        <v>4.36</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="225">
@@ -13766,7 +16707,7 @@
         <v>2312</v>
       </c>
       <c r="B225" t="n">
-        <v>4.31</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="226">
@@ -13774,7 +16715,7 @@
         <v>2322</v>
       </c>
       <c r="B226" t="n">
-        <v>4.065</v>
+        <v>-0.245</v>
       </c>
     </row>
     <row r="227">
@@ -13782,7 +16723,7 @@
         <v>2334</v>
       </c>
       <c r="B227" t="n">
-        <v>4.075</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="228">
@@ -13790,7 +16731,7 @@
         <v>2347</v>
       </c>
       <c r="B228" t="n">
-        <v>3.87</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="229">
@@ -13798,7 +16739,7 @@
         <v>2361</v>
       </c>
       <c r="B229" t="n">
-        <v>3.77</v>
+        <v>-0.245</v>
       </c>
     </row>
     <row r="230">
@@ -13806,7 +16747,7 @@
         <v>2375</v>
       </c>
       <c r="B230" t="n">
-        <v>3.785</v>
+        <v>-0.405</v>
       </c>
     </row>
     <row r="231">
@@ -13814,7 +16755,7 @@
         <v>2388</v>
       </c>
       <c r="B231" t="n">
-        <v>3.815</v>
+        <v>-0.325</v>
       </c>
     </row>
     <row r="232">
@@ -13822,7 +16763,7 @@
         <v>2399</v>
       </c>
       <c r="B232" t="n">
-        <v>3.5</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="233">
@@ -13830,7 +16771,7 @@
         <v>2410</v>
       </c>
       <c r="B233" t="n">
-        <v>3.52</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="234">
@@ -13838,7 +16779,7 @@
         <v>2420</v>
       </c>
       <c r="B234" t="n">
-        <v>3.76</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="235">
@@ -13846,7 +16787,7 @@
         <v>2430</v>
       </c>
       <c r="B235" t="n">
-        <v>3.49</v>
+        <v>-0.2166</v>
       </c>
     </row>
     <row r="236">
@@ -13854,7 +16795,7 @@
         <v>2440</v>
       </c>
       <c r="B236" t="n">
-        <v>3.535</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="237">
@@ -13862,7 +16803,7 @@
         <v>2450</v>
       </c>
       <c r="B237" t="n">
-        <v>3.81</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="238">
@@ -13870,7 +16811,7 @@
         <v>2461</v>
       </c>
       <c r="B238" t="n">
-        <v>3.77</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="239">
@@ -13878,7 +16819,7 @@
         <v>2472</v>
       </c>
       <c r="B239" t="n">
-        <v>3.55</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="240">
@@ -13886,7 +16827,7 @@
         <v>2484</v>
       </c>
       <c r="B240" t="n">
-        <v>4.575</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="241">
@@ -13894,7 +16835,7 @@
         <v>2495</v>
       </c>
       <c r="B241" t="n">
-        <v>4.61</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="242">
@@ -13902,7 +16843,7 @@
         <v>2506</v>
       </c>
       <c r="B242" t="n">
-        <v>4.58</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="243">
@@ -13910,7 +16851,7 @@
         <v>2514</v>
       </c>
       <c r="B243" t="n">
-        <v>4.39</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="244">
@@ -13918,7 +16859,7 @@
         <v>2517</v>
       </c>
       <c r="B244" t="n">
-        <v>4.39</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="245">
@@ -13926,7 +16867,7 @@
         <v>2527</v>
       </c>
       <c r="B245" t="n">
-        <v>4.3</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="246">
@@ -13934,7 +16875,7 @@
         <v>2537</v>
       </c>
       <c r="B246" t="n">
-        <v>4.56</v>
+        <v>-0.595</v>
       </c>
     </row>
     <row r="247">
@@ -13942,7 +16883,7 @@
         <v>2542</v>
       </c>
       <c r="B247" t="n">
-        <v>4.33</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="248">
@@ -13950,7 +16891,7 @@
         <v>2546</v>
       </c>
       <c r="B248" t="n">
-        <v>4.48</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="249">
@@ -13958,7 +16899,7 @@
         <v>2552</v>
       </c>
       <c r="B249" t="n">
-        <v>4.15</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="250">
@@ -13966,7 +16907,7 @@
         <v>2562</v>
       </c>
       <c r="B250" t="n">
-        <v>4.25</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="251">
@@ -13974,7 +16915,7 @@
         <v>2571</v>
       </c>
       <c r="B251" t="n">
-        <v>4.19</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="252">
@@ -13982,7 +16923,7 @@
         <v>2583</v>
       </c>
       <c r="B252" t="n">
-        <v>4.06</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="253">
@@ -13990,7 +16931,7 @@
         <v>2592</v>
       </c>
       <c r="B253" t="n">
-        <v>4.13</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="254">
@@ -13998,7 +16939,7 @@
         <v>2602</v>
       </c>
       <c r="B254" t="n">
-        <v>4.17</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="255">
@@ -14006,7 +16947,7 @@
         <v>2612</v>
       </c>
       <c r="B255" t="n">
-        <v>4.31</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="256">
@@ -14014,7 +16955,7 @@
         <v>2622</v>
       </c>
       <c r="B256" t="n">
-        <v>4.28</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="257">
@@ -14022,7 +16963,7 @@
         <v>2632</v>
       </c>
       <c r="B257" t="n">
-        <v>4.27</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="258">
@@ -14030,7 +16971,7 @@
         <v>2652</v>
       </c>
       <c r="B258" t="n">
-        <v>4.02</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="259">
@@ -14038,7 +16979,7 @@
         <v>2662</v>
       </c>
       <c r="B259" t="n">
-        <v>3.78</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="260">
@@ -14046,7 +16987,7 @@
         <v>2674</v>
       </c>
       <c r="B260" t="n">
-        <v>3.77</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="261">
@@ -14054,7 +16995,7 @@
         <v>2676</v>
       </c>
       <c r="B261" t="n">
-        <v>4.14</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="262">
@@ -14062,7 +17003,7 @@
         <v>2681</v>
       </c>
       <c r="B262" t="n">
-        <v>3.5</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="263">
@@ -14070,7 +17011,7 @@
         <v>2686</v>
       </c>
       <c r="B263" t="n">
-        <v>3.5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="264">
@@ -14078,7 +17019,7 @@
         <v>2696</v>
       </c>
       <c r="B264" t="n">
-        <v>3.54</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="265">
@@ -14086,7 +17027,7 @@
         <v>2706</v>
       </c>
       <c r="B265" t="n">
-        <v>3.4</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="266">
@@ -14094,7 +17035,7 @@
         <v>2726</v>
       </c>
       <c r="B266" t="n">
-        <v>3.96</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="267">
@@ -14102,7 +17043,7 @@
         <v>2736</v>
       </c>
       <c r="B267" t="n">
-        <v>4.27</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="268">
@@ -14110,7 +17051,7 @@
         <v>2746</v>
       </c>
       <c r="B268" t="n">
-        <v>4.34</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="269">
@@ -14118,7 +17059,7 @@
         <v>2756</v>
       </c>
       <c r="B269" t="n">
-        <v>4.17</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="270">
@@ -14126,7 +17067,7 @@
         <v>2766</v>
       </c>
       <c r="B270" t="n">
-        <v>3.87</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="271">
@@ -14134,7 +17075,7 @@
         <v>2776</v>
       </c>
       <c r="B271" t="n">
-        <v>3.71</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="272">
@@ -14142,7 +17083,7 @@
         <v>2786</v>
       </c>
       <c r="B272" t="n">
-        <v>3.76</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="273">
@@ -14150,7 +17091,7 @@
         <v>2796</v>
       </c>
       <c r="B273" t="n">
-        <v>4.06</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="274">
@@ -14158,7 +17099,7 @@
         <v>2806</v>
       </c>
       <c r="B274" t="n">
-        <v>4.15</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="275">
@@ -14166,7 +17107,7 @@
         <v>2815</v>
       </c>
       <c r="B275" t="n">
-        <v>3.87</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="276">
@@ -14174,7 +17115,7 @@
         <v>2826</v>
       </c>
       <c r="B276" t="n">
-        <v>3.9</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="277">
@@ -14182,7 +17123,7 @@
         <v>2837</v>
       </c>
       <c r="B277" t="n">
-        <v>3.96</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="278">
@@ -14190,7 +17131,7 @@
         <v>2847</v>
       </c>
       <c r="B278" t="n">
-        <v>4.09</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="279">
@@ -14198,7 +17139,7 @@
         <v>2856</v>
       </c>
       <c r="B279" t="n">
-        <v>4.28</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="280">
@@ -14206,7 +17147,7 @@
         <v>2866</v>
       </c>
       <c r="B280" t="n">
-        <v>4.04</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="281">
@@ -14214,7 +17155,7 @@
         <v>2875</v>
       </c>
       <c r="B281" t="n">
-        <v>3.89</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="282">
@@ -14222,7 +17163,7 @@
         <v>2885</v>
       </c>
       <c r="B282" t="n">
-        <v>3.69</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="283">
@@ -14230,7 +17171,7 @@
         <v>2896</v>
       </c>
       <c r="B283" t="n">
-        <v>3.67</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="284">
@@ -14238,7 +17179,7 @@
         <v>2906</v>
       </c>
       <c r="B284" t="n">
-        <v>3.88</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="285">
@@ -14246,7 +17187,7 @@
         <v>2916</v>
       </c>
       <c r="B285" t="n">
-        <v>3.92</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="286">
@@ -14254,7 +17195,7 @@
         <v>2925</v>
       </c>
       <c r="B286" t="n">
-        <v>4.31</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="287">
@@ -14262,7 +17203,7 @@
         <v>2936</v>
       </c>
       <c r="B287" t="n">
-        <v>4.43</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="288">
@@ -14270,7 +17211,7 @@
         <v>2953</v>
       </c>
       <c r="B288" t="n">
-        <v>4.18</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="289">
@@ -14278,7 +17219,7 @@
         <v>2956</v>
       </c>
       <c r="B289" t="n">
-        <v>4.19</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="290">
@@ -14286,7 +17227,7 @@
         <v>2968</v>
       </c>
       <c r="B290" t="n">
-        <v>4.07</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="291">
@@ -14294,7 +17235,7 @@
         <v>2979</v>
       </c>
       <c r="B291" t="n">
-        <v>3.97</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="292">
@@ -14302,7 +17243,7 @@
         <v>2989</v>
       </c>
       <c r="B292" t="n">
-        <v>3.65</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="293">
@@ -14310,7 +17251,7 @@
         <v>2999</v>
       </c>
       <c r="B293" t="n">
-        <v>3.5</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="294">
@@ -14318,7 +17259,7 @@
         <v>3010</v>
       </c>
       <c r="B294" t="n">
-        <v>3.165</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="295">
@@ -14326,7 +17267,7 @@
         <v>3021</v>
       </c>
       <c r="B295" t="n">
-        <v>3.3</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="296">
@@ -14334,7 +17275,7 @@
         <v>3031</v>
       </c>
       <c r="B296" t="n">
-        <v>3.62</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="297">
@@ -14342,7 +17283,7 @@
         <v>3040</v>
       </c>
       <c r="B297" t="n">
-        <v>3.705</v>
+        <v>-0.015</v>
       </c>
     </row>
     <row r="298">
@@ -14350,7 +17291,7 @@
         <v>3047</v>
       </c>
       <c r="B298" t="n">
-        <v>3.75</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="299">
@@ -14358,7 +17299,7 @@
         <v>3055</v>
       </c>
       <c r="B299" t="n">
-        <v>3.985</v>
+        <v>-0.015</v>
       </c>
     </row>
     <row r="300">
@@ -14366,7 +17307,7 @@
         <v>3065</v>
       </c>
       <c r="B300" t="n">
-        <v>3.82</v>
+        <v>-0.275</v>
       </c>
     </row>
     <row r="301">
@@ -14374,7 +17315,7 @@
         <v>3077</v>
       </c>
       <c r="B301" t="n">
-        <v>4.225</v>
+        <v>-0.355</v>
       </c>
     </row>
     <row r="302">
@@ -14382,7 +17323,7 @@
         <v>3090</v>
       </c>
       <c r="B302" t="n">
-        <v>3.97</v>
+        <v>-0.155</v>
       </c>
     </row>
     <row r="303">
@@ -14390,7 +17331,7 @@
         <v>3103</v>
       </c>
       <c r="B303" t="n">
-        <v>3.92</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="304">
@@ -14398,7 +17339,7 @@
         <v>3124</v>
       </c>
       <c r="B304" t="n">
-        <v>4</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="305">
@@ -14406,7 +17347,7 @@
         <v>3134</v>
       </c>
       <c r="B305" t="n">
-        <v>4.04</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="306">
@@ -14414,7 +17355,7 @@
         <v>3145</v>
       </c>
       <c r="B306" t="n">
-        <v>4.28</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="307">
@@ -14422,7 +17363,7 @@
         <v>3156</v>
       </c>
       <c r="B307" t="n">
-        <v>4.25</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="308">
@@ -14430,7 +17371,7 @@
         <v>3167</v>
       </c>
       <c r="B308" t="n">
-        <v>4.185</v>
+        <v>-0.315</v>
       </c>
     </row>
     <row r="309">
@@ -14438,7 +17379,7 @@
         <v>3177</v>
       </c>
       <c r="B309" t="n">
-        <v>4.2</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="310">
@@ -14446,7 +17387,7 @@
         <v>3188</v>
       </c>
       <c r="B310" t="n">
-        <v>4.17</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="311">
@@ -14454,7 +17395,7 @@
         <v>3199</v>
       </c>
       <c r="B311" t="n">
-        <v>3.96</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="312">
@@ -14462,7 +17403,7 @@
         <v>3212</v>
       </c>
       <c r="B312" t="n">
-        <v>3.85</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="313">
@@ -14470,7 +17411,7 @@
         <v>3224</v>
       </c>
       <c r="B313" t="n">
-        <v>3.73</v>
+        <v>-0.135</v>
       </c>
     </row>
     <row r="314">
@@ -14478,7 +17419,7 @@
         <v>3234</v>
       </c>
       <c r="B314" t="n">
-        <v>3.78</v>
+        <v>-0.005</v>
       </c>
     </row>
     <row r="315">
@@ -14486,7 +17427,7 @@
         <v>3241</v>
       </c>
       <c r="B315" t="n">
-        <v>3.675</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="316">
@@ -14494,7 +17435,7 @@
         <v>3247</v>
       </c>
       <c r="B316" t="n">
-        <v>3.545</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="317">
@@ -14502,7 +17443,7 @@
         <v>3252</v>
       </c>
       <c r="B317" t="n">
-        <v>3.55</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="318">
@@ -14510,7 +17451,7 @@
         <v>3258</v>
       </c>
       <c r="B318" t="n">
-        <v>3.62</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="319">
@@ -14518,7 +17459,7 @@
         <v>3262</v>
       </c>
       <c r="B319" t="n">
-        <v>3.86</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="320">
@@ -14526,7 +17467,7 @@
         <v>3269</v>
       </c>
       <c r="B320" t="n">
-        <v>3.95</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="321">
@@ -14534,7 +17475,7 @@
         <v>3278</v>
       </c>
       <c r="B321" t="n">
-        <v>3.825</v>
+        <v>0.165</v>
       </c>
     </row>
     <row r="322">
@@ -14542,7 +17483,7 @@
         <v>3290</v>
       </c>
       <c r="B322" t="n">
-        <v>3.94</v>
+        <v>-0.245</v>
       </c>
     </row>
     <row r="323">
@@ -14550,7 +17491,7 @@
         <v>3307</v>
       </c>
       <c r="B323" t="n">
-        <v>4.155</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="324">
@@ -14558,7 +17499,7 @@
         <v>3328</v>
       </c>
       <c r="B324" t="n">
-        <v>4.37</v>
+        <v>-0.295</v>
       </c>
     </row>
     <row r="325">
@@ -14566,7 +17507,7 @@
         <v>3344</v>
       </c>
       <c r="B325" t="n">
-        <v>4.49</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="326">
@@ -14574,7 +17515,7 @@
         <v>3353</v>
       </c>
       <c r="B326" t="n">
-        <v>4.385</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="327">
@@ -14582,7 +17523,7 @@
         <v>3361</v>
       </c>
       <c r="B327" t="n">
-        <v>4.18</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="328">
@@ -14590,7 +17531,7 @@
         <v>3367</v>
       </c>
       <c r="B328" t="n">
-        <v>4.19</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="329">
@@ -14598,7 +17539,7 @@
         <v>3373</v>
       </c>
       <c r="B329" t="n">
-        <v>4.03</v>
+        <v>-0.385</v>
       </c>
     </row>
     <row r="330">
@@ -14606,7 +17547,7 @@
         <v>3380</v>
       </c>
       <c r="B330" t="n">
-        <v>4.055</v>
+        <v>-0.215</v>
       </c>
     </row>
     <row r="331">
@@ -14614,7 +17555,7 @@
         <v>3388</v>
       </c>
       <c r="B331" t="n">
-        <v>3.92</v>
+        <v>-0.205</v>
       </c>
     </row>
     <row r="332">
@@ -14622,7 +17563,7 @@
         <v>3399</v>
       </c>
       <c r="B332" t="n">
-        <v>3.45</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="333">
@@ -14630,7 +17571,7 @@
         <v>3415</v>
       </c>
       <c r="B333" t="n">
-        <v>3.6</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="334">
@@ -14638,7 +17579,7 @@
         <v>3437</v>
       </c>
       <c r="B334" t="n">
-        <v>3.32</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="335">
@@ -14646,7 +17587,7 @@
         <v>3463</v>
       </c>
       <c r="B335" t="n">
-        <v>3.36</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="336">
@@ -14654,7 +17595,7 @@
         <v>3478</v>
       </c>
       <c r="B336" t="n">
-        <v>3.43</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="337">
@@ -14662,7 +17603,7 @@
         <v>3485</v>
       </c>
       <c r="B337" t="n">
-        <v>3.665</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="338">
@@ -14670,7 +17611,7 @@
         <v>3489</v>
       </c>
       <c r="B338" t="n">
-        <v>4.005</v>
+        <v>-0.475</v>
       </c>
     </row>
     <row r="339">
@@ -14678,7 +17619,7 @@
         <v>3493</v>
       </c>
       <c r="B339" t="n">
-        <v>4.265</v>
+        <v>-0.545</v>
       </c>
     </row>
     <row r="340">
@@ -14686,7 +17627,7 @@
         <v>3497</v>
       </c>
       <c r="B340" t="n">
-        <v>4.29</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="341">
@@ -14694,7 +17635,7 @@
         <v>3501</v>
       </c>
       <c r="B341" t="n">
-        <v>4.26</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="342">
@@ -14702,7 +17643,7 @@
         <v>3506</v>
       </c>
       <c r="B342" t="n">
-        <v>4.05</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="343">
@@ -14710,7 +17651,7 @@
         <v>3513</v>
       </c>
       <c r="B343" t="n">
-        <v>3.98</v>
+        <v>-0.465</v>
       </c>
     </row>
     <row r="344">
@@ -14718,7 +17659,7 @@
         <v>3527</v>
       </c>
       <c r="B344" t="n">
-        <v>4.25</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="345">
@@ -14726,7 +17667,7 @@
         <v>3545</v>
       </c>
       <c r="B345" t="n">
-        <v>4.05</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="346">
@@ -14734,7 +17675,7 @@
         <v>3560</v>
       </c>
       <c r="B346" t="n">
-        <v>3.76</v>
+        <v>-0.225</v>
       </c>
     </row>
     <row r="347">
@@ -14742,7 +17683,7 @@
         <v>3571</v>
       </c>
       <c r="B347" t="n">
-        <v>3.69</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="348">
@@ -14750,7 +17691,7 @@
         <v>3578</v>
       </c>
       <c r="B348" t="n">
-        <v>3.71</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="349">
@@ -14758,7 +17699,7 @@
         <v>3586</v>
       </c>
       <c r="B349" t="n">
-        <v>3.68</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="350">
@@ -14766,7 +17707,7 @@
         <v>3593</v>
       </c>
       <c r="B350" t="n">
-        <v>3.75</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="351">
@@ -14774,7 +17715,7 @@
         <v>3601</v>
       </c>
       <c r="B351" t="n">
-        <v>3.715</v>
+        <v>-0.095</v>
       </c>
     </row>
     <row r="352">
@@ -14782,7 +17723,7 @@
         <v>3611</v>
       </c>
       <c r="B352" t="n">
-        <v>3.64</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="353">
@@ -14790,7 +17731,7 @@
         <v>3622</v>
       </c>
       <c r="B353" t="n">
-        <v>3.665</v>
+        <v>-0.235</v>
       </c>
     </row>
     <row r="354">
@@ -14798,7 +17739,7 @@
         <v>3635</v>
       </c>
       <c r="B354" t="n">
-        <v>3.88</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="355">
@@ -14806,7 +17747,7 @@
         <v>3651</v>
       </c>
       <c r="B355" t="n">
-        <v>4.21</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="356">
@@ -14814,7 +17755,7 @@
         <v>3652</v>
       </c>
       <c r="B356" t="n">
-        <v>4.22</v>
+        <v>-0.425</v>
       </c>
     </row>
     <row r="357">
@@ -14822,7 +17763,7 @@
         <v>3674</v>
       </c>
       <c r="B357" t="n">
-        <v>4.06</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="358">
@@ -14830,7 +17771,7 @@
         <v>3685</v>
       </c>
       <c r="B358" t="n">
-        <v>3.91</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="359">
@@ -14838,7 +17779,7 @@
         <v>3696</v>
       </c>
       <c r="B359" t="n">
-        <v>3.96</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="360">
@@ -14846,7 +17787,7 @@
         <v>3708</v>
       </c>
       <c r="B360" t="n">
-        <v>3.97</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="361">
@@ -14854,7 +17795,7 @@
         <v>3720</v>
       </c>
       <c r="B361" t="n">
-        <v>3.82</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="362">
@@ -14862,7 +17803,7 @@
         <v>3729</v>
       </c>
       <c r="B362" t="n">
-        <v>3.71</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="363">
@@ -14870,7 +17811,7 @@
         <v>3738</v>
       </c>
       <c r="B363" t="n">
-        <v>3.75</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="364">
@@ -14878,7 +17819,7 @@
         <v>3747</v>
       </c>
       <c r="B364" t="n">
-        <v>3.8</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="365">
@@ -14886,7 +17827,7 @@
         <v>3754</v>
       </c>
       <c r="B365" t="n">
-        <v>4.01</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="366">
@@ -14894,7 +17835,7 @@
         <v>3761</v>
       </c>
       <c r="B366" t="n">
-        <v>4.18</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="367">
@@ -14902,7 +17843,7 @@
         <v>3767</v>
       </c>
       <c r="B367" t="n">
-        <v>4.19</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="368">
@@ -14910,7 +17851,7 @@
         <v>3773</v>
       </c>
       <c r="B368" t="n">
-        <v>4.18</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="369">
@@ -14918,7 +17859,7 @@
         <v>3780</v>
       </c>
       <c r="B369" t="n">
-        <v>4.07</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="370">
@@ -14926,7 +17867,7 @@
         <v>3789</v>
       </c>
       <c r="B370" t="n">
-        <v>3.99</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="371">
@@ -14934,7 +17875,7 @@
         <v>3804</v>
       </c>
       <c r="B371" t="n">
-        <v>4.14</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="372">
@@ -14942,7 +17883,7 @@
         <v>3822</v>
       </c>
       <c r="B372" t="n">
-        <v>4.04</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="373">
@@ -14950,7 +17891,7 @@
         <v>3836</v>
       </c>
       <c r="B373" t="n">
-        <v>4.05</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="374">
@@ -14958,7 +17899,7 @@
         <v>3846</v>
       </c>
       <c r="B374" t="n">
-        <v>3.52</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="375">
@@ -14966,7 +17907,7 @@
         <v>3856</v>
       </c>
       <c r="B375" t="n">
-        <v>3.49</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="376">
@@ -14974,7 +17915,7 @@
         <v>3865</v>
       </c>
       <c r="B376" t="n">
-        <v>3.41</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="377">
@@ -14982,7 +17923,7 @@
         <v>3874</v>
       </c>
       <c r="B377" t="n">
-        <v>3.52</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="378">
@@ -14990,7 +17931,7 @@
         <v>3882</v>
       </c>
       <c r="B378" t="n">
-        <v>3.445</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="379">
@@ -14998,7 +17939,7 @@
         <v>3890</v>
       </c>
       <c r="B379" t="n">
-        <v>3.67</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="380">
@@ -15006,7 +17947,7 @@
         <v>3898</v>
       </c>
       <c r="B380" t="n">
-        <v>4.1</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="381">
@@ -15014,7 +17955,7 @@
         <v>3908</v>
       </c>
       <c r="B381" t="n">
-        <v>4.27</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="382">
@@ -15022,7 +17963,7 @@
         <v>3915</v>
       </c>
       <c r="B382" t="n">
-        <v>4.18</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="383">
@@ -15030,7 +17971,7 @@
         <v>3918</v>
       </c>
       <c r="B383" t="n">
-        <v>4.16</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="384">
@@ -15038,7 +17979,7 @@
         <v>3922</v>
       </c>
       <c r="B384" t="n">
-        <v>4.06</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="385">
@@ -15046,7 +17987,7 @@
         <v>3928</v>
       </c>
       <c r="B385" t="n">
-        <v>4.12</v>
+        <v>-0.21</v>
       </c>
     </row>
   </sheetData>
@@ -15060,7 +18001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H385"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15068,53 +18009,47 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="27" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>depthODP849 [cm]</t>
+          <t>X1Coords</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>d13Cforams-b</t>
+          <t>X2Coords</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
+        <is>
+          <t>X1Name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Y axis inverted</t>
-        </is>
-      </c>
       <c r="F1" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
         <is>
           <t>Comment</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>History</t>
         </is>
@@ -15122,3090 +18057,155 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7</v>
+        <v>4.34</v>
       </c>
       <c r="B2" t="n">
-        <v>0.21</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Serie</t>
+          <t>Age (ka)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>INTERPOLATION</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Imported INTERPOLATION</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17</v>
+        <v>10.6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.08</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>28</v>
+        <v>25.4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.19</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>45</v>
+        <v>30.7</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.15</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>55</v>
+        <v>50.98575828</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.27</v>
+        <v>180.1195056</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>69</v>
+        <v>60.87</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.26</v>
+        <v>222.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>89</v>
+        <v>75.0940274</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.12</v>
+        <v>270.8251074</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>109</v>
+        <v>85.83231696</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02</v>
+        <v>325.678361</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>118</v>
+        <v>93.69387322</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05</v>
+        <v>360.4105867</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>128</v>
+        <v>102.7831161</v>
       </c>
       <c r="B11" t="n">
-        <v>0.02</v>
+        <v>395.1476982</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>139</v>
+        <v>110.1334365</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1</v>
+        <v>418.6029405</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>150</v>
+        <v>116.4434411</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05</v>
+        <v>431.7460743</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>161</v>
+        <v>129.17</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.02</v>
+        <v>458.39</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>185</v>
+        <v>165.62</v>
       </c>
       <c r="B15" t="n">
-        <v>0.07000000000000001</v>
+        <v>519.13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>194</v>
+        <v>191.08</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.04</v>
+        <v>571.37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>217</v>
+        <v>220.04</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.21</v>
+        <v>605.17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>231</v>
+        <v>241.91</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>243</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>249</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>256</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>271</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>275</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>280</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>289</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>292</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>296</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>306</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.045</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>315</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>324</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>333</v>
-      </c>
-      <c r="B31" t="n">
-        <v>-0.08500000000000001</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>344</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>355</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>366</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>377</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>388</v>
-      </c>
-      <c r="B36" t="n">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>398</v>
-      </c>
-      <c r="B37" t="n">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>408</v>
-      </c>
-      <c r="B38" t="n">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>418</v>
-      </c>
-      <c r="B39" t="n">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>428</v>
-      </c>
-      <c r="B40" t="n">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>437</v>
-      </c>
-      <c r="B41" t="n">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>447</v>
-      </c>
-      <c r="B42" t="n">
-        <v>-0.38</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>456</v>
-      </c>
-      <c r="B43" t="n">
-        <v>-0.45</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>467</v>
-      </c>
-      <c r="B44" t="n">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>477</v>
-      </c>
-      <c r="B45" t="n">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>488</v>
-      </c>
-      <c r="B46" t="n">
-        <v>-0.19</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>498</v>
-      </c>
-      <c r="B47" t="n">
-        <v>-0.46</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>508</v>
-      </c>
-      <c r="B48" t="n">
-        <v>-0.39</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>518</v>
-      </c>
-      <c r="B49" t="n">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>528</v>
-      </c>
-      <c r="B50" t="n">
-        <v>-0.45</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>538</v>
-      </c>
-      <c r="B51" t="n">
-        <v>-0.395</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>548</v>
-      </c>
-      <c r="B52" t="n">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>558</v>
-      </c>
-      <c r="B53" t="n">
-        <v>-0.305</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>568</v>
-      </c>
-      <c r="B54" t="n">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>578</v>
-      </c>
-      <c r="B55" t="n">
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>589</v>
-      </c>
-      <c r="B56" t="n">
-        <v>-0.325</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>599</v>
-      </c>
-      <c r="B57" t="n">
-        <v>-0.41</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>608</v>
-      </c>
-      <c r="B58" t="n">
-        <v>-0.42</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>618</v>
-      </c>
-      <c r="B59" t="n">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>628</v>
-      </c>
-      <c r="B60" t="n">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>638</v>
-      </c>
-      <c r="B61" t="n">
-        <v>-0.135</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>647</v>
-      </c>
-      <c r="B62" t="n">
-        <v>-0.005</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>657</v>
-      </c>
-      <c r="B63" t="n">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>667</v>
-      </c>
-      <c r="B64" t="n">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>677</v>
-      </c>
-      <c r="B65" t="n">
-        <v>-0.08500000000000001</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>688</v>
-      </c>
-      <c r="B66" t="n">
-        <v>-0.0433</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>698</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>708</v>
-      </c>
-      <c r="B68" t="n">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>718</v>
-      </c>
-      <c r="B69" t="n">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>728</v>
-      </c>
-      <c r="B70" t="n">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>737</v>
-      </c>
-      <c r="B71" t="n">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>747</v>
-      </c>
-      <c r="B72" t="n">
-        <v>-0.405</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>756</v>
-      </c>
-      <c r="B73" t="n">
-        <v>-0.505</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>757</v>
-      </c>
-      <c r="B74" t="n">
-        <v>-0.36</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>766</v>
-      </c>
-      <c r="B75" t="n">
-        <v>-0.19</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>778</v>
-      </c>
-      <c r="B76" t="n">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>791</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>803</v>
-      </c>
-      <c r="B78" t="n">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>813</v>
-      </c>
-      <c r="B79" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>824</v>
-      </c>
-      <c r="B80" t="n">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>835</v>
-      </c>
-      <c r="B81" t="n">
-        <v>-0.28</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>849</v>
-      </c>
-      <c r="B82" t="n">
-        <v>-0.28</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>861</v>
-      </c>
-      <c r="B83" t="n">
-        <v>-0.43</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>871</v>
-      </c>
-      <c r="B84" t="n">
-        <v>-0.535</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>879</v>
-      </c>
-      <c r="B85" t="n">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>889</v>
-      </c>
-      <c r="B86" t="n">
-        <v>-0.37</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>895</v>
-      </c>
-      <c r="B87" t="n">
-        <v>-0.58</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>905</v>
-      </c>
-      <c r="B88" t="n">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>916</v>
-      </c>
-      <c r="B89" t="n">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>927</v>
-      </c>
-      <c r="B90" t="n">
-        <v>-0.095</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>937</v>
-      </c>
-      <c r="B91" t="n">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>948</v>
-      </c>
-      <c r="B92" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>960</v>
-      </c>
-      <c r="B93" t="n">
-        <v>-0.19</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>972</v>
-      </c>
-      <c r="B94" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>982</v>
-      </c>
-      <c r="B95" t="n">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>990</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>996</v>
-      </c>
-      <c r="B97" t="n">
-        <v>-0.1133</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>1003</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>1012</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>1026</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>1041</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>1052</v>
-      </c>
-      <c r="B102" t="n">
-        <v>-0.065</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>1059</v>
-      </c>
-      <c r="B103" t="n">
-        <v>-0.035</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>1075</v>
-      </c>
-      <c r="B104" t="n">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>1090</v>
-      </c>
-      <c r="B105" t="n">
-        <v>-0.28</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>1105</v>
-      </c>
-      <c r="B106" t="n">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>1117</v>
-      </c>
-      <c r="B107" t="n">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>1119</v>
-      </c>
-      <c r="B108" t="n">
-        <v>-0.335</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>1125</v>
-      </c>
-      <c r="B109" t="n">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>1137</v>
-      </c>
-      <c r="B110" t="n">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>1140</v>
-      </c>
-      <c r="B111" t="n">
-        <v>-0.39</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>1146</v>
-      </c>
-      <c r="B112" t="n">
-        <v>-0.19</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>1147</v>
-      </c>
-      <c r="B113" t="n">
-        <v>-0.41</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>1158</v>
-      </c>
-      <c r="B114" t="n">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>1172</v>
-      </c>
-      <c r="B115" t="n">
-        <v>-0.28</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>1182</v>
-      </c>
-      <c r="B116" t="n">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>1192</v>
-      </c>
-      <c r="B117" t="n">
-        <v>-0.08500000000000001</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>1203</v>
-      </c>
-      <c r="B118" t="n">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>1212</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.095</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>1222</v>
-      </c>
-      <c r="B120" t="n">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>1232</v>
-      </c>
-      <c r="B121" t="n">
-        <v>-0.025</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>1252</v>
-      </c>
-      <c r="B122" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>1262</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>1272</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>1306</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>1328</v>
-      </c>
-      <c r="B126" t="n">
-        <v>-0.39</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>1358</v>
-      </c>
-      <c r="B127" t="n">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>1364</v>
-      </c>
-      <c r="B128" t="n">
-        <v>-0.42</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>1369</v>
-      </c>
-      <c r="B129" t="n">
-        <v>-0.315</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>1381</v>
-      </c>
-      <c r="B130" t="n">
-        <v>-0.41</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>1388</v>
-      </c>
-      <c r="B131" t="n">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>1395</v>
-      </c>
-      <c r="B132" t="n">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>1403</v>
-      </c>
-      <c r="B133" t="n">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>1414</v>
-      </c>
-      <c r="B134" t="n">
-        <v>-0.39</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>1436</v>
-      </c>
-      <c r="B135" t="n">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>1444</v>
-      </c>
-      <c r="B136" t="n">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>1453</v>
-      </c>
-      <c r="B137" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>1464</v>
-      </c>
-      <c r="B138" t="n">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>1475</v>
-      </c>
-      <c r="B139" t="n">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>1487</v>
-      </c>
-      <c r="B140" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>1498</v>
-      </c>
-      <c r="B141" t="n">
-        <v>0.3166</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>1518</v>
-      </c>
-      <c r="B142" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>1527</v>
-      </c>
-      <c r="B143" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>1537</v>
-      </c>
-      <c r="B144" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>1547</v>
-      </c>
-      <c r="B145" t="n">
-        <v>0.285</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>1557</v>
-      </c>
-      <c r="B146" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>1567</v>
-      </c>
-      <c r="B147" t="n">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>1577</v>
-      </c>
-      <c r="B148" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>1587</v>
-      </c>
-      <c r="B149" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>1597</v>
-      </c>
-      <c r="B150" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>1607</v>
-      </c>
-      <c r="B151" t="n">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>1617</v>
-      </c>
-      <c r="B152" t="n">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>1637</v>
-      </c>
-      <c r="B153" t="n">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>1647</v>
-      </c>
-      <c r="B154" t="n">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>1657</v>
-      </c>
-      <c r="B155" t="n">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>1667</v>
-      </c>
-      <c r="B156" t="n">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>1677</v>
-      </c>
-      <c r="B157" t="n">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>1687</v>
-      </c>
-      <c r="B158" t="n">
-        <v>-0.025</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>1697</v>
-      </c>
-      <c r="B159" t="n">
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>1707</v>
-      </c>
-      <c r="B160" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>1717</v>
-      </c>
-      <c r="B161" t="n">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>1737</v>
-      </c>
-      <c r="B162" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>1747</v>
-      </c>
-      <c r="B163" t="n">
-        <v>0.0566</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>1757</v>
-      </c>
-      <c r="B164" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>1767</v>
-      </c>
-      <c r="B165" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>1777</v>
-      </c>
-      <c r="B166" t="n">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>1787</v>
-      </c>
-      <c r="B167" t="n">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>1797</v>
-      </c>
-      <c r="B168" t="n">
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>1807</v>
-      </c>
-      <c r="B169" t="n">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>1817</v>
-      </c>
-      <c r="B170" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>1827</v>
-      </c>
-      <c r="B171" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>1837</v>
-      </c>
-      <c r="B172" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>1847</v>
-      </c>
-      <c r="B173" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>1857</v>
-      </c>
-      <c r="B174" t="n">
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>1867</v>
-      </c>
-      <c r="B175" t="n">
-        <v>-0.36</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>1887</v>
-      </c>
-      <c r="B176" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>1897</v>
-      </c>
-      <c r="B177" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>1903</v>
-      </c>
-      <c r="B178" t="n">
-        <v>-0.24</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>1907</v>
-      </c>
-      <c r="B179" t="n">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>1915</v>
-      </c>
-      <c r="B180" t="n">
-        <v>-0.42</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>1927</v>
-      </c>
-      <c r="B181" t="n">
-        <v>-0.39</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>1938</v>
-      </c>
-      <c r="B182" t="n">
-        <v>-0.37</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>1948</v>
-      </c>
-      <c r="B183" t="n">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>1957</v>
-      </c>
-      <c r="B184" t="n">
-        <v>-0.63</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>1966</v>
-      </c>
-      <c r="B185" t="n">
-        <v>-0.66</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>1975</v>
-      </c>
-      <c r="B186" t="n">
-        <v>-0.67</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>1985</v>
-      </c>
-      <c r="B187" t="n">
-        <v>-0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>1995</v>
-      </c>
-      <c r="B188" t="n">
-        <v>-0.48</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>2006</v>
-      </c>
-      <c r="B189" t="n">
-        <v>-0.39</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B190" t="n">
-        <v>-0.24</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>2028</v>
-      </c>
-      <c r="B191" t="n">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>2038</v>
-      </c>
-      <c r="B192" t="n">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>2047</v>
-      </c>
-      <c r="B193" t="n">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>2055</v>
-      </c>
-      <c r="B194" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>2063</v>
-      </c>
-      <c r="B195" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>2070</v>
-      </c>
-      <c r="B196" t="n">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>2071</v>
-      </c>
-      <c r="B197" t="n">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>2078</v>
-      </c>
-      <c r="B198" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>2085</v>
-      </c>
-      <c r="B199" t="n">
-        <v>-0.155</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>2092</v>
-      </c>
-      <c r="B200" t="n">
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>2100</v>
-      </c>
-      <c r="B201" t="n">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>2116</v>
-      </c>
-      <c r="B202" t="n">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>2123</v>
-      </c>
-      <c r="B203" t="n">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>2124</v>
-      </c>
-      <c r="B204" t="n">
-        <v>-0.28</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>2133</v>
-      </c>
-      <c r="B205" t="n">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>2141</v>
-      </c>
-      <c r="B206" t="n">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>2142</v>
-      </c>
-      <c r="B207" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>2150</v>
-      </c>
-      <c r="B208" t="n">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>2159</v>
-      </c>
-      <c r="B209" t="n">
-        <v>-0.27</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>2167</v>
-      </c>
-      <c r="B210" t="n">
-        <v>-0.41</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>2175</v>
-      </c>
-      <c r="B211" t="n">
-        <v>-0.445</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>2184</v>
-      </c>
-      <c r="B212" t="n">
-        <v>-0.41</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>2193</v>
-      </c>
-      <c r="B213" t="n">
-        <v>-0.475</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>2203</v>
-      </c>
-      <c r="B214" t="n">
-        <v>-0.44</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>2213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>2224</v>
-      </c>
-      <c r="B216" t="n">
-        <v>-0.205</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>2235</v>
-      </c>
-      <c r="B217" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>2246</v>
-      </c>
-      <c r="B218" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>2257</v>
-      </c>
-      <c r="B219" t="n">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>2267</v>
-      </c>
-      <c r="B220" t="n">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>2276</v>
-      </c>
-      <c r="B221" t="n">
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>2285</v>
-      </c>
-      <c r="B222" t="n">
-        <v>-0.58</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>2294</v>
-      </c>
-      <c r="B223" t="n">
-        <v>-0.53</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>2303</v>
-      </c>
-      <c r="B224" t="n">
-        <v>-0.59</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>2312</v>
-      </c>
-      <c r="B225" t="n">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
-        <v>2322</v>
-      </c>
-      <c r="B226" t="n">
-        <v>-0.245</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="n">
-        <v>2334</v>
-      </c>
-      <c r="B227" t="n">
-        <v>-0.27</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
-        <v>2347</v>
-      </c>
-      <c r="B228" t="n">
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
-        <v>2361</v>
-      </c>
-      <c r="B229" t="n">
-        <v>-0.245</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v>2375</v>
-      </c>
-      <c r="B230" t="n">
-        <v>-0.405</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>2388</v>
-      </c>
-      <c r="B231" t="n">
-        <v>-0.325</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>2399</v>
-      </c>
-      <c r="B232" t="n">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="n">
-        <v>2410</v>
-      </c>
-      <c r="B233" t="n">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
-        <v>2420</v>
-      </c>
-      <c r="B234" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>2430</v>
-      </c>
-      <c r="B235" t="n">
-        <v>-0.2166</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>2440</v>
-      </c>
-      <c r="B236" t="n">
-        <v>-0.125</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>2450</v>
-      </c>
-      <c r="B237" t="n">
-        <v>-0.48</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>2461</v>
-      </c>
-      <c r="B238" t="n">
-        <v>-0.47</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>2472</v>
-      </c>
-      <c r="B239" t="n">
-        <v>-0.27</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>2484</v>
-      </c>
-      <c r="B240" t="n">
-        <v>-0.65</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>2495</v>
-      </c>
-      <c r="B241" t="n">
-        <v>-0.7</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="n">
-        <v>2506</v>
-      </c>
-      <c r="B242" t="n">
-        <v>-0.58</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="n">
-        <v>2514</v>
-      </c>
-      <c r="B243" t="n">
-        <v>-0.79</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="n">
-        <v>2517</v>
-      </c>
-      <c r="B244" t="n">
-        <v>-0.37</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="n">
-        <v>2527</v>
-      </c>
-      <c r="B245" t="n">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="n">
-        <v>2537</v>
-      </c>
-      <c r="B246" t="n">
-        <v>-0.595</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="n">
-        <v>2542</v>
-      </c>
-      <c r="B247" t="n">
-        <v>-0.64</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="n">
-        <v>2546</v>
-      </c>
-      <c r="B248" t="n">
-        <v>-0.44</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
-        <v>2552</v>
-      </c>
-      <c r="B249" t="n">
-        <v>-0.51</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
-        <v>2562</v>
-      </c>
-      <c r="B250" t="n">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="n">
-        <v>2571</v>
-      </c>
-      <c r="B251" t="n">
-        <v>-0.49</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="n">
-        <v>2583</v>
-      </c>
-      <c r="B252" t="n">
-        <v>-0.57</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="n">
-        <v>2592</v>
-      </c>
-      <c r="B253" t="n">
-        <v>-0.64</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="n">
-        <v>2602</v>
-      </c>
-      <c r="B254" t="n">
-        <v>-0.85</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="n">
-        <v>2612</v>
-      </c>
-      <c r="B255" t="n">
-        <v>-0.9</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="n">
-        <v>2622</v>
-      </c>
-      <c r="B256" t="n">
-        <v>-0.72</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="n">
-        <v>2632</v>
-      </c>
-      <c r="B257" t="n">
-        <v>-0.79</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="n">
-        <v>2652</v>
-      </c>
-      <c r="B258" t="n">
-        <v>-0.53</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="n">
-        <v>2662</v>
-      </c>
-      <c r="B259" t="n">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="n">
-        <v>2674</v>
-      </c>
-      <c r="B260" t="n">
-        <v>-0.52</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="n">
-        <v>2676</v>
-      </c>
-      <c r="B261" t="n">
-        <v>-0.45</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="n">
-        <v>2681</v>
-      </c>
-      <c r="B262" t="n">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="n">
-        <v>2686</v>
-      </c>
-      <c r="B263" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="n">
-        <v>2696</v>
-      </c>
-      <c r="B264" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="n">
-        <v>2706</v>
-      </c>
-      <c r="B265" t="n">
-        <v>-0.37</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="n">
-        <v>2726</v>
-      </c>
-      <c r="B266" t="n">
-        <v>-0.57</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="n">
-        <v>2736</v>
-      </c>
-      <c r="B267" t="n">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
-        <v>2746</v>
-      </c>
-      <c r="B268" t="n">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="n">
-        <v>2756</v>
-      </c>
-      <c r="B269" t="n">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="n">
-        <v>2766</v>
-      </c>
-      <c r="B270" t="n">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="n">
-        <v>2776</v>
-      </c>
-      <c r="B271" t="n">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="n">
-        <v>2786</v>
-      </c>
-      <c r="B272" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="n">
-        <v>2796</v>
-      </c>
-      <c r="B273" t="n">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="n">
-        <v>2806</v>
-      </c>
-      <c r="B274" t="n">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="n">
-        <v>2815</v>
-      </c>
-      <c r="B275" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="n">
-        <v>2826</v>
-      </c>
-      <c r="B276" t="n">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="n">
-        <v>2837</v>
-      </c>
-      <c r="B277" t="n">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="n">
-        <v>2847</v>
-      </c>
-      <c r="B278" t="n">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="n">
-        <v>2856</v>
-      </c>
-      <c r="B279" t="n">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="n">
-        <v>2866</v>
-      </c>
-      <c r="B280" t="n">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="n">
-        <v>2875</v>
-      </c>
-      <c r="B281" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="n">
-        <v>2885</v>
-      </c>
-      <c r="B282" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="n">
-        <v>2896</v>
-      </c>
-      <c r="B283" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="n">
-        <v>2906</v>
-      </c>
-      <c r="B284" t="n">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="n">
-        <v>2916</v>
-      </c>
-      <c r="B285" t="n">
-        <v>-0.14</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="n">
-        <v>2925</v>
-      </c>
-      <c r="B286" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="n">
-        <v>2936</v>
-      </c>
-      <c r="B287" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
-        <v>2953</v>
-      </c>
-      <c r="B288" t="n">
-        <v>-0.58</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="n">
-        <v>2956</v>
-      </c>
-      <c r="B289" t="n">
-        <v>-0.53</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="n">
-        <v>2968</v>
-      </c>
-      <c r="B290" t="n">
-        <v>-0.45</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="n">
-        <v>2979</v>
-      </c>
-      <c r="B291" t="n">
-        <v>-0.24</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="n">
-        <v>2989</v>
-      </c>
-      <c r="B292" t="n">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="n">
-        <v>2999</v>
-      </c>
-      <c r="B293" t="n">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="n">
-        <v>3010</v>
-      </c>
-      <c r="B294" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="n">
-        <v>3021</v>
-      </c>
-      <c r="B295" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="n">
-        <v>3031</v>
-      </c>
-      <c r="B296" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="n">
-        <v>3040</v>
-      </c>
-      <c r="B297" t="n">
-        <v>-0.015</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="n">
-        <v>3047</v>
-      </c>
-      <c r="B298" t="n">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="n">
-        <v>3055</v>
-      </c>
-      <c r="B299" t="n">
-        <v>-0.015</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="n">
-        <v>3065</v>
-      </c>
-      <c r="B300" t="n">
-        <v>-0.275</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="n">
-        <v>3077</v>
-      </c>
-      <c r="B301" t="n">
-        <v>-0.355</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="n">
-        <v>3090</v>
-      </c>
-      <c r="B302" t="n">
-        <v>-0.155</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="n">
-        <v>3103</v>
-      </c>
-      <c r="B303" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="n">
-        <v>3124</v>
-      </c>
-      <c r="B304" t="n">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="n">
-        <v>3134</v>
-      </c>
-      <c r="B305" t="n">
-        <v>-0.36</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="n">
-        <v>3145</v>
-      </c>
-      <c r="B306" t="n">
-        <v>-0.44</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="n">
-        <v>3156</v>
-      </c>
-      <c r="B307" t="n">
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="n">
-        <v>3167</v>
-      </c>
-      <c r="B308" t="n">
-        <v>-0.315</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="n">
-        <v>3177</v>
-      </c>
-      <c r="B309" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="n">
-        <v>3188</v>
-      </c>
-      <c r="B310" t="n">
-        <v>-0.39</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="n">
-        <v>3199</v>
-      </c>
-      <c r="B311" t="n">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="n">
-        <v>3212</v>
-      </c>
-      <c r="B312" t="n">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="n">
-        <v>3224</v>
-      </c>
-      <c r="B313" t="n">
-        <v>-0.135</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="n">
-        <v>3234</v>
-      </c>
-      <c r="B314" t="n">
-        <v>-0.005</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="n">
-        <v>3241</v>
-      </c>
-      <c r="B315" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="n">
-        <v>3247</v>
-      </c>
-      <c r="B316" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="n">
-        <v>3252</v>
-      </c>
-      <c r="B317" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="n">
-        <v>3258</v>
-      </c>
-      <c r="B318" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="n">
-        <v>3262</v>
-      </c>
-      <c r="B319" t="n">
-        <v>0.055</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="n">
-        <v>3269</v>
-      </c>
-      <c r="B320" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="n">
-        <v>3278</v>
-      </c>
-      <c r="B321" t="n">
-        <v>0.165</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="n">
-        <v>3290</v>
-      </c>
-      <c r="B322" t="n">
-        <v>-0.245</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="n">
-        <v>3307</v>
-      </c>
-      <c r="B323" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="n">
-        <v>3328</v>
-      </c>
-      <c r="B324" t="n">
-        <v>-0.295</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="n">
-        <v>3344</v>
-      </c>
-      <c r="B325" t="n">
-        <v>-0.44</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="n">
-        <v>3353</v>
-      </c>
-      <c r="B326" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="n">
-        <v>3361</v>
-      </c>
-      <c r="B327" t="n">
-        <v>-0.38</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="n">
-        <v>3367</v>
-      </c>
-      <c r="B328" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="n">
-        <v>3373</v>
-      </c>
-      <c r="B329" t="n">
-        <v>-0.385</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="n">
-        <v>3380</v>
-      </c>
-      <c r="B330" t="n">
-        <v>-0.215</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="n">
-        <v>3388</v>
-      </c>
-      <c r="B331" t="n">
-        <v>-0.205</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="n">
-        <v>3399</v>
-      </c>
-      <c r="B332" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="n">
-        <v>3415</v>
-      </c>
-      <c r="B333" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="n">
-        <v>3437</v>
-      </c>
-      <c r="B334" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="n">
-        <v>3463</v>
-      </c>
-      <c r="B335" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="n">
-        <v>3478</v>
-      </c>
-      <c r="B336" t="n">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="n">
-        <v>3485</v>
-      </c>
-      <c r="B337" t="n">
-        <v>-0.42</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="n">
-        <v>3489</v>
-      </c>
-      <c r="B338" t="n">
-        <v>-0.475</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="n">
-        <v>3493</v>
-      </c>
-      <c r="B339" t="n">
-        <v>-0.545</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="n">
-        <v>3497</v>
-      </c>
-      <c r="B340" t="n">
-        <v>-0.65</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="n">
-        <v>3501</v>
-      </c>
-      <c r="B341" t="n">
-        <v>-0.59</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="n">
-        <v>3506</v>
-      </c>
-      <c r="B342" t="n">
-        <v>-0.24</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="n">
-        <v>3513</v>
-      </c>
-      <c r="B343" t="n">
-        <v>-0.465</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="n">
-        <v>3527</v>
-      </c>
-      <c r="B344" t="n">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="n">
-        <v>3545</v>
-      </c>
-      <c r="B345" t="n">
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="n">
-        <v>3560</v>
-      </c>
-      <c r="B346" t="n">
-        <v>-0.225</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="n">
-        <v>3571</v>
-      </c>
-      <c r="B347" t="n">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="n">
-        <v>3578</v>
-      </c>
-      <c r="B348" t="n">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="n">
-        <v>3586</v>
-      </c>
-      <c r="B349" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="n">
-        <v>3593</v>
-      </c>
-      <c r="B350" t="n">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="n">
-        <v>3601</v>
-      </c>
-      <c r="B351" t="n">
-        <v>-0.095</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="n">
-        <v>3611</v>
-      </c>
-      <c r="B352" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="n">
-        <v>3622</v>
-      </c>
-      <c r="B353" t="n">
-        <v>-0.235</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="n">
-        <v>3635</v>
-      </c>
-      <c r="B354" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="n">
-        <v>3651</v>
-      </c>
-      <c r="B355" t="n">
-        <v>-0.45</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="n">
-        <v>3652</v>
-      </c>
-      <c r="B356" t="n">
-        <v>-0.425</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="n">
-        <v>3674</v>
-      </c>
-      <c r="B357" t="n">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="n">
-        <v>3685</v>
-      </c>
-      <c r="B358" t="n">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="n">
-        <v>3696</v>
-      </c>
-      <c r="B359" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="n">
-        <v>3708</v>
-      </c>
-      <c r="B360" t="n">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="n">
-        <v>3720</v>
-      </c>
-      <c r="B361" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="n">
-        <v>3729</v>
-      </c>
-      <c r="B362" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="n">
-        <v>3738</v>
-      </c>
-      <c r="B363" t="n">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="n">
-        <v>3747</v>
-      </c>
-      <c r="B364" t="n">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="n">
-        <v>3754</v>
-      </c>
-      <c r="B365" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="n">
-        <v>3761</v>
-      </c>
-      <c r="B366" t="n">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="n">
-        <v>3767</v>
-      </c>
-      <c r="B367" t="n">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="n">
-        <v>3773</v>
-      </c>
-      <c r="B368" t="n">
-        <v>-0.46</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="n">
-        <v>3780</v>
-      </c>
-      <c r="B369" t="n">
-        <v>-0.49</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="n">
-        <v>3789</v>
-      </c>
-      <c r="B370" t="n">
-        <v>-0.49</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="n">
-        <v>3804</v>
-      </c>
-      <c r="B371" t="n">
-        <v>-0.48</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="n">
-        <v>3822</v>
-      </c>
-      <c r="B372" t="n">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="n">
-        <v>3836</v>
-      </c>
-      <c r="B373" t="n">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="n">
-        <v>3846</v>
-      </c>
-      <c r="B374" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="n">
-        <v>3856</v>
-      </c>
-      <c r="B375" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="n">
-        <v>3865</v>
-      </c>
-      <c r="B376" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="n">
-        <v>3874</v>
-      </c>
-      <c r="B377" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="n">
-        <v>3882</v>
-      </c>
-      <c r="B378" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="n">
-        <v>3890</v>
-      </c>
-      <c r="B379" t="n">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="n">
-        <v>3898</v>
-      </c>
-      <c r="B380" t="n">
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="n">
-        <v>3908</v>
-      </c>
-      <c r="B381" t="n">
-        <v>-0.28</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="n">
-        <v>3915</v>
-      </c>
-      <c r="B382" t="n">
-        <v>-0.38</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="n">
-        <v>3918</v>
-      </c>
-      <c r="B383" t="n">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="n">
-        <v>3922</v>
-      </c>
-      <c r="B384" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="n">
-        <v>3928</v>
-      </c>
-      <c r="B385" t="n">
-        <v>-0.21</v>
+        <v>641.1</v>
       </c>
     </row>
   </sheetData>

--- a/test/ws_ex_5.0.xlsx
+++ b/test/ws_ex_5.0.xlsx
@@ -10,8 +10,10 @@
     <sheet name="Serie Id-0CF20BB2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Serie Id-67GH89BG" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Serie Id-56TY87JG" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Serie Id-34AE56JH" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="INTERPOLATION Id-C2F3FDA9" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Serie Id-C0A6277E" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Serie Id-34AE56JH" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="INTERPOLATION Id-C2F3FDA9" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="SAMPLE Id-CF9F02D5" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14842,6 +14844,5213 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H640"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="11" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="26" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="168" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>depth</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>18MD00-2374vsPDB</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Y axis inverted</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>History</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.235</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Serie sampled</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Serie sampled every 5</t>
+        </is>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>#98df8a</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>serie &lt;i&gt;&lt;b&gt;Id-56TY87JG&lt;/i&gt;&lt;/b&gt; sampled with SAMPLE &lt;i&gt;&lt;b&gt;Id-CF9F02D5&lt;/i&gt;&lt;/b&gt;&lt;BR&gt;every 5 using kind of interpolation linear&lt;BR&gt;---&gt; serie &lt;i&gt;&lt;b&gt;Id-C0A6277E&lt;/b&gt;&lt;/i&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>105</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.50125</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>110</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>115</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.6425</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>120</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>125</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>130</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>135</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>140</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>145</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.935</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>150</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>155</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>160</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4.02</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>165</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>170</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>175</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>180</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>185</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3.815</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>190</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>195</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3.855</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>200</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>205</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>210</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>215</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3.945</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>220</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>225</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>230</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>235</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.975</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>240</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>245</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3.895</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>250</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>255</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3.945</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>260</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>265</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3.975</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>270</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>275</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3.895</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>280</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>285</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>290</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>295</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3.845</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>300</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>305</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>310</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>315</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>320</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>325</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>330</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>335</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3.765</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>340</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>345</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>350</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>355</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3.865</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>360</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>365</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>370</v>
+      </c>
+      <c r="B56" t="n">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>375</v>
+      </c>
+      <c r="B57" t="n">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>380</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>385</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3.835</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>390</v>
+      </c>
+      <c r="B60" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>395</v>
+      </c>
+      <c r="B61" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>400</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>405</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3.885</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>410</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>415</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3.835</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>420</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>425</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>430</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>435</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>440</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>445</v>
+      </c>
+      <c r="B71" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>450</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>455</v>
+      </c>
+      <c r="B73" t="n">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>460</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>465</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>470</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>475</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>480</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>485</v>
+      </c>
+      <c r="B79" t="n">
+        <v>3.925</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>490</v>
+      </c>
+      <c r="B80" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>495</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>500</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>505</v>
+      </c>
+      <c r="B83" t="n">
+        <v>3.795</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>510</v>
+      </c>
+      <c r="B84" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>515</v>
+      </c>
+      <c r="B85" t="n">
+        <v>3.785</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>520</v>
+      </c>
+      <c r="B86" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>525</v>
+      </c>
+      <c r="B87" t="n">
+        <v>3.875</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>530</v>
+      </c>
+      <c r="B88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>535</v>
+      </c>
+      <c r="B89" t="n">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>540</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>545</v>
+      </c>
+      <c r="B91" t="n">
+        <v>3.825</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>550</v>
+      </c>
+      <c r="B92" t="n">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>555</v>
+      </c>
+      <c r="B93" t="n">
+        <v>3.755</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>560</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>565</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>570</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>575</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>580</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>585</v>
+      </c>
+      <c r="B99" t="n">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>590</v>
+      </c>
+      <c r="B100" t="n">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>595</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>600</v>
+      </c>
+      <c r="B102" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>605</v>
+      </c>
+      <c r="B103" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>610</v>
+      </c>
+      <c r="B104" t="n">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>615</v>
+      </c>
+      <c r="B105" t="n">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>620</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>625</v>
+      </c>
+      <c r="B107" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>630</v>
+      </c>
+      <c r="B108" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>635</v>
+      </c>
+      <c r="B109" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>640</v>
+      </c>
+      <c r="B110" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>645</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>650</v>
+      </c>
+      <c r="B112" t="n">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>655</v>
+      </c>
+      <c r="B113" t="n">
+        <v>3.535</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>660</v>
+      </c>
+      <c r="B114" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>665</v>
+      </c>
+      <c r="B115" t="n">
+        <v>3.615</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>670</v>
+      </c>
+      <c r="B116" t="n">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>675</v>
+      </c>
+      <c r="B117" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>680</v>
+      </c>
+      <c r="B118" t="n">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>685</v>
+      </c>
+      <c r="B119" t="n">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>690</v>
+      </c>
+      <c r="B120" t="n">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>695</v>
+      </c>
+      <c r="B121" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>700</v>
+      </c>
+      <c r="B122" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>705</v>
+      </c>
+      <c r="B123" t="n">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>710</v>
+      </c>
+      <c r="B124" t="n">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>715</v>
+      </c>
+      <c r="B125" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>720</v>
+      </c>
+      <c r="B126" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>725</v>
+      </c>
+      <c r="B127" t="n">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>730</v>
+      </c>
+      <c r="B128" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>735</v>
+      </c>
+      <c r="B129" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>740</v>
+      </c>
+      <c r="B130" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>745</v>
+      </c>
+      <c r="B131" t="n">
+        <v>3.525</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>750</v>
+      </c>
+      <c r="B132" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>755</v>
+      </c>
+      <c r="B133" t="n">
+        <v>3.495</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>760</v>
+      </c>
+      <c r="B134" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>765</v>
+      </c>
+      <c r="B135" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>770</v>
+      </c>
+      <c r="B136" t="n">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>775</v>
+      </c>
+      <c r="B137" t="n">
+        <v>3.645</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>780</v>
+      </c>
+      <c r="B138" t="n">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>785</v>
+      </c>
+      <c r="B139" t="n">
+        <v>3.645</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>790</v>
+      </c>
+      <c r="B140" t="n">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>795</v>
+      </c>
+      <c r="B141" t="n">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>800</v>
+      </c>
+      <c r="B142" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>805</v>
+      </c>
+      <c r="B143" t="n">
+        <v>3.805</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>810</v>
+      </c>
+      <c r="B144" t="n">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>815</v>
+      </c>
+      <c r="B145" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>820</v>
+      </c>
+      <c r="B146" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>825</v>
+      </c>
+      <c r="B147" t="n">
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>830</v>
+      </c>
+      <c r="B148" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>835</v>
+      </c>
+      <c r="B149" t="n">
+        <v>3.4475</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>840</v>
+      </c>
+      <c r="B150" t="n">
+        <v>3.395</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>845</v>
+      </c>
+      <c r="B151" t="n">
+        <v>3.4425</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>850</v>
+      </c>
+      <c r="B152" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>855</v>
+      </c>
+      <c r="B153" t="n">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>860</v>
+      </c>
+      <c r="B154" t="n">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>865</v>
+      </c>
+      <c r="B155" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>870</v>
+      </c>
+      <c r="B156" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>875</v>
+      </c>
+      <c r="B157" t="n">
+        <v>3.575</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>880</v>
+      </c>
+      <c r="B158" t="n">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>885</v>
+      </c>
+      <c r="B159" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>890</v>
+      </c>
+      <c r="B160" t="n">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>895</v>
+      </c>
+      <c r="B161" t="n">
+        <v>3.535</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>900</v>
+      </c>
+      <c r="B162" t="n">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>905</v>
+      </c>
+      <c r="B163" t="n">
+        <v>3.545</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>910</v>
+      </c>
+      <c r="B164" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>915</v>
+      </c>
+      <c r="B165" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>920</v>
+      </c>
+      <c r="B166" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>925</v>
+      </c>
+      <c r="B167" t="n">
+        <v>3.6975</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>930</v>
+      </c>
+      <c r="B168" t="n">
+        <v>3.835</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>935</v>
+      </c>
+      <c r="B169" t="n">
+        <v>3.7425</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>940</v>
+      </c>
+      <c r="B170" t="n">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>945</v>
+      </c>
+      <c r="B171" t="n">
+        <v>3.555</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>950</v>
+      </c>
+      <c r="B172" t="n">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>955</v>
+      </c>
+      <c r="B173" t="n">
+        <v>3.475</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>960</v>
+      </c>
+      <c r="B174" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>965</v>
+      </c>
+      <c r="B175" t="n">
+        <v>3.485</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>970</v>
+      </c>
+      <c r="B176" t="n">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>975</v>
+      </c>
+      <c r="B177" t="n">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>980</v>
+      </c>
+      <c r="B178" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>985</v>
+      </c>
+      <c r="B179" t="n">
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>990</v>
+      </c>
+      <c r="B180" t="n">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>995</v>
+      </c>
+      <c r="B181" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B182" t="n">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B183" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B184" t="n">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B185" t="n">
+        <v>3.4775</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B186" t="n">
+        <v>3.365</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1025</v>
+      </c>
+      <c r="B187" t="n">
+        <v>3.4125</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B188" t="n">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1035</v>
+      </c>
+      <c r="B189" t="n">
+        <v>3.475</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1040</v>
+      </c>
+      <c r="B190" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>1045</v>
+      </c>
+      <c r="B191" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>1050</v>
+      </c>
+      <c r="B192" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1055</v>
+      </c>
+      <c r="B193" t="n">
+        <v>3.585</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1060</v>
+      </c>
+      <c r="B194" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>1065</v>
+      </c>
+      <c r="B195" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>1070</v>
+      </c>
+      <c r="B196" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>1075</v>
+      </c>
+      <c r="B197" t="n">
+        <v>3.615</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>1080</v>
+      </c>
+      <c r="B198" t="n">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>1085</v>
+      </c>
+      <c r="B199" t="n">
+        <v>3.578571428571428</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B200" t="n">
+        <v>3.58799</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>1095</v>
+      </c>
+      <c r="B201" t="n">
+        <v>3.58464</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B202" t="n">
+        <v>3.60031</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>1105</v>
+      </c>
+      <c r="B203" t="n">
+        <v>3.62866</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B204" t="n">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B205" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B206" t="n">
+        <v>3.567</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B207" t="n">
+        <v>3.612</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B208" t="n">
+        <v>3.579</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>1135</v>
+      </c>
+      <c r="B209" t="n">
+        <v>3.494</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B210" t="n">
+        <v>3.469</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>1145</v>
+      </c>
+      <c r="B211" t="n">
+        <v>3.484</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>1150</v>
+      </c>
+      <c r="B212" t="n">
+        <v>3.553</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>1155</v>
+      </c>
+      <c r="B213" t="n">
+        <v>3.658</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>1160</v>
+      </c>
+      <c r="B214" t="n">
+        <v>3.673</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>1165</v>
+      </c>
+      <c r="B215" t="n">
+        <v>3.628</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>1170</v>
+      </c>
+      <c r="B216" t="n">
+        <v>3.574</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>1175</v>
+      </c>
+      <c r="B217" t="n">
+        <v>3.514</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>1180</v>
+      </c>
+      <c r="B218" t="n">
+        <v>3.4495</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>1185</v>
+      </c>
+      <c r="B219" t="n">
+        <v>3.382</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>1190</v>
+      </c>
+      <c r="B220" t="n">
+        <v>3.3625</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>1195</v>
+      </c>
+      <c r="B221" t="n">
+        <v>3.375</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B222" t="n">
+        <v>3.428</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>1205</v>
+      </c>
+      <c r="B223" t="n">
+        <v>3.508</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B224" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>1215</v>
+      </c>
+      <c r="B225" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>1220</v>
+      </c>
+      <c r="B226" t="n">
+        <v>3.53799</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>1225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>3.53464</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>1230</v>
+      </c>
+      <c r="B228" t="n">
+        <v>3.54431</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>1235</v>
+      </c>
+      <c r="B229" t="n">
+        <v>3.56266</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>1240</v>
+      </c>
+      <c r="B230" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>1245</v>
+      </c>
+      <c r="B231" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B232" t="n">
+        <v>3.488</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>1255</v>
+      </c>
+      <c r="B233" t="n">
+        <v>3.518</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>1260</v>
+      </c>
+      <c r="B234" t="n">
+        <v>3.515</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>1265</v>
+      </c>
+      <c r="B235" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>1270</v>
+      </c>
+      <c r="B236" t="n">
+        <v>3.468</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>1275</v>
+      </c>
+      <c r="B237" t="n">
+        <v>3.448</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>1280</v>
+      </c>
+      <c r="B238" t="n">
+        <v>3.431</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>1285</v>
+      </c>
+      <c r="B239" t="n">
+        <v>3.416</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>1290</v>
+      </c>
+      <c r="B240" t="n">
+        <v>3.431</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>1295</v>
+      </c>
+      <c r="B241" t="n">
+        <v>3.466</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>1300</v>
+      </c>
+      <c r="B242" t="n">
+        <v>3.435</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>1305</v>
+      </c>
+      <c r="B243" t="n">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>1310</v>
+      </c>
+      <c r="B244" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>1315</v>
+      </c>
+      <c r="B245" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>1320</v>
+      </c>
+      <c r="B246" t="n">
+        <v>3.236</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>1325</v>
+      </c>
+      <c r="B247" t="n">
+        <v>3.246</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>1330</v>
+      </c>
+      <c r="B248" t="n">
+        <v>3.307</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>1335</v>
+      </c>
+      <c r="B249" t="n">
+        <v>3.402</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>1340</v>
+      </c>
+      <c r="B250" t="n">
+        <v>3.461</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>1345</v>
+      </c>
+      <c r="B251" t="n">
+        <v>3.496</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>1350</v>
+      </c>
+      <c r="B252" t="n">
+        <v>3.492</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>1355</v>
+      </c>
+      <c r="B253" t="n">
+        <v>3.462</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>1360</v>
+      </c>
+      <c r="B254" t="n">
+        <v>3.4305</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>1365</v>
+      </c>
+      <c r="B255" t="n">
+        <v>3.398</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B256" t="n">
+        <v>3.373</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>1375</v>
+      </c>
+      <c r="B257" t="n">
+        <v>3.353</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B258" t="n">
+        <v>3.3615</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>1385</v>
+      </c>
+      <c r="B259" t="n">
+        <v>3.389</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B260" t="n">
+        <v>3.451</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>1395</v>
+      </c>
+      <c r="B261" t="n">
+        <v>3.536</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B262" t="n">
+        <v>3.621</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>1405</v>
+      </c>
+      <c r="B263" t="n">
+        <v>3.706</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B264" t="n">
+        <v>3.689</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>1415</v>
+      </c>
+      <c r="B265" t="n">
+        <v>3.604</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>1420</v>
+      </c>
+      <c r="B266" t="n">
+        <v>3.588</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>1425</v>
+      </c>
+      <c r="B267" t="n">
+        <v>3.618</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>1430</v>
+      </c>
+      <c r="B268" t="n">
+        <v>3.597</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>1435</v>
+      </c>
+      <c r="B269" t="n">
+        <v>3.542</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>1440</v>
+      </c>
+      <c r="B270" t="n">
+        <v>3.505</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>1445</v>
+      </c>
+      <c r="B271" t="n">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>1450</v>
+      </c>
+      <c r="B272" t="n">
+        <v>3.512</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>1455</v>
+      </c>
+      <c r="B273" t="n">
+        <v>3.582</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>1460</v>
+      </c>
+      <c r="B274" t="n">
+        <v>3.616</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>1465</v>
+      </c>
+      <c r="B275" t="n">
+        <v>3.626</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>1470</v>
+      </c>
+      <c r="B276" t="n">
+        <v>3.594</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>1475</v>
+      </c>
+      <c r="B277" t="n">
+        <v>3.534</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>1480</v>
+      </c>
+      <c r="B278" t="n">
+        <v>3.495</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>1485</v>
+      </c>
+      <c r="B279" t="n">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>1490</v>
+      </c>
+      <c r="B280" t="n">
+        <v>3.511</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>1495</v>
+      </c>
+      <c r="B281" t="n">
+        <v>3.596</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B282" t="n">
+        <v>3.672</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>1505</v>
+      </c>
+      <c r="B283" t="n">
+        <v>3.742</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>1510</v>
+      </c>
+      <c r="B284" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>1515</v>
+      </c>
+      <c r="B285" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>1520</v>
+      </c>
+      <c r="B286" t="n">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>1525</v>
+      </c>
+      <c r="B287" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>1530</v>
+      </c>
+      <c r="B288" t="n">
+        <v>3.2725</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>1535</v>
+      </c>
+      <c r="B289" t="n">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>1540</v>
+      </c>
+      <c r="B290" t="n">
+        <v>3.2325</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>1545</v>
+      </c>
+      <c r="B291" t="n">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>1550</v>
+      </c>
+      <c r="B292" t="n">
+        <v>3.4725</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>1555</v>
+      </c>
+      <c r="B293" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>1560</v>
+      </c>
+      <c r="B294" t="n">
+        <v>3.495</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>1565</v>
+      </c>
+      <c r="B295" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>1570</v>
+      </c>
+      <c r="B296" t="n">
+        <v>3.355</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>1575</v>
+      </c>
+      <c r="B297" t="n">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>1580</v>
+      </c>
+      <c r="B298" t="n">
+        <v>3.110625</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>1585</v>
+      </c>
+      <c r="B299" t="n">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>1590</v>
+      </c>
+      <c r="B300" t="n">
+        <v>3.1175</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>1595</v>
+      </c>
+      <c r="B301" t="n">
+        <v>3.055</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B302" t="n">
+        <v>2.9625</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>1605</v>
+      </c>
+      <c r="B303" t="n">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>1610</v>
+      </c>
+      <c r="B304" t="n">
+        <v>2.870277777777778</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>1615</v>
+      </c>
+      <c r="B305" t="n">
+        <v>2.871666666666667</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>1620</v>
+      </c>
+      <c r="B306" t="n">
+        <v>2.873055555555556</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>1625</v>
+      </c>
+      <c r="B307" t="n">
+        <v>2.874444444444444</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>1630</v>
+      </c>
+      <c r="B308" t="n">
+        <v>2.875833333333333</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>1635</v>
+      </c>
+      <c r="B309" t="n">
+        <v>2.877222222222222</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>1640</v>
+      </c>
+      <c r="B310" t="n">
+        <v>2.878611111111111</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>1645</v>
+      </c>
+      <c r="B311" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>1650</v>
+      </c>
+      <c r="B312" t="n">
+        <v>3.065</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>1655</v>
+      </c>
+      <c r="B313" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>1660</v>
+      </c>
+      <c r="B314" t="n">
+        <v>3.005</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>1665</v>
+      </c>
+      <c r="B315" t="n">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>1670</v>
+      </c>
+      <c r="B316" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>1675</v>
+      </c>
+      <c r="B317" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>1680</v>
+      </c>
+      <c r="B318" t="n">
+        <v>3.0875</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>1685</v>
+      </c>
+      <c r="B319" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>1690</v>
+      </c>
+      <c r="B320" t="n">
+        <v>3.0075</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>1695</v>
+      </c>
+      <c r="B321" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>1700</v>
+      </c>
+      <c r="B322" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>1705</v>
+      </c>
+      <c r="B323" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>1710</v>
+      </c>
+      <c r="B324" t="n">
+        <v>2.726923076923077</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>1715</v>
+      </c>
+      <c r="B325" t="n">
+        <v>2.761538461538461</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>1720</v>
+      </c>
+      <c r="B326" t="n">
+        <v>2.796153846153846</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>1725</v>
+      </c>
+      <c r="B327" t="n">
+        <v>2.830769230769231</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>1730</v>
+      </c>
+      <c r="B328" t="n">
+        <v>2.865384615384615</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>1735</v>
+      </c>
+      <c r="B329" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>1740</v>
+      </c>
+      <c r="B330" t="n">
+        <v>2.934615384615385</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>1745</v>
+      </c>
+      <c r="B331" t="n">
+        <v>2.969230769230769</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B332" t="n">
+        <v>3.003846153846154</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>1755</v>
+      </c>
+      <c r="B333" t="n">
+        <v>3.038461538461538</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>1760</v>
+      </c>
+      <c r="B334" t="n">
+        <v>3.073076923076923</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>1765</v>
+      </c>
+      <c r="B335" t="n">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>1770</v>
+      </c>
+      <c r="B336" t="n">
+        <v>3.0825</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>1775</v>
+      </c>
+      <c r="B337" t="n">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>1780</v>
+      </c>
+      <c r="B338" t="n">
+        <v>3.32375</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>1785</v>
+      </c>
+      <c r="B339" t="n">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>1790</v>
+      </c>
+      <c r="B340" t="n">
+        <v>3.2825</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>1795</v>
+      </c>
+      <c r="B341" t="n">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>1800</v>
+      </c>
+      <c r="B342" t="n">
+        <v>3.2175</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>1805</v>
+      </c>
+      <c r="B343" t="n">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>1810</v>
+      </c>
+      <c r="B344" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>1815</v>
+      </c>
+      <c r="B345" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>1820</v>
+      </c>
+      <c r="B346" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>1825</v>
+      </c>
+      <c r="B347" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>1830</v>
+      </c>
+      <c r="B348" t="n">
+        <v>2.88125</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>1835</v>
+      </c>
+      <c r="B349" t="n">
+        <v>2.8325</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>1840</v>
+      </c>
+      <c r="B350" t="n">
+        <v>2.995744680851064</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>1845</v>
+      </c>
+      <c r="B351" t="n">
+        <v>3.05531914893617</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>1850</v>
+      </c>
+      <c r="B352" t="n">
+        <v>3.114893617021277</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>1855</v>
+      </c>
+      <c r="B353" t="n">
+        <v>3.174468085106383</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>1860</v>
+      </c>
+      <c r="B354" t="n">
+        <v>3.23404255319149</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>1865</v>
+      </c>
+      <c r="B355" t="n">
+        <v>3.293617021276596</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>1870</v>
+      </c>
+      <c r="B356" t="n">
+        <v>3.353191489361702</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>1875</v>
+      </c>
+      <c r="B357" t="n">
+        <v>3.412765957446808</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>1880</v>
+      </c>
+      <c r="B358" t="n">
+        <v>3.472340425531915</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>1885</v>
+      </c>
+      <c r="B359" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>1890</v>
+      </c>
+      <c r="B360" t="n">
+        <v>3.685</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>1895</v>
+      </c>
+      <c r="B361" t="n">
+        <v>3.7575</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B362" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>1905</v>
+      </c>
+      <c r="B363" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B364" t="n">
+        <v>4.005</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>1915</v>
+      </c>
+      <c r="B365" t="n">
+        <v>3.8825</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>1920</v>
+      </c>
+      <c r="B366" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>1925</v>
+      </c>
+      <c r="B367" t="n">
+        <v>4.037500000000001</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>1930</v>
+      </c>
+      <c r="B368" t="n">
+        <v>3.802</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>1935</v>
+      </c>
+      <c r="B369" t="n">
+        <v>3.757</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>1940</v>
+      </c>
+      <c r="B370" t="n">
+        <v>3.778</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>1945</v>
+      </c>
+      <c r="B371" t="n">
+        <v>3.898</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>1950</v>
+      </c>
+      <c r="B372" t="n">
+        <v>3.974</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>1955</v>
+      </c>
+      <c r="B373" t="n">
+        <v>3.984</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>1960</v>
+      </c>
+      <c r="B374" t="n">
+        <v>4.004</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>1965</v>
+      </c>
+      <c r="B375" t="n">
+        <v>4.039</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>1970</v>
+      </c>
+      <c r="B376" t="n">
+        <v>4.062659999999999</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>1975</v>
+      </c>
+      <c r="B377" t="n">
+        <v>4.06931</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>1980</v>
+      </c>
+      <c r="B378" t="n">
+        <v>4.068639999999999</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>1985</v>
+      </c>
+      <c r="B379" t="n">
+        <v>4.05699</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B380" t="n">
+        <v>4.046</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B381" t="n">
+        <v>4.036</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B382" t="n">
+        <v>4.026</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B383" t="n">
+        <v>4.016</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B384" t="n">
+        <v>3.984</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B385" t="n">
+        <v>3.919</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B386" t="n">
+        <v>3.90332</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B387" t="n">
+        <v>3.96162</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B388" t="n">
+        <v>3.97528</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B389" t="n">
+        <v>3.92198</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B390" t="n">
+        <v>3.862</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B391" t="n">
+        <v>3.792</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>2050</v>
+      </c>
+      <c r="B392" t="n">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>2055</v>
+      </c>
+      <c r="B393" t="n">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>2060</v>
+      </c>
+      <c r="B394" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>2065</v>
+      </c>
+      <c r="B395" t="n">
+        <v>3.875</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>2070</v>
+      </c>
+      <c r="B396" t="n">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>2075</v>
+      </c>
+      <c r="B397" t="n">
+        <v>3.835</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>2080</v>
+      </c>
+      <c r="B398" t="n">
+        <v>3.826</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>2085</v>
+      </c>
+      <c r="B399" t="n">
+        <v>3.766</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>2090</v>
+      </c>
+      <c r="B400" t="n">
+        <v>3.716</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>2095</v>
+      </c>
+      <c r="B401" t="n">
+        <v>3.681</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B402" t="n">
+        <v>3.698</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>2105</v>
+      </c>
+      <c r="B403" t="n">
+        <v>3.793</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>2110</v>
+      </c>
+      <c r="B404" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>2115</v>
+      </c>
+      <c r="B405" t="n">
+        <v>3.745</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>2120</v>
+      </c>
+      <c r="B406" t="n">
+        <v>3.758</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>2125</v>
+      </c>
+      <c r="B407" t="n">
+        <v>3.903</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>2130</v>
+      </c>
+      <c r="B408" t="n">
+        <v>3.917</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>2135</v>
+      </c>
+      <c r="B409" t="n">
+        <v>3.7345</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>2140</v>
+      </c>
+      <c r="B410" t="n">
+        <v>3.646</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>2145</v>
+      </c>
+      <c r="B411" t="n">
+        <v>3.6985</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>2150</v>
+      </c>
+      <c r="B412" t="n">
+        <v>3.748</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>2155</v>
+      </c>
+      <c r="B413" t="n">
+        <v>3.793</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>2160</v>
+      </c>
+      <c r="B414" t="n">
+        <v>3.798</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>2165</v>
+      </c>
+      <c r="B415" t="n">
+        <v>3.743</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>2170</v>
+      </c>
+      <c r="B416" t="n">
+        <v>3.704</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>2175</v>
+      </c>
+      <c r="B417" t="n">
+        <v>3.689</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>2180</v>
+      </c>
+      <c r="B418" t="n">
+        <v>3.652</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>2185</v>
+      </c>
+      <c r="B419" t="n">
+        <v>3.582</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>2190</v>
+      </c>
+      <c r="B420" t="n">
+        <v>3.556</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>2195</v>
+      </c>
+      <c r="B421" t="n">
+        <v>3.596</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B422" t="n">
+        <v>3.626</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>2205</v>
+      </c>
+      <c r="B423" t="n">
+        <v>3.641</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>2210</v>
+      </c>
+      <c r="B424" t="n">
+        <v>3.664</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>2215</v>
+      </c>
+      <c r="B425" t="n">
+        <v>3.699</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>2220</v>
+      </c>
+      <c r="B426" t="n">
+        <v>3.712</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>2225</v>
+      </c>
+      <c r="B427" t="n">
+        <v>3.692</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>2230</v>
+      </c>
+      <c r="B428" t="n">
+        <v>3.654</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>2235</v>
+      </c>
+      <c r="B429" t="n">
+        <v>3.589</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>2240</v>
+      </c>
+      <c r="B430" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>2245</v>
+      </c>
+      <c r="B431" t="n">
+        <v>3.585</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>2250</v>
+      </c>
+      <c r="B432" t="n">
+        <v>3.624</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>2255</v>
+      </c>
+      <c r="B433" t="n">
+        <v>3.684</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>2260</v>
+      </c>
+      <c r="B434" t="n">
+        <v>3.742</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>2265</v>
+      </c>
+      <c r="B435" t="n">
+        <v>3.797</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>2270</v>
+      </c>
+      <c r="B436" t="n">
+        <v>3.852</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>2275</v>
+      </c>
+      <c r="B437" t="n">
+        <v>3.907</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>2280</v>
+      </c>
+      <c r="B438" t="n">
+        <v>3.918</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>2285</v>
+      </c>
+      <c r="B439" t="n">
+        <v>3.863</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>2290</v>
+      </c>
+      <c r="B440" t="n">
+        <v>3.828</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>2295</v>
+      </c>
+      <c r="B441" t="n">
+        <v>3.823</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B442" t="n">
+        <v>3.818</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>2305</v>
+      </c>
+      <c r="B443" t="n">
+        <v>3.813</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>2310</v>
+      </c>
+      <c r="B444" t="n">
+        <v>3.838</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>2315</v>
+      </c>
+      <c r="B445" t="n">
+        <v>3.908</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>2320</v>
+      </c>
+      <c r="B446" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>2325</v>
+      </c>
+      <c r="B447" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>2330</v>
+      </c>
+      <c r="B448" t="n">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>2335</v>
+      </c>
+      <c r="B449" t="n">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>2340</v>
+      </c>
+      <c r="B450" t="n">
+        <v>3.822</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>2345</v>
+      </c>
+      <c r="B451" t="n">
+        <v>3.752</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>2350</v>
+      </c>
+      <c r="B452" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>2355</v>
+      </c>
+      <c r="B453" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>2360</v>
+      </c>
+      <c r="B454" t="n">
+        <v>3.626</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>2365</v>
+      </c>
+      <c r="B455" t="n">
+        <v>3.666</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>2370</v>
+      </c>
+      <c r="B456" t="n">
+        <v>3.703333333333333</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>2375</v>
+      </c>
+      <c r="B457" t="n">
+        <v>3.713</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>2380</v>
+      </c>
+      <c r="B458" t="n">
+        <v>3.628</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>2385</v>
+      </c>
+      <c r="B459" t="n">
+        <v>3.566</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>2390</v>
+      </c>
+      <c r="B460" t="n">
+        <v>3.596</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>2395</v>
+      </c>
+      <c r="B461" t="n">
+        <v>3.644</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B462" t="n">
+        <v>3.764</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>2405</v>
+      </c>
+      <c r="B463" t="n">
+        <v>3.861</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>2410</v>
+      </c>
+      <c r="B464" t="n">
+        <v>3.866</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>2415</v>
+      </c>
+      <c r="B465" t="n">
+        <v>3.846</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>2420</v>
+      </c>
+      <c r="B466" t="n">
+        <v>3.726</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>2425</v>
+      </c>
+      <c r="B467" t="n">
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>2430</v>
+      </c>
+      <c r="B468" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>2435</v>
+      </c>
+      <c r="B469" t="n">
+        <v>3.553</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>2440</v>
+      </c>
+      <c r="B470" t="n">
+        <v>3.418</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>2445</v>
+      </c>
+      <c r="B471" t="n">
+        <v>3.329</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>2450</v>
+      </c>
+      <c r="B472" t="n">
+        <v>3.424</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>2455</v>
+      </c>
+      <c r="B473" t="n">
+        <v>3.458</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>2460</v>
+      </c>
+      <c r="B474" t="n">
+        <v>3.248</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>2465</v>
+      </c>
+      <c r="B475" t="n">
+        <v>3.094</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>2470</v>
+      </c>
+      <c r="B476" t="n">
+        <v>3.164</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>2475</v>
+      </c>
+      <c r="B477" t="n">
+        <v>3.262</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>2480</v>
+      </c>
+      <c r="B478" t="n">
+        <v>3.472</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>2485</v>
+      </c>
+      <c r="B479" t="n">
+        <v>3.671</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>2490</v>
+      </c>
+      <c r="B480" t="n">
+        <v>3.826</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>2495</v>
+      </c>
+      <c r="B481" t="n">
+        <v>3.932</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B482" t="n">
+        <v>3.842</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>2505</v>
+      </c>
+      <c r="B483" t="n">
+        <v>3.731</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>2510</v>
+      </c>
+      <c r="B484" t="n">
+        <v>3.536</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>2515</v>
+      </c>
+      <c r="B485" t="n">
+        <v>3.359</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>2520</v>
+      </c>
+      <c r="B486" t="n">
+        <v>3.254</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>2525</v>
+      </c>
+      <c r="B487" t="n">
+        <v>3.193</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>2530</v>
+      </c>
+      <c r="B488" t="n">
+        <v>3.308</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>2535</v>
+      </c>
+      <c r="B489" t="n">
+        <v>3.415</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>2540</v>
+      </c>
+      <c r="B490" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>2545</v>
+      </c>
+      <c r="B491" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>2550</v>
+      </c>
+      <c r="B492" t="n">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>2555</v>
+      </c>
+      <c r="B493" t="n">
+        <v>3.619</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>2560</v>
+      </c>
+      <c r="B494" t="n">
+        <v>3.464</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>2565</v>
+      </c>
+      <c r="B495" t="n">
+        <v>3.364</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>2570</v>
+      </c>
+      <c r="B496" t="n">
+        <v>3.484</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>2575</v>
+      </c>
+      <c r="B497" t="n">
+        <v>3.582</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>2580</v>
+      </c>
+      <c r="B498" t="n">
+        <v>3.592</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>2585</v>
+      </c>
+      <c r="B499" t="n">
+        <v>3.601</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>2590</v>
+      </c>
+      <c r="B500" t="n">
+        <v>3.606</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>2595</v>
+      </c>
+      <c r="B501" t="n">
+        <v>3.599</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B502" t="n">
+        <v>3.544</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>2605</v>
+      </c>
+      <c r="B503" t="n">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>2610</v>
+      </c>
+      <c r="B504" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>2615</v>
+      </c>
+      <c r="B505" t="n">
+        <v>3.209</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>2620</v>
+      </c>
+      <c r="B506" t="n">
+        <v>3.254</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>2625</v>
+      </c>
+      <c r="B507" t="n">
+        <v>3.306</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>2630</v>
+      </c>
+      <c r="B508" t="n">
+        <v>3.386</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>2635</v>
+      </c>
+      <c r="B509" t="n">
+        <v>3.454</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>2640</v>
+      </c>
+      <c r="B510" t="n">
+        <v>3.474</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>2645</v>
+      </c>
+      <c r="B511" t="n">
+        <v>3.467</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>2650</v>
+      </c>
+      <c r="B512" t="n">
+        <v>3.352</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>2655</v>
+      </c>
+      <c r="B513" t="n">
+        <v>3.275</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>2660</v>
+      </c>
+      <c r="B514" t="n">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>2665</v>
+      </c>
+      <c r="B515" t="n">
+        <v>3.392</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>2670</v>
+      </c>
+      <c r="B516" t="n">
+        <v>3.302</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>2675</v>
+      </c>
+      <c r="B517" t="n">
+        <v>3.239</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>2680</v>
+      </c>
+      <c r="B518" t="n">
+        <v>3.284</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>2685</v>
+      </c>
+      <c r="B519" t="n">
+        <v>3.353</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>2690</v>
+      </c>
+      <c r="B520" t="n">
+        <v>3.518</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>2695</v>
+      </c>
+      <c r="B521" t="n">
+        <v>3.653</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B522" t="n">
+        <v>3.668</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>2705</v>
+      </c>
+      <c r="B523" t="n">
+        <v>3.655</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>2710</v>
+      </c>
+      <c r="B524" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>2715</v>
+      </c>
+      <c r="B525" t="n">
+        <v>3.421</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>2720</v>
+      </c>
+      <c r="B526" t="n">
+        <v>3.376</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>2725</v>
+      </c>
+      <c r="B527" t="n">
+        <v>3.299</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>2730</v>
+      </c>
+      <c r="B528" t="n">
+        <v>3.094</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>2735</v>
+      </c>
+      <c r="B529" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>2740</v>
+      </c>
+      <c r="B530" t="n">
+        <v>3.408333333333333</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>2745</v>
+      </c>
+      <c r="B531" t="n">
+        <v>3.481</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>2750</v>
+      </c>
+      <c r="B532" t="n">
+        <v>3.211</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>2755</v>
+      </c>
+      <c r="B533" t="n">
+        <v>3.041</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>2760</v>
+      </c>
+      <c r="B534" t="n">
+        <v>3.271</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>2765</v>
+      </c>
+      <c r="B535" t="n">
+        <v>3.3815</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>2770</v>
+      </c>
+      <c r="B536" t="n">
+        <v>3.014</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>2775</v>
+      </c>
+      <c r="B537" t="n">
+        <v>3.3466</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>2780</v>
+      </c>
+      <c r="B538" t="n">
+        <v>3.165155555555556</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>2785</v>
+      </c>
+      <c r="B539" t="n">
+        <v>3.0225</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>2790</v>
+      </c>
+      <c r="B540" t="n">
+        <v>3.035</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>2795</v>
+      </c>
+      <c r="B541" t="n">
+        <v>3.0705</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B542" t="n">
+        <v>3.198</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>2805</v>
+      </c>
+      <c r="B543" t="n">
+        <v>3.303</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>2810</v>
+      </c>
+      <c r="B544" t="n">
+        <v>3.318</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>2815</v>
+      </c>
+      <c r="B545" t="n">
+        <v>3.331</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>2820</v>
+      </c>
+      <c r="B546" t="n">
+        <v>3.336</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>2825</v>
+      </c>
+      <c r="B547" t="n">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>2830</v>
+      </c>
+      <c r="B548" t="n">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>2835</v>
+      </c>
+      <c r="B549" t="n">
+        <v>3.535</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>2840</v>
+      </c>
+      <c r="B550" t="n">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>2845</v>
+      </c>
+      <c r="B551" t="n">
+        <v>3.481</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>2850</v>
+      </c>
+      <c r="B552" t="n">
+        <v>3.436</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>2855</v>
+      </c>
+      <c r="B553" t="n">
+        <v>3.407</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>2860</v>
+      </c>
+      <c r="B554" t="n">
+        <v>3.442</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>2865</v>
+      </c>
+      <c r="B555" t="n">
+        <v>3.475</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>2870</v>
+      </c>
+      <c r="B556" t="n">
+        <v>3.595</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>2875</v>
+      </c>
+      <c r="B557" t="n">
+        <v>3.655</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>2880</v>
+      </c>
+      <c r="B558" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>2885</v>
+      </c>
+      <c r="B559" t="n">
+        <v>3.395</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>2890</v>
+      </c>
+      <c r="B560" t="n">
+        <v>3.3125</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>2895</v>
+      </c>
+      <c r="B561" t="n">
+        <v>3.29375</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B562" t="n">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>2905</v>
+      </c>
+      <c r="B563" t="n">
+        <v>2.93125</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>2910</v>
+      </c>
+      <c r="B564" t="n">
+        <v>2.995</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>2915</v>
+      </c>
+      <c r="B565" t="n">
+        <v>2.995</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>2920</v>
+      </c>
+      <c r="B566" t="n">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>2925</v>
+      </c>
+      <c r="B567" t="n">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>2930</v>
+      </c>
+      <c r="B568" t="n">
+        <v>3.025</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>2935</v>
+      </c>
+      <c r="B569" t="n">
+        <v>2.7675</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>2940</v>
+      </c>
+      <c r="B570" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>2945</v>
+      </c>
+      <c r="B571" t="n">
+        <v>2.716071428571428</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>2950</v>
+      </c>
+      <c r="B572" t="n">
+        <v>2.682142857142857</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>2955</v>
+      </c>
+      <c r="B573" t="n">
+        <v>2.648214285714286</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>2960</v>
+      </c>
+      <c r="B574" t="n">
+        <v>2.614285714285714</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>2965</v>
+      </c>
+      <c r="B575" t="n">
+        <v>2.580357142857143</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>2970</v>
+      </c>
+      <c r="B576" t="n">
+        <v>2.625</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>2975</v>
+      </c>
+      <c r="B577" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>2980</v>
+      </c>
+      <c r="B578" t="n">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>2985</v>
+      </c>
+      <c r="B579" t="n">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>2990</v>
+      </c>
+      <c r="B580" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>2995</v>
+      </c>
+      <c r="B581" t="n">
+        <v>3.1975</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>3000</v>
+      </c>
+      <c r="B582" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>3005</v>
+      </c>
+      <c r="B583" t="n">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>3010</v>
+      </c>
+      <c r="B584" t="n">
+        <v>2.775</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>3015</v>
+      </c>
+      <c r="B585" t="n">
+        <v>2.6125</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>3020</v>
+      </c>
+      <c r="B586" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>3025</v>
+      </c>
+      <c r="B587" t="n">
+        <v>2.585</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>3030</v>
+      </c>
+      <c r="B588" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>3035</v>
+      </c>
+      <c r="B589" t="n">
+        <v>2.635</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>3040</v>
+      </c>
+      <c r="B590" t="n">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>3045</v>
+      </c>
+      <c r="B591" t="n">
+        <v>2.685</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>3050</v>
+      </c>
+      <c r="B592" t="n">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>3055</v>
+      </c>
+      <c r="B593" t="n">
+        <v>2.735</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>3060</v>
+      </c>
+      <c r="B594" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>3065</v>
+      </c>
+      <c r="B595" t="n">
+        <v>2.785</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>3070</v>
+      </c>
+      <c r="B596" t="n">
+        <v>2.945</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>3075</v>
+      </c>
+      <c r="B597" t="n">
+        <v>3.1725</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>3080</v>
+      </c>
+      <c r="B598" t="n">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>3085</v>
+      </c>
+      <c r="B599" t="n">
+        <v>3.20125</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>3090</v>
+      </c>
+      <c r="B600" t="n">
+        <v>3.305</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>3095</v>
+      </c>
+      <c r="B601" t="n">
+        <v>3.465</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>3100</v>
+      </c>
+      <c r="B602" t="n">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>3105</v>
+      </c>
+      <c r="B603" t="n">
+        <v>3.446</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>3110</v>
+      </c>
+      <c r="B604" t="n">
+        <v>3.576</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>3115</v>
+      </c>
+      <c r="B605" t="n">
+        <v>3.668</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>3120</v>
+      </c>
+      <c r="B606" t="n">
+        <v>3.608</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>3125</v>
+      </c>
+      <c r="B607" t="n">
+        <v>3.567</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>3130</v>
+      </c>
+      <c r="B608" t="n">
+        <v>3.602</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>3135</v>
+      </c>
+      <c r="B609" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>3140</v>
+      </c>
+      <c r="B610" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>3145</v>
+      </c>
+      <c r="B611" t="n">
+        <v>3.612</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>3150</v>
+      </c>
+      <c r="B612" t="n">
+        <v>3.522</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>3155</v>
+      </c>
+      <c r="B613" t="n">
+        <v>3.433</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>3160</v>
+      </c>
+      <c r="B614" t="n">
+        <v>3.348</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>3165</v>
+      </c>
+      <c r="B615" t="n">
+        <v>3.274</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>3170</v>
+      </c>
+      <c r="B616" t="n">
+        <v>3.244</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>3175</v>
+      </c>
+      <c r="B617" t="n">
+        <v>3.263</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>3180</v>
+      </c>
+      <c r="B618" t="n">
+        <v>3.478</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>3185</v>
+      </c>
+      <c r="B619" t="n">
+        <v>3.652</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>3190</v>
+      </c>
+      <c r="B620" t="n">
+        <v>3.662</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>3195</v>
+      </c>
+      <c r="B621" t="n">
+        <v>3.652</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>3200</v>
+      </c>
+      <c r="B622" t="n">
+        <v>3.562</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>3205</v>
+      </c>
+      <c r="B623" t="n">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>3210</v>
+      </c>
+      <c r="B624" t="n">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>3215</v>
+      </c>
+      <c r="B625" t="n">
+        <v>3.3675</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>3220</v>
+      </c>
+      <c r="B626" t="n">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>3225</v>
+      </c>
+      <c r="B627" t="n">
+        <v>3.195</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>3230</v>
+      </c>
+      <c r="B628" t="n">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>3235</v>
+      </c>
+      <c r="B629" t="n">
+        <v>3.175</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>3240</v>
+      </c>
+      <c r="B630" t="n">
+        <v>3.065</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>3245</v>
+      </c>
+      <c r="B631" t="n">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>3250</v>
+      </c>
+      <c r="B632" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>3255</v>
+      </c>
+      <c r="B633" t="n">
+        <v>2.4775</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>3260</v>
+      </c>
+      <c r="B634" t="n">
+        <v>2.444285714285714</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>3265</v>
+      </c>
+      <c r="B635" t="n">
+        <v>2.399642857142857</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>3270</v>
+      </c>
+      <c r="B636" t="n">
+        <v>2.355</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>3275</v>
+      </c>
+      <c r="B637" t="n">
+        <v>2.310357142857143</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>3280</v>
+      </c>
+      <c r="B638" t="n">
+        <v>2.265714285714286</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>3285</v>
+      </c>
+      <c r="B639" t="n">
+        <v>2.4625</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>3290</v>
+      </c>
+      <c r="B640" t="n">
+        <v>3.255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17995,7 +23204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18211,4 +23420,80 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="11" customWidth="1" min="1" max="1"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="56" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Parameters</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>History</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SAMPLE</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sample every 5</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5 ; linear</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>sample with step 5 and kind of interpolation linear</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/test/ws_ex_5.0.xlsx
+++ b/test/ws_ex_5.0.xlsx
@@ -10,11 +10,9 @@
     <sheet name="Serie Id-0CF20BB2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Serie Id-67GH89BG" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Serie Id-56TY87JG" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Serie Id-C0A6277E" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Serie Id-34AE56JH" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="INTERPOLATION Id-C2F3FDA9" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="SAMPLE Id-CF9F02D5" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Serie Id-282C5609" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Serie Id-34AE56JH" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="INTERPOLATION Id-C2F3FDA9" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Serie Id-282C5609" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14845,5213 +14843,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H640"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="26" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="168" customWidth="1" min="8" max="8"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>depth</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>18MD00-2374vsPDB</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Y axis inverted</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>History</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>100</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3.235</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Serie sampled</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Serie sampled every 5</t>
-        </is>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>#98df8a</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>serie &lt;i&gt;&lt;b&gt;Id-56TY87JG&lt;/i&gt;&lt;/b&gt; sampled with SAMPLE &lt;i&gt;&lt;b&gt;Id-CF9F02D5&lt;/i&gt;&lt;/b&gt;&lt;BR&gt;every 5 using kind of interpolation linear&lt;BR&gt;---&gt; serie &lt;i&gt;&lt;b&gt;Id-C0A6277E&lt;/b&gt;&lt;/i&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>105</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3.50125</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>110</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.57</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>115</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3.6425</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>120</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3.79</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>125</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3.51</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>130</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3.23</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>135</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3.61</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>140</v>
-      </c>
-      <c r="B10" t="n">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>145</v>
-      </c>
-      <c r="B11" t="n">
-        <v>3.935</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>150</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3.88</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>155</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3.95</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>160</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4.02</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>165</v>
-      </c>
-      <c r="B15" t="n">
-        <v>3.97</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>170</v>
-      </c>
-      <c r="B16" t="n">
-        <v>3.92</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>175</v>
-      </c>
-      <c r="B17" t="n">
-        <v>3.87</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>180</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3.82</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>185</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3.815</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>190</v>
-      </c>
-      <c r="B20" t="n">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>195</v>
-      </c>
-      <c r="B21" t="n">
-        <v>3.855</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>200</v>
-      </c>
-      <c r="B22" t="n">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>205</v>
-      </c>
-      <c r="B23" t="n">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>210</v>
-      </c>
-      <c r="B24" t="n">
-        <v>4.08</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>215</v>
-      </c>
-      <c r="B25" t="n">
-        <v>3.945</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>220</v>
-      </c>
-      <c r="B26" t="n">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>225</v>
-      </c>
-      <c r="B27" t="n">
-        <v>3.93</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>230</v>
-      </c>
-      <c r="B28" t="n">
-        <v>4.05</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>235</v>
-      </c>
-      <c r="B29" t="n">
-        <v>3.975</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>240</v>
-      </c>
-      <c r="B30" t="n">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>245</v>
-      </c>
-      <c r="B31" t="n">
-        <v>3.895</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>250</v>
-      </c>
-      <c r="B32" t="n">
-        <v>3.89</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>255</v>
-      </c>
-      <c r="B33" t="n">
-        <v>3.945</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>260</v>
-      </c>
-      <c r="B34" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>265</v>
-      </c>
-      <c r="B35" t="n">
-        <v>3.975</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>270</v>
-      </c>
-      <c r="B36" t="n">
-        <v>3.95</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>275</v>
-      </c>
-      <c r="B37" t="n">
-        <v>3.895</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>280</v>
-      </c>
-      <c r="B38" t="n">
-        <v>3.84</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>285</v>
-      </c>
-      <c r="B39" t="n">
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>290</v>
-      </c>
-      <c r="B40" t="n">
-        <v>3.86</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>295</v>
-      </c>
-      <c r="B41" t="n">
-        <v>3.845</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>300</v>
-      </c>
-      <c r="B42" t="n">
-        <v>3.83</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>305</v>
-      </c>
-      <c r="B43" t="n">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>310</v>
-      </c>
-      <c r="B44" t="n">
-        <v>3.79</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>315</v>
-      </c>
-      <c r="B45" t="n">
-        <v>3.72</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>320</v>
-      </c>
-      <c r="B46" t="n">
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>325</v>
-      </c>
-      <c r="B47" t="n">
-        <v>3.68</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>330</v>
-      </c>
-      <c r="B48" t="n">
-        <v>3.71</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>335</v>
-      </c>
-      <c r="B49" t="n">
-        <v>3.765</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>340</v>
-      </c>
-      <c r="B50" t="n">
-        <v>3.82</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>345</v>
-      </c>
-      <c r="B51" t="n">
-        <v>3.87</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>350</v>
-      </c>
-      <c r="B52" t="n">
-        <v>3.92</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>355</v>
-      </c>
-      <c r="B53" t="n">
-        <v>3.865</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>360</v>
-      </c>
-      <c r="B54" t="n">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>365</v>
-      </c>
-      <c r="B55" t="n">
-        <v>3.76</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>370</v>
-      </c>
-      <c r="B56" t="n">
-        <v>3.71</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>375</v>
-      </c>
-      <c r="B57" t="n">
-        <v>3.79</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>380</v>
-      </c>
-      <c r="B58" t="n">
-        <v>3.87</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>385</v>
-      </c>
-      <c r="B59" t="n">
-        <v>3.835</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>390</v>
-      </c>
-      <c r="B60" t="n">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>395</v>
-      </c>
-      <c r="B61" t="n">
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>400</v>
-      </c>
-      <c r="B62" t="n">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>405</v>
-      </c>
-      <c r="B63" t="n">
-        <v>3.885</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>410</v>
-      </c>
-      <c r="B64" t="n">
-        <v>3.87</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>415</v>
-      </c>
-      <c r="B65" t="n">
-        <v>3.835</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>420</v>
-      </c>
-      <c r="B66" t="n">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>425</v>
-      </c>
-      <c r="B67" t="n">
-        <v>3.73</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>430</v>
-      </c>
-      <c r="B68" t="n">
-        <v>3.66</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>435</v>
-      </c>
-      <c r="B69" t="n">
-        <v>3.68</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>440</v>
-      </c>
-      <c r="B70" t="n">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>445</v>
-      </c>
-      <c r="B71" t="n">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>450</v>
-      </c>
-      <c r="B72" t="n">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>455</v>
-      </c>
-      <c r="B73" t="n">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>460</v>
-      </c>
-      <c r="B74" t="n">
-        <v>3.82</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>465</v>
-      </c>
-      <c r="B75" t="n">
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>470</v>
-      </c>
-      <c r="B76" t="n">
-        <v>3.88</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>475</v>
-      </c>
-      <c r="B77" t="n">
-        <v>3.88</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>480</v>
-      </c>
-      <c r="B78" t="n">
-        <v>3.88</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>485</v>
-      </c>
-      <c r="B79" t="n">
-        <v>3.925</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>490</v>
-      </c>
-      <c r="B80" t="n">
-        <v>3.97</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>495</v>
-      </c>
-      <c r="B81" t="n">
-        <v>3.87</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>500</v>
-      </c>
-      <c r="B82" t="n">
-        <v>3.77</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>505</v>
-      </c>
-      <c r="B83" t="n">
-        <v>3.795</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>510</v>
-      </c>
-      <c r="B84" t="n">
-        <v>3.82</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>515</v>
-      </c>
-      <c r="B85" t="n">
-        <v>3.785</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>520</v>
-      </c>
-      <c r="B86" t="n">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>525</v>
-      </c>
-      <c r="B87" t="n">
-        <v>3.875</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>530</v>
-      </c>
-      <c r="B88" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>535</v>
-      </c>
-      <c r="B89" t="n">
-        <v>3.93</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>540</v>
-      </c>
-      <c r="B90" t="n">
-        <v>3.86</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>545</v>
-      </c>
-      <c r="B91" t="n">
-        <v>3.825</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>550</v>
-      </c>
-      <c r="B92" t="n">
-        <v>3.79</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>555</v>
-      </c>
-      <c r="B93" t="n">
-        <v>3.755</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>560</v>
-      </c>
-      <c r="B94" t="n">
-        <v>3.72</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>565</v>
-      </c>
-      <c r="B95" t="n">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>570</v>
-      </c>
-      <c r="B96" t="n">
-        <v>3.78</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>575</v>
-      </c>
-      <c r="B97" t="n">
-        <v>3.83</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>580</v>
-      </c>
-      <c r="B98" t="n">
-        <v>3.88</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>585</v>
-      </c>
-      <c r="B99" t="n">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>590</v>
-      </c>
-      <c r="B100" t="n">
-        <v>3.74</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>595</v>
-      </c>
-      <c r="B101" t="n">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>600</v>
-      </c>
-      <c r="B102" t="n">
-        <v>3.76</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>605</v>
-      </c>
-      <c r="B103" t="n">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>610</v>
-      </c>
-      <c r="B104" t="n">
-        <v>3.84</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>615</v>
-      </c>
-      <c r="B105" t="n">
-        <v>3.84</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>620</v>
-      </c>
-      <c r="B106" t="n">
-        <v>3.84</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>625</v>
-      </c>
-      <c r="B107" t="n">
-        <v>3.82</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>630</v>
-      </c>
-      <c r="B108" t="n">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>635</v>
-      </c>
-      <c r="B109" t="n">
-        <v>3.72</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>640</v>
-      </c>
-      <c r="B110" t="n">
-        <v>3.64</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>645</v>
-      </c>
-      <c r="B111" t="n">
-        <v>3.61</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>650</v>
-      </c>
-      <c r="B112" t="n">
-        <v>3.58</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>655</v>
-      </c>
-      <c r="B113" t="n">
-        <v>3.535</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>660</v>
-      </c>
-      <c r="B114" t="n">
-        <v>3.49</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>665</v>
-      </c>
-      <c r="B115" t="n">
-        <v>3.615</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>670</v>
-      </c>
-      <c r="B116" t="n">
-        <v>3.74</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>675</v>
-      </c>
-      <c r="B117" t="n">
-        <v>3.66</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>680</v>
-      </c>
-      <c r="B118" t="n">
-        <v>3.58</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>685</v>
-      </c>
-      <c r="B119" t="n">
-        <v>3.58</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>690</v>
-      </c>
-      <c r="B120" t="n">
-        <v>3.58</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>695</v>
-      </c>
-      <c r="B121" t="n">
-        <v>3.57</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>700</v>
-      </c>
-      <c r="B122" t="n">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>705</v>
-      </c>
-      <c r="B123" t="n">
-        <v>3.52</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>710</v>
-      </c>
-      <c r="B124" t="n">
-        <v>3.48</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>715</v>
-      </c>
-      <c r="B125" t="n">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>720</v>
-      </c>
-      <c r="B126" t="n">
-        <v>3.64</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>725</v>
-      </c>
-      <c r="B127" t="n">
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>730</v>
-      </c>
-      <c r="B128" t="n">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>735</v>
-      </c>
-      <c r="B129" t="n">
-        <v>3.63</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>740</v>
-      </c>
-      <c r="B130" t="n">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>745</v>
-      </c>
-      <c r="B131" t="n">
-        <v>3.525</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>750</v>
-      </c>
-      <c r="B132" t="n">
-        <v>3.49</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>755</v>
-      </c>
-      <c r="B133" t="n">
-        <v>3.495</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>760</v>
-      </c>
-      <c r="B134" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>765</v>
-      </c>
-      <c r="B135" t="n">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>770</v>
-      </c>
-      <c r="B136" t="n">
-        <v>3.62</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>775</v>
-      </c>
-      <c r="B137" t="n">
-        <v>3.645</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>780</v>
-      </c>
-      <c r="B138" t="n">
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>785</v>
-      </c>
-      <c r="B139" t="n">
-        <v>3.645</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>790</v>
-      </c>
-      <c r="B140" t="n">
-        <v>3.62</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>795</v>
-      </c>
-      <c r="B141" t="n">
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>800</v>
-      </c>
-      <c r="B142" t="n">
-        <v>3.72</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>805</v>
-      </c>
-      <c r="B143" t="n">
-        <v>3.805</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>810</v>
-      </c>
-      <c r="B144" t="n">
-        <v>3.89</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>815</v>
-      </c>
-      <c r="B145" t="n">
-        <v>3.82</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>820</v>
-      </c>
-      <c r="B146" t="n">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>825</v>
-      </c>
-      <c r="B147" t="n">
-        <v>3.625</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>830</v>
-      </c>
-      <c r="B148" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>835</v>
-      </c>
-      <c r="B149" t="n">
-        <v>3.4475</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>840</v>
-      </c>
-      <c r="B150" t="n">
-        <v>3.395</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>845</v>
-      </c>
-      <c r="B151" t="n">
-        <v>3.4425</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>850</v>
-      </c>
-      <c r="B152" t="n">
-        <v>3.49</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>855</v>
-      </c>
-      <c r="B153" t="n">
-        <v>3.52</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>860</v>
-      </c>
-      <c r="B154" t="n">
-        <v>3.55</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>865</v>
-      </c>
-      <c r="B155" t="n">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>870</v>
-      </c>
-      <c r="B156" t="n">
-        <v>3.57</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>875</v>
-      </c>
-      <c r="B157" t="n">
-        <v>3.575</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>880</v>
-      </c>
-      <c r="B158" t="n">
-        <v>3.58</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>885</v>
-      </c>
-      <c r="B159" t="n">
-        <v>3.53</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>890</v>
-      </c>
-      <c r="B160" t="n">
-        <v>3.48</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>895</v>
-      </c>
-      <c r="B161" t="n">
-        <v>3.535</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>900</v>
-      </c>
-      <c r="B162" t="n">
-        <v>3.59</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>905</v>
-      </c>
-      <c r="B163" t="n">
-        <v>3.545</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>910</v>
-      </c>
-      <c r="B164" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>915</v>
-      </c>
-      <c r="B165" t="n">
-        <v>3.53</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>920</v>
-      </c>
-      <c r="B166" t="n">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>925</v>
-      </c>
-      <c r="B167" t="n">
-        <v>3.6975</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>930</v>
-      </c>
-      <c r="B168" t="n">
-        <v>3.835</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>935</v>
-      </c>
-      <c r="B169" t="n">
-        <v>3.7425</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>940</v>
-      </c>
-      <c r="B170" t="n">
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>945</v>
-      </c>
-      <c r="B171" t="n">
-        <v>3.555</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>950</v>
-      </c>
-      <c r="B172" t="n">
-        <v>3.46</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>955</v>
-      </c>
-      <c r="B173" t="n">
-        <v>3.475</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>960</v>
-      </c>
-      <c r="B174" t="n">
-        <v>3.49</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>965</v>
-      </c>
-      <c r="B175" t="n">
-        <v>3.485</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>970</v>
-      </c>
-      <c r="B176" t="n">
-        <v>3.48</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>975</v>
-      </c>
-      <c r="B177" t="n">
-        <v>3.51</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>980</v>
-      </c>
-      <c r="B178" t="n">
-        <v>3.54</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>985</v>
-      </c>
-      <c r="B179" t="n">
-        <v>3.625</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>990</v>
-      </c>
-      <c r="B180" t="n">
-        <v>3.71</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>995</v>
-      </c>
-      <c r="B181" t="n">
-        <v>3.66</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B182" t="n">
-        <v>3.61</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>1005</v>
-      </c>
-      <c r="B183" t="n">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>1010</v>
-      </c>
-      <c r="B184" t="n">
-        <v>3.59</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>1015</v>
-      </c>
-      <c r="B185" t="n">
-        <v>3.4775</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>1020</v>
-      </c>
-      <c r="B186" t="n">
-        <v>3.365</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>1025</v>
-      </c>
-      <c r="B187" t="n">
-        <v>3.4125</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>1030</v>
-      </c>
-      <c r="B188" t="n">
-        <v>3.46</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>1035</v>
-      </c>
-      <c r="B189" t="n">
-        <v>3.475</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>1040</v>
-      </c>
-      <c r="B190" t="n">
-        <v>3.49</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>1045</v>
-      </c>
-      <c r="B191" t="n">
-        <v>3.53</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>1050</v>
-      </c>
-      <c r="B192" t="n">
-        <v>3.57</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>1055</v>
-      </c>
-      <c r="B193" t="n">
-        <v>3.585</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>1060</v>
-      </c>
-      <c r="B194" t="n">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>1065</v>
-      </c>
-      <c r="B195" t="n">
-        <v>3.64</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>1070</v>
-      </c>
-      <c r="B196" t="n">
-        <v>3.68</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>1075</v>
-      </c>
-      <c r="B197" t="n">
-        <v>3.615</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>1080</v>
-      </c>
-      <c r="B198" t="n">
-        <v>3.55</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>1085</v>
-      </c>
-      <c r="B199" t="n">
-        <v>3.578571428571428</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>1090</v>
-      </c>
-      <c r="B200" t="n">
-        <v>3.58799</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>1095</v>
-      </c>
-      <c r="B201" t="n">
-        <v>3.58464</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>1100</v>
-      </c>
-      <c r="B202" t="n">
-        <v>3.60031</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>1105</v>
-      </c>
-      <c r="B203" t="n">
-        <v>3.62866</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>1110</v>
-      </c>
-      <c r="B204" t="n">
-        <v>3.61</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>1115</v>
-      </c>
-      <c r="B205" t="n">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>1120</v>
-      </c>
-      <c r="B206" t="n">
-        <v>3.567</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>1125</v>
-      </c>
-      <c r="B207" t="n">
-        <v>3.612</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>1130</v>
-      </c>
-      <c r="B208" t="n">
-        <v>3.579</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>1135</v>
-      </c>
-      <c r="B209" t="n">
-        <v>3.494</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>1140</v>
-      </c>
-      <c r="B210" t="n">
-        <v>3.469</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>1145</v>
-      </c>
-      <c r="B211" t="n">
-        <v>3.484</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>1150</v>
-      </c>
-      <c r="B212" t="n">
-        <v>3.553</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>1155</v>
-      </c>
-      <c r="B213" t="n">
-        <v>3.658</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>1160</v>
-      </c>
-      <c r="B214" t="n">
-        <v>3.673</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>1165</v>
-      </c>
-      <c r="B215" t="n">
-        <v>3.628</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>1170</v>
-      </c>
-      <c r="B216" t="n">
-        <v>3.574</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>1175</v>
-      </c>
-      <c r="B217" t="n">
-        <v>3.514</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>1180</v>
-      </c>
-      <c r="B218" t="n">
-        <v>3.4495</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>1185</v>
-      </c>
-      <c r="B219" t="n">
-        <v>3.382</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>1190</v>
-      </c>
-      <c r="B220" t="n">
-        <v>3.3625</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>1195</v>
-      </c>
-      <c r="B221" t="n">
-        <v>3.375</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>1200</v>
-      </c>
-      <c r="B222" t="n">
-        <v>3.428</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>1205</v>
-      </c>
-      <c r="B223" t="n">
-        <v>3.508</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>1210</v>
-      </c>
-      <c r="B224" t="n">
-        <v>3.54</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>1215</v>
-      </c>
-      <c r="B225" t="n">
-        <v>3.54</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
-        <v>1220</v>
-      </c>
-      <c r="B226" t="n">
-        <v>3.53799</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="n">
-        <v>1225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>3.53464</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
-        <v>1230</v>
-      </c>
-      <c r="B228" t="n">
-        <v>3.54431</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
-        <v>1235</v>
-      </c>
-      <c r="B229" t="n">
-        <v>3.56266</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v>1240</v>
-      </c>
-      <c r="B230" t="n">
-        <v>3.54</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>1245</v>
-      </c>
-      <c r="B231" t="n">
-        <v>3.49</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>1250</v>
-      </c>
-      <c r="B232" t="n">
-        <v>3.488</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="n">
-        <v>1255</v>
-      </c>
-      <c r="B233" t="n">
-        <v>3.518</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
-        <v>1260</v>
-      </c>
-      <c r="B234" t="n">
-        <v>3.515</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>1265</v>
-      </c>
-      <c r="B235" t="n">
-        <v>3.49</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>1270</v>
-      </c>
-      <c r="B236" t="n">
-        <v>3.468</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>1275</v>
-      </c>
-      <c r="B237" t="n">
-        <v>3.448</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>1280</v>
-      </c>
-      <c r="B238" t="n">
-        <v>3.431</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>1285</v>
-      </c>
-      <c r="B239" t="n">
-        <v>3.416</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>1290</v>
-      </c>
-      <c r="B240" t="n">
-        <v>3.431</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>1295</v>
-      </c>
-      <c r="B241" t="n">
-        <v>3.466</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="n">
-        <v>1300</v>
-      </c>
-      <c r="B242" t="n">
-        <v>3.435</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="n">
-        <v>1305</v>
-      </c>
-      <c r="B243" t="n">
-        <v>3.36</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="n">
-        <v>1310</v>
-      </c>
-      <c r="B244" t="n">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="n">
-        <v>1315</v>
-      </c>
-      <c r="B245" t="n">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="n">
-        <v>1320</v>
-      </c>
-      <c r="B246" t="n">
-        <v>3.236</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="n">
-        <v>1325</v>
-      </c>
-      <c r="B247" t="n">
-        <v>3.246</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="n">
-        <v>1330</v>
-      </c>
-      <c r="B248" t="n">
-        <v>3.307</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
-        <v>1335</v>
-      </c>
-      <c r="B249" t="n">
-        <v>3.402</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
-        <v>1340</v>
-      </c>
-      <c r="B250" t="n">
-        <v>3.461</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="n">
-        <v>1345</v>
-      </c>
-      <c r="B251" t="n">
-        <v>3.496</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="n">
-        <v>1350</v>
-      </c>
-      <c r="B252" t="n">
-        <v>3.492</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="n">
-        <v>1355</v>
-      </c>
-      <c r="B253" t="n">
-        <v>3.462</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="n">
-        <v>1360</v>
-      </c>
-      <c r="B254" t="n">
-        <v>3.4305</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="n">
-        <v>1365</v>
-      </c>
-      <c r="B255" t="n">
-        <v>3.398</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="n">
-        <v>1370</v>
-      </c>
-      <c r="B256" t="n">
-        <v>3.373</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="n">
-        <v>1375</v>
-      </c>
-      <c r="B257" t="n">
-        <v>3.353</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="n">
-        <v>1380</v>
-      </c>
-      <c r="B258" t="n">
-        <v>3.3615</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="n">
-        <v>1385</v>
-      </c>
-      <c r="B259" t="n">
-        <v>3.389</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="n">
-        <v>1390</v>
-      </c>
-      <c r="B260" t="n">
-        <v>3.451</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="n">
-        <v>1395</v>
-      </c>
-      <c r="B261" t="n">
-        <v>3.536</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="n">
-        <v>1400</v>
-      </c>
-      <c r="B262" t="n">
-        <v>3.621</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="n">
-        <v>1405</v>
-      </c>
-      <c r="B263" t="n">
-        <v>3.706</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="n">
-        <v>1410</v>
-      </c>
-      <c r="B264" t="n">
-        <v>3.689</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="n">
-        <v>1415</v>
-      </c>
-      <c r="B265" t="n">
-        <v>3.604</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="n">
-        <v>1420</v>
-      </c>
-      <c r="B266" t="n">
-        <v>3.588</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="n">
-        <v>1425</v>
-      </c>
-      <c r="B267" t="n">
-        <v>3.618</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
-        <v>1430</v>
-      </c>
-      <c r="B268" t="n">
-        <v>3.597</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="n">
-        <v>1435</v>
-      </c>
-      <c r="B269" t="n">
-        <v>3.542</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="n">
-        <v>1440</v>
-      </c>
-      <c r="B270" t="n">
-        <v>3.505</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="n">
-        <v>1445</v>
-      </c>
-      <c r="B271" t="n">
-        <v>3.48</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="n">
-        <v>1450</v>
-      </c>
-      <c r="B272" t="n">
-        <v>3.512</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="n">
-        <v>1455</v>
-      </c>
-      <c r="B273" t="n">
-        <v>3.582</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="n">
-        <v>1460</v>
-      </c>
-      <c r="B274" t="n">
-        <v>3.616</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="n">
-        <v>1465</v>
-      </c>
-      <c r="B275" t="n">
-        <v>3.626</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="n">
-        <v>1470</v>
-      </c>
-      <c r="B276" t="n">
-        <v>3.594</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="n">
-        <v>1475</v>
-      </c>
-      <c r="B277" t="n">
-        <v>3.534</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="n">
-        <v>1480</v>
-      </c>
-      <c r="B278" t="n">
-        <v>3.495</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="n">
-        <v>1485</v>
-      </c>
-      <c r="B279" t="n">
-        <v>3.47</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="n">
-        <v>1490</v>
-      </c>
-      <c r="B280" t="n">
-        <v>3.511</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="n">
-        <v>1495</v>
-      </c>
-      <c r="B281" t="n">
-        <v>3.596</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="n">
-        <v>1500</v>
-      </c>
-      <c r="B282" t="n">
-        <v>3.672</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="n">
-        <v>1505</v>
-      </c>
-      <c r="B283" t="n">
-        <v>3.742</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="n">
-        <v>1510</v>
-      </c>
-      <c r="B284" t="n">
-        <v>3.68</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="n">
-        <v>1515</v>
-      </c>
-      <c r="B285" t="n">
-        <v>3.64</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="n">
-        <v>1520</v>
-      </c>
-      <c r="B286" t="n">
-        <v>3.61</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="n">
-        <v>1525</v>
-      </c>
-      <c r="B287" t="n">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
-        <v>1530</v>
-      </c>
-      <c r="B288" t="n">
-        <v>3.2725</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="n">
-        <v>1535</v>
-      </c>
-      <c r="B289" t="n">
-        <v>3.14</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="n">
-        <v>1540</v>
-      </c>
-      <c r="B290" t="n">
-        <v>3.2325</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="n">
-        <v>1545</v>
-      </c>
-      <c r="B291" t="n">
-        <v>3.35</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="n">
-        <v>1550</v>
-      </c>
-      <c r="B292" t="n">
-        <v>3.4725</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="n">
-        <v>1555</v>
-      </c>
-      <c r="B293" t="n">
-        <v>3.39</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="n">
-        <v>1560</v>
-      </c>
-      <c r="B294" t="n">
-        <v>3.495</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="n">
-        <v>1565</v>
-      </c>
-      <c r="B295" t="n">
-        <v>3.32</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="n">
-        <v>1570</v>
-      </c>
-      <c r="B296" t="n">
-        <v>3.355</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="n">
-        <v>1575</v>
-      </c>
-      <c r="B297" t="n">
-        <v>3.125</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="n">
-        <v>1580</v>
-      </c>
-      <c r="B298" t="n">
-        <v>3.110625</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="n">
-        <v>1585</v>
-      </c>
-      <c r="B299" t="n">
-        <v>3.19</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="n">
-        <v>1590</v>
-      </c>
-      <c r="B300" t="n">
-        <v>3.1175</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="n">
-        <v>1595</v>
-      </c>
-      <c r="B301" t="n">
-        <v>3.055</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="n">
-        <v>1600</v>
-      </c>
-      <c r="B302" t="n">
-        <v>2.9625</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="n">
-        <v>1605</v>
-      </c>
-      <c r="B303" t="n">
-        <v>2.91</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="n">
-        <v>1610</v>
-      </c>
-      <c r="B304" t="n">
-        <v>2.870277777777778</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="n">
-        <v>1615</v>
-      </c>
-      <c r="B305" t="n">
-        <v>2.871666666666667</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="n">
-        <v>1620</v>
-      </c>
-      <c r="B306" t="n">
-        <v>2.873055555555556</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="n">
-        <v>1625</v>
-      </c>
-      <c r="B307" t="n">
-        <v>2.874444444444444</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="n">
-        <v>1630</v>
-      </c>
-      <c r="B308" t="n">
-        <v>2.875833333333333</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="n">
-        <v>1635</v>
-      </c>
-      <c r="B309" t="n">
-        <v>2.877222222222222</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="n">
-        <v>1640</v>
-      </c>
-      <c r="B310" t="n">
-        <v>2.878611111111111</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="n">
-        <v>1645</v>
-      </c>
-      <c r="B311" t="n">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="n">
-        <v>1650</v>
-      </c>
-      <c r="B312" t="n">
-        <v>3.065</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="n">
-        <v>1655</v>
-      </c>
-      <c r="B313" t="n">
-        <v>3.05</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="n">
-        <v>1660</v>
-      </c>
-      <c r="B314" t="n">
-        <v>3.005</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="n">
-        <v>1665</v>
-      </c>
-      <c r="B315" t="n">
-        <v>3.26</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="n">
-        <v>1670</v>
-      </c>
-      <c r="B316" t="n">
-        <v>3.18</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="n">
-        <v>1675</v>
-      </c>
-      <c r="B317" t="n">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="n">
-        <v>1680</v>
-      </c>
-      <c r="B318" t="n">
-        <v>3.0875</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="n">
-        <v>1685</v>
-      </c>
-      <c r="B319" t="n">
-        <v>3.18</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="n">
-        <v>1690</v>
-      </c>
-      <c r="B320" t="n">
-        <v>3.0075</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="n">
-        <v>1695</v>
-      </c>
-      <c r="B321" t="n">
-        <v>2.89</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="n">
-        <v>1700</v>
-      </c>
-      <c r="B322" t="n">
-        <v>2.72</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="n">
-        <v>1705</v>
-      </c>
-      <c r="B323" t="n">
-        <v>2.73</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="n">
-        <v>1710</v>
-      </c>
-      <c r="B324" t="n">
-        <v>2.726923076923077</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="n">
-        <v>1715</v>
-      </c>
-      <c r="B325" t="n">
-        <v>2.761538461538461</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="n">
-        <v>1720</v>
-      </c>
-      <c r="B326" t="n">
-        <v>2.796153846153846</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="n">
-        <v>1725</v>
-      </c>
-      <c r="B327" t="n">
-        <v>2.830769230769231</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="n">
-        <v>1730</v>
-      </c>
-      <c r="B328" t="n">
-        <v>2.865384615384615</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="n">
-        <v>1735</v>
-      </c>
-      <c r="B329" t="n">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="n">
-        <v>1740</v>
-      </c>
-      <c r="B330" t="n">
-        <v>2.934615384615385</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="n">
-        <v>1745</v>
-      </c>
-      <c r="B331" t="n">
-        <v>2.969230769230769</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="n">
-        <v>1750</v>
-      </c>
-      <c r="B332" t="n">
-        <v>3.003846153846154</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="n">
-        <v>1755</v>
-      </c>
-      <c r="B333" t="n">
-        <v>3.038461538461538</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="n">
-        <v>1760</v>
-      </c>
-      <c r="B334" t="n">
-        <v>3.073076923076923</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="n">
-        <v>1765</v>
-      </c>
-      <c r="B335" t="n">
-        <v>3.11</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="n">
-        <v>1770</v>
-      </c>
-      <c r="B336" t="n">
-        <v>3.0825</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="n">
-        <v>1775</v>
-      </c>
-      <c r="B337" t="n">
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="n">
-        <v>1780</v>
-      </c>
-      <c r="B338" t="n">
-        <v>3.32375</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="n">
-        <v>1785</v>
-      </c>
-      <c r="B339" t="n">
-        <v>3.28</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="n">
-        <v>1790</v>
-      </c>
-      <c r="B340" t="n">
-        <v>3.2825</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="n">
-        <v>1795</v>
-      </c>
-      <c r="B341" t="n">
-        <v>3.28</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="n">
-        <v>1800</v>
-      </c>
-      <c r="B342" t="n">
-        <v>3.2175</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="n">
-        <v>1805</v>
-      </c>
-      <c r="B343" t="n">
-        <v>3.22</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="n">
-        <v>1810</v>
-      </c>
-      <c r="B344" t="n">
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="n">
-        <v>1815</v>
-      </c>
-      <c r="B345" t="n">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="n">
-        <v>1820</v>
-      </c>
-      <c r="B346" t="n">
-        <v>3.05</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="n">
-        <v>1825</v>
-      </c>
-      <c r="B347" t="n">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="n">
-        <v>1830</v>
-      </c>
-      <c r="B348" t="n">
-        <v>2.88125</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="n">
-        <v>1835</v>
-      </c>
-      <c r="B349" t="n">
-        <v>2.8325</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="n">
-        <v>1840</v>
-      </c>
-      <c r="B350" t="n">
-        <v>2.995744680851064</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="n">
-        <v>1845</v>
-      </c>
-      <c r="B351" t="n">
-        <v>3.05531914893617</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="n">
-        <v>1850</v>
-      </c>
-      <c r="B352" t="n">
-        <v>3.114893617021277</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="n">
-        <v>1855</v>
-      </c>
-      <c r="B353" t="n">
-        <v>3.174468085106383</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="n">
-        <v>1860</v>
-      </c>
-      <c r="B354" t="n">
-        <v>3.23404255319149</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="n">
-        <v>1865</v>
-      </c>
-      <c r="B355" t="n">
-        <v>3.293617021276596</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="n">
-        <v>1870</v>
-      </c>
-      <c r="B356" t="n">
-        <v>3.353191489361702</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="n">
-        <v>1875</v>
-      </c>
-      <c r="B357" t="n">
-        <v>3.412765957446808</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="n">
-        <v>1880</v>
-      </c>
-      <c r="B358" t="n">
-        <v>3.472340425531915</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="n">
-        <v>1885</v>
-      </c>
-      <c r="B359" t="n">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="n">
-        <v>1890</v>
-      </c>
-      <c r="B360" t="n">
-        <v>3.685</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="n">
-        <v>1895</v>
-      </c>
-      <c r="B361" t="n">
-        <v>3.7575</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="n">
-        <v>1900</v>
-      </c>
-      <c r="B362" t="n">
-        <v>3.77</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="n">
-        <v>1905</v>
-      </c>
-      <c r="B363" t="n">
-        <v>3.82</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="n">
-        <v>1910</v>
-      </c>
-      <c r="B364" t="n">
-        <v>4.005</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="n">
-        <v>1915</v>
-      </c>
-      <c r="B365" t="n">
-        <v>3.8825</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="n">
-        <v>1920</v>
-      </c>
-      <c r="B366" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="n">
-        <v>1925</v>
-      </c>
-      <c r="B367" t="n">
-        <v>4.037500000000001</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="n">
-        <v>1930</v>
-      </c>
-      <c r="B368" t="n">
-        <v>3.802</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="n">
-        <v>1935</v>
-      </c>
-      <c r="B369" t="n">
-        <v>3.757</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="n">
-        <v>1940</v>
-      </c>
-      <c r="B370" t="n">
-        <v>3.778</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="n">
-        <v>1945</v>
-      </c>
-      <c r="B371" t="n">
-        <v>3.898</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="n">
-        <v>1950</v>
-      </c>
-      <c r="B372" t="n">
-        <v>3.974</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="n">
-        <v>1955</v>
-      </c>
-      <c r="B373" t="n">
-        <v>3.984</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="n">
-        <v>1960</v>
-      </c>
-      <c r="B374" t="n">
-        <v>4.004</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="n">
-        <v>1965</v>
-      </c>
-      <c r="B375" t="n">
-        <v>4.039</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="n">
-        <v>1970</v>
-      </c>
-      <c r="B376" t="n">
-        <v>4.062659999999999</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="n">
-        <v>1975</v>
-      </c>
-      <c r="B377" t="n">
-        <v>4.06931</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="n">
-        <v>1980</v>
-      </c>
-      <c r="B378" t="n">
-        <v>4.068639999999999</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="n">
-        <v>1985</v>
-      </c>
-      <c r="B379" t="n">
-        <v>4.05699</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="n">
-        <v>1990</v>
-      </c>
-      <c r="B380" t="n">
-        <v>4.046</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="n">
-        <v>1995</v>
-      </c>
-      <c r="B381" t="n">
-        <v>4.036</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B382" t="n">
-        <v>4.026</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="n">
-        <v>2005</v>
-      </c>
-      <c r="B383" t="n">
-        <v>4.016</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="n">
-        <v>2010</v>
-      </c>
-      <c r="B384" t="n">
-        <v>3.984</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B385" t="n">
-        <v>3.919</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B386" t="n">
-        <v>3.90332</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B387" t="n">
-        <v>3.96162</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="n">
-        <v>2030</v>
-      </c>
-      <c r="B388" t="n">
-        <v>3.97528</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="n">
-        <v>2035</v>
-      </c>
-      <c r="B389" t="n">
-        <v>3.92198</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="n">
-        <v>2040</v>
-      </c>
-      <c r="B390" t="n">
-        <v>3.862</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="n">
-        <v>2045</v>
-      </c>
-      <c r="B391" t="n">
-        <v>3.792</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="n">
-        <v>2050</v>
-      </c>
-      <c r="B392" t="n">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="n">
-        <v>2055</v>
-      </c>
-      <c r="B393" t="n">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="n">
-        <v>2060</v>
-      </c>
-      <c r="B394" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="n">
-        <v>2065</v>
-      </c>
-      <c r="B395" t="n">
-        <v>3.875</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="n">
-        <v>2070</v>
-      </c>
-      <c r="B396" t="n">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="n">
-        <v>2075</v>
-      </c>
-      <c r="B397" t="n">
-        <v>3.835</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="n">
-        <v>2080</v>
-      </c>
-      <c r="B398" t="n">
-        <v>3.826</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="n">
-        <v>2085</v>
-      </c>
-      <c r="B399" t="n">
-        <v>3.766</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="n">
-        <v>2090</v>
-      </c>
-      <c r="B400" t="n">
-        <v>3.716</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="n">
-        <v>2095</v>
-      </c>
-      <c r="B401" t="n">
-        <v>3.681</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="n">
-        <v>2100</v>
-      </c>
-      <c r="B402" t="n">
-        <v>3.698</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="n">
-        <v>2105</v>
-      </c>
-      <c r="B403" t="n">
-        <v>3.793</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="n">
-        <v>2110</v>
-      </c>
-      <c r="B404" t="n">
-        <v>3.82</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="n">
-        <v>2115</v>
-      </c>
-      <c r="B405" t="n">
-        <v>3.745</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="n">
-        <v>2120</v>
-      </c>
-      <c r="B406" t="n">
-        <v>3.758</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="n">
-        <v>2125</v>
-      </c>
-      <c r="B407" t="n">
-        <v>3.903</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="n">
-        <v>2130</v>
-      </c>
-      <c r="B408" t="n">
-        <v>3.917</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="n">
-        <v>2135</v>
-      </c>
-      <c r="B409" t="n">
-        <v>3.7345</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="n">
-        <v>2140</v>
-      </c>
-      <c r="B410" t="n">
-        <v>3.646</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="n">
-        <v>2145</v>
-      </c>
-      <c r="B411" t="n">
-        <v>3.6985</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="n">
-        <v>2150</v>
-      </c>
-      <c r="B412" t="n">
-        <v>3.748</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="n">
-        <v>2155</v>
-      </c>
-      <c r="B413" t="n">
-        <v>3.793</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="n">
-        <v>2160</v>
-      </c>
-      <c r="B414" t="n">
-        <v>3.798</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="n">
-        <v>2165</v>
-      </c>
-      <c r="B415" t="n">
-        <v>3.743</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="n">
-        <v>2170</v>
-      </c>
-      <c r="B416" t="n">
-        <v>3.704</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="n">
-        <v>2175</v>
-      </c>
-      <c r="B417" t="n">
-        <v>3.689</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="n">
-        <v>2180</v>
-      </c>
-      <c r="B418" t="n">
-        <v>3.652</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="n">
-        <v>2185</v>
-      </c>
-      <c r="B419" t="n">
-        <v>3.582</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="n">
-        <v>2190</v>
-      </c>
-      <c r="B420" t="n">
-        <v>3.556</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="n">
-        <v>2195</v>
-      </c>
-      <c r="B421" t="n">
-        <v>3.596</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="n">
-        <v>2200</v>
-      </c>
-      <c r="B422" t="n">
-        <v>3.626</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="n">
-        <v>2205</v>
-      </c>
-      <c r="B423" t="n">
-        <v>3.641</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="n">
-        <v>2210</v>
-      </c>
-      <c r="B424" t="n">
-        <v>3.664</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="n">
-        <v>2215</v>
-      </c>
-      <c r="B425" t="n">
-        <v>3.699</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="n">
-        <v>2220</v>
-      </c>
-      <c r="B426" t="n">
-        <v>3.712</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="n">
-        <v>2225</v>
-      </c>
-      <c r="B427" t="n">
-        <v>3.692</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="n">
-        <v>2230</v>
-      </c>
-      <c r="B428" t="n">
-        <v>3.654</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="n">
-        <v>2235</v>
-      </c>
-      <c r="B429" t="n">
-        <v>3.589</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="n">
-        <v>2240</v>
-      </c>
-      <c r="B430" t="n">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="n">
-        <v>2245</v>
-      </c>
-      <c r="B431" t="n">
-        <v>3.585</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="n">
-        <v>2250</v>
-      </c>
-      <c r="B432" t="n">
-        <v>3.624</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="n">
-        <v>2255</v>
-      </c>
-      <c r="B433" t="n">
-        <v>3.684</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="n">
-        <v>2260</v>
-      </c>
-      <c r="B434" t="n">
-        <v>3.742</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="n">
-        <v>2265</v>
-      </c>
-      <c r="B435" t="n">
-        <v>3.797</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="n">
-        <v>2270</v>
-      </c>
-      <c r="B436" t="n">
-        <v>3.852</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="n">
-        <v>2275</v>
-      </c>
-      <c r="B437" t="n">
-        <v>3.907</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="n">
-        <v>2280</v>
-      </c>
-      <c r="B438" t="n">
-        <v>3.918</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="n">
-        <v>2285</v>
-      </c>
-      <c r="B439" t="n">
-        <v>3.863</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="n">
-        <v>2290</v>
-      </c>
-      <c r="B440" t="n">
-        <v>3.828</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="n">
-        <v>2295</v>
-      </c>
-      <c r="B441" t="n">
-        <v>3.823</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="n">
-        <v>2300</v>
-      </c>
-      <c r="B442" t="n">
-        <v>3.818</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="n">
-        <v>2305</v>
-      </c>
-      <c r="B443" t="n">
-        <v>3.813</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="n">
-        <v>2310</v>
-      </c>
-      <c r="B444" t="n">
-        <v>3.838</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="n">
-        <v>2315</v>
-      </c>
-      <c r="B445" t="n">
-        <v>3.908</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="n">
-        <v>2320</v>
-      </c>
-      <c r="B446" t="n">
-        <v>3.95</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="n">
-        <v>2325</v>
-      </c>
-      <c r="B447" t="n">
-        <v>3.95</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="n">
-        <v>2330</v>
-      </c>
-      <c r="B448" t="n">
-        <v>3.93</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="n">
-        <v>2335</v>
-      </c>
-      <c r="B449" t="n">
-        <v>3.88</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="n">
-        <v>2340</v>
-      </c>
-      <c r="B450" t="n">
-        <v>3.822</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="n">
-        <v>2345</v>
-      </c>
-      <c r="B451" t="n">
-        <v>3.752</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="n">
-        <v>2350</v>
-      </c>
-      <c r="B452" t="n">
-        <v>3.69</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="n">
-        <v>2355</v>
-      </c>
-      <c r="B453" t="n">
-        <v>3.64</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="n">
-        <v>2360</v>
-      </c>
-      <c r="B454" t="n">
-        <v>3.626</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="n">
-        <v>2365</v>
-      </c>
-      <c r="B455" t="n">
-        <v>3.666</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="n">
-        <v>2370</v>
-      </c>
-      <c r="B456" t="n">
-        <v>3.703333333333333</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="n">
-        <v>2375</v>
-      </c>
-      <c r="B457" t="n">
-        <v>3.713</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="n">
-        <v>2380</v>
-      </c>
-      <c r="B458" t="n">
-        <v>3.628</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="n">
-        <v>2385</v>
-      </c>
-      <c r="B459" t="n">
-        <v>3.566</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="n">
-        <v>2390</v>
-      </c>
-      <c r="B460" t="n">
-        <v>3.596</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="n">
-        <v>2395</v>
-      </c>
-      <c r="B461" t="n">
-        <v>3.644</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="n">
-        <v>2400</v>
-      </c>
-      <c r="B462" t="n">
-        <v>3.764</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="n">
-        <v>2405</v>
-      </c>
-      <c r="B463" t="n">
-        <v>3.861</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="n">
-        <v>2410</v>
-      </c>
-      <c r="B464" t="n">
-        <v>3.866</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="n">
-        <v>2415</v>
-      </c>
-      <c r="B465" t="n">
-        <v>3.846</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="n">
-        <v>2420</v>
-      </c>
-      <c r="B466" t="n">
-        <v>3.726</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="n">
-        <v>2425</v>
-      </c>
-      <c r="B467" t="n">
-        <v>3.625</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="n">
-        <v>2430</v>
-      </c>
-      <c r="B468" t="n">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="n">
-        <v>2435</v>
-      </c>
-      <c r="B469" t="n">
-        <v>3.553</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="n">
-        <v>2440</v>
-      </c>
-      <c r="B470" t="n">
-        <v>3.418</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="n">
-        <v>2445</v>
-      </c>
-      <c r="B471" t="n">
-        <v>3.329</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="n">
-        <v>2450</v>
-      </c>
-      <c r="B472" t="n">
-        <v>3.424</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="n">
-        <v>2455</v>
-      </c>
-      <c r="B473" t="n">
-        <v>3.458</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="n">
-        <v>2460</v>
-      </c>
-      <c r="B474" t="n">
-        <v>3.248</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="n">
-        <v>2465</v>
-      </c>
-      <c r="B475" t="n">
-        <v>3.094</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="n">
-        <v>2470</v>
-      </c>
-      <c r="B476" t="n">
-        <v>3.164</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="n">
-        <v>2475</v>
-      </c>
-      <c r="B477" t="n">
-        <v>3.262</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="n">
-        <v>2480</v>
-      </c>
-      <c r="B478" t="n">
-        <v>3.472</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="n">
-        <v>2485</v>
-      </c>
-      <c r="B479" t="n">
-        <v>3.671</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="n">
-        <v>2490</v>
-      </c>
-      <c r="B480" t="n">
-        <v>3.826</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="n">
-        <v>2495</v>
-      </c>
-      <c r="B481" t="n">
-        <v>3.932</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="n">
-        <v>2500</v>
-      </c>
-      <c r="B482" t="n">
-        <v>3.842</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="n">
-        <v>2505</v>
-      </c>
-      <c r="B483" t="n">
-        <v>3.731</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="n">
-        <v>2510</v>
-      </c>
-      <c r="B484" t="n">
-        <v>3.536</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="n">
-        <v>2515</v>
-      </c>
-      <c r="B485" t="n">
-        <v>3.359</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="n">
-        <v>2520</v>
-      </c>
-      <c r="B486" t="n">
-        <v>3.254</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="n">
-        <v>2525</v>
-      </c>
-      <c r="B487" t="n">
-        <v>3.193</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="n">
-        <v>2530</v>
-      </c>
-      <c r="B488" t="n">
-        <v>3.308</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="n">
-        <v>2535</v>
-      </c>
-      <c r="B489" t="n">
-        <v>3.415</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="n">
-        <v>2540</v>
-      </c>
-      <c r="B490" t="n">
-        <v>3.49</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="n">
-        <v>2545</v>
-      </c>
-      <c r="B491" t="n">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="n">
-        <v>2550</v>
-      </c>
-      <c r="B492" t="n">
-        <v>3.61</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="n">
-        <v>2555</v>
-      </c>
-      <c r="B493" t="n">
-        <v>3.619</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="n">
-        <v>2560</v>
-      </c>
-      <c r="B494" t="n">
-        <v>3.464</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="n">
-        <v>2565</v>
-      </c>
-      <c r="B495" t="n">
-        <v>3.364</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="n">
-        <v>2570</v>
-      </c>
-      <c r="B496" t="n">
-        <v>3.484</v>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="n">
-        <v>2575</v>
-      </c>
-      <c r="B497" t="n">
-        <v>3.582</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="n">
-        <v>2580</v>
-      </c>
-      <c r="B498" t="n">
-        <v>3.592</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="n">
-        <v>2585</v>
-      </c>
-      <c r="B499" t="n">
-        <v>3.601</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="n">
-        <v>2590</v>
-      </c>
-      <c r="B500" t="n">
-        <v>3.606</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="n">
-        <v>2595</v>
-      </c>
-      <c r="B501" t="n">
-        <v>3.599</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="n">
-        <v>2600</v>
-      </c>
-      <c r="B502" t="n">
-        <v>3.544</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="n">
-        <v>2605</v>
-      </c>
-      <c r="B503" t="n">
-        <v>3.47</v>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" t="n">
-        <v>2610</v>
-      </c>
-      <c r="B504" t="n">
-        <v>3.32</v>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" t="n">
-        <v>2615</v>
-      </c>
-      <c r="B505" t="n">
-        <v>3.209</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" t="n">
-        <v>2620</v>
-      </c>
-      <c r="B506" t="n">
-        <v>3.254</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="n">
-        <v>2625</v>
-      </c>
-      <c r="B507" t="n">
-        <v>3.306</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="n">
-        <v>2630</v>
-      </c>
-      <c r="B508" t="n">
-        <v>3.386</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="n">
-        <v>2635</v>
-      </c>
-      <c r="B509" t="n">
-        <v>3.454</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="n">
-        <v>2640</v>
-      </c>
-      <c r="B510" t="n">
-        <v>3.474</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="n">
-        <v>2645</v>
-      </c>
-      <c r="B511" t="n">
-        <v>3.467</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="n">
-        <v>2650</v>
-      </c>
-      <c r="B512" t="n">
-        <v>3.352</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="n">
-        <v>2655</v>
-      </c>
-      <c r="B513" t="n">
-        <v>3.275</v>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="n">
-        <v>2660</v>
-      </c>
-      <c r="B514" t="n">
-        <v>3.35</v>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="n">
-        <v>2665</v>
-      </c>
-      <c r="B515" t="n">
-        <v>3.392</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="n">
-        <v>2670</v>
-      </c>
-      <c r="B516" t="n">
-        <v>3.302</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="n">
-        <v>2675</v>
-      </c>
-      <c r="B517" t="n">
-        <v>3.239</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="n">
-        <v>2680</v>
-      </c>
-      <c r="B518" t="n">
-        <v>3.284</v>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="n">
-        <v>2685</v>
-      </c>
-      <c r="B519" t="n">
-        <v>3.353</v>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="n">
-        <v>2690</v>
-      </c>
-      <c r="B520" t="n">
-        <v>3.518</v>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="n">
-        <v>2695</v>
-      </c>
-      <c r="B521" t="n">
-        <v>3.653</v>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="n">
-        <v>2700</v>
-      </c>
-      <c r="B522" t="n">
-        <v>3.668</v>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="n">
-        <v>2705</v>
-      </c>
-      <c r="B523" t="n">
-        <v>3.655</v>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="n">
-        <v>2710</v>
-      </c>
-      <c r="B524" t="n">
-        <v>3.53</v>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="n">
-        <v>2715</v>
-      </c>
-      <c r="B525" t="n">
-        <v>3.421</v>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="n">
-        <v>2720</v>
-      </c>
-      <c r="B526" t="n">
-        <v>3.376</v>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="n">
-        <v>2725</v>
-      </c>
-      <c r="B527" t="n">
-        <v>3.299</v>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="n">
-        <v>2730</v>
-      </c>
-      <c r="B528" t="n">
-        <v>3.094</v>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="n">
-        <v>2735</v>
-      </c>
-      <c r="B529" t="n">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="n">
-        <v>2740</v>
-      </c>
-      <c r="B530" t="n">
-        <v>3.408333333333333</v>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="n">
-        <v>2745</v>
-      </c>
-      <c r="B531" t="n">
-        <v>3.481</v>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="n">
-        <v>2750</v>
-      </c>
-      <c r="B532" t="n">
-        <v>3.211</v>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="n">
-        <v>2755</v>
-      </c>
-      <c r="B533" t="n">
-        <v>3.041</v>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="n">
-        <v>2760</v>
-      </c>
-      <c r="B534" t="n">
-        <v>3.271</v>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="n">
-        <v>2765</v>
-      </c>
-      <c r="B535" t="n">
-        <v>3.3815</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="n">
-        <v>2770</v>
-      </c>
-      <c r="B536" t="n">
-        <v>3.014</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="n">
-        <v>2775</v>
-      </c>
-      <c r="B537" t="n">
-        <v>3.3466</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="n">
-        <v>2780</v>
-      </c>
-      <c r="B538" t="n">
-        <v>3.165155555555556</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="n">
-        <v>2785</v>
-      </c>
-      <c r="B539" t="n">
-        <v>3.0225</v>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="n">
-        <v>2790</v>
-      </c>
-      <c r="B540" t="n">
-        <v>3.035</v>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="n">
-        <v>2795</v>
-      </c>
-      <c r="B541" t="n">
-        <v>3.0705</v>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="n">
-        <v>2800</v>
-      </c>
-      <c r="B542" t="n">
-        <v>3.198</v>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="n">
-        <v>2805</v>
-      </c>
-      <c r="B543" t="n">
-        <v>3.303</v>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="n">
-        <v>2810</v>
-      </c>
-      <c r="B544" t="n">
-        <v>3.318</v>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="n">
-        <v>2815</v>
-      </c>
-      <c r="B545" t="n">
-        <v>3.331</v>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" t="n">
-        <v>2820</v>
-      </c>
-      <c r="B546" t="n">
-        <v>3.336</v>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="n">
-        <v>2825</v>
-      </c>
-      <c r="B547" t="n">
-        <v>3.36</v>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="n">
-        <v>2830</v>
-      </c>
-      <c r="B548" t="n">
-        <v>3.46</v>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="n">
-        <v>2835</v>
-      </c>
-      <c r="B549" t="n">
-        <v>3.535</v>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="n">
-        <v>2840</v>
-      </c>
-      <c r="B550" t="n">
-        <v>3.51</v>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="n">
-        <v>2845</v>
-      </c>
-      <c r="B551" t="n">
-        <v>3.481</v>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="n">
-        <v>2850</v>
-      </c>
-      <c r="B552" t="n">
-        <v>3.436</v>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="n">
-        <v>2855</v>
-      </c>
-      <c r="B553" t="n">
-        <v>3.407</v>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="n">
-        <v>2860</v>
-      </c>
-      <c r="B554" t="n">
-        <v>3.442</v>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="n">
-        <v>2865</v>
-      </c>
-      <c r="B555" t="n">
-        <v>3.475</v>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="n">
-        <v>2870</v>
-      </c>
-      <c r="B556" t="n">
-        <v>3.595</v>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="n">
-        <v>2875</v>
-      </c>
-      <c r="B557" t="n">
-        <v>3.655</v>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="n">
-        <v>2880</v>
-      </c>
-      <c r="B558" t="n">
-        <v>3.53</v>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="n">
-        <v>2885</v>
-      </c>
-      <c r="B559" t="n">
-        <v>3.395</v>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="n">
-        <v>2890</v>
-      </c>
-      <c r="B560" t="n">
-        <v>3.3125</v>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="n">
-        <v>2895</v>
-      </c>
-      <c r="B561" t="n">
-        <v>3.29375</v>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="n">
-        <v>2900</v>
-      </c>
-      <c r="B562" t="n">
-        <v>3.14</v>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="n">
-        <v>2905</v>
-      </c>
-      <c r="B563" t="n">
-        <v>2.93125</v>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="n">
-        <v>2910</v>
-      </c>
-      <c r="B564" t="n">
-        <v>2.995</v>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="n">
-        <v>2915</v>
-      </c>
-      <c r="B565" t="n">
-        <v>2.995</v>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="n">
-        <v>2920</v>
-      </c>
-      <c r="B566" t="n">
-        <v>3.02</v>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="n">
-        <v>2925</v>
-      </c>
-      <c r="B567" t="n">
-        <v>3.17</v>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="n">
-        <v>2930</v>
-      </c>
-      <c r="B568" t="n">
-        <v>3.025</v>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="n">
-        <v>2935</v>
-      </c>
-      <c r="B569" t="n">
-        <v>2.7675</v>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="n">
-        <v>2940</v>
-      </c>
-      <c r="B570" t="n">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="n">
-        <v>2945</v>
-      </c>
-      <c r="B571" t="n">
-        <v>2.716071428571428</v>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="n">
-        <v>2950</v>
-      </c>
-      <c r="B572" t="n">
-        <v>2.682142857142857</v>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="n">
-        <v>2955</v>
-      </c>
-      <c r="B573" t="n">
-        <v>2.648214285714286</v>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="n">
-        <v>2960</v>
-      </c>
-      <c r="B574" t="n">
-        <v>2.614285714285714</v>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="n">
-        <v>2965</v>
-      </c>
-      <c r="B575" t="n">
-        <v>2.580357142857143</v>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="n">
-        <v>2970</v>
-      </c>
-      <c r="B576" t="n">
-        <v>2.625</v>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="n">
-        <v>2975</v>
-      </c>
-      <c r="B577" t="n">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="n">
-        <v>2980</v>
-      </c>
-      <c r="B578" t="n">
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="n">
-        <v>2985</v>
-      </c>
-      <c r="B579" t="n">
-        <v>3.07</v>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="n">
-        <v>2990</v>
-      </c>
-      <c r="B580" t="n">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="n">
-        <v>2995</v>
-      </c>
-      <c r="B581" t="n">
-        <v>3.1975</v>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="n">
-        <v>3000</v>
-      </c>
-      <c r="B582" t="n">
-        <v>2.94</v>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="n">
-        <v>3005</v>
-      </c>
-      <c r="B583" t="n">
-        <v>2.99</v>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="n">
-        <v>3010</v>
-      </c>
-      <c r="B584" t="n">
-        <v>2.775</v>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="n">
-        <v>3015</v>
-      </c>
-      <c r="B585" t="n">
-        <v>2.6125</v>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="n">
-        <v>3020</v>
-      </c>
-      <c r="B586" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="n">
-        <v>3025</v>
-      </c>
-      <c r="B587" t="n">
-        <v>2.585</v>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="n">
-        <v>3030</v>
-      </c>
-      <c r="B588" t="n">
-        <v>2.61</v>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="n">
-        <v>3035</v>
-      </c>
-      <c r="B589" t="n">
-        <v>2.635</v>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="n">
-        <v>3040</v>
-      </c>
-      <c r="B590" t="n">
-        <v>2.66</v>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="n">
-        <v>3045</v>
-      </c>
-      <c r="B591" t="n">
-        <v>2.685</v>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="n">
-        <v>3050</v>
-      </c>
-      <c r="B592" t="n">
-        <v>2.71</v>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="n">
-        <v>3055</v>
-      </c>
-      <c r="B593" t="n">
-        <v>2.735</v>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="n">
-        <v>3060</v>
-      </c>
-      <c r="B594" t="n">
-        <v>2.76</v>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="n">
-        <v>3065</v>
-      </c>
-      <c r="B595" t="n">
-        <v>2.785</v>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="n">
-        <v>3070</v>
-      </c>
-      <c r="B596" t="n">
-        <v>2.945</v>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="n">
-        <v>3075</v>
-      </c>
-      <c r="B597" t="n">
-        <v>3.1725</v>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="n">
-        <v>3080</v>
-      </c>
-      <c r="B598" t="n">
-        <v>3.14</v>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="n">
-        <v>3085</v>
-      </c>
-      <c r="B599" t="n">
-        <v>3.20125</v>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="n">
-        <v>3090</v>
-      </c>
-      <c r="B600" t="n">
-        <v>3.305</v>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="n">
-        <v>3095</v>
-      </c>
-      <c r="B601" t="n">
-        <v>3.465</v>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" t="n">
-        <v>3100</v>
-      </c>
-      <c r="B602" t="n">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="n">
-        <v>3105</v>
-      </c>
-      <c r="B603" t="n">
-        <v>3.446</v>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" t="n">
-        <v>3110</v>
-      </c>
-      <c r="B604" t="n">
-        <v>3.576</v>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="n">
-        <v>3115</v>
-      </c>
-      <c r="B605" t="n">
-        <v>3.668</v>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="n">
-        <v>3120</v>
-      </c>
-      <c r="B606" t="n">
-        <v>3.608</v>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" t="n">
-        <v>3125</v>
-      </c>
-      <c r="B607" t="n">
-        <v>3.567</v>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" t="n">
-        <v>3130</v>
-      </c>
-      <c r="B608" t="n">
-        <v>3.602</v>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" t="n">
-        <v>3135</v>
-      </c>
-      <c r="B609" t="n">
-        <v>3.63</v>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="n">
-        <v>3140</v>
-      </c>
-      <c r="B610" t="n">
-        <v>3.63</v>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="n">
-        <v>3145</v>
-      </c>
-      <c r="B611" t="n">
-        <v>3.612</v>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="n">
-        <v>3150</v>
-      </c>
-      <c r="B612" t="n">
-        <v>3.522</v>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="n">
-        <v>3155</v>
-      </c>
-      <c r="B613" t="n">
-        <v>3.433</v>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="n">
-        <v>3160</v>
-      </c>
-      <c r="B614" t="n">
-        <v>3.348</v>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" t="n">
-        <v>3165</v>
-      </c>
-      <c r="B615" t="n">
-        <v>3.274</v>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="n">
-        <v>3170</v>
-      </c>
-      <c r="B616" t="n">
-        <v>3.244</v>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="n">
-        <v>3175</v>
-      </c>
-      <c r="B617" t="n">
-        <v>3.263</v>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" t="n">
-        <v>3180</v>
-      </c>
-      <c r="B618" t="n">
-        <v>3.478</v>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" t="n">
-        <v>3185</v>
-      </c>
-      <c r="B619" t="n">
-        <v>3.652</v>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" t="n">
-        <v>3190</v>
-      </c>
-      <c r="B620" t="n">
-        <v>3.662</v>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" t="n">
-        <v>3195</v>
-      </c>
-      <c r="B621" t="n">
-        <v>3.652</v>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" t="n">
-        <v>3200</v>
-      </c>
-      <c r="B622" t="n">
-        <v>3.562</v>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" t="n">
-        <v>3205</v>
-      </c>
-      <c r="B623" t="n">
-        <v>3.44</v>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" t="n">
-        <v>3210</v>
-      </c>
-      <c r="B624" t="n">
-        <v>3.28</v>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" t="n">
-        <v>3215</v>
-      </c>
-      <c r="B625" t="n">
-        <v>3.3675</v>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" t="n">
-        <v>3220</v>
-      </c>
-      <c r="B626" t="n">
-        <v>3.31</v>
-      </c>
-    </row>
-    <row r="627">
-      <c r="A627" t="n">
-        <v>3225</v>
-      </c>
-      <c r="B627" t="n">
-        <v>3.195</v>
-      </c>
-    </row>
-    <row r="628">
-      <c r="A628" t="n">
-        <v>3230</v>
-      </c>
-      <c r="B628" t="n">
-        <v>3.17</v>
-      </c>
-    </row>
-    <row r="629">
-      <c r="A629" t="n">
-        <v>3235</v>
-      </c>
-      <c r="B629" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="630">
-      <c r="A630" t="n">
-        <v>3240</v>
-      </c>
-      <c r="B630" t="n">
-        <v>3.065</v>
-      </c>
-    </row>
-    <row r="631">
-      <c r="A631" t="n">
-        <v>3245</v>
-      </c>
-      <c r="B631" t="n">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="632">
-      <c r="A632" t="n">
-        <v>3250</v>
-      </c>
-      <c r="B632" t="n">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" t="n">
-        <v>3255</v>
-      </c>
-      <c r="B633" t="n">
-        <v>2.4775</v>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" t="n">
-        <v>3260</v>
-      </c>
-      <c r="B634" t="n">
-        <v>2.444285714285714</v>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" t="n">
-        <v>3265</v>
-      </c>
-      <c r="B635" t="n">
-        <v>2.399642857142857</v>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" t="n">
-        <v>3270</v>
-      </c>
-      <c r="B636" t="n">
-        <v>2.355</v>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" t="n">
-        <v>3275</v>
-      </c>
-      <c r="B637" t="n">
-        <v>2.310357142857143</v>
-      </c>
-    </row>
-    <row r="638">
-      <c r="A638" t="n">
-        <v>3280</v>
-      </c>
-      <c r="B638" t="n">
-        <v>2.265714285714286</v>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" t="n">
-        <v>3285</v>
-      </c>
-      <c r="B639" t="n">
-        <v>2.4625</v>
-      </c>
-    </row>
-    <row r="640">
-      <c r="A640" t="n">
-        <v>3290</v>
-      </c>
-      <c r="B640" t="n">
-        <v>3.255</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:H385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23205,7 +17996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23423,83 +18214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="19" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="56" customWidth="1" min="5" max="5"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Parameters</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>History</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>SAMPLE</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Sample every 5</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5 ; linear</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>sample with step 5 and kind of interpolation linear</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23513,7 +18228,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="28" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="9" customWidth="1" min="4" max="4"/>

--- a/test/ws_ex_5.0.xlsx
+++ b/test/ws_ex_5.0.xlsx
@@ -7,12 +7,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Serie Id-0CF20BB2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Serie Id-67GH89BG" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Serie Id-56TY87JG" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Serie Id-34AE56JH" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="INTERPOLATION Id-C2F3FDA9" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Serie Id-282C5609" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Information" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Serie Id-0CF20BB2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Serie Id-34AE56JH" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Serie Id-67GH89BG" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Serie Id-56TY87JG" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="INTERPOLATION Id-C2F3FDA9" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Serie Id-282C5609" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -418,6 +419,35 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="36" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Created with PyAnalyseries v5.0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8511,7 +8541,3166 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H385"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>depthODP849 [cm]</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>d13Cforams-b</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Y axis inverted</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>History</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Serie</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>#2f3dff</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>28</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>45</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>55</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>69</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>89</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>109</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>118</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>128</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>139</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>150</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>161</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>185</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>194</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>217</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>231</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>243</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>249</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>256</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>271</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>275</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>280</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>289</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>292</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>296</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>306</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>315</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>324</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>333</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.08500000000000001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>344</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>355</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>366</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>377</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>388</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>398</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>408</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>418</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>428</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>437</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>447</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>456</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>467</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>477</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>488</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>498</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>508</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>518</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>528</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>538</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-0.395</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>548</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>558</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-0.305</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>568</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>578</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>589</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.325</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>599</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>608</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>618</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>628</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>638</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-0.135</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>647</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-0.005</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>657</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>667</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>677</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-0.08500000000000001</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>688</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-0.0433</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>698</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>708</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>718</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>728</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>737</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>747</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-0.405</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>756</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-0.505</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>757</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>766</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>778</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>791</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>803</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>813</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>824</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>835</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>849</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>861</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>871</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-0.535</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>879</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>889</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>895</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>905</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>916</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>927</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-0.095</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>937</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>948</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>960</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>972</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>982</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>990</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>996</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-0.1133</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1052</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-0.065</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1059</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-0.035</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1075</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-0.335</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1137</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1146</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1147</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1158</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1172</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1182</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1192</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-0.08500000000000001</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1222</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1232</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-0.025</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1252</v>
+      </c>
+      <c r="B122" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1262</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1272</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1306</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1328</v>
+      </c>
+      <c r="B126" t="n">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1358</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1364</v>
+      </c>
+      <c r="B128" t="n">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B129" t="n">
+        <v>-0.315</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1381</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1388</v>
+      </c>
+      <c r="B131" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1395</v>
+      </c>
+      <c r="B132" t="n">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1403</v>
+      </c>
+      <c r="B133" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1414</v>
+      </c>
+      <c r="B134" t="n">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1436</v>
+      </c>
+      <c r="B135" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1444</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1453</v>
+      </c>
+      <c r="B137" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1464</v>
+      </c>
+      <c r="B138" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1475</v>
+      </c>
+      <c r="B139" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1487</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1498</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.3166</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1518</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1527</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1537</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1547</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.285</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1557</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1567</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1577</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1587</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1597</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1607</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1617</v>
+      </c>
+      <c r="B152" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1637</v>
+      </c>
+      <c r="B153" t="n">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1647</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1657</v>
+      </c>
+      <c r="B155" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1667</v>
+      </c>
+      <c r="B156" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1677</v>
+      </c>
+      <c r="B157" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1687</v>
+      </c>
+      <c r="B158" t="n">
+        <v>-0.025</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1697</v>
+      </c>
+      <c r="B159" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1707</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>1717</v>
+      </c>
+      <c r="B161" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1737</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1747</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.0566</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1757</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1767</v>
+      </c>
+      <c r="B165" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1777</v>
+      </c>
+      <c r="B166" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1787</v>
+      </c>
+      <c r="B167" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1797</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1807</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1817</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1827</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1837</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1847</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1857</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1867</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1887</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1897</v>
+      </c>
+      <c r="B177" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1903</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1907</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1915</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1927</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B182" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1948</v>
+      </c>
+      <c r="B183" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1957</v>
+      </c>
+      <c r="B184" t="n">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1966</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1975</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1985</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>2047</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>2055</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>2063</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>2070</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>2071</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>2078</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>2085</v>
+      </c>
+      <c r="B199" t="n">
+        <v>-0.155</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>2092</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B201" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>2116</v>
+      </c>
+      <c r="B202" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>2123</v>
+      </c>
+      <c r="B203" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>2124</v>
+      </c>
+      <c r="B204" t="n">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>2133</v>
+      </c>
+      <c r="B205" t="n">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>2141</v>
+      </c>
+      <c r="B206" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>2142</v>
+      </c>
+      <c r="B207" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>2150</v>
+      </c>
+      <c r="B208" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>2159</v>
+      </c>
+      <c r="B209" t="n">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>2167</v>
+      </c>
+      <c r="B210" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>2175</v>
+      </c>
+      <c r="B211" t="n">
+        <v>-0.445</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>2184</v>
+      </c>
+      <c r="B212" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>2193</v>
+      </c>
+      <c r="B213" t="n">
+        <v>-0.475</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>2203</v>
+      </c>
+      <c r="B214" t="n">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>2213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>2224</v>
+      </c>
+      <c r="B216" t="n">
+        <v>-0.205</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>2235</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>2246</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>2257</v>
+      </c>
+      <c r="B219" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>2267</v>
+      </c>
+      <c r="B220" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>2276</v>
+      </c>
+      <c r="B221" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>2285</v>
+      </c>
+      <c r="B222" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>2294</v>
+      </c>
+      <c r="B223" t="n">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>2303</v>
+      </c>
+      <c r="B224" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>2312</v>
+      </c>
+      <c r="B225" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>2322</v>
+      </c>
+      <c r="B226" t="n">
+        <v>-0.245</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>2334</v>
+      </c>
+      <c r="B227" t="n">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>2347</v>
+      </c>
+      <c r="B228" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>2361</v>
+      </c>
+      <c r="B229" t="n">
+        <v>-0.245</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>2375</v>
+      </c>
+      <c r="B230" t="n">
+        <v>-0.405</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>2388</v>
+      </c>
+      <c r="B231" t="n">
+        <v>-0.325</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>2399</v>
+      </c>
+      <c r="B232" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>2410</v>
+      </c>
+      <c r="B233" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>2420</v>
+      </c>
+      <c r="B234" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>2430</v>
+      </c>
+      <c r="B235" t="n">
+        <v>-0.2166</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>2440</v>
+      </c>
+      <c r="B236" t="n">
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>2450</v>
+      </c>
+      <c r="B237" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>2461</v>
+      </c>
+      <c r="B238" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>2472</v>
+      </c>
+      <c r="B239" t="n">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>2484</v>
+      </c>
+      <c r="B240" t="n">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>2495</v>
+      </c>
+      <c r="B241" t="n">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>2506</v>
+      </c>
+      <c r="B242" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>2514</v>
+      </c>
+      <c r="B243" t="n">
+        <v>-0.79</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>2517</v>
+      </c>
+      <c r="B244" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>2527</v>
+      </c>
+      <c r="B245" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>2537</v>
+      </c>
+      <c r="B246" t="n">
+        <v>-0.595</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>2542</v>
+      </c>
+      <c r="B247" t="n">
+        <v>-0.64</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>2546</v>
+      </c>
+      <c r="B248" t="n">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>2552</v>
+      </c>
+      <c r="B249" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>2562</v>
+      </c>
+      <c r="B250" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>2571</v>
+      </c>
+      <c r="B251" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>2583</v>
+      </c>
+      <c r="B252" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>2592</v>
+      </c>
+      <c r="B253" t="n">
+        <v>-0.64</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>2602</v>
+      </c>
+      <c r="B254" t="n">
+        <v>-0.85</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>2612</v>
+      </c>
+      <c r="B255" t="n">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>2622</v>
+      </c>
+      <c r="B256" t="n">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>2632</v>
+      </c>
+      <c r="B257" t="n">
+        <v>-0.79</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>2652</v>
+      </c>
+      <c r="B258" t="n">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>2662</v>
+      </c>
+      <c r="B259" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>2674</v>
+      </c>
+      <c r="B260" t="n">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>2676</v>
+      </c>
+      <c r="B261" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>2681</v>
+      </c>
+      <c r="B262" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>2686</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>2696</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>2706</v>
+      </c>
+      <c r="B265" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>2726</v>
+      </c>
+      <c r="B266" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>2736</v>
+      </c>
+      <c r="B267" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>2746</v>
+      </c>
+      <c r="B268" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>2756</v>
+      </c>
+      <c r="B269" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>2766</v>
+      </c>
+      <c r="B270" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>2776</v>
+      </c>
+      <c r="B271" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>2786</v>
+      </c>
+      <c r="B272" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>2796</v>
+      </c>
+      <c r="B273" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>2806</v>
+      </c>
+      <c r="B274" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>2815</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>2826</v>
+      </c>
+      <c r="B276" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>2837</v>
+      </c>
+      <c r="B277" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>2847</v>
+      </c>
+      <c r="B278" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>2856</v>
+      </c>
+      <c r="B279" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>2866</v>
+      </c>
+      <c r="B280" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>2875</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>2885</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>2896</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>2906</v>
+      </c>
+      <c r="B284" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>2916</v>
+      </c>
+      <c r="B285" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>2925</v>
+      </c>
+      <c r="B286" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>2936</v>
+      </c>
+      <c r="B287" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>2953</v>
+      </c>
+      <c r="B288" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>2956</v>
+      </c>
+      <c r="B289" t="n">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>2968</v>
+      </c>
+      <c r="B290" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>2979</v>
+      </c>
+      <c r="B291" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>2989</v>
+      </c>
+      <c r="B292" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>2999</v>
+      </c>
+      <c r="B293" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>3010</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>3021</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>3031</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>3040</v>
+      </c>
+      <c r="B297" t="n">
+        <v>-0.015</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>3047</v>
+      </c>
+      <c r="B298" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>3055</v>
+      </c>
+      <c r="B299" t="n">
+        <v>-0.015</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>3065</v>
+      </c>
+      <c r="B300" t="n">
+        <v>-0.275</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>3077</v>
+      </c>
+      <c r="B301" t="n">
+        <v>-0.355</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>3090</v>
+      </c>
+      <c r="B302" t="n">
+        <v>-0.155</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>3103</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>3124</v>
+      </c>
+      <c r="B304" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>3134</v>
+      </c>
+      <c r="B305" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>3145</v>
+      </c>
+      <c r="B306" t="n">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>3156</v>
+      </c>
+      <c r="B307" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>3167</v>
+      </c>
+      <c r="B308" t="n">
+        <v>-0.315</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>3177</v>
+      </c>
+      <c r="B309" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>3188</v>
+      </c>
+      <c r="B310" t="n">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>3199</v>
+      </c>
+      <c r="B311" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>3212</v>
+      </c>
+      <c r="B312" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>3224</v>
+      </c>
+      <c r="B313" t="n">
+        <v>-0.135</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>3234</v>
+      </c>
+      <c r="B314" t="n">
+        <v>-0.005</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>3241</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>3247</v>
+      </c>
+      <c r="B316" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>3252</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>3258</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>3262</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0.055</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>3269</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>3278</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0.165</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>3290</v>
+      </c>
+      <c r="B322" t="n">
+        <v>-0.245</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>3307</v>
+      </c>
+      <c r="B323" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>3328</v>
+      </c>
+      <c r="B324" t="n">
+        <v>-0.295</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>3344</v>
+      </c>
+      <c r="B325" t="n">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>3353</v>
+      </c>
+      <c r="B326" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>3361</v>
+      </c>
+      <c r="B327" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>3367</v>
+      </c>
+      <c r="B328" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>3373</v>
+      </c>
+      <c r="B329" t="n">
+        <v>-0.385</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>3380</v>
+      </c>
+      <c r="B330" t="n">
+        <v>-0.215</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>3388</v>
+      </c>
+      <c r="B331" t="n">
+        <v>-0.205</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>3399</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>3415</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>3437</v>
+      </c>
+      <c r="B334" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>3463</v>
+      </c>
+      <c r="B335" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>3478</v>
+      </c>
+      <c r="B336" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>3485</v>
+      </c>
+      <c r="B337" t="n">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>3489</v>
+      </c>
+      <c r="B338" t="n">
+        <v>-0.475</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>3493</v>
+      </c>
+      <c r="B339" t="n">
+        <v>-0.545</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>3497</v>
+      </c>
+      <c r="B340" t="n">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>3501</v>
+      </c>
+      <c r="B341" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>3506</v>
+      </c>
+      <c r="B342" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>3513</v>
+      </c>
+      <c r="B343" t="n">
+        <v>-0.465</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>3527</v>
+      </c>
+      <c r="B344" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>3545</v>
+      </c>
+      <c r="B345" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>3560</v>
+      </c>
+      <c r="B346" t="n">
+        <v>-0.225</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>3571</v>
+      </c>
+      <c r="B347" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>3578</v>
+      </c>
+      <c r="B348" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>3586</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>3593</v>
+      </c>
+      <c r="B350" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>3601</v>
+      </c>
+      <c r="B351" t="n">
+        <v>-0.095</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>3611</v>
+      </c>
+      <c r="B352" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>3622</v>
+      </c>
+      <c r="B353" t="n">
+        <v>-0.235</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>3635</v>
+      </c>
+      <c r="B354" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>3651</v>
+      </c>
+      <c r="B355" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>3652</v>
+      </c>
+      <c r="B356" t="n">
+        <v>-0.425</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>3674</v>
+      </c>
+      <c r="B357" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>3685</v>
+      </c>
+      <c r="B358" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>3696</v>
+      </c>
+      <c r="B359" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>3708</v>
+      </c>
+      <c r="B360" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>3720</v>
+      </c>
+      <c r="B361" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>3729</v>
+      </c>
+      <c r="B362" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>3738</v>
+      </c>
+      <c r="B363" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>3747</v>
+      </c>
+      <c r="B364" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>3754</v>
+      </c>
+      <c r="B365" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>3761</v>
+      </c>
+      <c r="B366" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>3767</v>
+      </c>
+      <c r="B367" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>3773</v>
+      </c>
+      <c r="B368" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>3780</v>
+      </c>
+      <c r="B369" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>3789</v>
+      </c>
+      <c r="B370" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>3804</v>
+      </c>
+      <c r="B371" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>3822</v>
+      </c>
+      <c r="B372" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>3836</v>
+      </c>
+      <c r="B373" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>3846</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>3856</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>3865</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>3874</v>
+      </c>
+      <c r="B377" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>3882</v>
+      </c>
+      <c r="B378" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>3890</v>
+      </c>
+      <c r="B379" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>3898</v>
+      </c>
+      <c r="B380" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>3908</v>
+      </c>
+      <c r="B381" t="n">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>3915</v>
+      </c>
+      <c r="B382" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>3918</v>
+      </c>
+      <c r="B383" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>3922</v>
+      </c>
+      <c r="B384" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>3928</v>
+      </c>
+      <c r="B385" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11674,7 +14863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14837,3166 +18026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H385"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>depthODP849 [cm]</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>d13Cforams-b</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Y axis inverted</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>History</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Serie</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>#2f3dff</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>17</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>28</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>45</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>55</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.27</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>69</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>89</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>109</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>118</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>128</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>139</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>150</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>161</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>185</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>194</v>
-      </c>
-      <c r="B16" t="n">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>217</v>
-      </c>
-      <c r="B17" t="n">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>231</v>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>243</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>249</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>256</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>271</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>275</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>280</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>289</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>292</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>296</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>306</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.045</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>315</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>324</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>333</v>
-      </c>
-      <c r="B31" t="n">
-        <v>-0.08500000000000001</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>344</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>355</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>366</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>377</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>388</v>
-      </c>
-      <c r="B36" t="n">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>398</v>
-      </c>
-      <c r="B37" t="n">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>408</v>
-      </c>
-      <c r="B38" t="n">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>418</v>
-      </c>
-      <c r="B39" t="n">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>428</v>
-      </c>
-      <c r="B40" t="n">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>437</v>
-      </c>
-      <c r="B41" t="n">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>447</v>
-      </c>
-      <c r="B42" t="n">
-        <v>-0.38</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>456</v>
-      </c>
-      <c r="B43" t="n">
-        <v>-0.45</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>467</v>
-      </c>
-      <c r="B44" t="n">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>477</v>
-      </c>
-      <c r="B45" t="n">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>488</v>
-      </c>
-      <c r="B46" t="n">
-        <v>-0.19</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>498</v>
-      </c>
-      <c r="B47" t="n">
-        <v>-0.46</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>508</v>
-      </c>
-      <c r="B48" t="n">
-        <v>-0.39</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>518</v>
-      </c>
-      <c r="B49" t="n">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>528</v>
-      </c>
-      <c r="B50" t="n">
-        <v>-0.45</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>538</v>
-      </c>
-      <c r="B51" t="n">
-        <v>-0.395</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>548</v>
-      </c>
-      <c r="B52" t="n">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>558</v>
-      </c>
-      <c r="B53" t="n">
-        <v>-0.305</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>568</v>
-      </c>
-      <c r="B54" t="n">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>578</v>
-      </c>
-      <c r="B55" t="n">
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>589</v>
-      </c>
-      <c r="B56" t="n">
-        <v>-0.325</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>599</v>
-      </c>
-      <c r="B57" t="n">
-        <v>-0.41</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>608</v>
-      </c>
-      <c r="B58" t="n">
-        <v>-0.42</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>618</v>
-      </c>
-      <c r="B59" t="n">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>628</v>
-      </c>
-      <c r="B60" t="n">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>638</v>
-      </c>
-      <c r="B61" t="n">
-        <v>-0.135</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>647</v>
-      </c>
-      <c r="B62" t="n">
-        <v>-0.005</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>657</v>
-      </c>
-      <c r="B63" t="n">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>667</v>
-      </c>
-      <c r="B64" t="n">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>677</v>
-      </c>
-      <c r="B65" t="n">
-        <v>-0.08500000000000001</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>688</v>
-      </c>
-      <c r="B66" t="n">
-        <v>-0.0433</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>698</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>708</v>
-      </c>
-      <c r="B68" t="n">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>718</v>
-      </c>
-      <c r="B69" t="n">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>728</v>
-      </c>
-      <c r="B70" t="n">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>737</v>
-      </c>
-      <c r="B71" t="n">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>747</v>
-      </c>
-      <c r="B72" t="n">
-        <v>-0.405</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>756</v>
-      </c>
-      <c r="B73" t="n">
-        <v>-0.505</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>757</v>
-      </c>
-      <c r="B74" t="n">
-        <v>-0.36</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>766</v>
-      </c>
-      <c r="B75" t="n">
-        <v>-0.19</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>778</v>
-      </c>
-      <c r="B76" t="n">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>791</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>803</v>
-      </c>
-      <c r="B78" t="n">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>813</v>
-      </c>
-      <c r="B79" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>824</v>
-      </c>
-      <c r="B80" t="n">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>835</v>
-      </c>
-      <c r="B81" t="n">
-        <v>-0.28</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>849</v>
-      </c>
-      <c r="B82" t="n">
-        <v>-0.28</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>861</v>
-      </c>
-      <c r="B83" t="n">
-        <v>-0.43</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>871</v>
-      </c>
-      <c r="B84" t="n">
-        <v>-0.535</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>879</v>
-      </c>
-      <c r="B85" t="n">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>889</v>
-      </c>
-      <c r="B86" t="n">
-        <v>-0.37</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>895</v>
-      </c>
-      <c r="B87" t="n">
-        <v>-0.58</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>905</v>
-      </c>
-      <c r="B88" t="n">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>916</v>
-      </c>
-      <c r="B89" t="n">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>927</v>
-      </c>
-      <c r="B90" t="n">
-        <v>-0.095</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>937</v>
-      </c>
-      <c r="B91" t="n">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>948</v>
-      </c>
-      <c r="B92" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>960</v>
-      </c>
-      <c r="B93" t="n">
-        <v>-0.19</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>972</v>
-      </c>
-      <c r="B94" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>982</v>
-      </c>
-      <c r="B95" t="n">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>990</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>996</v>
-      </c>
-      <c r="B97" t="n">
-        <v>-0.1133</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>1003</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>1012</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>1026</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>1041</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>1052</v>
-      </c>
-      <c r="B102" t="n">
-        <v>-0.065</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>1059</v>
-      </c>
-      <c r="B103" t="n">
-        <v>-0.035</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>1075</v>
-      </c>
-      <c r="B104" t="n">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>1090</v>
-      </c>
-      <c r="B105" t="n">
-        <v>-0.28</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>1105</v>
-      </c>
-      <c r="B106" t="n">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>1117</v>
-      </c>
-      <c r="B107" t="n">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>1119</v>
-      </c>
-      <c r="B108" t="n">
-        <v>-0.335</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>1125</v>
-      </c>
-      <c r="B109" t="n">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>1137</v>
-      </c>
-      <c r="B110" t="n">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>1140</v>
-      </c>
-      <c r="B111" t="n">
-        <v>-0.39</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>1146</v>
-      </c>
-      <c r="B112" t="n">
-        <v>-0.19</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>1147</v>
-      </c>
-      <c r="B113" t="n">
-        <v>-0.41</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>1158</v>
-      </c>
-      <c r="B114" t="n">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>1172</v>
-      </c>
-      <c r="B115" t="n">
-        <v>-0.28</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>1182</v>
-      </c>
-      <c r="B116" t="n">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>1192</v>
-      </c>
-      <c r="B117" t="n">
-        <v>-0.08500000000000001</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>1203</v>
-      </c>
-      <c r="B118" t="n">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>1212</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.095</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>1222</v>
-      </c>
-      <c r="B120" t="n">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>1232</v>
-      </c>
-      <c r="B121" t="n">
-        <v>-0.025</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>1252</v>
-      </c>
-      <c r="B122" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>1262</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>1272</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>1306</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>1328</v>
-      </c>
-      <c r="B126" t="n">
-        <v>-0.39</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>1358</v>
-      </c>
-      <c r="B127" t="n">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>1364</v>
-      </c>
-      <c r="B128" t="n">
-        <v>-0.42</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>1369</v>
-      </c>
-      <c r="B129" t="n">
-        <v>-0.315</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>1381</v>
-      </c>
-      <c r="B130" t="n">
-        <v>-0.41</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>1388</v>
-      </c>
-      <c r="B131" t="n">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>1395</v>
-      </c>
-      <c r="B132" t="n">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>1403</v>
-      </c>
-      <c r="B133" t="n">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>1414</v>
-      </c>
-      <c r="B134" t="n">
-        <v>-0.39</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>1436</v>
-      </c>
-      <c r="B135" t="n">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>1444</v>
-      </c>
-      <c r="B136" t="n">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>1453</v>
-      </c>
-      <c r="B137" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>1464</v>
-      </c>
-      <c r="B138" t="n">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>1475</v>
-      </c>
-      <c r="B139" t="n">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>1487</v>
-      </c>
-      <c r="B140" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>1498</v>
-      </c>
-      <c r="B141" t="n">
-        <v>0.3166</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>1518</v>
-      </c>
-      <c r="B142" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>1527</v>
-      </c>
-      <c r="B143" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>1537</v>
-      </c>
-      <c r="B144" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>1547</v>
-      </c>
-      <c r="B145" t="n">
-        <v>0.285</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>1557</v>
-      </c>
-      <c r="B146" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>1567</v>
-      </c>
-      <c r="B147" t="n">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>1577</v>
-      </c>
-      <c r="B148" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>1587</v>
-      </c>
-      <c r="B149" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>1597</v>
-      </c>
-      <c r="B150" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>1607</v>
-      </c>
-      <c r="B151" t="n">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>1617</v>
-      </c>
-      <c r="B152" t="n">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>1637</v>
-      </c>
-      <c r="B153" t="n">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>1647</v>
-      </c>
-      <c r="B154" t="n">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>1657</v>
-      </c>
-      <c r="B155" t="n">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>1667</v>
-      </c>
-      <c r="B156" t="n">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>1677</v>
-      </c>
-      <c r="B157" t="n">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>1687</v>
-      </c>
-      <c r="B158" t="n">
-        <v>-0.025</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>1697</v>
-      </c>
-      <c r="B159" t="n">
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>1707</v>
-      </c>
-      <c r="B160" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>1717</v>
-      </c>
-      <c r="B161" t="n">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>1737</v>
-      </c>
-      <c r="B162" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>1747</v>
-      </c>
-      <c r="B163" t="n">
-        <v>0.0566</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>1757</v>
-      </c>
-      <c r="B164" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>1767</v>
-      </c>
-      <c r="B165" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>1777</v>
-      </c>
-      <c r="B166" t="n">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>1787</v>
-      </c>
-      <c r="B167" t="n">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>1797</v>
-      </c>
-      <c r="B168" t="n">
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>1807</v>
-      </c>
-      <c r="B169" t="n">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>1817</v>
-      </c>
-      <c r="B170" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>1827</v>
-      </c>
-      <c r="B171" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>1837</v>
-      </c>
-      <c r="B172" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>1847</v>
-      </c>
-      <c r="B173" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>1857</v>
-      </c>
-      <c r="B174" t="n">
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>1867</v>
-      </c>
-      <c r="B175" t="n">
-        <v>-0.36</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>1887</v>
-      </c>
-      <c r="B176" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>1897</v>
-      </c>
-      <c r="B177" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>1903</v>
-      </c>
-      <c r="B178" t="n">
-        <v>-0.24</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>1907</v>
-      </c>
-      <c r="B179" t="n">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>1915</v>
-      </c>
-      <c r="B180" t="n">
-        <v>-0.42</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>1927</v>
-      </c>
-      <c r="B181" t="n">
-        <v>-0.39</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>1938</v>
-      </c>
-      <c r="B182" t="n">
-        <v>-0.37</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>1948</v>
-      </c>
-      <c r="B183" t="n">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>1957</v>
-      </c>
-      <c r="B184" t="n">
-        <v>-0.63</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>1966</v>
-      </c>
-      <c r="B185" t="n">
-        <v>-0.66</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>1975</v>
-      </c>
-      <c r="B186" t="n">
-        <v>-0.67</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>1985</v>
-      </c>
-      <c r="B187" t="n">
-        <v>-0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>1995</v>
-      </c>
-      <c r="B188" t="n">
-        <v>-0.48</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>2006</v>
-      </c>
-      <c r="B189" t="n">
-        <v>-0.39</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B190" t="n">
-        <v>-0.24</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>2028</v>
-      </c>
-      <c r="B191" t="n">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>2038</v>
-      </c>
-      <c r="B192" t="n">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>2047</v>
-      </c>
-      <c r="B193" t="n">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>2055</v>
-      </c>
-      <c r="B194" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>2063</v>
-      </c>
-      <c r="B195" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>2070</v>
-      </c>
-      <c r="B196" t="n">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>2071</v>
-      </c>
-      <c r="B197" t="n">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>2078</v>
-      </c>
-      <c r="B198" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>2085</v>
-      </c>
-      <c r="B199" t="n">
-        <v>-0.155</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>2092</v>
-      </c>
-      <c r="B200" t="n">
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>2100</v>
-      </c>
-      <c r="B201" t="n">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>2116</v>
-      </c>
-      <c r="B202" t="n">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>2123</v>
-      </c>
-      <c r="B203" t="n">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>2124</v>
-      </c>
-      <c r="B204" t="n">
-        <v>-0.28</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>2133</v>
-      </c>
-      <c r="B205" t="n">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>2141</v>
-      </c>
-      <c r="B206" t="n">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>2142</v>
-      </c>
-      <c r="B207" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>2150</v>
-      </c>
-      <c r="B208" t="n">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>2159</v>
-      </c>
-      <c r="B209" t="n">
-        <v>-0.27</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>2167</v>
-      </c>
-      <c r="B210" t="n">
-        <v>-0.41</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>2175</v>
-      </c>
-      <c r="B211" t="n">
-        <v>-0.445</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>2184</v>
-      </c>
-      <c r="B212" t="n">
-        <v>-0.41</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>2193</v>
-      </c>
-      <c r="B213" t="n">
-        <v>-0.475</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>2203</v>
-      </c>
-      <c r="B214" t="n">
-        <v>-0.44</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>2213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>2224</v>
-      </c>
-      <c r="B216" t="n">
-        <v>-0.205</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>2235</v>
-      </c>
-      <c r="B217" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>2246</v>
-      </c>
-      <c r="B218" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>2257</v>
-      </c>
-      <c r="B219" t="n">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>2267</v>
-      </c>
-      <c r="B220" t="n">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>2276</v>
-      </c>
-      <c r="B221" t="n">
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>2285</v>
-      </c>
-      <c r="B222" t="n">
-        <v>-0.58</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>2294</v>
-      </c>
-      <c r="B223" t="n">
-        <v>-0.53</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>2303</v>
-      </c>
-      <c r="B224" t="n">
-        <v>-0.59</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>2312</v>
-      </c>
-      <c r="B225" t="n">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
-        <v>2322</v>
-      </c>
-      <c r="B226" t="n">
-        <v>-0.245</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="n">
-        <v>2334</v>
-      </c>
-      <c r="B227" t="n">
-        <v>-0.27</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
-        <v>2347</v>
-      </c>
-      <c r="B228" t="n">
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
-        <v>2361</v>
-      </c>
-      <c r="B229" t="n">
-        <v>-0.245</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v>2375</v>
-      </c>
-      <c r="B230" t="n">
-        <v>-0.405</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>2388</v>
-      </c>
-      <c r="B231" t="n">
-        <v>-0.325</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>2399</v>
-      </c>
-      <c r="B232" t="n">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="n">
-        <v>2410</v>
-      </c>
-      <c r="B233" t="n">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
-        <v>2420</v>
-      </c>
-      <c r="B234" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>2430</v>
-      </c>
-      <c r="B235" t="n">
-        <v>-0.2166</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>2440</v>
-      </c>
-      <c r="B236" t="n">
-        <v>-0.125</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>2450</v>
-      </c>
-      <c r="B237" t="n">
-        <v>-0.48</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>2461</v>
-      </c>
-      <c r="B238" t="n">
-        <v>-0.47</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>2472</v>
-      </c>
-      <c r="B239" t="n">
-        <v>-0.27</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>2484</v>
-      </c>
-      <c r="B240" t="n">
-        <v>-0.65</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>2495</v>
-      </c>
-      <c r="B241" t="n">
-        <v>-0.7</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="n">
-        <v>2506</v>
-      </c>
-      <c r="B242" t="n">
-        <v>-0.58</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="n">
-        <v>2514</v>
-      </c>
-      <c r="B243" t="n">
-        <v>-0.79</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="n">
-        <v>2517</v>
-      </c>
-      <c r="B244" t="n">
-        <v>-0.37</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="n">
-        <v>2527</v>
-      </c>
-      <c r="B245" t="n">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="n">
-        <v>2537</v>
-      </c>
-      <c r="B246" t="n">
-        <v>-0.595</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="n">
-        <v>2542</v>
-      </c>
-      <c r="B247" t="n">
-        <v>-0.64</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="n">
-        <v>2546</v>
-      </c>
-      <c r="B248" t="n">
-        <v>-0.44</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
-        <v>2552</v>
-      </c>
-      <c r="B249" t="n">
-        <v>-0.51</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
-        <v>2562</v>
-      </c>
-      <c r="B250" t="n">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="n">
-        <v>2571</v>
-      </c>
-      <c r="B251" t="n">
-        <v>-0.49</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="n">
-        <v>2583</v>
-      </c>
-      <c r="B252" t="n">
-        <v>-0.57</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="n">
-        <v>2592</v>
-      </c>
-      <c r="B253" t="n">
-        <v>-0.64</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="n">
-        <v>2602</v>
-      </c>
-      <c r="B254" t="n">
-        <v>-0.85</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="n">
-        <v>2612</v>
-      </c>
-      <c r="B255" t="n">
-        <v>-0.9</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="n">
-        <v>2622</v>
-      </c>
-      <c r="B256" t="n">
-        <v>-0.72</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="n">
-        <v>2632</v>
-      </c>
-      <c r="B257" t="n">
-        <v>-0.79</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="n">
-        <v>2652</v>
-      </c>
-      <c r="B258" t="n">
-        <v>-0.53</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="n">
-        <v>2662</v>
-      </c>
-      <c r="B259" t="n">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="n">
-        <v>2674</v>
-      </c>
-      <c r="B260" t="n">
-        <v>-0.52</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="n">
-        <v>2676</v>
-      </c>
-      <c r="B261" t="n">
-        <v>-0.45</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="n">
-        <v>2681</v>
-      </c>
-      <c r="B262" t="n">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="n">
-        <v>2686</v>
-      </c>
-      <c r="B263" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="n">
-        <v>2696</v>
-      </c>
-      <c r="B264" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="n">
-        <v>2706</v>
-      </c>
-      <c r="B265" t="n">
-        <v>-0.37</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="n">
-        <v>2726</v>
-      </c>
-      <c r="B266" t="n">
-        <v>-0.57</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="n">
-        <v>2736</v>
-      </c>
-      <c r="B267" t="n">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
-        <v>2746</v>
-      </c>
-      <c r="B268" t="n">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="n">
-        <v>2756</v>
-      </c>
-      <c r="B269" t="n">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="n">
-        <v>2766</v>
-      </c>
-      <c r="B270" t="n">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="n">
-        <v>2776</v>
-      </c>
-      <c r="B271" t="n">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="n">
-        <v>2786</v>
-      </c>
-      <c r="B272" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="n">
-        <v>2796</v>
-      </c>
-      <c r="B273" t="n">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="n">
-        <v>2806</v>
-      </c>
-      <c r="B274" t="n">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="n">
-        <v>2815</v>
-      </c>
-      <c r="B275" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="n">
-        <v>2826</v>
-      </c>
-      <c r="B276" t="n">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="n">
-        <v>2837</v>
-      </c>
-      <c r="B277" t="n">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="n">
-        <v>2847</v>
-      </c>
-      <c r="B278" t="n">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="n">
-        <v>2856</v>
-      </c>
-      <c r="B279" t="n">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="n">
-        <v>2866</v>
-      </c>
-      <c r="B280" t="n">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="n">
-        <v>2875</v>
-      </c>
-      <c r="B281" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="n">
-        <v>2885</v>
-      </c>
-      <c r="B282" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="n">
-        <v>2896</v>
-      </c>
-      <c r="B283" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="n">
-        <v>2906</v>
-      </c>
-      <c r="B284" t="n">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="n">
-        <v>2916</v>
-      </c>
-      <c r="B285" t="n">
-        <v>-0.14</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="n">
-        <v>2925</v>
-      </c>
-      <c r="B286" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="n">
-        <v>2936</v>
-      </c>
-      <c r="B287" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
-        <v>2953</v>
-      </c>
-      <c r="B288" t="n">
-        <v>-0.58</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="n">
-        <v>2956</v>
-      </c>
-      <c r="B289" t="n">
-        <v>-0.53</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="n">
-        <v>2968</v>
-      </c>
-      <c r="B290" t="n">
-        <v>-0.45</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="n">
-        <v>2979</v>
-      </c>
-      <c r="B291" t="n">
-        <v>-0.24</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="n">
-        <v>2989</v>
-      </c>
-      <c r="B292" t="n">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="n">
-        <v>2999</v>
-      </c>
-      <c r="B293" t="n">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="n">
-        <v>3010</v>
-      </c>
-      <c r="B294" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="n">
-        <v>3021</v>
-      </c>
-      <c r="B295" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="n">
-        <v>3031</v>
-      </c>
-      <c r="B296" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="n">
-        <v>3040</v>
-      </c>
-      <c r="B297" t="n">
-        <v>-0.015</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="n">
-        <v>3047</v>
-      </c>
-      <c r="B298" t="n">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="n">
-        <v>3055</v>
-      </c>
-      <c r="B299" t="n">
-        <v>-0.015</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="n">
-        <v>3065</v>
-      </c>
-      <c r="B300" t="n">
-        <v>-0.275</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="n">
-        <v>3077</v>
-      </c>
-      <c r="B301" t="n">
-        <v>-0.355</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="n">
-        <v>3090</v>
-      </c>
-      <c r="B302" t="n">
-        <v>-0.155</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="n">
-        <v>3103</v>
-      </c>
-      <c r="B303" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="n">
-        <v>3124</v>
-      </c>
-      <c r="B304" t="n">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="n">
-        <v>3134</v>
-      </c>
-      <c r="B305" t="n">
-        <v>-0.36</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="n">
-        <v>3145</v>
-      </c>
-      <c r="B306" t="n">
-        <v>-0.44</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="n">
-        <v>3156</v>
-      </c>
-      <c r="B307" t="n">
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="n">
-        <v>3167</v>
-      </c>
-      <c r="B308" t="n">
-        <v>-0.315</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="n">
-        <v>3177</v>
-      </c>
-      <c r="B309" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="n">
-        <v>3188</v>
-      </c>
-      <c r="B310" t="n">
-        <v>-0.39</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="n">
-        <v>3199</v>
-      </c>
-      <c r="B311" t="n">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="n">
-        <v>3212</v>
-      </c>
-      <c r="B312" t="n">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="n">
-        <v>3224</v>
-      </c>
-      <c r="B313" t="n">
-        <v>-0.135</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="n">
-        <v>3234</v>
-      </c>
-      <c r="B314" t="n">
-        <v>-0.005</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="n">
-        <v>3241</v>
-      </c>
-      <c r="B315" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="n">
-        <v>3247</v>
-      </c>
-      <c r="B316" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="n">
-        <v>3252</v>
-      </c>
-      <c r="B317" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="n">
-        <v>3258</v>
-      </c>
-      <c r="B318" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="n">
-        <v>3262</v>
-      </c>
-      <c r="B319" t="n">
-        <v>0.055</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="n">
-        <v>3269</v>
-      </c>
-      <c r="B320" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="n">
-        <v>3278</v>
-      </c>
-      <c r="B321" t="n">
-        <v>0.165</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="n">
-        <v>3290</v>
-      </c>
-      <c r="B322" t="n">
-        <v>-0.245</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="n">
-        <v>3307</v>
-      </c>
-      <c r="B323" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="n">
-        <v>3328</v>
-      </c>
-      <c r="B324" t="n">
-        <v>-0.295</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="n">
-        <v>3344</v>
-      </c>
-      <c r="B325" t="n">
-        <v>-0.44</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="n">
-        <v>3353</v>
-      </c>
-      <c r="B326" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="n">
-        <v>3361</v>
-      </c>
-      <c r="B327" t="n">
-        <v>-0.38</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="n">
-        <v>3367</v>
-      </c>
-      <c r="B328" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="n">
-        <v>3373</v>
-      </c>
-      <c r="B329" t="n">
-        <v>-0.385</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="n">
-        <v>3380</v>
-      </c>
-      <c r="B330" t="n">
-        <v>-0.215</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="n">
-        <v>3388</v>
-      </c>
-      <c r="B331" t="n">
-        <v>-0.205</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="n">
-        <v>3399</v>
-      </c>
-      <c r="B332" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="n">
-        <v>3415</v>
-      </c>
-      <c r="B333" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="n">
-        <v>3437</v>
-      </c>
-      <c r="B334" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="n">
-        <v>3463</v>
-      </c>
-      <c r="B335" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="n">
-        <v>3478</v>
-      </c>
-      <c r="B336" t="n">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="n">
-        <v>3485</v>
-      </c>
-      <c r="B337" t="n">
-        <v>-0.42</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="n">
-        <v>3489</v>
-      </c>
-      <c r="B338" t="n">
-        <v>-0.475</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="n">
-        <v>3493</v>
-      </c>
-      <c r="B339" t="n">
-        <v>-0.545</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="n">
-        <v>3497</v>
-      </c>
-      <c r="B340" t="n">
-        <v>-0.65</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="n">
-        <v>3501</v>
-      </c>
-      <c r="B341" t="n">
-        <v>-0.59</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="n">
-        <v>3506</v>
-      </c>
-      <c r="B342" t="n">
-        <v>-0.24</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="n">
-        <v>3513</v>
-      </c>
-      <c r="B343" t="n">
-        <v>-0.465</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="n">
-        <v>3527</v>
-      </c>
-      <c r="B344" t="n">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="n">
-        <v>3545</v>
-      </c>
-      <c r="B345" t="n">
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="n">
-        <v>3560</v>
-      </c>
-      <c r="B346" t="n">
-        <v>-0.225</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="n">
-        <v>3571</v>
-      </c>
-      <c r="B347" t="n">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="n">
-        <v>3578</v>
-      </c>
-      <c r="B348" t="n">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="n">
-        <v>3586</v>
-      </c>
-      <c r="B349" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="n">
-        <v>3593</v>
-      </c>
-      <c r="B350" t="n">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="n">
-        <v>3601</v>
-      </c>
-      <c r="B351" t="n">
-        <v>-0.095</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="n">
-        <v>3611</v>
-      </c>
-      <c r="B352" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="n">
-        <v>3622</v>
-      </c>
-      <c r="B353" t="n">
-        <v>-0.235</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="n">
-        <v>3635</v>
-      </c>
-      <c r="B354" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="n">
-        <v>3651</v>
-      </c>
-      <c r="B355" t="n">
-        <v>-0.45</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="n">
-        <v>3652</v>
-      </c>
-      <c r="B356" t="n">
-        <v>-0.425</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="n">
-        <v>3674</v>
-      </c>
-      <c r="B357" t="n">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="n">
-        <v>3685</v>
-      </c>
-      <c r="B358" t="n">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="n">
-        <v>3696</v>
-      </c>
-      <c r="B359" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="n">
-        <v>3708</v>
-      </c>
-      <c r="B360" t="n">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="n">
-        <v>3720</v>
-      </c>
-      <c r="B361" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="n">
-        <v>3729</v>
-      </c>
-      <c r="B362" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="n">
-        <v>3738</v>
-      </c>
-      <c r="B363" t="n">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="n">
-        <v>3747</v>
-      </c>
-      <c r="B364" t="n">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="n">
-        <v>3754</v>
-      </c>
-      <c r="B365" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="n">
-        <v>3761</v>
-      </c>
-      <c r="B366" t="n">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="n">
-        <v>3767</v>
-      </c>
-      <c r="B367" t="n">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="n">
-        <v>3773</v>
-      </c>
-      <c r="B368" t="n">
-        <v>-0.46</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="n">
-        <v>3780</v>
-      </c>
-      <c r="B369" t="n">
-        <v>-0.49</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="n">
-        <v>3789</v>
-      </c>
-      <c r="B370" t="n">
-        <v>-0.49</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="n">
-        <v>3804</v>
-      </c>
-      <c r="B371" t="n">
-        <v>-0.48</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="n">
-        <v>3822</v>
-      </c>
-      <c r="B372" t="n">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="n">
-        <v>3836</v>
-      </c>
-      <c r="B373" t="n">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="n">
-        <v>3846</v>
-      </c>
-      <c r="B374" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="n">
-        <v>3856</v>
-      </c>
-      <c r="B375" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="n">
-        <v>3865</v>
-      </c>
-      <c r="B376" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="n">
-        <v>3874</v>
-      </c>
-      <c r="B377" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="n">
-        <v>3882</v>
-      </c>
-      <c r="B378" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="n">
-        <v>3890</v>
-      </c>
-      <c r="B379" t="n">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="n">
-        <v>3898</v>
-      </c>
-      <c r="B380" t="n">
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="n">
-        <v>3908</v>
-      </c>
-      <c r="B381" t="n">
-        <v>-0.28</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="n">
-        <v>3915</v>
-      </c>
-      <c r="B382" t="n">
-        <v>-0.38</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="n">
-        <v>3918</v>
-      </c>
-      <c r="B383" t="n">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="n">
-        <v>3922</v>
-      </c>
-      <c r="B384" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="n">
-        <v>3928</v>
-      </c>
-      <c r="B385" t="n">
-        <v>-0.21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18214,7 +18244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/test/ws_ex_5.0.xlsx
+++ b/test/ws_ex_5.0.xlsx
@@ -10,9 +10,9 @@
     <sheet name="Information" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Serie Id-0CF20BB2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Serie Id-34AE56JH" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Serie Id-67GH89BG" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Serie Id-56TY87JG" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="INTERPOLATION Id-C2F3FDA9" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Serie Id-56TY87JG" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="INTERPOLATION Id-C2F3FDA9" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Serie Id-67GH89BG" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Serie Id-282C5609" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,13 +427,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="36" customWidth="1" min="1" max="1"/>
+    <col width="136" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>Created with PyAnalyseries v5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        This file has been created with PyAnalySeries software.
+        Do not modify or accordingly with documentation 
+        </t>
         </is>
       </c>
     </row>
@@ -11714,3169 +11725,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>depthODP849 [cm]</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>d18Oforams-b</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Y axis inverted</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>History</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Serie</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>a serie</t>
-        </is>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>#e377c2</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>17</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3.49</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>28</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.31</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>45</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4.17</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>55</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4.69</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>69</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4.92</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>89</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4.675</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>109</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4.59</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>118</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4.55</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>128</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4.72</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>139</v>
-      </c>
-      <c r="B12" t="n">
-        <v>4.36</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>150</v>
-      </c>
-      <c r="B13" t="n">
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>161</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4.63</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>185</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4.47</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>194</v>
-      </c>
-      <c r="B16" t="n">
-        <v>4.45</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>217</v>
-      </c>
-      <c r="B17" t="n">
-        <v>4.54</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>231</v>
-      </c>
-      <c r="B18" t="n">
-        <v>4.57</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>243</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4.27</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>249</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4.14</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>256</v>
-      </c>
-      <c r="B21" t="n">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>271</v>
-      </c>
-      <c r="B22" t="n">
-        <v>4.32</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>275</v>
-      </c>
-      <c r="B23" t="n">
-        <v>3.95</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>280</v>
-      </c>
-      <c r="B24" t="n">
-        <v>3.83</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>289</v>
-      </c>
-      <c r="B25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>292</v>
-      </c>
-      <c r="B26" t="n">
-        <v>3.93</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>296</v>
-      </c>
-      <c r="B27" t="n">
-        <v>3.71</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>306</v>
-      </c>
-      <c r="B28" t="n">
-        <v>3.845</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>315</v>
-      </c>
-      <c r="B29" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>324</v>
-      </c>
-      <c r="B30" t="n">
-        <v>3.95</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>333</v>
-      </c>
-      <c r="B31" t="n">
-        <v>3.82</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>344</v>
-      </c>
-      <c r="B32" t="n">
-        <v>3.745</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>355</v>
-      </c>
-      <c r="B33" t="n">
-        <v>3.78</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>366</v>
-      </c>
-      <c r="B34" t="n">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>377</v>
-      </c>
-      <c r="B35" t="n">
-        <v>3.23</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>388</v>
-      </c>
-      <c r="B36" t="n">
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>398</v>
-      </c>
-      <c r="B37" t="n">
-        <v>3.27</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>408</v>
-      </c>
-      <c r="B38" t="n">
-        <v>4.13</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>418</v>
-      </c>
-      <c r="B39" t="n">
-        <v>4.42</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>428</v>
-      </c>
-      <c r="B40" t="n">
-        <v>4.85</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>437</v>
-      </c>
-      <c r="B41" t="n">
-        <v>4.795</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>447</v>
-      </c>
-      <c r="B42" t="n">
-        <v>4.98</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>456</v>
-      </c>
-      <c r="B43" t="n">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>467</v>
-      </c>
-      <c r="B44" t="n">
-        <v>4.74</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>477</v>
-      </c>
-      <c r="B45" t="n">
-        <v>4.76</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>488</v>
-      </c>
-      <c r="B46" t="n">
-        <v>4.67</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>498</v>
-      </c>
-      <c r="B47" t="n">
-        <v>4.38</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>508</v>
-      </c>
-      <c r="B48" t="n">
-        <v>4.72</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>518</v>
-      </c>
-      <c r="B49" t="n">
-        <v>4.57</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>528</v>
-      </c>
-      <c r="B50" t="n">
-        <v>4.81</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>538</v>
-      </c>
-      <c r="B51" t="n">
-        <v>4.49</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>548</v>
-      </c>
-      <c r="B52" t="n">
-        <v>4.21</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>558</v>
-      </c>
-      <c r="B53" t="n">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>568</v>
-      </c>
-      <c r="B54" t="n">
-        <v>3.98</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>578</v>
-      </c>
-      <c r="B55" t="n">
-        <v>4.38</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>589</v>
-      </c>
-      <c r="B56" t="n">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>599</v>
-      </c>
-      <c r="B57" t="n">
-        <v>4.16</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>608</v>
-      </c>
-      <c r="B58" t="n">
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>618</v>
-      </c>
-      <c r="B59" t="n">
-        <v>4.35</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>628</v>
-      </c>
-      <c r="B60" t="n">
-        <v>4.45</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>638</v>
-      </c>
-      <c r="B61" t="n">
-        <v>4.17</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>647</v>
-      </c>
-      <c r="B62" t="n">
-        <v>3.885</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>657</v>
-      </c>
-      <c r="B63" t="n">
-        <v>3.91</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>667</v>
-      </c>
-      <c r="B64" t="n">
-        <v>3.705</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>677</v>
-      </c>
-      <c r="B65" t="n">
-        <v>3.635</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>688</v>
-      </c>
-      <c r="B66" t="n">
-        <v>3.72</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>698</v>
-      </c>
-      <c r="B67" t="n">
-        <v>3.89</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>708</v>
-      </c>
-      <c r="B68" t="n">
-        <v>3.61</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>718</v>
-      </c>
-      <c r="B69" t="n">
-        <v>3.64</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>728</v>
-      </c>
-      <c r="B70" t="n">
-        <v>3.97</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>737</v>
-      </c>
-      <c r="B71" t="n">
-        <v>4.05</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>747</v>
-      </c>
-      <c r="B72" t="n">
-        <v>4.07</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>756</v>
-      </c>
-      <c r="B73" t="n">
-        <v>4.265</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>757</v>
-      </c>
-      <c r="B74" t="n">
-        <v>4.39</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>766</v>
-      </c>
-      <c r="B75" t="n">
-        <v>3.97</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>778</v>
-      </c>
-      <c r="B76" t="n">
-        <v>4.03</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>791</v>
-      </c>
-      <c r="B77" t="n">
-        <v>3.51</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>803</v>
-      </c>
-      <c r="B78" t="n">
-        <v>3.76</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>813</v>
-      </c>
-      <c r="B79" t="n">
-        <v>4.06</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>824</v>
-      </c>
-      <c r="B80" t="n">
-        <v>4.51</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>835</v>
-      </c>
-      <c r="B81" t="n">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>849</v>
-      </c>
-      <c r="B82" t="n">
-        <v>4.32</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>861</v>
-      </c>
-      <c r="B83" t="n">
-        <v>4.335</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>871</v>
-      </c>
-      <c r="B84" t="n">
-        <v>4.43</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>879</v>
-      </c>
-      <c r="B85" t="n">
-        <v>4.32</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>889</v>
-      </c>
-      <c r="B86" t="n">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>895</v>
-      </c>
-      <c r="B87" t="n">
-        <v>4.49</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>905</v>
-      </c>
-      <c r="B88" t="n">
-        <v>4.33</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>916</v>
-      </c>
-      <c r="B89" t="n">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>927</v>
-      </c>
-      <c r="B90" t="n">
-        <v>3.895</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>937</v>
-      </c>
-      <c r="B91" t="n">
-        <v>4.13</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>948</v>
-      </c>
-      <c r="B92" t="n">
-        <v>4.06</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>960</v>
-      </c>
-      <c r="B93" t="n">
-        <v>4.13</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>972</v>
-      </c>
-      <c r="B94" t="n">
-        <v>3.72</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>982</v>
-      </c>
-      <c r="B95" t="n">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>990</v>
-      </c>
-      <c r="B96" t="n">
-        <v>3.695</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>996</v>
-      </c>
-      <c r="B97" t="n">
-        <v>3.8333</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>1003</v>
-      </c>
-      <c r="B98" t="n">
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>1012</v>
-      </c>
-      <c r="B99" t="n">
-        <v>3.54</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>1026</v>
-      </c>
-      <c r="B100" t="n">
-        <v>3.43</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>1041</v>
-      </c>
-      <c r="B101" t="n">
-        <v>3.21</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>1052</v>
-      </c>
-      <c r="B102" t="n">
-        <v>3.285</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>1059</v>
-      </c>
-      <c r="B103" t="n">
-        <v>3.33</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>1075</v>
-      </c>
-      <c r="B104" t="n">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>1090</v>
-      </c>
-      <c r="B105" t="n">
-        <v>4.15</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>1105</v>
-      </c>
-      <c r="B106" t="n">
-        <v>4.58</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>1117</v>
-      </c>
-      <c r="B107" t="n">
-        <v>4.62</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>1119</v>
-      </c>
-      <c r="B108" t="n">
-        <v>4.67</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>1125</v>
-      </c>
-      <c r="B109" t="n">
-        <v>4.72</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>1137</v>
-      </c>
-      <c r="B110" t="n">
-        <v>4.405</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>1140</v>
-      </c>
-      <c r="B111" t="n">
-        <v>4.195</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>1146</v>
-      </c>
-      <c r="B112" t="n">
-        <v>4.57</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>1147</v>
-      </c>
-      <c r="B113" t="n">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>1158</v>
-      </c>
-      <c r="B114" t="n">
-        <v>4.395</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>1172</v>
-      </c>
-      <c r="B115" t="n">
-        <v>4.325</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>1182</v>
-      </c>
-      <c r="B116" t="n">
-        <v>4.055</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>1192</v>
-      </c>
-      <c r="B117" t="n">
-        <v>4.165</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>1203</v>
-      </c>
-      <c r="B118" t="n">
-        <v>4.04</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>1212</v>
-      </c>
-      <c r="B119" t="n">
-        <v>4.095</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>1222</v>
-      </c>
-      <c r="B120" t="n">
-        <v>4.02</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>1232</v>
-      </c>
-      <c r="B121" t="n">
-        <v>4.02</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>1252</v>
-      </c>
-      <c r="B122" t="n">
-        <v>3.97</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>1262</v>
-      </c>
-      <c r="B123" t="n">
-        <v>3.23</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>1272</v>
-      </c>
-      <c r="B124" t="n">
-        <v>3.145</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>1306</v>
-      </c>
-      <c r="B125" t="n">
-        <v>3.52</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>1328</v>
-      </c>
-      <c r="B126" t="n">
-        <v>4.83</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>1358</v>
-      </c>
-      <c r="B127" t="n">
-        <v>4.86</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>1364</v>
-      </c>
-      <c r="B128" t="n">
-        <v>5.05</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>1369</v>
-      </c>
-      <c r="B129" t="n">
-        <v>4.815</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>1381</v>
-      </c>
-      <c r="B130" t="n">
-        <v>5.07</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>1388</v>
-      </c>
-      <c r="B131" t="n">
-        <v>4.66</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>1395</v>
-      </c>
-      <c r="B132" t="n">
-        <v>4.54</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>1403</v>
-      </c>
-      <c r="B133" t="n">
-        <v>4.51</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>1414</v>
-      </c>
-      <c r="B134" t="n">
-        <v>4.615</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>1436</v>
-      </c>
-      <c r="B135" t="n">
-        <v>4.51</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>1444</v>
-      </c>
-      <c r="B136" t="n">
-        <v>4.26</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>1453</v>
-      </c>
-      <c r="B137" t="n">
-        <v>4.27</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>1464</v>
-      </c>
-      <c r="B138" t="n">
-        <v>4.06</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>1475</v>
-      </c>
-      <c r="B139" t="n">
-        <v>4.43</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>1487</v>
-      </c>
-      <c r="B140" t="n">
-        <v>3.82</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>1498</v>
-      </c>
-      <c r="B141" t="n">
-        <v>3.7333</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>1518</v>
-      </c>
-      <c r="B142" t="n">
-        <v>3.62</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>1527</v>
-      </c>
-      <c r="B143" t="n">
-        <v>3.59</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>1537</v>
-      </c>
-      <c r="B144" t="n">
-        <v>3.805</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>1547</v>
-      </c>
-      <c r="B145" t="n">
-        <v>3.87</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>1557</v>
-      </c>
-      <c r="B146" t="n">
-        <v>4.01</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>1567</v>
-      </c>
-      <c r="B147" t="n">
-        <v>3.875</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>1577</v>
-      </c>
-      <c r="B148" t="n">
-        <v>4.36</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>1587</v>
-      </c>
-      <c r="B149" t="n">
-        <v>4.11</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>1597</v>
-      </c>
-      <c r="B150" t="n">
-        <v>4.13</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>1607</v>
-      </c>
-      <c r="B151" t="n">
-        <v>3.97</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>1617</v>
-      </c>
-      <c r="B152" t="n">
-        <v>4.01</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>1637</v>
-      </c>
-      <c r="B153" t="n">
-        <v>4.36</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>1647</v>
-      </c>
-      <c r="B154" t="n">
-        <v>4.17</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>1657</v>
-      </c>
-      <c r="B155" t="n">
-        <v>4.31</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>1667</v>
-      </c>
-      <c r="B156" t="n">
-        <v>4.515</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>1677</v>
-      </c>
-      <c r="B157" t="n">
-        <v>4.23</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>1687</v>
-      </c>
-      <c r="B158" t="n">
-        <v>4.315</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>1697</v>
-      </c>
-      <c r="B159" t="n">
-        <v>4.07</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>1707</v>
-      </c>
-      <c r="B160" t="n">
-        <v>4.09</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>1717</v>
-      </c>
-      <c r="B161" t="n">
-        <v>3.79</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>1737</v>
-      </c>
-      <c r="B162" t="n">
-        <v>3.42</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>1747</v>
-      </c>
-      <c r="B163" t="n">
-        <v>3.6233</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>1757</v>
-      </c>
-      <c r="B164" t="n">
-        <v>3.87</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>1767</v>
-      </c>
-      <c r="B165" t="n">
-        <v>4.22</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>1777</v>
-      </c>
-      <c r="B166" t="n">
-        <v>4.03</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>1787</v>
-      </c>
-      <c r="B167" t="n">
-        <v>4.03</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>1797</v>
-      </c>
-      <c r="B168" t="n">
-        <v>3.88</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>1807</v>
-      </c>
-      <c r="B169" t="n">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>1817</v>
-      </c>
-      <c r="B170" t="n">
-        <v>4.12</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>1827</v>
-      </c>
-      <c r="B171" t="n">
-        <v>4.11</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>1837</v>
-      </c>
-      <c r="B172" t="n">
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>1847</v>
-      </c>
-      <c r="B173" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>1857</v>
-      </c>
-      <c r="B174" t="n">
-        <v>3.08</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>1867</v>
-      </c>
-      <c r="B175" t="n">
-        <v>4.57</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>1887</v>
-      </c>
-      <c r="B176" t="n">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>1897</v>
-      </c>
-      <c r="B177" t="n">
-        <v>4.88</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>1903</v>
-      </c>
-      <c r="B178" t="n">
-        <v>4.83</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>1907</v>
-      </c>
-      <c r="B179" t="n">
-        <v>4.65</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>1915</v>
-      </c>
-      <c r="B180" t="n">
-        <v>4.83</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>1927</v>
-      </c>
-      <c r="B181" t="n">
-        <v>4.78</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>1938</v>
-      </c>
-      <c r="B182" t="n">
-        <v>4.66</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>1948</v>
-      </c>
-      <c r="B183" t="n">
-        <v>4.45</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>1957</v>
-      </c>
-      <c r="B184" t="n">
-        <v>4.52</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>1966</v>
-      </c>
-      <c r="B185" t="n">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>1975</v>
-      </c>
-      <c r="B186" t="n">
-        <v>4.445</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>1985</v>
-      </c>
-      <c r="B187" t="n">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>1995</v>
-      </c>
-      <c r="B188" t="n">
-        <v>4.33</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>2006</v>
-      </c>
-      <c r="B189" t="n">
-        <v>4.22</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B190" t="n">
-        <v>4.31</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>2028</v>
-      </c>
-      <c r="B191" t="n">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>2038</v>
-      </c>
-      <c r="B192" t="n">
-        <v>3.88</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>2047</v>
-      </c>
-      <c r="B193" t="n">
-        <v>3.72</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>2055</v>
-      </c>
-      <c r="B194" t="n">
-        <v>3.66</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>2063</v>
-      </c>
-      <c r="B195" t="n">
-        <v>3.51</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>2070</v>
-      </c>
-      <c r="B196" t="n">
-        <v>3.84</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>2071</v>
-      </c>
-      <c r="B197" t="n">
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>2078</v>
-      </c>
-      <c r="B198" t="n">
-        <v>3.68</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>2085</v>
-      </c>
-      <c r="B199" t="n">
-        <v>3.955</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>2092</v>
-      </c>
-      <c r="B200" t="n">
-        <v>4.15</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>2100</v>
-      </c>
-      <c r="B201" t="n">
-        <v>4.34</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>2116</v>
-      </c>
-      <c r="B202" t="n">
-        <v>4.33</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>2123</v>
-      </c>
-      <c r="B203" t="n">
-        <v>4.37</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>2124</v>
-      </c>
-      <c r="B204" t="n">
-        <v>4.38</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>2133</v>
-      </c>
-      <c r="B205" t="n">
-        <v>4.37</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>2141</v>
-      </c>
-      <c r="B206" t="n">
-        <v>4.24</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>2142</v>
-      </c>
-      <c r="B207" t="n">
-        <v>4.06</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>2150</v>
-      </c>
-      <c r="B208" t="n">
-        <v>4.26</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>2159</v>
-      </c>
-      <c r="B209" t="n">
-        <v>4.22</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>2167</v>
-      </c>
-      <c r="B210" t="n">
-        <v>4.17</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>2175</v>
-      </c>
-      <c r="B211" t="n">
-        <v>4.105</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>2184</v>
-      </c>
-      <c r="B212" t="n">
-        <v>4.215</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>2193</v>
-      </c>
-      <c r="B213" t="n">
-        <v>4.34</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>2203</v>
-      </c>
-      <c r="B214" t="n">
-        <v>4.18</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>2213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>4.03</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>2224</v>
-      </c>
-      <c r="B216" t="n">
-        <v>3.82</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>2235</v>
-      </c>
-      <c r="B217" t="n">
-        <v>3.64</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>2246</v>
-      </c>
-      <c r="B218" t="n">
-        <v>3.555</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>2257</v>
-      </c>
-      <c r="B219" t="n">
-        <v>3.51</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>2267</v>
-      </c>
-      <c r="B220" t="n">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>2276</v>
-      </c>
-      <c r="B221" t="n">
-        <v>3.97</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>2285</v>
-      </c>
-      <c r="B222" t="n">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>2294</v>
-      </c>
-      <c r="B223" t="n">
-        <v>4.62</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>2303</v>
-      </c>
-      <c r="B224" t="n">
-        <v>4.36</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>2312</v>
-      </c>
-      <c r="B225" t="n">
-        <v>4.31</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
-        <v>2322</v>
-      </c>
-      <c r="B226" t="n">
-        <v>4.065</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="n">
-        <v>2334</v>
-      </c>
-      <c r="B227" t="n">
-        <v>4.075</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
-        <v>2347</v>
-      </c>
-      <c r="B228" t="n">
-        <v>3.87</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
-        <v>2361</v>
-      </c>
-      <c r="B229" t="n">
-        <v>3.77</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v>2375</v>
-      </c>
-      <c r="B230" t="n">
-        <v>3.785</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>2388</v>
-      </c>
-      <c r="B231" t="n">
-        <v>3.815</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>2399</v>
-      </c>
-      <c r="B232" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="n">
-        <v>2410</v>
-      </c>
-      <c r="B233" t="n">
-        <v>3.52</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
-        <v>2420</v>
-      </c>
-      <c r="B234" t="n">
-        <v>3.76</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>2430</v>
-      </c>
-      <c r="B235" t="n">
-        <v>3.49</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>2440</v>
-      </c>
-      <c r="B236" t="n">
-        <v>3.535</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>2450</v>
-      </c>
-      <c r="B237" t="n">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>2461</v>
-      </c>
-      <c r="B238" t="n">
-        <v>3.77</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>2472</v>
-      </c>
-      <c r="B239" t="n">
-        <v>3.55</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>2484</v>
-      </c>
-      <c r="B240" t="n">
-        <v>4.575</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>2495</v>
-      </c>
-      <c r="B241" t="n">
-        <v>4.61</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="n">
-        <v>2506</v>
-      </c>
-      <c r="B242" t="n">
-        <v>4.58</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="n">
-        <v>2514</v>
-      </c>
-      <c r="B243" t="n">
-        <v>4.39</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="n">
-        <v>2517</v>
-      </c>
-      <c r="B244" t="n">
-        <v>4.39</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="n">
-        <v>2527</v>
-      </c>
-      <c r="B245" t="n">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="n">
-        <v>2537</v>
-      </c>
-      <c r="B246" t="n">
-        <v>4.56</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="n">
-        <v>2542</v>
-      </c>
-      <c r="B247" t="n">
-        <v>4.33</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="n">
-        <v>2546</v>
-      </c>
-      <c r="B248" t="n">
-        <v>4.48</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
-        <v>2552</v>
-      </c>
-      <c r="B249" t="n">
-        <v>4.15</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
-        <v>2562</v>
-      </c>
-      <c r="B250" t="n">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="n">
-        <v>2571</v>
-      </c>
-      <c r="B251" t="n">
-        <v>4.19</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="n">
-        <v>2583</v>
-      </c>
-      <c r="B252" t="n">
-        <v>4.06</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="n">
-        <v>2592</v>
-      </c>
-      <c r="B253" t="n">
-        <v>4.13</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="n">
-        <v>2602</v>
-      </c>
-      <c r="B254" t="n">
-        <v>4.17</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="n">
-        <v>2612</v>
-      </c>
-      <c r="B255" t="n">
-        <v>4.31</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="n">
-        <v>2622</v>
-      </c>
-      <c r="B256" t="n">
-        <v>4.28</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="n">
-        <v>2632</v>
-      </c>
-      <c r="B257" t="n">
-        <v>4.27</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="n">
-        <v>2652</v>
-      </c>
-      <c r="B258" t="n">
-        <v>4.02</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="n">
-        <v>2662</v>
-      </c>
-      <c r="B259" t="n">
-        <v>3.78</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="n">
-        <v>2674</v>
-      </c>
-      <c r="B260" t="n">
-        <v>3.77</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="n">
-        <v>2676</v>
-      </c>
-      <c r="B261" t="n">
-        <v>4.14</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="n">
-        <v>2681</v>
-      </c>
-      <c r="B262" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="n">
-        <v>2686</v>
-      </c>
-      <c r="B263" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="n">
-        <v>2696</v>
-      </c>
-      <c r="B264" t="n">
-        <v>3.54</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="n">
-        <v>2706</v>
-      </c>
-      <c r="B265" t="n">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="n">
-        <v>2726</v>
-      </c>
-      <c r="B266" t="n">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="n">
-        <v>2736</v>
-      </c>
-      <c r="B267" t="n">
-        <v>4.27</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
-        <v>2746</v>
-      </c>
-      <c r="B268" t="n">
-        <v>4.34</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="n">
-        <v>2756</v>
-      </c>
-      <c r="B269" t="n">
-        <v>4.17</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="n">
-        <v>2766</v>
-      </c>
-      <c r="B270" t="n">
-        <v>3.87</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="n">
-        <v>2776</v>
-      </c>
-      <c r="B271" t="n">
-        <v>3.71</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="n">
-        <v>2786</v>
-      </c>
-      <c r="B272" t="n">
-        <v>3.76</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="n">
-        <v>2796</v>
-      </c>
-      <c r="B273" t="n">
-        <v>4.06</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="n">
-        <v>2806</v>
-      </c>
-      <c r="B274" t="n">
-        <v>4.15</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="n">
-        <v>2815</v>
-      </c>
-      <c r="B275" t="n">
-        <v>3.87</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="n">
-        <v>2826</v>
-      </c>
-      <c r="B276" t="n">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="n">
-        <v>2837</v>
-      </c>
-      <c r="B277" t="n">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="n">
-        <v>2847</v>
-      </c>
-      <c r="B278" t="n">
-        <v>4.09</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="n">
-        <v>2856</v>
-      </c>
-      <c r="B279" t="n">
-        <v>4.28</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="n">
-        <v>2866</v>
-      </c>
-      <c r="B280" t="n">
-        <v>4.04</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="n">
-        <v>2875</v>
-      </c>
-      <c r="B281" t="n">
-        <v>3.89</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="n">
-        <v>2885</v>
-      </c>
-      <c r="B282" t="n">
-        <v>3.69</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="n">
-        <v>2896</v>
-      </c>
-      <c r="B283" t="n">
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="n">
-        <v>2906</v>
-      </c>
-      <c r="B284" t="n">
-        <v>3.88</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="n">
-        <v>2916</v>
-      </c>
-      <c r="B285" t="n">
-        <v>3.92</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="n">
-        <v>2925</v>
-      </c>
-      <c r="B286" t="n">
-        <v>4.31</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="n">
-        <v>2936</v>
-      </c>
-      <c r="B287" t="n">
-        <v>4.43</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
-        <v>2953</v>
-      </c>
-      <c r="B288" t="n">
-        <v>4.18</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="n">
-        <v>2956</v>
-      </c>
-      <c r="B289" t="n">
-        <v>4.19</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="n">
-        <v>2968</v>
-      </c>
-      <c r="B290" t="n">
-        <v>4.07</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="n">
-        <v>2979</v>
-      </c>
-      <c r="B291" t="n">
-        <v>3.97</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="n">
-        <v>2989</v>
-      </c>
-      <c r="B292" t="n">
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="n">
-        <v>2999</v>
-      </c>
-      <c r="B293" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="n">
-        <v>3010</v>
-      </c>
-      <c r="B294" t="n">
-        <v>3.165</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="n">
-        <v>3021</v>
-      </c>
-      <c r="B295" t="n">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="n">
-        <v>3031</v>
-      </c>
-      <c r="B296" t="n">
-        <v>3.62</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="n">
-        <v>3040</v>
-      </c>
-      <c r="B297" t="n">
-        <v>3.705</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="n">
-        <v>3047</v>
-      </c>
-      <c r="B298" t="n">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="n">
-        <v>3055</v>
-      </c>
-      <c r="B299" t="n">
-        <v>3.985</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="n">
-        <v>3065</v>
-      </c>
-      <c r="B300" t="n">
-        <v>3.82</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="n">
-        <v>3077</v>
-      </c>
-      <c r="B301" t="n">
-        <v>4.225</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="n">
-        <v>3090</v>
-      </c>
-      <c r="B302" t="n">
-        <v>3.97</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="n">
-        <v>3103</v>
-      </c>
-      <c r="B303" t="n">
-        <v>3.92</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="n">
-        <v>3124</v>
-      </c>
-      <c r="B304" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="n">
-        <v>3134</v>
-      </c>
-      <c r="B305" t="n">
-        <v>4.04</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="n">
-        <v>3145</v>
-      </c>
-      <c r="B306" t="n">
-        <v>4.28</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="n">
-        <v>3156</v>
-      </c>
-      <c r="B307" t="n">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="n">
-        <v>3167</v>
-      </c>
-      <c r="B308" t="n">
-        <v>4.185</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="n">
-        <v>3177</v>
-      </c>
-      <c r="B309" t="n">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="n">
-        <v>3188</v>
-      </c>
-      <c r="B310" t="n">
-        <v>4.17</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="n">
-        <v>3199</v>
-      </c>
-      <c r="B311" t="n">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="n">
-        <v>3212</v>
-      </c>
-      <c r="B312" t="n">
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="n">
-        <v>3224</v>
-      </c>
-      <c r="B313" t="n">
-        <v>3.73</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="n">
-        <v>3234</v>
-      </c>
-      <c r="B314" t="n">
-        <v>3.78</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="n">
-        <v>3241</v>
-      </c>
-      <c r="B315" t="n">
-        <v>3.675</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="n">
-        <v>3247</v>
-      </c>
-      <c r="B316" t="n">
-        <v>3.545</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="n">
-        <v>3252</v>
-      </c>
-      <c r="B317" t="n">
-        <v>3.55</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="n">
-        <v>3258</v>
-      </c>
-      <c r="B318" t="n">
-        <v>3.62</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="n">
-        <v>3262</v>
-      </c>
-      <c r="B319" t="n">
-        <v>3.86</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="n">
-        <v>3269</v>
-      </c>
-      <c r="B320" t="n">
-        <v>3.95</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="n">
-        <v>3278</v>
-      </c>
-      <c r="B321" t="n">
-        <v>3.825</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="n">
-        <v>3290</v>
-      </c>
-      <c r="B322" t="n">
-        <v>3.94</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="n">
-        <v>3307</v>
-      </c>
-      <c r="B323" t="n">
-        <v>4.155</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="n">
-        <v>3328</v>
-      </c>
-      <c r="B324" t="n">
-        <v>4.37</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="n">
-        <v>3344</v>
-      </c>
-      <c r="B325" t="n">
-        <v>4.49</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="n">
-        <v>3353</v>
-      </c>
-      <c r="B326" t="n">
-        <v>4.385</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="n">
-        <v>3361</v>
-      </c>
-      <c r="B327" t="n">
-        <v>4.18</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="n">
-        <v>3367</v>
-      </c>
-      <c r="B328" t="n">
-        <v>4.19</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="n">
-        <v>3373</v>
-      </c>
-      <c r="B329" t="n">
-        <v>4.03</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="n">
-        <v>3380</v>
-      </c>
-      <c r="B330" t="n">
-        <v>4.055</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="n">
-        <v>3388</v>
-      </c>
-      <c r="B331" t="n">
-        <v>3.92</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="n">
-        <v>3399</v>
-      </c>
-      <c r="B332" t="n">
-        <v>3.45</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="n">
-        <v>3415</v>
-      </c>
-      <c r="B333" t="n">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="n">
-        <v>3437</v>
-      </c>
-      <c r="B334" t="n">
-        <v>3.32</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="n">
-        <v>3463</v>
-      </c>
-      <c r="B335" t="n">
-        <v>3.36</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="n">
-        <v>3478</v>
-      </c>
-      <c r="B336" t="n">
-        <v>3.43</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="n">
-        <v>3485</v>
-      </c>
-      <c r="B337" t="n">
-        <v>3.665</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="n">
-        <v>3489</v>
-      </c>
-      <c r="B338" t="n">
-        <v>4.005</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="n">
-        <v>3493</v>
-      </c>
-      <c r="B339" t="n">
-        <v>4.265</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="n">
-        <v>3497</v>
-      </c>
-      <c r="B340" t="n">
-        <v>4.29</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="n">
-        <v>3501</v>
-      </c>
-      <c r="B341" t="n">
-        <v>4.26</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="n">
-        <v>3506</v>
-      </c>
-      <c r="B342" t="n">
-        <v>4.05</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="n">
-        <v>3513</v>
-      </c>
-      <c r="B343" t="n">
-        <v>3.98</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="n">
-        <v>3527</v>
-      </c>
-      <c r="B344" t="n">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="n">
-        <v>3545</v>
-      </c>
-      <c r="B345" t="n">
-        <v>4.05</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="n">
-        <v>3560</v>
-      </c>
-      <c r="B346" t="n">
-        <v>3.76</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="n">
-        <v>3571</v>
-      </c>
-      <c r="B347" t="n">
-        <v>3.69</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="n">
-        <v>3578</v>
-      </c>
-      <c r="B348" t="n">
-        <v>3.71</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="n">
-        <v>3586</v>
-      </c>
-      <c r="B349" t="n">
-        <v>3.68</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="n">
-        <v>3593</v>
-      </c>
-      <c r="B350" t="n">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="n">
-        <v>3601</v>
-      </c>
-      <c r="B351" t="n">
-        <v>3.715</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="n">
-        <v>3611</v>
-      </c>
-      <c r="B352" t="n">
-        <v>3.64</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="n">
-        <v>3622</v>
-      </c>
-      <c r="B353" t="n">
-        <v>3.665</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="n">
-        <v>3635</v>
-      </c>
-      <c r="B354" t="n">
-        <v>3.88</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="n">
-        <v>3651</v>
-      </c>
-      <c r="B355" t="n">
-        <v>4.21</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="n">
-        <v>3652</v>
-      </c>
-      <c r="B356" t="n">
-        <v>4.22</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="n">
-        <v>3674</v>
-      </c>
-      <c r="B357" t="n">
-        <v>4.06</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="n">
-        <v>3685</v>
-      </c>
-      <c r="B358" t="n">
-        <v>3.91</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="n">
-        <v>3696</v>
-      </c>
-      <c r="B359" t="n">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="n">
-        <v>3708</v>
-      </c>
-      <c r="B360" t="n">
-        <v>3.97</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="n">
-        <v>3720</v>
-      </c>
-      <c r="B361" t="n">
-        <v>3.82</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="n">
-        <v>3729</v>
-      </c>
-      <c r="B362" t="n">
-        <v>3.71</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="n">
-        <v>3738</v>
-      </c>
-      <c r="B363" t="n">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="n">
-        <v>3747</v>
-      </c>
-      <c r="B364" t="n">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="n">
-        <v>3754</v>
-      </c>
-      <c r="B365" t="n">
-        <v>4.01</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="n">
-        <v>3761</v>
-      </c>
-      <c r="B366" t="n">
-        <v>4.18</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="n">
-        <v>3767</v>
-      </c>
-      <c r="B367" t="n">
-        <v>4.19</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="n">
-        <v>3773</v>
-      </c>
-      <c r="B368" t="n">
-        <v>4.18</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="n">
-        <v>3780</v>
-      </c>
-      <c r="B369" t="n">
-        <v>4.07</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="n">
-        <v>3789</v>
-      </c>
-      <c r="B370" t="n">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="n">
-        <v>3804</v>
-      </c>
-      <c r="B371" t="n">
-        <v>4.14</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="n">
-        <v>3822</v>
-      </c>
-      <c r="B372" t="n">
-        <v>4.04</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="n">
-        <v>3836</v>
-      </c>
-      <c r="B373" t="n">
-        <v>4.05</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="n">
-        <v>3846</v>
-      </c>
-      <c r="B374" t="n">
-        <v>3.52</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="n">
-        <v>3856</v>
-      </c>
-      <c r="B375" t="n">
-        <v>3.49</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="n">
-        <v>3865</v>
-      </c>
-      <c r="B376" t="n">
-        <v>3.41</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="n">
-        <v>3874</v>
-      </c>
-      <c r="B377" t="n">
-        <v>3.52</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="n">
-        <v>3882</v>
-      </c>
-      <c r="B378" t="n">
-        <v>3.445</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="n">
-        <v>3890</v>
-      </c>
-      <c r="B379" t="n">
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="n">
-        <v>3898</v>
-      </c>
-      <c r="B380" t="n">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="n">
-        <v>3908</v>
-      </c>
-      <c r="B381" t="n">
-        <v>4.27</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="n">
-        <v>3915</v>
-      </c>
-      <c r="B382" t="n">
-        <v>4.18</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="n">
-        <v>3918</v>
-      </c>
-      <c r="B383" t="n">
-        <v>4.16</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="n">
-        <v>3922</v>
-      </c>
-      <c r="B384" t="n">
-        <v>4.06</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="n">
-        <v>3928</v>
-      </c>
-      <c r="B385" t="n">
-        <v>4.12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H385"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="21" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
@@ -18026,7 +14874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18237,6 +15085,3169 @@
       </c>
       <c r="B18" t="n">
         <v>641.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H385"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>depthODP849 [cm]</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>d18Oforams-b</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Y axis inverted</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>History</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Serie</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>a serie</t>
+        </is>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>#e377c2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>28</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>45</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>55</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>69</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>89</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4.675</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>109</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>118</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>128</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>139</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>150</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>161</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>185</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>194</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>217</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>231</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>243</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>249</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>256</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>271</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>275</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>280</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>289</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>292</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>296</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>306</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.845</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>315</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>324</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>333</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>344</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3.745</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>355</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>366</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>377</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>388</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>398</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>408</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>418</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>428</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>437</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4.795</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>447</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>456</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>467</v>
+      </c>
+      <c r="B44" t="n">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>477</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>488</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>498</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>508</v>
+      </c>
+      <c r="B48" t="n">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>518</v>
+      </c>
+      <c r="B49" t="n">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>528</v>
+      </c>
+      <c r="B50" t="n">
+        <v>4.81</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>538</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>548</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>558</v>
+      </c>
+      <c r="B53" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>568</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>578</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>589</v>
+      </c>
+      <c r="B56" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>599</v>
+      </c>
+      <c r="B57" t="n">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>608</v>
+      </c>
+      <c r="B58" t="n">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>618</v>
+      </c>
+      <c r="B59" t="n">
+        <v>4.35</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>628</v>
+      </c>
+      <c r="B60" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>638</v>
+      </c>
+      <c r="B61" t="n">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>647</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3.885</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>657</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>667</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3.705</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>677</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3.635</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>688</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>698</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>708</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>718</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>728</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>737</v>
+      </c>
+      <c r="B71" t="n">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>747</v>
+      </c>
+      <c r="B72" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>756</v>
+      </c>
+      <c r="B73" t="n">
+        <v>4.265</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>757</v>
+      </c>
+      <c r="B74" t="n">
+        <v>4.39</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>766</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>778</v>
+      </c>
+      <c r="B76" t="n">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>791</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>803</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>813</v>
+      </c>
+      <c r="B79" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>824</v>
+      </c>
+      <c r="B80" t="n">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>835</v>
+      </c>
+      <c r="B81" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>849</v>
+      </c>
+      <c r="B82" t="n">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>861</v>
+      </c>
+      <c r="B83" t="n">
+        <v>4.335</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>871</v>
+      </c>
+      <c r="B84" t="n">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>879</v>
+      </c>
+      <c r="B85" t="n">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>889</v>
+      </c>
+      <c r="B86" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>895</v>
+      </c>
+      <c r="B87" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>905</v>
+      </c>
+      <c r="B88" t="n">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>916</v>
+      </c>
+      <c r="B89" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>927</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3.895</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>937</v>
+      </c>
+      <c r="B91" t="n">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>948</v>
+      </c>
+      <c r="B92" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>960</v>
+      </c>
+      <c r="B93" t="n">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>972</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>982</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>990</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3.695</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>996</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3.8333</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B99" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B100" t="n">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1052</v>
+      </c>
+      <c r="B102" t="n">
+        <v>3.285</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1059</v>
+      </c>
+      <c r="B103" t="n">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1075</v>
+      </c>
+      <c r="B104" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B105" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B107" t="n">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B108" t="n">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B109" t="n">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1137</v>
+      </c>
+      <c r="B110" t="n">
+        <v>4.405</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B111" t="n">
+        <v>4.195</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1146</v>
+      </c>
+      <c r="B112" t="n">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1147</v>
+      </c>
+      <c r="B113" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1158</v>
+      </c>
+      <c r="B114" t="n">
+        <v>4.395</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1172</v>
+      </c>
+      <c r="B115" t="n">
+        <v>4.325</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1182</v>
+      </c>
+      <c r="B116" t="n">
+        <v>4.055</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1192</v>
+      </c>
+      <c r="B117" t="n">
+        <v>4.165</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B118" t="n">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B119" t="n">
+        <v>4.095</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1222</v>
+      </c>
+      <c r="B120" t="n">
+        <v>4.02</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1232</v>
+      </c>
+      <c r="B121" t="n">
+        <v>4.02</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1252</v>
+      </c>
+      <c r="B122" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1262</v>
+      </c>
+      <c r="B123" t="n">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1272</v>
+      </c>
+      <c r="B124" t="n">
+        <v>3.145</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1306</v>
+      </c>
+      <c r="B125" t="n">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1328</v>
+      </c>
+      <c r="B126" t="n">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1358</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4.86</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1364</v>
+      </c>
+      <c r="B128" t="n">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4.815</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1381</v>
+      </c>
+      <c r="B130" t="n">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1388</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1395</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1403</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1414</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4.615</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1436</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1444</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1453</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1464</v>
+      </c>
+      <c r="B138" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1475</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1487</v>
+      </c>
+      <c r="B140" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1498</v>
+      </c>
+      <c r="B141" t="n">
+        <v>3.7333</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1518</v>
+      </c>
+      <c r="B142" t="n">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1527</v>
+      </c>
+      <c r="B143" t="n">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1537</v>
+      </c>
+      <c r="B144" t="n">
+        <v>3.805</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1547</v>
+      </c>
+      <c r="B145" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1557</v>
+      </c>
+      <c r="B146" t="n">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1567</v>
+      </c>
+      <c r="B147" t="n">
+        <v>3.875</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1577</v>
+      </c>
+      <c r="B148" t="n">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1587</v>
+      </c>
+      <c r="B149" t="n">
+        <v>4.11</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1597</v>
+      </c>
+      <c r="B150" t="n">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1607</v>
+      </c>
+      <c r="B151" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1617</v>
+      </c>
+      <c r="B152" t="n">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1637</v>
+      </c>
+      <c r="B153" t="n">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1647</v>
+      </c>
+      <c r="B154" t="n">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1657</v>
+      </c>
+      <c r="B155" t="n">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1667</v>
+      </c>
+      <c r="B156" t="n">
+        <v>4.515</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1677</v>
+      </c>
+      <c r="B157" t="n">
+        <v>4.23</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1687</v>
+      </c>
+      <c r="B158" t="n">
+        <v>4.315</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1697</v>
+      </c>
+      <c r="B159" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1707</v>
+      </c>
+      <c r="B160" t="n">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>1717</v>
+      </c>
+      <c r="B161" t="n">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1737</v>
+      </c>
+      <c r="B162" t="n">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1747</v>
+      </c>
+      <c r="B163" t="n">
+        <v>3.6233</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1757</v>
+      </c>
+      <c r="B164" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1767</v>
+      </c>
+      <c r="B165" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1777</v>
+      </c>
+      <c r="B166" t="n">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1787</v>
+      </c>
+      <c r="B167" t="n">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1797</v>
+      </c>
+      <c r="B168" t="n">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1807</v>
+      </c>
+      <c r="B169" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1817</v>
+      </c>
+      <c r="B170" t="n">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1827</v>
+      </c>
+      <c r="B171" t="n">
+        <v>4.11</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1837</v>
+      </c>
+      <c r="B172" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1847</v>
+      </c>
+      <c r="B173" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1857</v>
+      </c>
+      <c r="B174" t="n">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1867</v>
+      </c>
+      <c r="B175" t="n">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1887</v>
+      </c>
+      <c r="B176" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1897</v>
+      </c>
+      <c r="B177" t="n">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1903</v>
+      </c>
+      <c r="B178" t="n">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1907</v>
+      </c>
+      <c r="B179" t="n">
+        <v>4.65</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1915</v>
+      </c>
+      <c r="B180" t="n">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1927</v>
+      </c>
+      <c r="B181" t="n">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B182" t="n">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1948</v>
+      </c>
+      <c r="B183" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1957</v>
+      </c>
+      <c r="B184" t="n">
+        <v>4.52</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1966</v>
+      </c>
+      <c r="B185" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1975</v>
+      </c>
+      <c r="B186" t="n">
+        <v>4.445</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1985</v>
+      </c>
+      <c r="B187" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B188" t="n">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B189" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B190" t="n">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B191" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B192" t="n">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>2047</v>
+      </c>
+      <c r="B193" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>2055</v>
+      </c>
+      <c r="B194" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>2063</v>
+      </c>
+      <c r="B195" t="n">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>2070</v>
+      </c>
+      <c r="B196" t="n">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>2071</v>
+      </c>
+      <c r="B197" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>2078</v>
+      </c>
+      <c r="B198" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>2085</v>
+      </c>
+      <c r="B199" t="n">
+        <v>3.955</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>2092</v>
+      </c>
+      <c r="B200" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B201" t="n">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>2116</v>
+      </c>
+      <c r="B202" t="n">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>2123</v>
+      </c>
+      <c r="B203" t="n">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>2124</v>
+      </c>
+      <c r="B204" t="n">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>2133</v>
+      </c>
+      <c r="B205" t="n">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>2141</v>
+      </c>
+      <c r="B206" t="n">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>2142</v>
+      </c>
+      <c r="B207" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>2150</v>
+      </c>
+      <c r="B208" t="n">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>2159</v>
+      </c>
+      <c r="B209" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>2167</v>
+      </c>
+      <c r="B210" t="n">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>2175</v>
+      </c>
+      <c r="B211" t="n">
+        <v>4.105</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>2184</v>
+      </c>
+      <c r="B212" t="n">
+        <v>4.215</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>2193</v>
+      </c>
+      <c r="B213" t="n">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>2203</v>
+      </c>
+      <c r="B214" t="n">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>2213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>2224</v>
+      </c>
+      <c r="B216" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>2235</v>
+      </c>
+      <c r="B217" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>2246</v>
+      </c>
+      <c r="B218" t="n">
+        <v>3.555</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>2257</v>
+      </c>
+      <c r="B219" t="n">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>2267</v>
+      </c>
+      <c r="B220" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>2276</v>
+      </c>
+      <c r="B221" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>2285</v>
+      </c>
+      <c r="B222" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>2294</v>
+      </c>
+      <c r="B223" t="n">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>2303</v>
+      </c>
+      <c r="B224" t="n">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>2312</v>
+      </c>
+      <c r="B225" t="n">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>2322</v>
+      </c>
+      <c r="B226" t="n">
+        <v>4.065</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>2334</v>
+      </c>
+      <c r="B227" t="n">
+        <v>4.075</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>2347</v>
+      </c>
+      <c r="B228" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>2361</v>
+      </c>
+      <c r="B229" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>2375</v>
+      </c>
+      <c r="B230" t="n">
+        <v>3.785</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>2388</v>
+      </c>
+      <c r="B231" t="n">
+        <v>3.815</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>2399</v>
+      </c>
+      <c r="B232" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>2410</v>
+      </c>
+      <c r="B233" t="n">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>2420</v>
+      </c>
+      <c r="B234" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>2430</v>
+      </c>
+      <c r="B235" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>2440</v>
+      </c>
+      <c r="B236" t="n">
+        <v>3.535</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>2450</v>
+      </c>
+      <c r="B237" t="n">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>2461</v>
+      </c>
+      <c r="B238" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>2472</v>
+      </c>
+      <c r="B239" t="n">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>2484</v>
+      </c>
+      <c r="B240" t="n">
+        <v>4.575</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>2495</v>
+      </c>
+      <c r="B241" t="n">
+        <v>4.61</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>2506</v>
+      </c>
+      <c r="B242" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>2514</v>
+      </c>
+      <c r="B243" t="n">
+        <v>4.39</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>2517</v>
+      </c>
+      <c r="B244" t="n">
+        <v>4.39</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>2527</v>
+      </c>
+      <c r="B245" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>2537</v>
+      </c>
+      <c r="B246" t="n">
+        <v>4.56</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>2542</v>
+      </c>
+      <c r="B247" t="n">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>2546</v>
+      </c>
+      <c r="B248" t="n">
+        <v>4.48</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>2552</v>
+      </c>
+      <c r="B249" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>2562</v>
+      </c>
+      <c r="B250" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>2571</v>
+      </c>
+      <c r="B251" t="n">
+        <v>4.19</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>2583</v>
+      </c>
+      <c r="B252" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>2592</v>
+      </c>
+      <c r="B253" t="n">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>2602</v>
+      </c>
+      <c r="B254" t="n">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>2612</v>
+      </c>
+      <c r="B255" t="n">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>2622</v>
+      </c>
+      <c r="B256" t="n">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>2632</v>
+      </c>
+      <c r="B257" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>2652</v>
+      </c>
+      <c r="B258" t="n">
+        <v>4.02</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>2662</v>
+      </c>
+      <c r="B259" t="n">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>2674</v>
+      </c>
+      <c r="B260" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>2676</v>
+      </c>
+      <c r="B261" t="n">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>2681</v>
+      </c>
+      <c r="B262" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>2686</v>
+      </c>
+      <c r="B263" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>2696</v>
+      </c>
+      <c r="B264" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>2706</v>
+      </c>
+      <c r="B265" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>2726</v>
+      </c>
+      <c r="B266" t="n">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>2736</v>
+      </c>
+      <c r="B267" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>2746</v>
+      </c>
+      <c r="B268" t="n">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>2756</v>
+      </c>
+      <c r="B269" t="n">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>2766</v>
+      </c>
+      <c r="B270" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>2776</v>
+      </c>
+      <c r="B271" t="n">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>2786</v>
+      </c>
+      <c r="B272" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>2796</v>
+      </c>
+      <c r="B273" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>2806</v>
+      </c>
+      <c r="B274" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>2815</v>
+      </c>
+      <c r="B275" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>2826</v>
+      </c>
+      <c r="B276" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>2837</v>
+      </c>
+      <c r="B277" t="n">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>2847</v>
+      </c>
+      <c r="B278" t="n">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>2856</v>
+      </c>
+      <c r="B279" t="n">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>2866</v>
+      </c>
+      <c r="B280" t="n">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>2875</v>
+      </c>
+      <c r="B281" t="n">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>2885</v>
+      </c>
+      <c r="B282" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>2896</v>
+      </c>
+      <c r="B283" t="n">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>2906</v>
+      </c>
+      <c r="B284" t="n">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>2916</v>
+      </c>
+      <c r="B285" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>2925</v>
+      </c>
+      <c r="B286" t="n">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>2936</v>
+      </c>
+      <c r="B287" t="n">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>2953</v>
+      </c>
+      <c r="B288" t="n">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>2956</v>
+      </c>
+      <c r="B289" t="n">
+        <v>4.19</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>2968</v>
+      </c>
+      <c r="B290" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>2979</v>
+      </c>
+      <c r="B291" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>2989</v>
+      </c>
+      <c r="B292" t="n">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>2999</v>
+      </c>
+      <c r="B293" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>3010</v>
+      </c>
+      <c r="B294" t="n">
+        <v>3.165</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>3021</v>
+      </c>
+      <c r="B295" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>3031</v>
+      </c>
+      <c r="B296" t="n">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>3040</v>
+      </c>
+      <c r="B297" t="n">
+        <v>3.705</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>3047</v>
+      </c>
+      <c r="B298" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>3055</v>
+      </c>
+      <c r="B299" t="n">
+        <v>3.985</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>3065</v>
+      </c>
+      <c r="B300" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>3077</v>
+      </c>
+      <c r="B301" t="n">
+        <v>4.225</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>3090</v>
+      </c>
+      <c r="B302" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>3103</v>
+      </c>
+      <c r="B303" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>3124</v>
+      </c>
+      <c r="B304" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>3134</v>
+      </c>
+      <c r="B305" t="n">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>3145</v>
+      </c>
+      <c r="B306" t="n">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>3156</v>
+      </c>
+      <c r="B307" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>3167</v>
+      </c>
+      <c r="B308" t="n">
+        <v>4.185</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>3177</v>
+      </c>
+      <c r="B309" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>3188</v>
+      </c>
+      <c r="B310" t="n">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>3199</v>
+      </c>
+      <c r="B311" t="n">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>3212</v>
+      </c>
+      <c r="B312" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>3224</v>
+      </c>
+      <c r="B313" t="n">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>3234</v>
+      </c>
+      <c r="B314" t="n">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>3241</v>
+      </c>
+      <c r="B315" t="n">
+        <v>3.675</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>3247</v>
+      </c>
+      <c r="B316" t="n">
+        <v>3.545</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>3252</v>
+      </c>
+      <c r="B317" t="n">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>3258</v>
+      </c>
+      <c r="B318" t="n">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>3262</v>
+      </c>
+      <c r="B319" t="n">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>3269</v>
+      </c>
+      <c r="B320" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>3278</v>
+      </c>
+      <c r="B321" t="n">
+        <v>3.825</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>3290</v>
+      </c>
+      <c r="B322" t="n">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>3307</v>
+      </c>
+      <c r="B323" t="n">
+        <v>4.155</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>3328</v>
+      </c>
+      <c r="B324" t="n">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>3344</v>
+      </c>
+      <c r="B325" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>3353</v>
+      </c>
+      <c r="B326" t="n">
+        <v>4.385</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>3361</v>
+      </c>
+      <c r="B327" t="n">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>3367</v>
+      </c>
+      <c r="B328" t="n">
+        <v>4.19</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>3373</v>
+      </c>
+      <c r="B329" t="n">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>3380</v>
+      </c>
+      <c r="B330" t="n">
+        <v>4.055</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>3388</v>
+      </c>
+      <c r="B331" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>3399</v>
+      </c>
+      <c r="B332" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>3415</v>
+      </c>
+      <c r="B333" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>3437</v>
+      </c>
+      <c r="B334" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>3463</v>
+      </c>
+      <c r="B335" t="n">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>3478</v>
+      </c>
+      <c r="B336" t="n">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>3485</v>
+      </c>
+      <c r="B337" t="n">
+        <v>3.665</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>3489</v>
+      </c>
+      <c r="B338" t="n">
+        <v>4.005</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>3493</v>
+      </c>
+      <c r="B339" t="n">
+        <v>4.265</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>3497</v>
+      </c>
+      <c r="B340" t="n">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>3501</v>
+      </c>
+      <c r="B341" t="n">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>3506</v>
+      </c>
+      <c r="B342" t="n">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>3513</v>
+      </c>
+      <c r="B343" t="n">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>3527</v>
+      </c>
+      <c r="B344" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>3545</v>
+      </c>
+      <c r="B345" t="n">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>3560</v>
+      </c>
+      <c r="B346" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>3571</v>
+      </c>
+      <c r="B347" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>3578</v>
+      </c>
+      <c r="B348" t="n">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>3586</v>
+      </c>
+      <c r="B349" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>3593</v>
+      </c>
+      <c r="B350" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>3601</v>
+      </c>
+      <c r="B351" t="n">
+        <v>3.715</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>3611</v>
+      </c>
+      <c r="B352" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>3622</v>
+      </c>
+      <c r="B353" t="n">
+        <v>3.665</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>3635</v>
+      </c>
+      <c r="B354" t="n">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>3651</v>
+      </c>
+      <c r="B355" t="n">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>3652</v>
+      </c>
+      <c r="B356" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>3674</v>
+      </c>
+      <c r="B357" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>3685</v>
+      </c>
+      <c r="B358" t="n">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>3696</v>
+      </c>
+      <c r="B359" t="n">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>3708</v>
+      </c>
+      <c r="B360" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>3720</v>
+      </c>
+      <c r="B361" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>3729</v>
+      </c>
+      <c r="B362" t="n">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>3738</v>
+      </c>
+      <c r="B363" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>3747</v>
+      </c>
+      <c r="B364" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>3754</v>
+      </c>
+      <c r="B365" t="n">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>3761</v>
+      </c>
+      <c r="B366" t="n">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>3767</v>
+      </c>
+      <c r="B367" t="n">
+        <v>4.19</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>3773</v>
+      </c>
+      <c r="B368" t="n">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>3780</v>
+      </c>
+      <c r="B369" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>3789</v>
+      </c>
+      <c r="B370" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>3804</v>
+      </c>
+      <c r="B371" t="n">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>3822</v>
+      </c>
+      <c r="B372" t="n">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>3836</v>
+      </c>
+      <c r="B373" t="n">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>3846</v>
+      </c>
+      <c r="B374" t="n">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>3856</v>
+      </c>
+      <c r="B375" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>3865</v>
+      </c>
+      <c r="B376" t="n">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>3874</v>
+      </c>
+      <c r="B377" t="n">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>3882</v>
+      </c>
+      <c r="B378" t="n">
+        <v>3.445</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>3890</v>
+      </c>
+      <c r="B379" t="n">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>3898</v>
+      </c>
+      <c r="B380" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>3908</v>
+      </c>
+      <c r="B381" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>3915</v>
+      </c>
+      <c r="B382" t="n">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>3918</v>
+      </c>
+      <c r="B383" t="n">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>3922</v>
+      </c>
+      <c r="B384" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>3928</v>
+      </c>
+      <c r="B385" t="n">
+        <v>4.12</v>
       </c>
     </row>
   </sheetData>

--- a/test/ws_ex_5.0.xlsx
+++ b/test/ws_ex_5.0.xlsx
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="Information" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Serie Id-0CF20BB2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Serie Id-34AE56JH" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Serie Id-56TY87JG" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="INTERPOLATION Id-C2F3FDA9" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Serie Id-56TY87JG" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="INTERPOLATION Id-C2F3FDA9" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Serie Id-34AE56JH" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Serie Id-67GH89BG" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Serie Id-282C5609" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,7 +427,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="136" customWidth="1" min="1" max="1"/>
+    <col width="60" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -441,10 +441,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-        This file has been created with PyAnalySeries software.
-        Do not modify or accordingly with documentation 
-        </t>
+          <t>This file has been created with PyAnalySeries software.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Do not modify or accordingly with documentation.</t>
         </is>
       </c>
     </row>
@@ -8566,3165 +8570,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>depthODP849 [cm]</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>d13Cforams-b</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Y axis inverted</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>History</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Serie</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>#2f3dff</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>17</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>28</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>45</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>55</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.27</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>69</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>89</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>109</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>118</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>128</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>139</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>150</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>161</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>185</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>194</v>
-      </c>
-      <c r="B16" t="n">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>217</v>
-      </c>
-      <c r="B17" t="n">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>231</v>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>243</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>249</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>256</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>271</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>275</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>280</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>289</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>292</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>296</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>306</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.045</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>315</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>324</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>333</v>
-      </c>
-      <c r="B31" t="n">
-        <v>-0.08500000000000001</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>344</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>355</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>366</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>377</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>388</v>
-      </c>
-      <c r="B36" t="n">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>398</v>
-      </c>
-      <c r="B37" t="n">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>408</v>
-      </c>
-      <c r="B38" t="n">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>418</v>
-      </c>
-      <c r="B39" t="n">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>428</v>
-      </c>
-      <c r="B40" t="n">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>437</v>
-      </c>
-      <c r="B41" t="n">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>447</v>
-      </c>
-      <c r="B42" t="n">
-        <v>-0.38</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>456</v>
-      </c>
-      <c r="B43" t="n">
-        <v>-0.45</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>467</v>
-      </c>
-      <c r="B44" t="n">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>477</v>
-      </c>
-      <c r="B45" t="n">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>488</v>
-      </c>
-      <c r="B46" t="n">
-        <v>-0.19</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>498</v>
-      </c>
-      <c r="B47" t="n">
-        <v>-0.46</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>508</v>
-      </c>
-      <c r="B48" t="n">
-        <v>-0.39</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>518</v>
-      </c>
-      <c r="B49" t="n">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>528</v>
-      </c>
-      <c r="B50" t="n">
-        <v>-0.45</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>538</v>
-      </c>
-      <c r="B51" t="n">
-        <v>-0.395</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>548</v>
-      </c>
-      <c r="B52" t="n">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>558</v>
-      </c>
-      <c r="B53" t="n">
-        <v>-0.305</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>568</v>
-      </c>
-      <c r="B54" t="n">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>578</v>
-      </c>
-      <c r="B55" t="n">
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>589</v>
-      </c>
-      <c r="B56" t="n">
-        <v>-0.325</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>599</v>
-      </c>
-      <c r="B57" t="n">
-        <v>-0.41</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>608</v>
-      </c>
-      <c r="B58" t="n">
-        <v>-0.42</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>618</v>
-      </c>
-      <c r="B59" t="n">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>628</v>
-      </c>
-      <c r="B60" t="n">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>638</v>
-      </c>
-      <c r="B61" t="n">
-        <v>-0.135</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>647</v>
-      </c>
-      <c r="B62" t="n">
-        <v>-0.005</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>657</v>
-      </c>
-      <c r="B63" t="n">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>667</v>
-      </c>
-      <c r="B64" t="n">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>677</v>
-      </c>
-      <c r="B65" t="n">
-        <v>-0.08500000000000001</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>688</v>
-      </c>
-      <c r="B66" t="n">
-        <v>-0.0433</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>698</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>708</v>
-      </c>
-      <c r="B68" t="n">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>718</v>
-      </c>
-      <c r="B69" t="n">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>728</v>
-      </c>
-      <c r="B70" t="n">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>737</v>
-      </c>
-      <c r="B71" t="n">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>747</v>
-      </c>
-      <c r="B72" t="n">
-        <v>-0.405</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>756</v>
-      </c>
-      <c r="B73" t="n">
-        <v>-0.505</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>757</v>
-      </c>
-      <c r="B74" t="n">
-        <v>-0.36</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>766</v>
-      </c>
-      <c r="B75" t="n">
-        <v>-0.19</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>778</v>
-      </c>
-      <c r="B76" t="n">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>791</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>803</v>
-      </c>
-      <c r="B78" t="n">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>813</v>
-      </c>
-      <c r="B79" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>824</v>
-      </c>
-      <c r="B80" t="n">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>835</v>
-      </c>
-      <c r="B81" t="n">
-        <v>-0.28</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>849</v>
-      </c>
-      <c r="B82" t="n">
-        <v>-0.28</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>861</v>
-      </c>
-      <c r="B83" t="n">
-        <v>-0.43</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>871</v>
-      </c>
-      <c r="B84" t="n">
-        <v>-0.535</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>879</v>
-      </c>
-      <c r="B85" t="n">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>889</v>
-      </c>
-      <c r="B86" t="n">
-        <v>-0.37</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>895</v>
-      </c>
-      <c r="B87" t="n">
-        <v>-0.58</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>905</v>
-      </c>
-      <c r="B88" t="n">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>916</v>
-      </c>
-      <c r="B89" t="n">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>927</v>
-      </c>
-      <c r="B90" t="n">
-        <v>-0.095</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>937</v>
-      </c>
-      <c r="B91" t="n">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>948</v>
-      </c>
-      <c r="B92" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>960</v>
-      </c>
-      <c r="B93" t="n">
-        <v>-0.19</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>972</v>
-      </c>
-      <c r="B94" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>982</v>
-      </c>
-      <c r="B95" t="n">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>990</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>996</v>
-      </c>
-      <c r="B97" t="n">
-        <v>-0.1133</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>1003</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>1012</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>1026</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>1041</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>1052</v>
-      </c>
-      <c r="B102" t="n">
-        <v>-0.065</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>1059</v>
-      </c>
-      <c r="B103" t="n">
-        <v>-0.035</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>1075</v>
-      </c>
-      <c r="B104" t="n">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>1090</v>
-      </c>
-      <c r="B105" t="n">
-        <v>-0.28</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>1105</v>
-      </c>
-      <c r="B106" t="n">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>1117</v>
-      </c>
-      <c r="B107" t="n">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>1119</v>
-      </c>
-      <c r="B108" t="n">
-        <v>-0.335</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>1125</v>
-      </c>
-      <c r="B109" t="n">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>1137</v>
-      </c>
-      <c r="B110" t="n">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>1140</v>
-      </c>
-      <c r="B111" t="n">
-        <v>-0.39</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>1146</v>
-      </c>
-      <c r="B112" t="n">
-        <v>-0.19</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>1147</v>
-      </c>
-      <c r="B113" t="n">
-        <v>-0.41</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>1158</v>
-      </c>
-      <c r="B114" t="n">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>1172</v>
-      </c>
-      <c r="B115" t="n">
-        <v>-0.28</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>1182</v>
-      </c>
-      <c r="B116" t="n">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>1192</v>
-      </c>
-      <c r="B117" t="n">
-        <v>-0.08500000000000001</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>1203</v>
-      </c>
-      <c r="B118" t="n">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>1212</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.095</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>1222</v>
-      </c>
-      <c r="B120" t="n">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>1232</v>
-      </c>
-      <c r="B121" t="n">
-        <v>-0.025</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>1252</v>
-      </c>
-      <c r="B122" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>1262</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>1272</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>1306</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>1328</v>
-      </c>
-      <c r="B126" t="n">
-        <v>-0.39</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>1358</v>
-      </c>
-      <c r="B127" t="n">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>1364</v>
-      </c>
-      <c r="B128" t="n">
-        <v>-0.42</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>1369</v>
-      </c>
-      <c r="B129" t="n">
-        <v>-0.315</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>1381</v>
-      </c>
-      <c r="B130" t="n">
-        <v>-0.41</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>1388</v>
-      </c>
-      <c r="B131" t="n">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>1395</v>
-      </c>
-      <c r="B132" t="n">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>1403</v>
-      </c>
-      <c r="B133" t="n">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>1414</v>
-      </c>
-      <c r="B134" t="n">
-        <v>-0.39</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>1436</v>
-      </c>
-      <c r="B135" t="n">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>1444</v>
-      </c>
-      <c r="B136" t="n">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>1453</v>
-      </c>
-      <c r="B137" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>1464</v>
-      </c>
-      <c r="B138" t="n">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>1475</v>
-      </c>
-      <c r="B139" t="n">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>1487</v>
-      </c>
-      <c r="B140" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>1498</v>
-      </c>
-      <c r="B141" t="n">
-        <v>0.3166</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>1518</v>
-      </c>
-      <c r="B142" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>1527</v>
-      </c>
-      <c r="B143" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>1537</v>
-      </c>
-      <c r="B144" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>1547</v>
-      </c>
-      <c r="B145" t="n">
-        <v>0.285</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>1557</v>
-      </c>
-      <c r="B146" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>1567</v>
-      </c>
-      <c r="B147" t="n">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>1577</v>
-      </c>
-      <c r="B148" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>1587</v>
-      </c>
-      <c r="B149" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>1597</v>
-      </c>
-      <c r="B150" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>1607</v>
-      </c>
-      <c r="B151" t="n">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>1617</v>
-      </c>
-      <c r="B152" t="n">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>1637</v>
-      </c>
-      <c r="B153" t="n">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>1647</v>
-      </c>
-      <c r="B154" t="n">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>1657</v>
-      </c>
-      <c r="B155" t="n">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>1667</v>
-      </c>
-      <c r="B156" t="n">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>1677</v>
-      </c>
-      <c r="B157" t="n">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>1687</v>
-      </c>
-      <c r="B158" t="n">
-        <v>-0.025</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>1697</v>
-      </c>
-      <c r="B159" t="n">
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>1707</v>
-      </c>
-      <c r="B160" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>1717</v>
-      </c>
-      <c r="B161" t="n">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>1737</v>
-      </c>
-      <c r="B162" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>1747</v>
-      </c>
-      <c r="B163" t="n">
-        <v>0.0566</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>1757</v>
-      </c>
-      <c r="B164" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>1767</v>
-      </c>
-      <c r="B165" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>1777</v>
-      </c>
-      <c r="B166" t="n">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>1787</v>
-      </c>
-      <c r="B167" t="n">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>1797</v>
-      </c>
-      <c r="B168" t="n">
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>1807</v>
-      </c>
-      <c r="B169" t="n">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>1817</v>
-      </c>
-      <c r="B170" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>1827</v>
-      </c>
-      <c r="B171" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>1837</v>
-      </c>
-      <c r="B172" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>1847</v>
-      </c>
-      <c r="B173" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>1857</v>
-      </c>
-      <c r="B174" t="n">
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>1867</v>
-      </c>
-      <c r="B175" t="n">
-        <v>-0.36</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>1887</v>
-      </c>
-      <c r="B176" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>1897</v>
-      </c>
-      <c r="B177" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>1903</v>
-      </c>
-      <c r="B178" t="n">
-        <v>-0.24</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>1907</v>
-      </c>
-      <c r="B179" t="n">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>1915</v>
-      </c>
-      <c r="B180" t="n">
-        <v>-0.42</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>1927</v>
-      </c>
-      <c r="B181" t="n">
-        <v>-0.39</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>1938</v>
-      </c>
-      <c r="B182" t="n">
-        <v>-0.37</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>1948</v>
-      </c>
-      <c r="B183" t="n">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>1957</v>
-      </c>
-      <c r="B184" t="n">
-        <v>-0.63</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>1966</v>
-      </c>
-      <c r="B185" t="n">
-        <v>-0.66</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>1975</v>
-      </c>
-      <c r="B186" t="n">
-        <v>-0.67</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>1985</v>
-      </c>
-      <c r="B187" t="n">
-        <v>-0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>1995</v>
-      </c>
-      <c r="B188" t="n">
-        <v>-0.48</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>2006</v>
-      </c>
-      <c r="B189" t="n">
-        <v>-0.39</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B190" t="n">
-        <v>-0.24</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>2028</v>
-      </c>
-      <c r="B191" t="n">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>2038</v>
-      </c>
-      <c r="B192" t="n">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>2047</v>
-      </c>
-      <c r="B193" t="n">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>2055</v>
-      </c>
-      <c r="B194" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>2063</v>
-      </c>
-      <c r="B195" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>2070</v>
-      </c>
-      <c r="B196" t="n">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>2071</v>
-      </c>
-      <c r="B197" t="n">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>2078</v>
-      </c>
-      <c r="B198" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>2085</v>
-      </c>
-      <c r="B199" t="n">
-        <v>-0.155</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>2092</v>
-      </c>
-      <c r="B200" t="n">
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>2100</v>
-      </c>
-      <c r="B201" t="n">
-        <v>-0.21</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>2116</v>
-      </c>
-      <c r="B202" t="n">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>2123</v>
-      </c>
-      <c r="B203" t="n">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>2124</v>
-      </c>
-      <c r="B204" t="n">
-        <v>-0.28</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>2133</v>
-      </c>
-      <c r="B205" t="n">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>2141</v>
-      </c>
-      <c r="B206" t="n">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>2142</v>
-      </c>
-      <c r="B207" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>2150</v>
-      </c>
-      <c r="B208" t="n">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>2159</v>
-      </c>
-      <c r="B209" t="n">
-        <v>-0.27</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>2167</v>
-      </c>
-      <c r="B210" t="n">
-        <v>-0.41</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>2175</v>
-      </c>
-      <c r="B211" t="n">
-        <v>-0.445</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>2184</v>
-      </c>
-      <c r="B212" t="n">
-        <v>-0.41</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>2193</v>
-      </c>
-      <c r="B213" t="n">
-        <v>-0.475</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>2203</v>
-      </c>
-      <c r="B214" t="n">
-        <v>-0.44</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>2213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>2224</v>
-      </c>
-      <c r="B216" t="n">
-        <v>-0.205</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>2235</v>
-      </c>
-      <c r="B217" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>2246</v>
-      </c>
-      <c r="B218" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>2257</v>
-      </c>
-      <c r="B219" t="n">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>2267</v>
-      </c>
-      <c r="B220" t="n">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>2276</v>
-      </c>
-      <c r="B221" t="n">
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>2285</v>
-      </c>
-      <c r="B222" t="n">
-        <v>-0.58</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>2294</v>
-      </c>
-      <c r="B223" t="n">
-        <v>-0.53</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>2303</v>
-      </c>
-      <c r="B224" t="n">
-        <v>-0.59</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>2312</v>
-      </c>
-      <c r="B225" t="n">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
-        <v>2322</v>
-      </c>
-      <c r="B226" t="n">
-        <v>-0.245</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="n">
-        <v>2334</v>
-      </c>
-      <c r="B227" t="n">
-        <v>-0.27</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
-        <v>2347</v>
-      </c>
-      <c r="B228" t="n">
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
-        <v>2361</v>
-      </c>
-      <c r="B229" t="n">
-        <v>-0.245</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v>2375</v>
-      </c>
-      <c r="B230" t="n">
-        <v>-0.405</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>2388</v>
-      </c>
-      <c r="B231" t="n">
-        <v>-0.325</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>2399</v>
-      </c>
-      <c r="B232" t="n">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="n">
-        <v>2410</v>
-      </c>
-      <c r="B233" t="n">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
-        <v>2420</v>
-      </c>
-      <c r="B234" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>2430</v>
-      </c>
-      <c r="B235" t="n">
-        <v>-0.2166</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>2440</v>
-      </c>
-      <c r="B236" t="n">
-        <v>-0.125</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>2450</v>
-      </c>
-      <c r="B237" t="n">
-        <v>-0.48</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>2461</v>
-      </c>
-      <c r="B238" t="n">
-        <v>-0.47</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>2472</v>
-      </c>
-      <c r="B239" t="n">
-        <v>-0.27</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>2484</v>
-      </c>
-      <c r="B240" t="n">
-        <v>-0.65</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>2495</v>
-      </c>
-      <c r="B241" t="n">
-        <v>-0.7</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="n">
-        <v>2506</v>
-      </c>
-      <c r="B242" t="n">
-        <v>-0.58</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="n">
-        <v>2514</v>
-      </c>
-      <c r="B243" t="n">
-        <v>-0.79</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="n">
-        <v>2517</v>
-      </c>
-      <c r="B244" t="n">
-        <v>-0.37</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="n">
-        <v>2527</v>
-      </c>
-      <c r="B245" t="n">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="n">
-        <v>2537</v>
-      </c>
-      <c r="B246" t="n">
-        <v>-0.595</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="n">
-        <v>2542</v>
-      </c>
-      <c r="B247" t="n">
-        <v>-0.64</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="n">
-        <v>2546</v>
-      </c>
-      <c r="B248" t="n">
-        <v>-0.44</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
-        <v>2552</v>
-      </c>
-      <c r="B249" t="n">
-        <v>-0.51</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
-        <v>2562</v>
-      </c>
-      <c r="B250" t="n">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="n">
-        <v>2571</v>
-      </c>
-      <c r="B251" t="n">
-        <v>-0.49</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="n">
-        <v>2583</v>
-      </c>
-      <c r="B252" t="n">
-        <v>-0.57</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="n">
-        <v>2592</v>
-      </c>
-      <c r="B253" t="n">
-        <v>-0.64</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="n">
-        <v>2602</v>
-      </c>
-      <c r="B254" t="n">
-        <v>-0.85</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="n">
-        <v>2612</v>
-      </c>
-      <c r="B255" t="n">
-        <v>-0.9</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="n">
-        <v>2622</v>
-      </c>
-      <c r="B256" t="n">
-        <v>-0.72</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="n">
-        <v>2632</v>
-      </c>
-      <c r="B257" t="n">
-        <v>-0.79</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="n">
-        <v>2652</v>
-      </c>
-      <c r="B258" t="n">
-        <v>-0.53</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="n">
-        <v>2662</v>
-      </c>
-      <c r="B259" t="n">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="n">
-        <v>2674</v>
-      </c>
-      <c r="B260" t="n">
-        <v>-0.52</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="n">
-        <v>2676</v>
-      </c>
-      <c r="B261" t="n">
-        <v>-0.45</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="n">
-        <v>2681</v>
-      </c>
-      <c r="B262" t="n">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="n">
-        <v>2686</v>
-      </c>
-      <c r="B263" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="n">
-        <v>2696</v>
-      </c>
-      <c r="B264" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="n">
-        <v>2706</v>
-      </c>
-      <c r="B265" t="n">
-        <v>-0.37</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="n">
-        <v>2726</v>
-      </c>
-      <c r="B266" t="n">
-        <v>-0.57</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="n">
-        <v>2736</v>
-      </c>
-      <c r="B267" t="n">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
-        <v>2746</v>
-      </c>
-      <c r="B268" t="n">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="n">
-        <v>2756</v>
-      </c>
-      <c r="B269" t="n">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="n">
-        <v>2766</v>
-      </c>
-      <c r="B270" t="n">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="n">
-        <v>2776</v>
-      </c>
-      <c r="B271" t="n">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="n">
-        <v>2786</v>
-      </c>
-      <c r="B272" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="n">
-        <v>2796</v>
-      </c>
-      <c r="B273" t="n">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="n">
-        <v>2806</v>
-      </c>
-      <c r="B274" t="n">
-        <v>-0.32</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="n">
-        <v>2815</v>
-      </c>
-      <c r="B275" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="n">
-        <v>2826</v>
-      </c>
-      <c r="B276" t="n">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="n">
-        <v>2837</v>
-      </c>
-      <c r="B277" t="n">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="n">
-        <v>2847</v>
-      </c>
-      <c r="B278" t="n">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="n">
-        <v>2856</v>
-      </c>
-      <c r="B279" t="n">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="n">
-        <v>2866</v>
-      </c>
-      <c r="B280" t="n">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="n">
-        <v>2875</v>
-      </c>
-      <c r="B281" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="n">
-        <v>2885</v>
-      </c>
-      <c r="B282" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="n">
-        <v>2896</v>
-      </c>
-      <c r="B283" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="n">
-        <v>2906</v>
-      </c>
-      <c r="B284" t="n">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="n">
-        <v>2916</v>
-      </c>
-      <c r="B285" t="n">
-        <v>-0.14</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="n">
-        <v>2925</v>
-      </c>
-      <c r="B286" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="n">
-        <v>2936</v>
-      </c>
-      <c r="B287" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
-        <v>2953</v>
-      </c>
-      <c r="B288" t="n">
-        <v>-0.58</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="n">
-        <v>2956</v>
-      </c>
-      <c r="B289" t="n">
-        <v>-0.53</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="n">
-        <v>2968</v>
-      </c>
-      <c r="B290" t="n">
-        <v>-0.45</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="n">
-        <v>2979</v>
-      </c>
-      <c r="B291" t="n">
-        <v>-0.24</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="n">
-        <v>2989</v>
-      </c>
-      <c r="B292" t="n">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="n">
-        <v>2999</v>
-      </c>
-      <c r="B293" t="n">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="n">
-        <v>3010</v>
-      </c>
-      <c r="B294" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="n">
-        <v>3021</v>
-      </c>
-      <c r="B295" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="n">
-        <v>3031</v>
-      </c>
-      <c r="B296" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="n">
-        <v>3040</v>
-      </c>
-      <c r="B297" t="n">
-        <v>-0.015</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="n">
-        <v>3047</v>
-      </c>
-      <c r="B298" t="n">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="n">
-        <v>3055</v>
-      </c>
-      <c r="B299" t="n">
-        <v>-0.015</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="n">
-        <v>3065</v>
-      </c>
-      <c r="B300" t="n">
-        <v>-0.275</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="n">
-        <v>3077</v>
-      </c>
-      <c r="B301" t="n">
-        <v>-0.355</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="n">
-        <v>3090</v>
-      </c>
-      <c r="B302" t="n">
-        <v>-0.155</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="n">
-        <v>3103</v>
-      </c>
-      <c r="B303" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="n">
-        <v>3124</v>
-      </c>
-      <c r="B304" t="n">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="n">
-        <v>3134</v>
-      </c>
-      <c r="B305" t="n">
-        <v>-0.36</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="n">
-        <v>3145</v>
-      </c>
-      <c r="B306" t="n">
-        <v>-0.44</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="n">
-        <v>3156</v>
-      </c>
-      <c r="B307" t="n">
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="n">
-        <v>3167</v>
-      </c>
-      <c r="B308" t="n">
-        <v>-0.315</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="n">
-        <v>3177</v>
-      </c>
-      <c r="B309" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="n">
-        <v>3188</v>
-      </c>
-      <c r="B310" t="n">
-        <v>-0.39</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="n">
-        <v>3199</v>
-      </c>
-      <c r="B311" t="n">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="n">
-        <v>3212</v>
-      </c>
-      <c r="B312" t="n">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="n">
-        <v>3224</v>
-      </c>
-      <c r="B313" t="n">
-        <v>-0.135</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="n">
-        <v>3234</v>
-      </c>
-      <c r="B314" t="n">
-        <v>-0.005</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="n">
-        <v>3241</v>
-      </c>
-      <c r="B315" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="n">
-        <v>3247</v>
-      </c>
-      <c r="B316" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="n">
-        <v>3252</v>
-      </c>
-      <c r="B317" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="n">
-        <v>3258</v>
-      </c>
-      <c r="B318" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="n">
-        <v>3262</v>
-      </c>
-      <c r="B319" t="n">
-        <v>0.055</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="n">
-        <v>3269</v>
-      </c>
-      <c r="B320" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="n">
-        <v>3278</v>
-      </c>
-      <c r="B321" t="n">
-        <v>0.165</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="n">
-        <v>3290</v>
-      </c>
-      <c r="B322" t="n">
-        <v>-0.245</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="n">
-        <v>3307</v>
-      </c>
-      <c r="B323" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="n">
-        <v>3328</v>
-      </c>
-      <c r="B324" t="n">
-        <v>-0.295</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="n">
-        <v>3344</v>
-      </c>
-      <c r="B325" t="n">
-        <v>-0.44</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="n">
-        <v>3353</v>
-      </c>
-      <c r="B326" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="n">
-        <v>3361</v>
-      </c>
-      <c r="B327" t="n">
-        <v>-0.38</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="n">
-        <v>3367</v>
-      </c>
-      <c r="B328" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="n">
-        <v>3373</v>
-      </c>
-      <c r="B329" t="n">
-        <v>-0.385</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="n">
-        <v>3380</v>
-      </c>
-      <c r="B330" t="n">
-        <v>-0.215</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="n">
-        <v>3388</v>
-      </c>
-      <c r="B331" t="n">
-        <v>-0.205</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="n">
-        <v>3399</v>
-      </c>
-      <c r="B332" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="n">
-        <v>3415</v>
-      </c>
-      <c r="B333" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="n">
-        <v>3437</v>
-      </c>
-      <c r="B334" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="n">
-        <v>3463</v>
-      </c>
-      <c r="B335" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="n">
-        <v>3478</v>
-      </c>
-      <c r="B336" t="n">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="n">
-        <v>3485</v>
-      </c>
-      <c r="B337" t="n">
-        <v>-0.42</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="n">
-        <v>3489</v>
-      </c>
-      <c r="B338" t="n">
-        <v>-0.475</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="n">
-        <v>3493</v>
-      </c>
-      <c r="B339" t="n">
-        <v>-0.545</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="n">
-        <v>3497</v>
-      </c>
-      <c r="B340" t="n">
-        <v>-0.65</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="n">
-        <v>3501</v>
-      </c>
-      <c r="B341" t="n">
-        <v>-0.59</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="n">
-        <v>3506</v>
-      </c>
-      <c r="B342" t="n">
-        <v>-0.24</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="n">
-        <v>3513</v>
-      </c>
-      <c r="B343" t="n">
-        <v>-0.465</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="n">
-        <v>3527</v>
-      </c>
-      <c r="B344" t="n">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="n">
-        <v>3545</v>
-      </c>
-      <c r="B345" t="n">
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="n">
-        <v>3560</v>
-      </c>
-      <c r="B346" t="n">
-        <v>-0.225</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="n">
-        <v>3571</v>
-      </c>
-      <c r="B347" t="n">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="n">
-        <v>3578</v>
-      </c>
-      <c r="B348" t="n">
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="n">
-        <v>3586</v>
-      </c>
-      <c r="B349" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="n">
-        <v>3593</v>
-      </c>
-      <c r="B350" t="n">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="n">
-        <v>3601</v>
-      </c>
-      <c r="B351" t="n">
-        <v>-0.095</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="n">
-        <v>3611</v>
-      </c>
-      <c r="B352" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="n">
-        <v>3622</v>
-      </c>
-      <c r="B353" t="n">
-        <v>-0.235</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="n">
-        <v>3635</v>
-      </c>
-      <c r="B354" t="n">
-        <v>-0.26</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="n">
-        <v>3651</v>
-      </c>
-      <c r="B355" t="n">
-        <v>-0.45</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="n">
-        <v>3652</v>
-      </c>
-      <c r="B356" t="n">
-        <v>-0.425</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="n">
-        <v>3674</v>
-      </c>
-      <c r="B357" t="n">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="n">
-        <v>3685</v>
-      </c>
-      <c r="B358" t="n">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="n">
-        <v>3696</v>
-      </c>
-      <c r="B359" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="n">
-        <v>3708</v>
-      </c>
-      <c r="B360" t="n">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="n">
-        <v>3720</v>
-      </c>
-      <c r="B361" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="n">
-        <v>3729</v>
-      </c>
-      <c r="B362" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="n">
-        <v>3738</v>
-      </c>
-      <c r="B363" t="n">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="n">
-        <v>3747</v>
-      </c>
-      <c r="B364" t="n">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="n">
-        <v>3754</v>
-      </c>
-      <c r="B365" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="n">
-        <v>3761</v>
-      </c>
-      <c r="B366" t="n">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="n">
-        <v>3767</v>
-      </c>
-      <c r="B367" t="n">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="n">
-        <v>3773</v>
-      </c>
-      <c r="B368" t="n">
-        <v>-0.46</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="n">
-        <v>3780</v>
-      </c>
-      <c r="B369" t="n">
-        <v>-0.49</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="n">
-        <v>3789</v>
-      </c>
-      <c r="B370" t="n">
-        <v>-0.49</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="n">
-        <v>3804</v>
-      </c>
-      <c r="B371" t="n">
-        <v>-0.48</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="n">
-        <v>3822</v>
-      </c>
-      <c r="B372" t="n">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="n">
-        <v>3836</v>
-      </c>
-      <c r="B373" t="n">
-        <v>-0.22</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="n">
-        <v>3846</v>
-      </c>
-      <c r="B374" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="n">
-        <v>3856</v>
-      </c>
-      <c r="B375" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="n">
-        <v>3865</v>
-      </c>
-      <c r="B376" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="n">
-        <v>3874</v>
-      </c>
-      <c r="B377" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="n">
-        <v>3882</v>
-      </c>
-      <c r="B378" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="n">
-        <v>3890</v>
-      </c>
-      <c r="B379" t="n">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="n">
-        <v>3898</v>
-      </c>
-      <c r="B380" t="n">
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="n">
-        <v>3908</v>
-      </c>
-      <c r="B381" t="n">
-        <v>-0.28</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="n">
-        <v>3915</v>
-      </c>
-      <c r="B382" t="n">
-        <v>-0.38</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="n">
-        <v>3918</v>
-      </c>
-      <c r="B383" t="n">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="n">
-        <v>3922</v>
-      </c>
-      <c r="B384" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="n">
-        <v>3928</v>
-      </c>
-      <c r="B385" t="n">
-        <v>-0.21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H385"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="21" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
@@ -14874,7 +11719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15085,6 +11930,3165 @@
       </c>
       <c r="B18" t="n">
         <v>641.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H385"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>depthODP849 [cm]</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>d13Cforams-b</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Y axis inverted</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>History</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Serie</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>#2f3dff</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>28</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>45</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>55</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>69</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>89</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>109</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>118</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>128</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>139</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>150</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>161</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>185</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>194</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>217</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>231</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>243</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>249</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>256</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>271</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>275</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>280</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>289</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>292</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>296</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>306</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>315</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>324</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>333</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.08500000000000001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>344</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>355</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>366</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>377</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>388</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>398</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>408</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>418</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>428</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>437</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>447</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>456</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>467</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>477</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>488</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>498</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>508</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>518</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>528</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>538</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-0.395</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>548</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>558</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-0.305</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>568</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>578</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>589</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.325</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>599</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>608</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>618</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>628</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>638</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-0.135</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>647</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-0.005</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>657</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>667</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>677</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-0.08500000000000001</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>688</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-0.0433</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>698</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>708</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>718</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>728</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>737</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>747</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-0.405</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>756</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-0.505</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>757</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>766</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>778</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>791</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>803</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>813</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>824</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>835</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>849</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>861</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>871</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-0.535</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>879</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>889</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>895</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>905</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>916</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>927</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-0.095</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>937</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>948</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>960</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>972</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>982</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>990</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>996</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-0.1133</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1052</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-0.065</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1059</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-0.035</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1075</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-0.335</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1137</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1146</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1147</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1158</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1172</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1182</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1192</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-0.08500000000000001</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1222</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1232</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-0.025</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1252</v>
+      </c>
+      <c r="B122" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1262</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1272</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1306</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1328</v>
+      </c>
+      <c r="B126" t="n">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1358</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1364</v>
+      </c>
+      <c r="B128" t="n">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B129" t="n">
+        <v>-0.315</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1381</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1388</v>
+      </c>
+      <c r="B131" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1395</v>
+      </c>
+      <c r="B132" t="n">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1403</v>
+      </c>
+      <c r="B133" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1414</v>
+      </c>
+      <c r="B134" t="n">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1436</v>
+      </c>
+      <c r="B135" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1444</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1453</v>
+      </c>
+      <c r="B137" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1464</v>
+      </c>
+      <c r="B138" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1475</v>
+      </c>
+      <c r="B139" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1487</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1498</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.3166</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1518</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1527</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1537</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1547</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.285</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1557</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1567</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1577</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1587</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1597</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1607</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1617</v>
+      </c>
+      <c r="B152" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1637</v>
+      </c>
+      <c r="B153" t="n">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1647</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1657</v>
+      </c>
+      <c r="B155" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1667</v>
+      </c>
+      <c r="B156" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1677</v>
+      </c>
+      <c r="B157" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1687</v>
+      </c>
+      <c r="B158" t="n">
+        <v>-0.025</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1697</v>
+      </c>
+      <c r="B159" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1707</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>1717</v>
+      </c>
+      <c r="B161" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1737</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1747</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.0566</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1757</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1767</v>
+      </c>
+      <c r="B165" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1777</v>
+      </c>
+      <c r="B166" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1787</v>
+      </c>
+      <c r="B167" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1797</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1807</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1817</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1827</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1837</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1847</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1857</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1867</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1887</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1897</v>
+      </c>
+      <c r="B177" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1903</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1907</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1915</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1927</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B182" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1948</v>
+      </c>
+      <c r="B183" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1957</v>
+      </c>
+      <c r="B184" t="n">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1966</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1975</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1985</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>2047</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>2055</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>2063</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>2070</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>2071</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>2078</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>2085</v>
+      </c>
+      <c r="B199" t="n">
+        <v>-0.155</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>2092</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B201" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>2116</v>
+      </c>
+      <c r="B202" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>2123</v>
+      </c>
+      <c r="B203" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>2124</v>
+      </c>
+      <c r="B204" t="n">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>2133</v>
+      </c>
+      <c r="B205" t="n">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>2141</v>
+      </c>
+      <c r="B206" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>2142</v>
+      </c>
+      <c r="B207" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>2150</v>
+      </c>
+      <c r="B208" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>2159</v>
+      </c>
+      <c r="B209" t="n">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>2167</v>
+      </c>
+      <c r="B210" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>2175</v>
+      </c>
+      <c r="B211" t="n">
+        <v>-0.445</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>2184</v>
+      </c>
+      <c r="B212" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>2193</v>
+      </c>
+      <c r="B213" t="n">
+        <v>-0.475</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>2203</v>
+      </c>
+      <c r="B214" t="n">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>2213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>2224</v>
+      </c>
+      <c r="B216" t="n">
+        <v>-0.205</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>2235</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>2246</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>2257</v>
+      </c>
+      <c r="B219" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>2267</v>
+      </c>
+      <c r="B220" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>2276</v>
+      </c>
+      <c r="B221" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>2285</v>
+      </c>
+      <c r="B222" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>2294</v>
+      </c>
+      <c r="B223" t="n">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>2303</v>
+      </c>
+      <c r="B224" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>2312</v>
+      </c>
+      <c r="B225" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>2322</v>
+      </c>
+      <c r="B226" t="n">
+        <v>-0.245</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>2334</v>
+      </c>
+      <c r="B227" t="n">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>2347</v>
+      </c>
+      <c r="B228" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>2361</v>
+      </c>
+      <c r="B229" t="n">
+        <v>-0.245</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>2375</v>
+      </c>
+      <c r="B230" t="n">
+        <v>-0.405</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>2388</v>
+      </c>
+      <c r="B231" t="n">
+        <v>-0.325</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>2399</v>
+      </c>
+      <c r="B232" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>2410</v>
+      </c>
+      <c r="B233" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>2420</v>
+      </c>
+      <c r="B234" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>2430</v>
+      </c>
+      <c r="B235" t="n">
+        <v>-0.2166</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>2440</v>
+      </c>
+      <c r="B236" t="n">
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>2450</v>
+      </c>
+      <c r="B237" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>2461</v>
+      </c>
+      <c r="B238" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>2472</v>
+      </c>
+      <c r="B239" t="n">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>2484</v>
+      </c>
+      <c r="B240" t="n">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>2495</v>
+      </c>
+      <c r="B241" t="n">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>2506</v>
+      </c>
+      <c r="B242" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>2514</v>
+      </c>
+      <c r="B243" t="n">
+        <v>-0.79</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>2517</v>
+      </c>
+      <c r="B244" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>2527</v>
+      </c>
+      <c r="B245" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>2537</v>
+      </c>
+      <c r="B246" t="n">
+        <v>-0.595</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>2542</v>
+      </c>
+      <c r="B247" t="n">
+        <v>-0.64</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>2546</v>
+      </c>
+      <c r="B248" t="n">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>2552</v>
+      </c>
+      <c r="B249" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>2562</v>
+      </c>
+      <c r="B250" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>2571</v>
+      </c>
+      <c r="B251" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>2583</v>
+      </c>
+      <c r="B252" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>2592</v>
+      </c>
+      <c r="B253" t="n">
+        <v>-0.64</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>2602</v>
+      </c>
+      <c r="B254" t="n">
+        <v>-0.85</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>2612</v>
+      </c>
+      <c r="B255" t="n">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>2622</v>
+      </c>
+      <c r="B256" t="n">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>2632</v>
+      </c>
+      <c r="B257" t="n">
+        <v>-0.79</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>2652</v>
+      </c>
+      <c r="B258" t="n">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>2662</v>
+      </c>
+      <c r="B259" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>2674</v>
+      </c>
+      <c r="B260" t="n">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>2676</v>
+      </c>
+      <c r="B261" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>2681</v>
+      </c>
+      <c r="B262" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>2686</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>2696</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>2706</v>
+      </c>
+      <c r="B265" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>2726</v>
+      </c>
+      <c r="B266" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>2736</v>
+      </c>
+      <c r="B267" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>2746</v>
+      </c>
+      <c r="B268" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>2756</v>
+      </c>
+      <c r="B269" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>2766</v>
+      </c>
+      <c r="B270" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>2776</v>
+      </c>
+      <c r="B271" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>2786</v>
+      </c>
+      <c r="B272" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>2796</v>
+      </c>
+      <c r="B273" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>2806</v>
+      </c>
+      <c r="B274" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>2815</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>2826</v>
+      </c>
+      <c r="B276" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>2837</v>
+      </c>
+      <c r="B277" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>2847</v>
+      </c>
+      <c r="B278" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>2856</v>
+      </c>
+      <c r="B279" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>2866</v>
+      </c>
+      <c r="B280" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>2875</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>2885</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>2896</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>2906</v>
+      </c>
+      <c r="B284" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>2916</v>
+      </c>
+      <c r="B285" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>2925</v>
+      </c>
+      <c r="B286" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>2936</v>
+      </c>
+      <c r="B287" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>2953</v>
+      </c>
+      <c r="B288" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>2956</v>
+      </c>
+      <c r="B289" t="n">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>2968</v>
+      </c>
+      <c r="B290" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>2979</v>
+      </c>
+      <c r="B291" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>2989</v>
+      </c>
+      <c r="B292" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>2999</v>
+      </c>
+      <c r="B293" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>3010</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>3021</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>3031</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>3040</v>
+      </c>
+      <c r="B297" t="n">
+        <v>-0.015</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>3047</v>
+      </c>
+      <c r="B298" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>3055</v>
+      </c>
+      <c r="B299" t="n">
+        <v>-0.015</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>3065</v>
+      </c>
+      <c r="B300" t="n">
+        <v>-0.275</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>3077</v>
+      </c>
+      <c r="B301" t="n">
+        <v>-0.355</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>3090</v>
+      </c>
+      <c r="B302" t="n">
+        <v>-0.155</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>3103</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>3124</v>
+      </c>
+      <c r="B304" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>3134</v>
+      </c>
+      <c r="B305" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>3145</v>
+      </c>
+      <c r="B306" t="n">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>3156</v>
+      </c>
+      <c r="B307" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>3167</v>
+      </c>
+      <c r="B308" t="n">
+        <v>-0.315</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>3177</v>
+      </c>
+      <c r="B309" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>3188</v>
+      </c>
+      <c r="B310" t="n">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>3199</v>
+      </c>
+      <c r="B311" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>3212</v>
+      </c>
+      <c r="B312" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>3224</v>
+      </c>
+      <c r="B313" t="n">
+        <v>-0.135</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>3234</v>
+      </c>
+      <c r="B314" t="n">
+        <v>-0.005</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>3241</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>3247</v>
+      </c>
+      <c r="B316" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>3252</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>3258</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>3262</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0.055</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>3269</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>3278</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0.165</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>3290</v>
+      </c>
+      <c r="B322" t="n">
+        <v>-0.245</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>3307</v>
+      </c>
+      <c r="B323" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>3328</v>
+      </c>
+      <c r="B324" t="n">
+        <v>-0.295</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>3344</v>
+      </c>
+      <c r="B325" t="n">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>3353</v>
+      </c>
+      <c r="B326" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>3361</v>
+      </c>
+      <c r="B327" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>3367</v>
+      </c>
+      <c r="B328" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>3373</v>
+      </c>
+      <c r="B329" t="n">
+        <v>-0.385</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>3380</v>
+      </c>
+      <c r="B330" t="n">
+        <v>-0.215</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>3388</v>
+      </c>
+      <c r="B331" t="n">
+        <v>-0.205</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>3399</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>3415</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>3437</v>
+      </c>
+      <c r="B334" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>3463</v>
+      </c>
+      <c r="B335" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>3478</v>
+      </c>
+      <c r="B336" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>3485</v>
+      </c>
+      <c r="B337" t="n">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>3489</v>
+      </c>
+      <c r="B338" t="n">
+        <v>-0.475</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>3493</v>
+      </c>
+      <c r="B339" t="n">
+        <v>-0.545</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>3497</v>
+      </c>
+      <c r="B340" t="n">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>3501</v>
+      </c>
+      <c r="B341" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>3506</v>
+      </c>
+      <c r="B342" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>3513</v>
+      </c>
+      <c r="B343" t="n">
+        <v>-0.465</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>3527</v>
+      </c>
+      <c r="B344" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>3545</v>
+      </c>
+      <c r="B345" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>3560</v>
+      </c>
+      <c r="B346" t="n">
+        <v>-0.225</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>3571</v>
+      </c>
+      <c r="B347" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>3578</v>
+      </c>
+      <c r="B348" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>3586</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>3593</v>
+      </c>
+      <c r="B350" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>3601</v>
+      </c>
+      <c r="B351" t="n">
+        <v>-0.095</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>3611</v>
+      </c>
+      <c r="B352" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>3622</v>
+      </c>
+      <c r="B353" t="n">
+        <v>-0.235</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>3635</v>
+      </c>
+      <c r="B354" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>3651</v>
+      </c>
+      <c r="B355" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>3652</v>
+      </c>
+      <c r="B356" t="n">
+        <v>-0.425</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>3674</v>
+      </c>
+      <c r="B357" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>3685</v>
+      </c>
+      <c r="B358" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>3696</v>
+      </c>
+      <c r="B359" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>3708</v>
+      </c>
+      <c r="B360" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>3720</v>
+      </c>
+      <c r="B361" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>3729</v>
+      </c>
+      <c r="B362" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>3738</v>
+      </c>
+      <c r="B363" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>3747</v>
+      </c>
+      <c r="B364" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>3754</v>
+      </c>
+      <c r="B365" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>3761</v>
+      </c>
+      <c r="B366" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>3767</v>
+      </c>
+      <c r="B367" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>3773</v>
+      </c>
+      <c r="B368" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>3780</v>
+      </c>
+      <c r="B369" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>3789</v>
+      </c>
+      <c r="B370" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>3804</v>
+      </c>
+      <c r="B371" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>3822</v>
+      </c>
+      <c r="B372" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>3836</v>
+      </c>
+      <c r="B373" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>3846</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>3856</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>3865</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>3874</v>
+      </c>
+      <c r="B377" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>3882</v>
+      </c>
+      <c r="B378" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>3890</v>
+      </c>
+      <c r="B379" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>3898</v>
+      </c>
+      <c r="B380" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>3908</v>
+      </c>
+      <c r="B381" t="n">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>3915</v>
+      </c>
+      <c r="B382" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>3918</v>
+      </c>
+      <c r="B383" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>3922</v>
+      </c>
+      <c r="B384" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>3928</v>
+      </c>
+      <c r="B385" t="n">
+        <v>-0.21</v>
       </c>
     </row>
   </sheetData>

--- a/test/ws_ex_5.0.xlsx
+++ b/test/ws_ex_5.0.xlsx
@@ -16,6 +16,8 @@
     <sheet name="Serie Id-67GH89BG" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="SAMPLE Id-FC380D67" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Serie Id-C16D3233" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Serie Id-F0B4DF21" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Serie Id-68055203" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -459,6 +461,380 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>depth</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>18MD00-2374vsPDB</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Y axis inverted</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>History</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.235</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Serie</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>#1f77b4</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Imported serie</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>104</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.535</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>108</v>
+      </c>
+      <c r="B4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.605</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>116</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.655</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>120</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>130</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>140</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>150</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>150</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>160</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>180</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>depth</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Y axis inverted</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>History</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.235</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Serie</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>#dbdb8d</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Imported serie</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>104</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>108</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.535</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.605</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>116</v>
+      </c>
+      <c r="B6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>120</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>130</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>140</v>
+      </c>
+      <c r="B9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>150</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>150</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>160</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>180</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -15113,7 +15489,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="27" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="9" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
@@ -26394,7 +26770,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="28" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="9" customWidth="1" min="4" max="4"/>

--- a/test/ws_ex_5.0.xlsx
+++ b/test/ws_ex_5.0.xlsx
@@ -34097,11 +34097,11 @@
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>#9edae5</t>
+          <t>#4c1ee5</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>

--- a/test/ws_ex_5.0.xlsx
+++ b/test/ws_ex_5.0.xlsx
@@ -17,6 +17,7 @@
     <sheet name="Serie Id-A9AA9941" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Serie Id-56TY87JG" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="SAMPLE Id-4EA5A3B8" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Serie Id-B54E03C0" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -536,6 +537,201 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>depthODP849 [cm]</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>d18Oforams-b</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Y axis inverted</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>History</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Serie</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>#ffbb78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Imported serie</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>28</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>45</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>55</v>
+      </c>
+      <c r="B6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>69</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>89</v>
+      </c>
+      <c r="B8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>109</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>118</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>128</v>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>139</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>150</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>161</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4.63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -11813,7 +12009,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="26" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>

--- a/test/ws_ex_5.0.xlsx
+++ b/test/ws_ex_5.0.xlsx
@@ -8919,7 +8919,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>#ff37a8</t>
+          <t>#58ff3a</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -12078,7 +12078,7 @@
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
